--- a/resources/coinlist.xlsx
+++ b/resources/coinlist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\cyrptocointracker\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeler\GIT\cryptocointracker\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B6E60-273F-44B9-9D19-B5535085B0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">text!$A$1:$E$949</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="1621">
   <si>
     <t> Bitcoin</t>
   </si>
@@ -4830,12 +4829,81 @@
   </si>
   <si>
     <t>https://s2.coinmarketcap.com/static/img/coins/64x64/6833.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/7064.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/5728.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/1727.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/4679.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/1697.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/3702.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/6928.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/1839.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/4687.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/1831.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/7686.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/2222.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/2083.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/463.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/3718.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/1864.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/2505.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/8602.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/6365.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/2306.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/8210.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/7158.png</t>
+  </si>
+  <si>
+    <t>https://s2.coinmarketcap.com/static/img/coins/64x64/5810.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4973,7 +5041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5251,11 +5319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED48B350-9396-4FFD-A9FC-7A25740A83B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,6 +5383,9 @@
       <c r="D3" s="1" t="s">
         <v>623</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5374,6 +5445,9 @@
       <c r="D7" s="1" t="s">
         <v>627</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5416,6 +5490,9 @@
       <c r="D10" s="1" t="s">
         <v>630</v>
       </c>
+      <c r="E10" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -5486,6 +5563,9 @@
       <c r="D15" s="1" t="s">
         <v>635</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5660,6 +5740,9 @@
       <c r="D27" s="1" t="s">
         <v>644</v>
       </c>
+      <c r="E27" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -5820,6 +5903,9 @@
       <c r="D38" s="1" t="s">
         <v>651</v>
       </c>
+      <c r="E38" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -6401,6 +6487,9 @@
       <c r="D78" s="1" t="s">
         <v>684</v>
       </c>
+      <c r="E78" s="9" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -6443,6 +6532,9 @@
       <c r="D81" s="1" t="s">
         <v>686</v>
       </c>
+      <c r="E81" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -6485,6 +6577,9 @@
       <c r="D84" s="1" t="s">
         <v>689</v>
       </c>
+      <c r="E84" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -6964,6 +7059,9 @@
       <c r="D118" s="1" t="s">
         <v>715</v>
       </c>
+      <c r="E118" s="9" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -7062,6 +7160,9 @@
       <c r="D125" s="1" t="s">
         <v>722</v>
       </c>
+      <c r="E125" s="9" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -7152,6 +7253,9 @@
       <c r="D131" s="1" t="s">
         <v>728</v>
       </c>
+      <c r="E131" s="9" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -7225,6 +7329,9 @@
       <c r="D136" s="1" t="s">
         <v>733</v>
       </c>
+      <c r="E136" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -7475,6 +7582,9 @@
       <c r="D153" s="1" t="s">
         <v>747</v>
       </c>
+      <c r="E153" s="9" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -7618,6 +7728,9 @@
       <c r="D163" s="1" t="s">
         <v>757</v>
       </c>
+      <c r="E163" s="9" t="s">
+        <v>1614</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -7702,6 +7815,9 @@
       <c r="D169" s="1" t="s">
         <v>761</v>
       </c>
+      <c r="E169" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -7977,6 +8093,9 @@
       <c r="D188" s="1" t="s">
         <v>1433</v>
       </c>
+      <c r="E188" s="9" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
@@ -8123,6 +8242,9 @@
       <c r="D198" s="1" t="s">
         <v>785</v>
       </c>
+      <c r="E198" s="9" t="s">
+        <v>1600</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
@@ -8151,6 +8273,9 @@
       <c r="D200" s="1" t="s">
         <v>787</v>
       </c>
+      <c r="E200" s="9" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
@@ -8238,6 +8363,9 @@
       <c r="D206" s="1" t="s">
         <v>1439</v>
       </c>
+      <c r="E206" s="9" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
@@ -8294,6 +8422,9 @@
       <c r="D210" s="1" t="s">
         <v>793</v>
       </c>
+      <c r="E210" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
@@ -8636,6 +8767,9 @@
       <c r="D234" s="1" t="s">
         <v>813</v>
       </c>
+      <c r="E234" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
@@ -8706,6 +8840,9 @@
       <c r="D239" s="1" t="s">
         <v>1445</v>
       </c>
+      <c r="E239" s="9" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
@@ -8762,6 +8899,9 @@
       <c r="D243" s="1" t="s">
         <v>820</v>
       </c>
+      <c r="E243" s="9" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
@@ -8835,6 +8975,9 @@
       <c r="D248" s="1" t="s">
         <v>823</v>
       </c>
+      <c r="E248" s="9" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
@@ -8877,6 +9020,9 @@
       <c r="D251" s="1" t="s">
         <v>826</v>
       </c>
+      <c r="E251" s="9" t="s">
+        <v>1600</v>
+      </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
@@ -8978,6 +9124,9 @@
       <c r="D258" s="1" t="s">
         <v>832</v>
       </c>
+      <c r="E258" s="9" t="s">
+        <v>1620</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
@@ -9110,6 +9259,9 @@
       <c r="D267" s="1" t="s">
         <v>841</v>
       </c>
+      <c r="E267" s="9" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
@@ -9222,6 +9374,9 @@
       <c r="D275" s="1" t="s">
         <v>849</v>
       </c>
+      <c r="E275" s="9" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
@@ -9264,6 +9419,9 @@
       <c r="D278" s="1" t="s">
         <v>852</v>
       </c>
+      <c r="E278" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
@@ -9278,6 +9436,9 @@
       <c r="D279" s="1" t="s">
         <v>853</v>
       </c>
+      <c r="E279" s="9" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
@@ -9393,6 +9554,9 @@
       <c r="D287" s="1" t="s">
         <v>860</v>
       </c>
+      <c r="E287" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
@@ -9581,6 +9745,9 @@
       <c r="D300" s="1" t="s">
         <v>870</v>
       </c>
+      <c r="E300" s="9" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
@@ -9637,6 +9804,9 @@
       <c r="D304" s="1" t="s">
         <v>873</v>
       </c>
+      <c r="E304" s="9" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
@@ -9825,6 +9995,9 @@
       <c r="D317" s="1" t="s">
         <v>1455</v>
       </c>
+      <c r="E317" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
@@ -10098,7 +10271,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>150</v>
       </c>
@@ -10111,8 +10284,11 @@
       <c r="D337" s="1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="9" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>151</v>
       </c>
@@ -10126,7 +10302,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>54</v>
       </c>
@@ -10140,7 +10316,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>67</v>
       </c>
@@ -10154,7 +10330,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>98</v>
       </c>
@@ -10168,7 +10344,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>8</v>
       </c>
@@ -10182,7 +10358,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>115</v>
       </c>
@@ -10196,7 +10372,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>94</v>
       </c>
@@ -10209,8 +10385,11 @@
       <c r="D344" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="9" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>29</v>
       </c>
@@ -10224,7 +10403,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>83</v>
       </c>
@@ -10238,7 +10417,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>152</v>
       </c>
@@ -10252,7 +10431,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>67</v>
       </c>
@@ -10266,7 +10445,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>58</v>
       </c>
@@ -10280,7 +10459,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>141</v>
       </c>
@@ -10294,7 +10473,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>113</v>
       </c>
@@ -10308,7 +10487,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>153</v>
       </c>
@@ -10520,6 +10699,9 @@
       <c r="D366" s="1" t="s">
         <v>1462</v>
       </c>
+      <c r="E366" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
@@ -10534,6 +10716,9 @@
       <c r="D367" s="1" t="s">
         <v>927</v>
       </c>
+      <c r="E367" s="9" t="s">
+        <v>1619</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
@@ -10933,6 +11118,9 @@
       <c r="D394" s="1" t="s">
         <v>949</v>
       </c>
+      <c r="E394" s="9" t="s">
+        <v>1610</v>
+      </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
@@ -11396,6 +11584,9 @@
       <c r="D426" s="1" t="s">
         <v>971</v>
       </c>
+      <c r="E426" s="9" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
@@ -11484,7 +11675,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>145</v>
       </c>
@@ -11498,7 +11689,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>67</v>
       </c>
@@ -11512,7 +11703,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>67</v>
       </c>
@@ -11526,7 +11717,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>160</v>
       </c>
@@ -11540,7 +11731,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>181</v>
       </c>
@@ -11554,7 +11745,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>99</v>
       </c>
@@ -11568,7 +11759,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>104</v>
       </c>
@@ -11582,7 +11773,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>30</v>
       </c>
@@ -11596,7 +11787,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>46</v>
       </c>
@@ -11610,7 +11801,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>2</v>
       </c>
@@ -11624,7 +11815,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>114</v>
       </c>
@@ -11638,7 +11829,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>4</v>
       </c>
@@ -11651,8 +11842,11 @@
       <c r="D444" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>18</v>
       </c>
@@ -11666,7 +11860,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>149</v>
       </c>
@@ -11680,7 +11874,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>11</v>
       </c>
@@ -11694,7 +11888,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>70</v>
       </c>
@@ -11708,7 +11902,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>63</v>
       </c>
@@ -11722,7 +11916,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>24</v>
       </c>
@@ -11736,7 +11930,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>1</v>
       </c>
@@ -11749,8 +11943,11 @@
       <c r="D451" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" s="9" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>100</v>
       </c>
@@ -11764,7 +11961,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>182</v>
       </c>
@@ -11778,7 +11975,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>29</v>
       </c>
@@ -11792,7 +11989,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>36</v>
       </c>
@@ -11806,7 +12003,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>159</v>
       </c>
@@ -11820,7 +12017,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>81</v>
       </c>
@@ -11834,7 +12031,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>183</v>
       </c>
@@ -11848,7 +12045,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>32</v>
       </c>
@@ -11862,7 +12059,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>67</v>
       </c>
@@ -11876,7 +12073,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>184</v>
       </c>
@@ -11890,7 +12087,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>55</v>
       </c>
@@ -11904,7 +12101,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>13</v>
       </c>
@@ -11918,7 +12115,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>136</v>
       </c>
@@ -12105,6 +12302,9 @@
       <c r="D476" s="1" t="s">
         <v>1009</v>
       </c>
+      <c r="E476" s="9" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
@@ -12395,7 +12595,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>194</v>
       </c>
@@ -12409,7 +12609,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>40</v>
       </c>
@@ -12423,7 +12623,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>132</v>
       </c>
@@ -12437,7 +12637,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>176</v>
       </c>
@@ -12451,7 +12651,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>195</v>
       </c>
@@ -12465,7 +12665,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>93</v>
       </c>
@@ -12479,7 +12679,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>130</v>
       </c>
@@ -12493,7 +12693,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>157</v>
       </c>
@@ -12507,7 +12707,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>196</v>
       </c>
@@ -12521,7 +12721,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>197</v>
       </c>
@@ -12535,7 +12735,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>198</v>
       </c>
@@ -12549,7 +12749,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>61</v>
       </c>
@@ -12563,7 +12763,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>134</v>
       </c>
@@ -12577,7 +12777,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>199</v>
       </c>
@@ -12591,7 +12791,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>200</v>
       </c>
@@ -12605,7 +12805,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>4</v>
       </c>
@@ -12618,8 +12818,11 @@
       <c r="D512" s="1" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E512" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>201</v>
       </c>
@@ -12633,7 +12836,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>127</v>
       </c>
@@ -12646,8 +12849,11 @@
       <c r="D514" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E514" s="9" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>57</v>
       </c>
@@ -12661,7 +12867,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>67</v>
       </c>
@@ -12675,7 +12881,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>153</v>
       </c>
@@ -12689,7 +12895,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>197</v>
       </c>
@@ -12703,7 +12909,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>202</v>
       </c>
@@ -12717,7 +12923,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>166</v>
       </c>
@@ -12731,7 +12937,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>203</v>
       </c>
@@ -12745,7 +12951,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>119</v>
       </c>
@@ -12759,7 +12965,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>67</v>
       </c>
@@ -12773,7 +12979,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>204</v>
       </c>
@@ -12787,7 +12993,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>124</v>
       </c>
@@ -12800,8 +13006,11 @@
       <c r="D525" s="1" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E525" s="9" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>33</v>
       </c>
@@ -12815,7 +13024,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>41</v>
       </c>
@@ -12829,7 +13038,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>195</v>
       </c>
@@ -12971,6 +13180,9 @@
       <c r="D537" s="1" t="s">
         <v>1062</v>
       </c>
+      <c r="E537" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
@@ -13030,6 +13242,9 @@
       <c r="D541" s="1" t="s">
         <v>1066</v>
       </c>
+      <c r="E541" s="9" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
@@ -13403,6 +13618,9 @@
       <c r="D567" s="1" t="s">
         <v>1089</v>
       </c>
+      <c r="E567" s="9" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
@@ -13549,6 +13767,9 @@
       <c r="D577" s="1" t="s">
         <v>1096</v>
       </c>
+      <c r="E577" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
@@ -13563,6 +13784,9 @@
       <c r="D578" s="1" t="s">
         <v>1097</v>
       </c>
+      <c r="E578" s="9" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
@@ -13748,6 +13972,9 @@
       <c r="D591" s="1" t="s">
         <v>1108</v>
       </c>
+      <c r="E591" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
@@ -13989,6 +14216,9 @@
       <c r="D608" s="1" t="s">
         <v>1123</v>
       </c>
+      <c r="E608" s="9" t="s">
+        <v>1609</v>
+      </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
@@ -14424,6 +14654,9 @@
       <c r="D638" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="E638" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
@@ -14483,6 +14716,9 @@
       <c r="D642" s="1" t="s">
         <v>1149</v>
       </c>
+      <c r="E642" s="9" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
@@ -14814,6 +15050,9 @@
       <c r="D665" s="1" t="s">
         <v>1168</v>
       </c>
+      <c r="E665" s="9" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
@@ -14842,6 +15081,9 @@
       <c r="D667" s="1" t="s">
         <v>1170</v>
       </c>
+      <c r="E667" s="9" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
@@ -15114,6 +15356,9 @@
       <c r="D686" s="1" t="s">
         <v>1183</v>
       </c>
+      <c r="E686" s="9" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
@@ -15341,6 +15586,9 @@
       <c r="D702" s="1" t="s">
         <v>1195</v>
       </c>
+      <c r="E702" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
@@ -15370,7 +15618,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>248</v>
       </c>
@@ -15384,7 +15632,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>144</v>
       </c>
@@ -15398,7 +15646,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>124</v>
       </c>
@@ -15411,8 +15659,11 @@
       <c r="D707" s="1" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E707" s="9" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>224</v>
       </c>
@@ -15426,7 +15677,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>45</v>
       </c>
@@ -15440,7 +15691,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>125</v>
       </c>
@@ -15454,7 +15705,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>227</v>
       </c>
@@ -15468,7 +15719,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>201</v>
       </c>
@@ -15482,7 +15733,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>74</v>
       </c>
@@ -15496,7 +15747,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>20</v>
       </c>
@@ -15510,7 +15761,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>249</v>
       </c>
@@ -15524,7 +15775,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>250</v>
       </c>
@@ -15538,7 +15789,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>241</v>
       </c>
@@ -15552,7 +15803,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>251</v>
       </c>
@@ -15566,7 +15817,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>40</v>
       </c>
@@ -15580,7 +15831,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>237</v>
       </c>
@@ -15823,6 +16074,9 @@
       <c r="D736" s="1" t="s">
         <v>1225</v>
       </c>
+      <c r="E736" s="9" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
@@ -15941,6 +16195,9 @@
       <c r="D744" s="1" t="s">
         <v>1230</v>
       </c>
+      <c r="E744" s="9" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
@@ -16059,8 +16316,11 @@
       <c r="D752" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E752" s="9" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>246</v>
       </c>
@@ -16074,7 +16334,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>71</v>
       </c>
@@ -16088,7 +16348,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>219</v>
       </c>
@@ -16102,7 +16362,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>131</v>
       </c>
@@ -16115,8 +16375,11 @@
       <c r="D756" s="1" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E756" s="9" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>75</v>
       </c>
@@ -16129,8 +16392,11 @@
       <c r="D757" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E757" s="9" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>261</v>
       </c>
@@ -16144,7 +16410,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>128</v>
       </c>
@@ -16158,7 +16424,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>262</v>
       </c>
@@ -16172,7 +16438,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>40</v>
       </c>
@@ -16186,7 +16452,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>106</v>
       </c>
@@ -16199,8 +16465,11 @@
       <c r="D762" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E762" s="9" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>234</v>
       </c>
@@ -16214,7 +16483,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>139</v>
       </c>
@@ -16228,7 +16497,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>51</v>
       </c>
@@ -16242,7 +16511,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>230</v>
       </c>
@@ -16256,7 +16525,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>86</v>
       </c>
@@ -16270,7 +16539,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>29</v>
       </c>
@@ -16409,6 +16678,9 @@
       <c r="D777" s="1" t="s">
         <v>1261</v>
       </c>
+      <c r="E777" s="9" t="s">
+        <v>1613</v>
+      </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
@@ -16656,6 +16928,9 @@
       <c r="D794" s="1" t="s">
         <v>1541</v>
       </c>
+      <c r="E794" s="9" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
@@ -16698,6 +16973,9 @@
       <c r="D797" s="1" t="s">
         <v>1277</v>
       </c>
+      <c r="E797" s="9" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
@@ -16741,7 +17019,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>256</v>
       </c>
@@ -16755,7 +17033,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>8</v>
       </c>
@@ -16769,7 +17047,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>203</v>
       </c>
@@ -16783,7 +17061,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
         <v>143</v>
       </c>
@@ -16797,7 +17075,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>163</v>
       </c>
@@ -16811,7 +17089,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>270</v>
       </c>
@@ -16825,7 +17103,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>271</v>
       </c>
@@ -16838,8 +17116,11 @@
       <c r="D807" s="1" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E807" s="9" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
         <v>11</v>
       </c>
@@ -16853,7 +17134,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>251</v>
       </c>
@@ -16867,7 +17148,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>94</v>
       </c>
@@ -16880,8 +17161,11 @@
       <c r="D810" s="1" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E810" s="9" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>55</v>
       </c>
@@ -16895,7 +17179,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>143</v>
       </c>
@@ -16909,7 +17193,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>173</v>
       </c>
@@ -16923,7 +17207,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>272</v>
       </c>
@@ -16937,7 +17221,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>273</v>
       </c>
@@ -16951,7 +17235,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>198</v>
       </c>
@@ -17082,6 +17366,9 @@
       <c r="D824" s="1" t="s">
         <v>1301</v>
       </c>
+      <c r="E824" s="9" t="s">
+        <v>1600</v>
+      </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
@@ -17110,6 +17397,9 @@
       <c r="D826" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="E826" s="9" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
@@ -17517,6 +17807,9 @@
       <c r="D854" s="1" t="s">
         <v>1551</v>
       </c>
+      <c r="E854" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
@@ -17531,6 +17824,9 @@
       <c r="D855" s="1" t="s">
         <v>1326</v>
       </c>
+      <c r="E855" s="9" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
@@ -17573,6 +17869,9 @@
       <c r="D858" s="1" t="s">
         <v>1328</v>
       </c>
+      <c r="E858" s="9" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
@@ -17657,6 +17956,9 @@
       <c r="D864" s="1" t="s">
         <v>1333</v>
       </c>
+      <c r="E864" s="9" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
@@ -18150,6 +18452,9 @@
       <c r="D899" s="1" t="s">
         <v>1362</v>
       </c>
+      <c r="E899" s="9" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
@@ -18282,6 +18587,9 @@
       <c r="D908" s="1" t="s">
         <v>1368</v>
       </c>
+      <c r="E908" s="9" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
@@ -18453,6 +18761,9 @@
       <c r="D920" s="1" t="s">
         <v>1378</v>
       </c>
+      <c r="E920" s="9" t="s">
+        <v>1613</v>
+      </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
@@ -18467,6 +18778,9 @@
       <c r="D921" s="1" t="s">
         <v>1379</v>
       </c>
+      <c r="E921" s="9" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
@@ -18523,6 +18837,9 @@
       <c r="D925" s="1" t="s">
         <v>1381</v>
       </c>
+      <c r="E925" s="9" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
@@ -18566,7 +18883,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
         <v>91</v>
       </c>
@@ -18579,8 +18896,11 @@
       <c r="D929" s="1" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="930" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E929" s="9" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
         <v>254</v>
       </c>
@@ -18594,7 +18914,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>228</v>
       </c>
@@ -18608,7 +18928,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>16</v>
       </c>
@@ -18621,8 +18941,11 @@
       <c r="D932" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E932" s="9" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>222</v>
       </c>
@@ -18636,7 +18959,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
         <v>264</v>
       </c>
@@ -18650,7 +18973,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
         <v>228</v>
       </c>
@@ -18664,7 +18987,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
         <v>212</v>
       </c>
@@ -18678,7 +19001,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
         <v>29</v>
       </c>
@@ -18692,7 +19015,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
         <v>4</v>
       </c>
@@ -18705,8 +19028,11 @@
       <c r="D938" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E938" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
         <v>80</v>
       </c>
@@ -18719,8 +19045,11 @@
       <c r="D939" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E939" s="9" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="4" t="s">
         <v>2</v>
       </c>
@@ -18734,7 +19063,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
         <v>7</v>
       </c>
@@ -18748,7 +19077,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
         <v>8</v>
       </c>
@@ -18762,7 +19091,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="4" t="s">
         <v>61</v>
       </c>
@@ -18776,7 +19105,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="4" t="s">
         <v>4</v>
       </c>
@@ -18789,8 +19118,11 @@
       <c r="D944" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E944" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
         <v>283</v>
       </c>
@@ -18803,8 +19135,11 @@
       <c r="D945" s="1" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E945" s="9" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
         <v>283</v>
       </c>
@@ -18817,8 +19152,11 @@
       <c r="D946" s="1" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E946" s="9" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>61</v>
       </c>
@@ -18832,7 +19170,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
         <v>4</v>
       </c>
@@ -18845,8 +19183,11 @@
       <c r="D948" s="1" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E948" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="5" t="s">
         <v>274</v>
       </c>
@@ -18861,1919 +19202,2010 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E949" xr:uid="{7C1C78EA-29BB-47A9-8286-02FFE077952E}"/>
+  <autoFilter ref="A1:E949"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{18C2DE51-085F-4FFB-9B86-3C4AFD5EB1B9}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.binance.com/en/trade/BTC_USDT" xr:uid="{2CD9E291-4E49-4F33-ADF9-C3CCF26035F1}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{B2DB6007-614C-4F5C-82B3-53E99F08B9E4}"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.binance.com/en/trade/BNB_USDT" xr:uid="{89D68692-6223-4572-BB4F-925714D4628D}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{04A1A277-A43F-44F7-98DB-C99DEEBEDB1B}"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://www.binance.com/en/trade/ETH_USDT" xr:uid="{6ABB5CDC-37F8-425B-BEFF-D5A873E04AAE}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{2A3B9CEC-F60A-407C-A37E-055472DFCA98}"/>
-    <hyperlink ref="B5" r:id="rId8" display="https://www.binance.com/en/trade/ADA_USDT" xr:uid="{0A6C3D7D-83DD-47E3-B79B-09C332A33A5D}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{22939683-FA80-47DE-AC4B-068DAF7A59BB}"/>
-    <hyperlink ref="B6" r:id="rId10" display="https://www.binance.com/en/trade/BTC_BUSD" xr:uid="{C57E79BD-2D5F-441C-86DF-E22C4BB8CD68}"/>
-    <hyperlink ref="A7" r:id="rId11" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{171A41AD-DC27-4B53-8CC4-D4D1F41AFEE0}"/>
-    <hyperlink ref="B7" r:id="rId12" display="https://www.binance.com/en/trade/BUSD_USDT" xr:uid="{E70041FA-5909-472C-A9DC-9D58FB08F2B7}"/>
-    <hyperlink ref="A8" r:id="rId13" display="https://www.coingecko.com/en/coins/fantom" xr:uid="{A9C2ED81-6C83-4E30-874C-167D5EFF2420}"/>
-    <hyperlink ref="B8" r:id="rId14" display="https://www.binance.com/en/trade/FTM_USDT" xr:uid="{E5747945-2BC8-4E74-BFC9-C913060FA48E}"/>
-    <hyperlink ref="A9" r:id="rId15" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{9BE9C9BB-9518-4AAC-9398-B78DC9AF5D80}"/>
-    <hyperlink ref="B9" r:id="rId16" display="https://www.binance.com/en/trade/ETH_BUSD" xr:uid="{3E3C0BED-96BF-4658-8D3A-7C98F3F7074D}"/>
-    <hyperlink ref="A10" r:id="rId17" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{F9B5557B-6155-40AF-97ED-8F422EC6D82C}"/>
-    <hyperlink ref="B10" r:id="rId18" display="https://www.binance.com/en/trade/BNB_BUSD" xr:uid="{A55957EA-D47D-458D-8D39-A1DDDA23EAAB}"/>
-    <hyperlink ref="A11" r:id="rId19" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{31525776-265E-47DE-8176-A385C45E7E88}"/>
-    <hyperlink ref="B11" r:id="rId20" display="https://www.binance.com/en/trade/ETH_BTC" xr:uid="{D718F6BD-3131-4223-ADCD-89AD4CA3F2E1}"/>
-    <hyperlink ref="A12" r:id="rId21" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{F29967F5-A0E0-4E07-838B-35C8037647AF}"/>
-    <hyperlink ref="B12" r:id="rId22" display="https://www.binance.com/en/trade/DOT_USDT" xr:uid="{DAC14C40-F213-4DA8-8C44-B3FC1728FC18}"/>
-    <hyperlink ref="A13" r:id="rId23" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{09E62AAC-4857-4EAC-B75C-FFE3D577E1DD}"/>
-    <hyperlink ref="B13" r:id="rId24" display="https://www.binance.com/en/trade/LTC_USDT" xr:uid="{97946BB0-245C-48AD-97E8-D8BE4948BEF8}"/>
-    <hyperlink ref="A14" r:id="rId25" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{C839E0CC-D4FC-4C2D-B4D2-0BCD582E6BF8}"/>
-    <hyperlink ref="B14" r:id="rId26" display="https://www.binance.com/en/trade/XRP_USDT" xr:uid="{285B0473-90B5-4EA9-93CA-BD100FC5F764}"/>
-    <hyperlink ref="A15" r:id="rId27" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{CADA2278-8CA7-4356-8CB3-62302A3C1D07}"/>
-    <hyperlink ref="B15" r:id="rId28" display="https://www.binance.com/en/trade/BNB_BTC" xr:uid="{B2BBCD7B-968B-4B9B-8714-11D84F3308EF}"/>
-    <hyperlink ref="A16" r:id="rId29" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{D1A9C7CD-2D57-4399-BB28-CFD9D25D519A}"/>
-    <hyperlink ref="B16" r:id="rId30" display="https://www.binance.com/en/trade/DOGE_USDT" xr:uid="{551C055F-0747-452A-8EFE-297E58974AC2}"/>
-    <hyperlink ref="A17" r:id="rId31" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{E2DD3789-527D-476D-99B3-CDB38D3F1E00}"/>
-    <hyperlink ref="B17" r:id="rId32" display="https://www.binance.com/en/trade/ADA_BTC" xr:uid="{FA9B18CA-C6A9-4928-9D93-B3823E812A48}"/>
-    <hyperlink ref="A18" r:id="rId33" display="https://www.coingecko.com/en/coins/iost" xr:uid="{6A7B6988-793A-4E31-A2CB-DF1BB8E9364C}"/>
-    <hyperlink ref="B18" r:id="rId34" display="https://www.binance.com/en/trade/IOST_USDT" xr:uid="{C7EBB851-0912-446A-BBAF-C3DE299D501A}"/>
-    <hyperlink ref="A19" r:id="rId35" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{DE122DCD-7392-472E-97F3-BB8643BD588F}"/>
-    <hyperlink ref="B19" r:id="rId36" display="https://www.binance.com/en/trade/LINK_USDT" xr:uid="{83D44FC6-F97B-4F44-93D2-D201ABA92843}"/>
-    <hyperlink ref="A20" r:id="rId37" display="https://www.coingecko.com/en/coins/polygon" xr:uid="{744C8A5B-C8C9-4146-AE8C-6092AAE5FC76}"/>
-    <hyperlink ref="B20" r:id="rId38" display="https://www.binance.com/en/trade/MATIC_USDT" xr:uid="{8A8E3D04-C6A2-4D85-A975-E6BEE502F43D}"/>
-    <hyperlink ref="A21" r:id="rId39" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{959D85DA-AA0C-43BE-8D8E-4A803E845CB8}"/>
-    <hyperlink ref="B21" r:id="rId40" display="https://www.binance.com/en/trade/BTC_EUR" xr:uid="{871FD694-1BDE-40E1-B56A-E284F23CAC96}"/>
-    <hyperlink ref="A22" r:id="rId41" display="https://www.coingecko.com/en/coins/fantom" xr:uid="{1142DC5F-1E22-43F2-8243-6C1297CE4424}"/>
-    <hyperlink ref="B22" r:id="rId42" display="https://www.binance.com/en/trade/FTM_BTC" xr:uid="{0823C985-BA85-42C6-B7FB-BDD0AE053177}"/>
-    <hyperlink ref="A23" r:id="rId43" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{E83F1B34-6F76-49C5-A20B-366E725A2CFF}"/>
-    <hyperlink ref="B23" r:id="rId44" display="https://www.binance.com/en/trade/SXP_USDT" xr:uid="{A499E3BA-541A-4B7A-9895-B43C5542F317}"/>
-    <hyperlink ref="A24" r:id="rId45" display="https://www.coingecko.com/en/coins/usd-coin" xr:uid="{92994D85-395F-4B1D-9F1C-7084B7745A2D}"/>
-    <hyperlink ref="B24" r:id="rId46" display="https://www.binance.com/en/trade/USDC_USDT" xr:uid="{9BB98CEA-5E04-412F-9B0A-E7E988A2759D}"/>
-    <hyperlink ref="A25" r:id="rId47" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{4D46E427-DA8B-4846-AB7F-D3A3EA891F85}"/>
-    <hyperlink ref="B25" r:id="rId48" display="https://www.binance.com/en/trade/BTC_USDC" xr:uid="{52117769-D766-46FC-87F2-9D7A5339EE97}"/>
-    <hyperlink ref="A26" r:id="rId49" display="https://www.coingecko.com/en/coins/solana" xr:uid="{947A6D8C-C129-4371-9721-B5B6C6B9FD90}"/>
-    <hyperlink ref="B26" r:id="rId50" display="https://www.binance.com/en/trade/SOL_USDT" xr:uid="{9CB42590-6F60-4E2C-BB3F-62ADB90355EA}"/>
-    <hyperlink ref="A27" r:id="rId51" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{F08F3DD9-11C8-4445-A179-1E66672320DA}"/>
-    <hyperlink ref="B27" r:id="rId52" display="https://www.binance.com/en/trade/BCH_USDT" xr:uid="{DD9A6780-5836-4029-BB5F-3FC14CDAE361}"/>
-    <hyperlink ref="A28" r:id="rId53" display="https://www.coingecko.com/en/coins/uniswap" xr:uid="{7003398B-146C-4897-B7EB-42722931920A}"/>
-    <hyperlink ref="B28" r:id="rId54" display="https://www.binance.com/en/trade/UNI_USDT" xr:uid="{71B2F903-3E91-44FC-BE9D-9E71E396BA3A}"/>
-    <hyperlink ref="A29" r:id="rId55" display="https://www.coingecko.com/en/coins/sushi" xr:uid="{52925DD5-65FF-4F3F-92A7-F6F8B2165A46}"/>
-    <hyperlink ref="B29" r:id="rId56" display="https://www.binance.com/en/trade/SUSHI_USDT" xr:uid="{FA861184-CF7F-47C5-82A2-DFB455B5B11F}"/>
-    <hyperlink ref="A30" r:id="rId57" display="https://www.coingecko.com/en/coins/unifi-protocol-dao" xr:uid="{C313B89D-E8B9-4EFF-87F6-E71C83FA2BB8}"/>
-    <hyperlink ref="B30" r:id="rId58" display="https://www.binance.com/en/trade/UNFI_USDT" xr:uid="{711A5DE6-E594-405A-B40C-E80267897E15}"/>
-    <hyperlink ref="A31" r:id="rId59" display="https://www.coingecko.com/en/coins/eos" xr:uid="{761F5082-F20B-4003-AE4D-428A36E4E751}"/>
-    <hyperlink ref="B31" r:id="rId60" display="https://www.binance.com/en/trade/EOS_USDT" xr:uid="{EB7754CC-0850-4E94-8E8E-257F75EB8469}"/>
-    <hyperlink ref="A32" r:id="rId61" display="https://www.coingecko.com/en/coins/1inch" xr:uid="{97633B35-374B-4B6D-B44C-C3A4AA389D5B}"/>
-    <hyperlink ref="B32" r:id="rId62" display="https://www.binance.com/en/trade/1INCH_USDT" xr:uid="{1305802D-E773-4E23-9EEA-D3C95AD0752D}"/>
-    <hyperlink ref="A33" r:id="rId63" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{6D42F6FD-173E-4EE1-8E1D-D675391C0E94}"/>
-    <hyperlink ref="B33" r:id="rId64" display="https://www.binance.com/en/trade/ADA_BUSD" xr:uid="{5959CEC2-5E47-4154-996D-D837DE222F8A}"/>
-    <hyperlink ref="A34" r:id="rId65" display="https://www.coingecko.com/en/coins/serum" xr:uid="{89944B5F-ADC3-4DAA-92A9-ED416D5A5E84}"/>
-    <hyperlink ref="B34" r:id="rId66" display="https://www.binance.com/en/trade/SRM_USDT" xr:uid="{A5AC7115-8A25-4B14-9156-D0F04F3DDBE4}"/>
-    <hyperlink ref="A35" r:id="rId67" display="https://www.coingecko.com/en/coins/the-graph" xr:uid="{037D68C6-3764-4F5B-A639-593A56FAE7B3}"/>
-    <hyperlink ref="B35" r:id="rId68" display="https://www.binance.com/en/trade/GRT_USDT" xr:uid="{CC05A29B-8A7C-451F-BD76-CB2BF0D9F366}"/>
-    <hyperlink ref="A36" r:id="rId69" display="https://www.coingecko.com/en/coins/reef-finance" xr:uid="{FF432A9E-56E4-4246-A175-0334FC0FB93B}"/>
-    <hyperlink ref="B36" r:id="rId70" display="https://www.binance.com/en/trade/REEF_USDT" xr:uid="{BC3CAAED-EC35-438D-BC6D-84714D5A2E5E}"/>
-    <hyperlink ref="A37" r:id="rId71" display="https://www.coingecko.com/en/coins/alpha-finance" xr:uid="{7B3DEF02-11F4-496A-AEA5-00C942FA2072}"/>
-    <hyperlink ref="B37" r:id="rId72" display="https://www.binance.com/en/trade/ALPHA_USDT" xr:uid="{D6EF59FA-F2A6-4820-9F7A-17B4E35A68BF}"/>
-    <hyperlink ref="A38" r:id="rId73" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{CDA3FBDF-BC14-4FC9-8EC4-F22C14967B78}"/>
-    <hyperlink ref="B38" r:id="rId74" display="https://www.binance.com/en/trade/BNB_EUR" xr:uid="{1CF4CDEE-BF59-4F5C-A049-86CA70FF4BDA}"/>
-    <hyperlink ref="A39" r:id="rId75" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{9168329F-BF88-45DE-AEAD-1C72A16C305F}"/>
-    <hyperlink ref="B39" r:id="rId76" display="https://www.binance.com/en/trade/ETH_EUR" xr:uid="{8FCE7F94-6BCB-4867-9A90-9061CEC0715C}"/>
-    <hyperlink ref="A40" r:id="rId77" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{CAAB8BC6-2A8E-4AB1-8377-7BED3BEEBA3A}"/>
-    <hyperlink ref="B40" r:id="rId78" display="https://www.binance.com/en/trade/LTC_BTC" xr:uid="{467215C1-7482-4B51-99F5-F6E335FBC4D0}"/>
-    <hyperlink ref="A41" r:id="rId79" display="https://www.coingecko.com/en/coins/ac-milan-fan-token" xr:uid="{A5F93ECB-747B-4336-ABE4-B074A5019A97}"/>
-    <hyperlink ref="B41" r:id="rId80" display="https://www.binance.com/en/trade/ACM_USDT" xr:uid="{60216F97-DC60-43D1-B7FE-9D6FAE21BBA0}"/>
-    <hyperlink ref="A42" r:id="rId81" display="https://www.coingecko.com/en/coins/chiliz" xr:uid="{2E9C54E0-E17B-4E48-B67B-F68D5C996E13}"/>
-    <hyperlink ref="B42" r:id="rId82" display="https://www.binance.com/en/trade/CHZ_USDT" xr:uid="{743F739E-AFCE-4C2D-93EE-A2C23CB8E1FE}"/>
-    <hyperlink ref="A43" r:id="rId83" display="https://www.coingecko.com/en/coins/enjin-coin" xr:uid="{A7491B6F-CA46-498C-9ABB-082D8138C118}"/>
-    <hyperlink ref="B43" r:id="rId84" display="https://www.binance.com/en/trade/ENJ_USDT" xr:uid="{AF6B8FCB-C448-4866-9181-1F7E768B4E68}"/>
-    <hyperlink ref="A44" r:id="rId85" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{26DA133C-64D7-4429-AFBF-7F184E267FDB}"/>
-    <hyperlink ref="B44" r:id="rId86" display="https://www.binance.com/en/trade/DOT_BTC" xr:uid="{68B0BCD9-9118-4CB5-9ED7-91D37B30B66A}"/>
-    <hyperlink ref="A45" r:id="rId87" display="https://www.coingecko.com/en/coins/polygon" xr:uid="{4BD4D8D1-8975-402A-AA63-A2C3D443BECB}"/>
-    <hyperlink ref="B45" r:id="rId88" display="https://www.binance.com/en/trade/MATIC_BTC" xr:uid="{A43A86C2-7199-4598-BB26-90F9A2B722CC}"/>
-    <hyperlink ref="A46" r:id="rId89" display="https://www.coingecko.com/en/coins/tron" xr:uid="{907BF0E0-3923-42E9-A5DA-BF78921B2110}"/>
-    <hyperlink ref="B46" r:id="rId90" display="https://www.binance.com/en/trade/TRX_USDT" xr:uid="{51EF7249-0A4E-4FBB-B539-0A162D216636}"/>
-    <hyperlink ref="A47" r:id="rId91" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{99476C07-3725-40A9-84A5-EC1EF05DF060}"/>
-    <hyperlink ref="B47" r:id="rId92" display="https://www.binance.com/en/trade/XLM_USDT" xr:uid="{B9C34037-6959-4BCC-A19A-6CC3163EC9D9}"/>
-    <hyperlink ref="A48" r:id="rId93" display="https://www.coingecko.com/en/coins/terra-luna" xr:uid="{2C57FFB0-54F8-404C-9076-31406BBFD454}"/>
-    <hyperlink ref="B48" r:id="rId94" display="https://www.binance.com/en/trade/LUNA_USDT" xr:uid="{95E6A909-D096-4F6D-B0EC-1B3A57E6BF2C}"/>
-    <hyperlink ref="A49" r:id="rId95" display="https://www.coingecko.com/en/coins/vechain" xr:uid="{FB67F05D-4435-4B80-B371-259072D318DE}"/>
-    <hyperlink ref="B49" r:id="rId96" display="https://www.binance.com/en/trade/VET_USDT" xr:uid="{33E65FA5-DC9D-45C0-A0FD-75158DA8107E}"/>
-    <hyperlink ref="A50" r:id="rId97" display="https://www.coingecko.com/en/coins/cosmos" xr:uid="{34D3B56F-559A-451C-BB69-F2CD6186476D}"/>
-    <hyperlink ref="B50" r:id="rId98" display="https://www.binance.com/en/trade/ATOM_USDT" xr:uid="{AF2DBBBF-35CF-48CA-8ADE-194EA68D9E95}"/>
-    <hyperlink ref="A51" r:id="rId99" display="https://www.coingecko.com/en/coins/aave" xr:uid="{A75E43BE-D367-42F8-9306-E92226517DDD}"/>
-    <hyperlink ref="B51" r:id="rId100" display="https://www.binance.com/en/trade/AAVE_USDT" xr:uid="{E4576276-4EAB-4ABB-B5A7-B9CC39AF1934}"/>
-    <hyperlink ref="A52" r:id="rId101" display="https://www.coingecko.com/en/coins/avalanche" xr:uid="{9E53AB58-CB48-4E31-9425-A3324C033C0C}"/>
-    <hyperlink ref="B52" r:id="rId102" display="https://www.binance.com/en/trade/AVAX_USDT" xr:uid="{7982CED0-5D45-4764-BC32-ADF8676DE8DA}"/>
-    <hyperlink ref="A53" r:id="rId103" display="https://www.coingecko.com/en/coins/ontology" xr:uid="{FBA24338-86FA-4926-AAFC-C406CC10DF7F}"/>
-    <hyperlink ref="B53" r:id="rId104" display="https://www.binance.com/en/trade/ONT_USDT" xr:uid="{34A12E25-A7B0-488A-A79E-84C1FF01BEF9}"/>
-    <hyperlink ref="A54" r:id="rId105" display="https://www.coingecko.com/en/coins/tezos" xr:uid="{1183C708-923E-4842-A25E-B7E29C3FF0A3}"/>
-    <hyperlink ref="B54" r:id="rId106" display="https://www.binance.com/en/trade/XTZ_USDT" xr:uid="{CB421960-8CCF-4F88-A34E-50E7CB38EB74}"/>
-    <hyperlink ref="A55" r:id="rId107" display="https://www.coingecko.com/en/coins/algorand" xr:uid="{A8AD0F48-DF43-4212-AEF4-A932CD39BE67}"/>
-    <hyperlink ref="B55" r:id="rId108" display="https://www.binance.com/en/trade/ALGO_USDT" xr:uid="{735B02B8-7E9A-4275-B6C0-301BF1737EC5}"/>
-    <hyperlink ref="A56" r:id="rId109" display="https://www.coingecko.com/en/coins/pancakeswap" xr:uid="{255B0A22-BE54-4DF2-ADDA-C11BE97E7180}"/>
-    <hyperlink ref="B56" r:id="rId110" display="https://www.binance.com/en/trade/CAKE_USDT" xr:uid="{68FC6DBA-C35C-4A1A-97D7-25C34E565FC4}"/>
-    <hyperlink ref="A57" r:id="rId111" display="https://www.coingecko.com/en/coins/iost" xr:uid="{56C2E87E-CB45-4319-8B73-AD153AC92E7E}"/>
-    <hyperlink ref="B57" r:id="rId112" display="https://www.binance.com/en/trade/IOST_BTC" xr:uid="{703B61E2-9D33-4D55-B4D1-A8BCB24D731C}"/>
-    <hyperlink ref="A58" r:id="rId113" display="https://www.coingecko.com/en/coins/dash" xr:uid="{119F944F-5A2A-4A3B-905C-F3DC6DACDA14}"/>
-    <hyperlink ref="B58" r:id="rId114" display="https://www.binance.com/en/trade/DASH_USDT" xr:uid="{1345DC19-A64C-484C-8697-D7F7665F8E82}"/>
-    <hyperlink ref="A59" r:id="rId115" display="https://www.coingecko.com/en/coins/neo" xr:uid="{2C826CD3-FADF-4190-B26C-BE1D667FA22A}"/>
-    <hyperlink ref="B59" r:id="rId116" display="https://www.binance.com/en/trade/NEO_USDT" xr:uid="{116769ED-ED17-4D25-8649-D1B5E084AD1A}"/>
-    <hyperlink ref="A60" r:id="rId117" display="https://www.coingecko.com/en/coins/elrond" xr:uid="{FBFF43D0-7C6C-49D6-91F7-A4704A4D030B}"/>
-    <hyperlink ref="B60" r:id="rId118" display="https://www.binance.com/en/trade/EGLD_USDT" xr:uid="{479FB1B2-9B21-42EF-97F4-7E83A45737A1}"/>
-    <hyperlink ref="A61" r:id="rId119" display="https://www.coingecko.com/en/coins/litentry" xr:uid="{D0757573-F685-4794-9DF6-40273FFEFC46}"/>
-    <hyperlink ref="B61" r:id="rId120" display="https://www.binance.com/en/trade/LIT_USDT" xr:uid="{56B4ED7A-A200-4BD1-B23D-722C5C863A00}"/>
-    <hyperlink ref="A62" r:id="rId121" display="https://www.coingecko.com/en/coins/solana" xr:uid="{71F227EC-6ADF-49DF-9A77-8245BEDFD659}"/>
-    <hyperlink ref="B62" r:id="rId122" display="https://www.binance.com/en/trade/SOL_BTC" xr:uid="{8B6F2064-9949-41C4-9CA8-571F3E2B7EB2}"/>
-    <hyperlink ref="A63" r:id="rId123" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{A80D94DA-7D1D-4341-AC86-C5700924CCD8}"/>
-    <hyperlink ref="B63" r:id="rId124" display="https://www.binance.com/en/trade/LINK_BTC" xr:uid="{3E43DEBB-E3BC-4D56-ACB2-3CC205D5DDB5}"/>
-    <hyperlink ref="A64" r:id="rId125" display="https://www.coingecko.com/en/coins/ankr-network" xr:uid="{FCC3C2BE-1FE6-4CF8-B018-3358F6CFF027}"/>
-    <hyperlink ref="B64" r:id="rId126" display="https://www.binance.com/en/trade/ANKR_USDT" xr:uid="{2E4E8D4B-F2CA-4A4B-A90C-50AA40402519}"/>
-    <hyperlink ref="A65" r:id="rId127" display="https://www.coingecko.com/en/coins/filecoin" xr:uid="{4D562673-D9AC-4C01-A8F5-05296E6C5571}"/>
-    <hyperlink ref="B65" r:id="rId128" display="https://www.binance.com/en/trade/FIL_USDT" xr:uid="{664F847A-1D95-4B24-B123-FEC65AB4BA97}"/>
-    <hyperlink ref="A66" r:id="rId129" display="https://www.coingecko.com/en/coins/coti" xr:uid="{FBF41F45-38F2-4FC9-B5F0-97C3BB917478}"/>
-    <hyperlink ref="B66" r:id="rId130" display="https://www.binance.com/en/trade/COTI_USDT" xr:uid="{80F7D63A-E120-4080-BF01-EBE39E2E5E05}"/>
-    <hyperlink ref="A67" r:id="rId131" display="https://www.coingecko.com/en/coins/gas" xr:uid="{A02FEDFF-7902-4136-AFEA-86B2A0A4076F}"/>
-    <hyperlink ref="B67" r:id="rId132" display="https://www.binance.com/en/trade/GAS_BTC" xr:uid="{66B071DD-7598-4793-BB04-E542011FB7C9}"/>
-    <hyperlink ref="A68" r:id="rId133" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{2E756E69-2B16-44CD-A809-43FCCE91B31F}"/>
-    <hyperlink ref="B68" r:id="rId134" display="https://www.binance.com/en/trade/ETH_USDC" xr:uid="{06F1C362-8ED6-4815-9DB3-AF34F10A9870}"/>
-    <hyperlink ref="A69" r:id="rId135" display="https://www.coingecko.com/en/coins/venus" xr:uid="{9B13F7EB-7342-4CF7-9A8E-3390D5755848}"/>
-    <hyperlink ref="B69" r:id="rId136" display="https://www.binance.com/en/trade/XVS_USDT" xr:uid="{AA2F8D6B-62AE-4FCF-92B7-4395FD351D0E}"/>
-    <hyperlink ref="A70" r:id="rId137" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{5A09C3FF-D354-4B3B-8DA7-793A5DDCBF19}"/>
-    <hyperlink ref="B70" r:id="rId138" display="https://www.binance.com/en/trade/DOGE_BTC" xr:uid="{DDCF1BF8-6803-4A4B-9311-D0684471AA80}"/>
-    <hyperlink ref="A71" r:id="rId139" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{E9E9B303-8875-4F47-8EAC-710503330905}"/>
-    <hyperlink ref="B71" r:id="rId140" display="https://www.binance.com/en/trade/ADA_EUR" xr:uid="{CDE8CFA7-4512-4E8C-B7C7-1AE80CF3DB7A}"/>
-    <hyperlink ref="A72" r:id="rId141" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{9B3AA695-AB9C-46F6-B747-6B84D04F2AA3}"/>
-    <hyperlink ref="B72" r:id="rId142" display="https://www.binance.com/en/trade/XRP_BTC" xr:uid="{F74BF338-C0BE-4311-A632-D5585E57C733}"/>
-    <hyperlink ref="A73" r:id="rId143" display="https://www.coingecko.com/en/coins/nervos-network" xr:uid="{B0C15E8E-0836-478E-B2D3-EB4CB2A2082F}"/>
-    <hyperlink ref="B73" r:id="rId144" display="https://www.binance.com/en/trade/CKB_USDT" xr:uid="{913930C6-C1EA-491F-B89E-7CB595FE2BF8}"/>
-    <hyperlink ref="A74" r:id="rId145" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{6DF59E65-3285-41FC-B4BB-A93D141F5DB1}"/>
-    <hyperlink ref="B74" r:id="rId146" display="https://www.binance.com/en/trade/BTC_GBP" xr:uid="{995281BC-1408-49BD-B776-479BB398F650}"/>
-    <hyperlink ref="A75" r:id="rId147" display="https://www.coingecko.com/en/coins/iota" xr:uid="{585646EE-362E-4713-9059-4A3916C90D51}"/>
-    <hyperlink ref="B75" r:id="rId148" display="https://www.binance.com/en/trade/IOTA_USDT" xr:uid="{07F7E580-3A1E-4DD4-9A61-51A73FE1A6E0}"/>
-    <hyperlink ref="A76" r:id="rId149" display="https://www.coingecko.com/en/coins/zcash" xr:uid="{170F5B5F-E90B-4151-9670-67A3C2914220}"/>
-    <hyperlink ref="B76" r:id="rId150" display="https://www.binance.com/en/trade/ZEC_USDT" xr:uid="{5074AF61-5F97-4F2E-A5F7-1D8D4CCF7E3C}"/>
-    <hyperlink ref="A77" r:id="rId151" display="https://www.coingecko.com/en/coins/sun-token" xr:uid="{6CD09A9D-4AC5-4AE4-8A13-706624CF3E89}"/>
-    <hyperlink ref="B77" r:id="rId152" display="https://www.binance.com/en/trade/SUN_USDT" xr:uid="{266FFCC6-3B37-4F33-8BB3-DC0E53407850}"/>
-    <hyperlink ref="A78" r:id="rId153" display="https://www.coingecko.com/en/coins/btc-standard-hashrate-token" xr:uid="{1CB3ED22-9629-46D5-B9A9-D7C2B05D6F72}"/>
-    <hyperlink ref="B78" r:id="rId154" display="https://www.binance.com/en/trade/BTCST_USDT" xr:uid="{6D2C0D0D-FF0E-40FB-87F7-3A974437BB22}"/>
-    <hyperlink ref="A79" r:id="rId155" display="https://www.coingecko.com/en/coins/icon" xr:uid="{2066A930-0576-4BE0-A14B-0C452FCC7293}"/>
-    <hyperlink ref="B79" r:id="rId156" display="https://www.binance.com/en/trade/ICX_USDT" xr:uid="{62717571-9D53-4763-8A82-7C3FE3146652}"/>
-    <hyperlink ref="A80" r:id="rId157" display="https://www.coingecko.com/en/coins/ethereum-classic" xr:uid="{1E88FE52-795A-4886-94E6-02A5EF229DB2}"/>
-    <hyperlink ref="B80" r:id="rId158" display="https://www.binance.com/en/trade/ETC_USDT" xr:uid="{E3A6B356-11DC-4827-8451-72B9EE5C40BA}"/>
-    <hyperlink ref="A81" r:id="rId159" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{46AF748D-AF83-4173-805C-CDE4CC27FE34}"/>
-    <hyperlink ref="B81" r:id="rId160" display="https://www.binance.com/en/trade/BNB_ETH" xr:uid="{FDA74DD6-4BE3-47FC-B130-D0CE9D1DD97A}"/>
-    <hyperlink ref="A82" r:id="rId161" display="https://www.coingecko.com/en/coins/near" xr:uid="{00A5FCEA-B685-4EBD-ADCB-9658DB048523}"/>
-    <hyperlink ref="B82" r:id="rId162" display="https://www.binance.com/en/trade/NEAR_USDT" xr:uid="{A3591BD0-1F16-41EB-BE97-3A84D94556FA}"/>
-    <hyperlink ref="A83" r:id="rId163" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{86420CC5-9510-4690-A347-2B5707D1CFB4}"/>
-    <hyperlink ref="B83" r:id="rId164" display="https://www.binance.com/en/trade/SXP_BTC" xr:uid="{FE50FB82-F595-439A-8C00-307A94FCA8B4}"/>
-    <hyperlink ref="A84" r:id="rId165" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{5110D8DE-EE8C-479F-9F2E-774CC64414A6}"/>
-    <hyperlink ref="B84" r:id="rId166" display="https://www.binance.com/en/trade/BCH_BTC" xr:uid="{868D66B1-4E7C-46F8-B0EE-56D757887DC9}"/>
-    <hyperlink ref="A85" r:id="rId167" display="https://www.coingecko.com/en/coins/tomochain" xr:uid="{1167F96C-FBBF-4695-8E84-072EAE424BD2}"/>
-    <hyperlink ref="B85" r:id="rId168" display="https://www.binance.com/en/trade/TOMO_USDT" xr:uid="{F14FA2E2-893D-4DB7-A4E0-C4973F1F925B}"/>
-    <hyperlink ref="A86" r:id="rId169" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{21D37605-A222-4848-8BB6-D7841AAA4C9C}"/>
-    <hyperlink ref="B86" r:id="rId170" display="https://www.binance.com/en/trade/DOT_BUSD" xr:uid="{3F04125B-456F-416B-A87E-3E4C0F30831B}"/>
-    <hyperlink ref="A87" r:id="rId171" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{4C500560-E081-4D0A-9B13-9D4EFA1C7A98}"/>
-    <hyperlink ref="B87" r:id="rId172" display="https://www.binance.com/en/trade/ADA_ETH" xr:uid="{52EE0105-BAA8-468F-9582-E107D988E8B1}"/>
-    <hyperlink ref="A88" r:id="rId173" display="https://www.coingecko.com/en/coins/enjin-coin" xr:uid="{87446724-5535-4D6B-AC78-76D8758DCBC7}"/>
-    <hyperlink ref="B88" r:id="rId174" display="https://www.binance.com/en/trade/ENJ_BTC" xr:uid="{162D5788-8D51-4903-B830-E57BAD4EEFE2}"/>
-    <hyperlink ref="A89" r:id="rId175" display="https://www.coingecko.com/en/coins/safepal" xr:uid="{9BD564C3-C60F-4363-9814-74145D924D05}"/>
-    <hyperlink ref="B89" r:id="rId176" display="https://www.binance.com/en/trade/SFP_USDT" xr:uid="{4024C158-A998-4ED0-81D0-8260588D86AA}"/>
-    <hyperlink ref="A90" r:id="rId177" display="https://www.coingecko.com/en/coins/sushi" xr:uid="{E775540B-C1F1-4B75-BCBB-01E7E54D3418}"/>
-    <hyperlink ref="B90" r:id="rId178" display="https://www.binance.com/en/trade/SUSHI_BTC" xr:uid="{89779B19-112C-49A5-88F6-45BF0792E002}"/>
-    <hyperlink ref="A91" r:id="rId179" display="https://www.coingecko.com/en/coins/ren" xr:uid="{85B57496-61B9-4FEB-B508-86E5B75A2A75}"/>
-    <hyperlink ref="B91" r:id="rId180" display="https://www.binance.com/en/trade/REN_USDT" xr:uid="{9B01103C-2A94-4B59-940E-8283950C062F}"/>
-    <hyperlink ref="A92" r:id="rId181" display="https://www.coingecko.com/en/coins/unifi-protocol-dao" xr:uid="{876ACBFC-8535-44A3-A2AE-4A7535B9F28F}"/>
-    <hyperlink ref="B92" r:id="rId182" display="https://www.binance.com/en/trade/UNFI_BTC" xr:uid="{7AB8455E-C6F7-4488-A58A-E914A6E7E9DD}"/>
-    <hyperlink ref="A93" r:id="rId183" display="https://www.coingecko.com/en/coins/phala-network" xr:uid="{3404E603-70A6-4300-B2A2-C955D3777F2D}"/>
-    <hyperlink ref="B93" r:id="rId184" display="https://www.binance.com/en/trade/PHA_BUSD" xr:uid="{9C04C624-FA04-4A81-99AD-DFB3461754BD}"/>
-    <hyperlink ref="A94" r:id="rId185" display="https://www.coingecko.com/en/coins/tether" xr:uid="{FDEAFFB8-D5C5-4FA0-B981-63C0C177E7D6}"/>
-    <hyperlink ref="B94" r:id="rId186" display="https://www.binance.com/en/trade/USDT_TRY" xr:uid="{A95A6DEB-1790-4732-AE6C-2112F775B2C6}"/>
-    <hyperlink ref="A95" r:id="rId187" display="https://www.coingecko.com/en/coins/zilliqa" xr:uid="{271BFE74-B10D-40D2-862C-B3966E37E174}"/>
-    <hyperlink ref="B95" r:id="rId188" display="https://www.binance.com/en/trade/ZIL_USDT" xr:uid="{ECD431BE-530A-46E5-9CAC-E0062EDDAB16}"/>
-    <hyperlink ref="A96" r:id="rId189" display="https://www.coingecko.com/en/coins/ravencoin" xr:uid="{CBAF55D0-89AF-482D-B427-45ECF8EE80C8}"/>
-    <hyperlink ref="B96" r:id="rId190" display="https://www.binance.com/en/trade/RVN_USDT" xr:uid="{98550AA3-7683-42E4-BAF5-79C4AB310270}"/>
-    <hyperlink ref="A97" r:id="rId191" display="https://www.coingecko.com/en/coins/nem" xr:uid="{072FFCA3-E7EE-40E9-828F-9D43F24073D6}"/>
-    <hyperlink ref="B97" r:id="rId192" display="https://www.binance.com/en/trade/XEM_USDT" xr:uid="{20F74F90-F09E-4E58-A7BD-1636B5383000}"/>
-    <hyperlink ref="A98" r:id="rId193" display="https://www.coingecko.com/en/coins/dodo" xr:uid="{901BAD83-B81F-4B27-B946-127F8E2E3698}"/>
-    <hyperlink ref="B98" r:id="rId194" display="https://www.binance.com/en/trade/DODO_USDT" xr:uid="{07ADFDBE-395D-4454-A5B3-ED650DD556CA}"/>
-    <hyperlink ref="A99" r:id="rId195" display="https://www.coingecko.com/en/coins/yearn-finance" xr:uid="{1640DA35-D04E-498C-839D-3FA4E51B8D07}"/>
-    <hyperlink ref="B99" r:id="rId196" display="https://www.binance.com/en/trade/YFI_USDT" xr:uid="{FD9E269A-65C2-4D4D-9FD2-8192DBF6751B}"/>
-    <hyperlink ref="A100" r:id="rId197" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{84DFB26B-8F83-4288-B248-2DC850F56D38}"/>
-    <hyperlink ref="B100" r:id="rId198" display="https://www.binance.com/en/trade/ETH_GBP" xr:uid="{211A610D-6227-4E92-87AF-D6215B05245E}"/>
-    <hyperlink ref="A101" r:id="rId199" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{A5FDDC1B-3A19-4069-8DDD-F7422ED48E9F}"/>
-    <hyperlink ref="B101" r:id="rId200" display="https://www.binance.com/en/trade/LTC_BUSD" xr:uid="{95087EC8-14A5-423B-B828-D8529B52A545}"/>
-    <hyperlink ref="A102" r:id="rId201" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{42F11AB8-BCE5-406A-8A89-1125DB858DB0}"/>
-    <hyperlink ref="B102" r:id="rId202" display="https://www.binance.com/en/trade/ETH_GBP" xr:uid="{F4879B12-784F-4213-BB6B-03697E6B4AA4}"/>
-    <hyperlink ref="A103" r:id="rId203" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{5A8A9FAC-C14F-4BFC-84D7-A8E50E222666}"/>
-    <hyperlink ref="B103" r:id="rId204" display="https://www.binance.com/en/trade/LTC_BUSD" xr:uid="{1815EB90-1C63-4AF6-8500-B0CEF64C6836}"/>
-    <hyperlink ref="A104" r:id="rId205" display="https://www.coingecko.com/en/coins/stack" xr:uid="{489905FC-B91E-4000-95D5-AB584C25743A}"/>
-    <hyperlink ref="B104" r:id="rId206" display="https://www.binance.com/en/trade/STX_USDT" xr:uid="{1D394241-5B52-4608-AB11-93C99127A24B}"/>
-    <hyperlink ref="A105" r:id="rId207" display="https://www.coingecko.com/en/coins/pancakeswap" xr:uid="{D04F71F8-A4EB-4F01-90B0-025151ED61D9}"/>
-    <hyperlink ref="B105" r:id="rId208" display="https://www.binance.com/en/trade/CAKE_BUSD" xr:uid="{56BC5D83-BE31-4DC7-BCE6-EC941615A7DC}"/>
-    <hyperlink ref="A106" r:id="rId209" display="https://www.coingecko.com/en/coins/curve-dao-token" xr:uid="{325529C2-4D2C-4519-8DDF-D61978B01813}"/>
-    <hyperlink ref="B106" r:id="rId210" display="https://www.binance.com/en/trade/CRV_USDT" xr:uid="{86B546AD-706E-4AFB-87B7-6DEDCB4D5721}"/>
-    <hyperlink ref="A107" r:id="rId211" display="https://www.coingecko.com/en/coins/lisk" xr:uid="{4C64EF42-6AFD-4E9B-A721-E2A92F14F656}"/>
-    <hyperlink ref="B107" r:id="rId212" display="https://www.binance.com/en/trade/LSK_USDT" xr:uid="{FCEDF922-02F9-44F2-822C-CE334FC4E325}"/>
-    <hyperlink ref="A108" r:id="rId213" display="https://www.coingecko.com/en/coins/theta-network" xr:uid="{C886EEF5-9B55-4D30-A2B0-1C70BFAFD140}"/>
-    <hyperlink ref="B108" r:id="rId214" display="https://www.binance.com/en/trade/THETA_USDT" xr:uid="{B013D02C-DC9A-4996-BEA1-5FDBBA2FA4B9}"/>
-    <hyperlink ref="A109" r:id="rId215" display="https://www.coingecko.com/en/coins/synthetix-network-token" xr:uid="{51F6DAC7-AAA5-41FB-B0D4-5AF491997F0F}"/>
-    <hyperlink ref="B109" r:id="rId216" display="https://www.binance.com/en/trade/SNX_USDT" xr:uid="{5A7E2CB5-01DE-46FB-B4CF-97B86B63C33F}"/>
-    <hyperlink ref="A111" r:id="rId217" display="https://www.coingecko.com/en/coins/usd-coin" xr:uid="{44496DFA-D4DE-48D6-B631-7ACA9C8C31D8}"/>
-    <hyperlink ref="B111" r:id="rId218" display="https://www.binance.com/en/trade/USDC_BUSD" xr:uid="{A0895815-FD35-4D8E-9132-8334069FB194}"/>
-    <hyperlink ref="A112" r:id="rId219" display="https://www.coingecko.com/en/coins/monero" xr:uid="{E3BA8F1C-033D-44FE-81B8-8C7BF47E5730}"/>
-    <hyperlink ref="B112" r:id="rId220" display="https://www.binance.com/en/trade/XMR_USDT" xr:uid="{05A99121-5358-4157-9C95-027A9157062D}"/>
-    <hyperlink ref="A114" r:id="rId221" display="https://www.coingecko.com/en/coins/coti" xr:uid="{C6D82593-7490-4367-ABC3-AD34FB8F3736}"/>
-    <hyperlink ref="B114" r:id="rId222" display="https://www.binance.com/en/trade/COTI_BTC" xr:uid="{2E1CC837-CA99-4C32-AA7E-B3C2D3E1158F}"/>
-    <hyperlink ref="A116" r:id="rId223" display="https://www.coingecko.com/en/coins/kusama" xr:uid="{71CCD13C-4F13-45ED-903F-7DBA260FAB0F}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.binance.com/en/trade/KSM_USDT" xr:uid="{100B42E9-4F55-4B2B-AD1A-D2C928BE0741}"/>
-    <hyperlink ref="A117" r:id="rId225" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{08A1F052-3900-4872-86A6-9C9849BC7C9F}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.binance.com/en/trade/ETH_DAI" xr:uid="{DE85A631-52FC-4A0E-9E78-1F33991D93EB}"/>
-    <hyperlink ref="A118" r:id="rId227" display="https://www.coingecko.com/en/coins/band-protocol" xr:uid="{A7927FBC-4DC0-4FC8-9A58-D65AF01B694D}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.binance.com/en/trade/BAND_USDT" xr:uid="{EEEF56E3-68C5-4A19-A9A7-5D38A6D0C9CC}"/>
-    <hyperlink ref="A119" r:id="rId229" display="https://www.coingecko.com/en/coins/thorchain" xr:uid="{CFFB6F3E-09DC-489B-850F-7E58E384D2DA}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.binance.com/en/trade/RUNE_USDT" xr:uid="{02591B45-38B3-4DA1-97F2-A62B9F52BA91}"/>
-    <hyperlink ref="A120" r:id="rId231" display="https://www.coingecko.com/en/coins/tellor" xr:uid="{F2340C07-09E8-4952-B2F9-9FC6F7EE47A6}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.binance.com/en/trade/TRB_USDT" xr:uid="{DBA21C29-F4A0-4411-A8AD-BD12BE055890}"/>
-    <hyperlink ref="A121" r:id="rId233" display="https://www.coingecko.com/en/coins/fantom" xr:uid="{125C7D82-2374-42A9-BD1F-BB20D1A3866B}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.binance.com/en/trade/FTM_BNB" xr:uid="{6FD50076-862A-41F6-A02E-0EBDA3A93EF9}"/>
-    <hyperlink ref="A122" r:id="rId235" display="https://www.coingecko.com/en/coins/qtum" xr:uid="{8C5B6749-56A0-468F-BB4E-4F777DB97EED}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.binance.com/en/trade/QTUM_USDT" xr:uid="{79635A80-8206-4638-8976-B61727AA8614}"/>
-    <hyperlink ref="A123" r:id="rId237" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{C22D9CDF-3CB9-4CF6-80CF-437F23398BA4}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.binance.com/en/trade/ADA_BNB" xr:uid="{466F4A63-89F5-4462-89AB-86732662278A}"/>
-    <hyperlink ref="A124" r:id="rId239" display="https://www.coingecko.com/en/coins/holo" xr:uid="{A6EF8C64-F399-4053-ACFF-C780E271A5D3}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.binance.com/en/trade/HOT_USDT" xr:uid="{BDBC0D55-11E0-4CFF-8031-FC199B6AEA0F}"/>
-    <hyperlink ref="A125" r:id="rId241" display="https://www.coingecko.com/en/coins/bittorrent" xr:uid="{52F3B555-4D9A-4472-9398-BBDB715724F8}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.binance.com/en/trade/BTT_USDT" xr:uid="{1BBD17B1-3E43-45AF-9F49-B0636E78E6AA}"/>
-    <hyperlink ref="A126" r:id="rId243" display="https://www.coingecko.com/en/coins/hedera-hashgraph" xr:uid="{CF899BB9-BBA0-43A1-8C9A-183F6DA9568B}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.binance.com/en/trade/HBAR_USDT" xr:uid="{93498462-5DDA-4B3D-8147-46A8ED8D14DC}"/>
-    <hyperlink ref="A127" r:id="rId245" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{5F2DFCDD-F0C7-4E76-A11E-26A96D6A2535}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.binance.com/en/trade/BTC_AUD" xr:uid="{7208CFEF-B574-4173-9A39-422AFF736974}"/>
-    <hyperlink ref="A128" r:id="rId247" display="https://www.coingecko.com/en/coins/0x" xr:uid="{43195C5A-2CB1-4F86-95C1-0643E239EB32}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.binance.com/en/trade/ZRX_USDT" xr:uid="{8DB58F91-F027-486C-8ACC-5A7921F3E58B}"/>
-    <hyperlink ref="A129" r:id="rId249" display="https://www.coingecko.com/en/coins/pundi-x" xr:uid="{CBB2666D-5D0E-4A28-91FF-882B4C140AE5}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.binance.com/en/trade/NPXS_USDT" xr:uid="{2A171F4F-9243-44C2-A08A-39D1A53E041E}"/>
-    <hyperlink ref="A130" r:id="rId251" display="https://www.coingecko.com/en/coins/cosmos" xr:uid="{B5EB6685-CFEB-4A7D-8F01-E11A30F5FCE6}"/>
-    <hyperlink ref="B130" r:id="rId252" display="https://www.binance.com/en/trade/ATOM_BTC" xr:uid="{24BBC984-BE02-4334-A5B0-1F4A47232288}"/>
-    <hyperlink ref="A131" r:id="rId253" display="https://www.coingecko.com/en/coins/bakerytoken" xr:uid="{46265716-BFE4-444E-89CD-68F4FE08E2A3}"/>
-    <hyperlink ref="B131" r:id="rId254" display="https://www.binance.com/en/trade/BAKE_BUSD" xr:uid="{BDEFBADB-DFEF-49B8-9200-D38F3ED8F095}"/>
-    <hyperlink ref="A132" r:id="rId255" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{A97EDFF8-26D3-4E0A-923A-BD2BFB75B197}"/>
-    <hyperlink ref="B132" r:id="rId256" display="https://www.binance.com/en/trade/XLM_BTC" xr:uid="{8D81A69C-C81C-4196-B97A-69CD08F7C3FA}"/>
-    <hyperlink ref="A133" r:id="rId257" display="https://www.coingecko.com/en/coins/kava" xr:uid="{0C5706E0-B1E2-4887-85A1-6ECCF6C720B5}"/>
-    <hyperlink ref="B133" r:id="rId258" display="https://www.binance.com/en/trade/KAVA_USDT" xr:uid="{0C180295-7261-4C6E-A997-D1942D4BB6F1}"/>
-    <hyperlink ref="A134" r:id="rId259" display="https://www.coingecko.com/en/coins/ac-milan-fan-token" xr:uid="{56A9E629-75B6-449E-8DC7-3E889621906A}"/>
-    <hyperlink ref="B134" r:id="rId260" display="https://www.binance.com/en/trade/ACM_BTC" xr:uid="{D311A38E-3EE1-4A19-8B9D-9CB22F329184}"/>
-    <hyperlink ref="A135" r:id="rId261" display="https://www.coingecko.com/en/coins/omg-network" xr:uid="{54EBE21C-6180-42A9-BD75-C658A8436FC7}"/>
-    <hyperlink ref="B135" r:id="rId262" display="https://www.binance.com/en/trade/OMG_USDT" xr:uid="{3A652276-E703-4D5B-8347-4C4D74A0BD13}"/>
-    <hyperlink ref="A136" r:id="rId263" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{9441CD12-283D-4606-97DE-51B0311B896A}"/>
-    <hyperlink ref="B136" r:id="rId264" display="https://www.binance.com/en/trade/BNB_TRY" xr:uid="{CB15684E-CFD6-4142-B39C-013FC70E1569}"/>
-    <hyperlink ref="A138" r:id="rId265" display="https://www.coingecko.com/en/coins/1inch" xr:uid="{AE400888-3895-4D2B-AD9D-5FD002A25A70}"/>
-    <hyperlink ref="B138" r:id="rId266" display="https://www.binance.com/en/trade/1INCH_BTC" xr:uid="{89F1BC88-0ADA-4F1E-8F3F-A18D77CC3592}"/>
-    <hyperlink ref="A139" r:id="rId267" display="https://www.coingecko.com/en/coins/waves" xr:uid="{87F30835-1EFE-4BB0-BE7B-19FCF0F756A3}"/>
-    <hyperlink ref="B139" r:id="rId268" display="https://www.binance.com/en/trade/WAVES_USDT" xr:uid="{6A2EFB86-7E57-453B-B945-B2167F969E8C}"/>
-    <hyperlink ref="A140" r:id="rId269" display="https://www.coingecko.com/en/coins/polygon" xr:uid="{28542638-ACBF-48A2-B78E-088A6D0614A7}"/>
-    <hyperlink ref="B140" r:id="rId270" display="https://www.binance.com/en/trade/MATIC_BUSD" xr:uid="{EB3EE566-D8FC-467A-A95F-52B37D20558C}"/>
-    <hyperlink ref="A141" r:id="rId271" display="https://www.coingecko.com/en/coins/reef-finance" xr:uid="{46EF12BF-ECF6-4DF8-AF2E-EC9A2185464E}"/>
-    <hyperlink ref="B141" r:id="rId272" display="https://www.binance.com/en/trade/REEF_BTC" xr:uid="{A346FE6C-2911-4882-BF6A-33747A09B196}"/>
-    <hyperlink ref="A142" r:id="rId273" display="https://www.coingecko.com/en/coins/compound" xr:uid="{71C9C69C-B573-4335-B8FA-AE64F10C2280}"/>
-    <hyperlink ref="B142" r:id="rId274" display="https://www.binance.com/en/trade/COMP_USDT" xr:uid="{6E4BCBE7-D87F-4060-85EA-6AD2E42F03FD}"/>
-    <hyperlink ref="A143" r:id="rId275" display="https://www.coingecko.com/en/coins/uniswap" xr:uid="{096BC9CB-D232-432B-B1DF-7CA42E51FAB1}"/>
-    <hyperlink ref="B143" r:id="rId276" display="https://www.binance.com/en/trade/UNI_BTC" xr:uid="{3C7F9F1B-5C77-4A0B-8FDD-F6F3A20E519A}"/>
-    <hyperlink ref="A144" r:id="rId277" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{DDD9883D-2C69-47E1-B467-45447E83A8F6}"/>
-    <hyperlink ref="B144" r:id="rId278" display="https://www.binance.com/en/trade/XRP_BUSD" xr:uid="{2905992D-C307-478E-A96F-AA4226AFBA09}"/>
-    <hyperlink ref="A145" r:id="rId279" display="https://www.coingecko.com/en/coins/voyager-token" xr:uid="{8DDE17D3-58E9-481C-A8B0-4DD0BFE21C05}"/>
-    <hyperlink ref="B145" r:id="rId280" display="https://www.binance.com/en/trade/BQX_BTC" xr:uid="{F63E33FE-C3BA-44EA-A807-2097CDC8ED08}"/>
-    <hyperlink ref="A146" r:id="rId281" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{3CBEA174-AF32-43AA-A470-0902A7DAD2EB}"/>
-    <hyperlink ref="B146" r:id="rId282" display="https://www.binance.com/en/trade/BTC_TRY" xr:uid="{DB830436-C766-4547-A9F1-93FDB38E7EEB}"/>
-    <hyperlink ref="A147" r:id="rId283" display="https://www.coingecko.com/en/coins/alpha-finance" xr:uid="{235AD121-0A35-4873-8214-2B3234E5C112}"/>
-    <hyperlink ref="B147" r:id="rId284" display="https://www.binance.com/en/trade/ALPHA_BTC" xr:uid="{0D0615C2-8E1A-4FD2-9AC2-6C31DC531AB6}"/>
-    <hyperlink ref="A148" r:id="rId285" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{2E7EB293-2D0E-4C41-B1A0-6EBB2561C7E8}"/>
-    <hyperlink ref="B148" r:id="rId286" display="https://www.binance.com/en/trade/BTC_PAX" xr:uid="{D69DB7F1-AF40-4FD7-B0F8-866001E1E2A9}"/>
-    <hyperlink ref="A149" r:id="rId287" display="https://www.coingecko.com/en/coins/lisk" xr:uid="{341335CB-468A-4A86-858C-06AFDCA61A6F}"/>
-    <hyperlink ref="B149" r:id="rId288" display="https://www.binance.com/en/trade/LSK_BTC" xr:uid="{A91FF4E3-8C87-4233-8F53-08EE791E0A52}"/>
-    <hyperlink ref="A150" r:id="rId289" display="https://www.coingecko.com/en/coins/ravencoin" xr:uid="{A425016A-24BF-4A42-87CC-0C88F779529B}"/>
-    <hyperlink ref="B150" r:id="rId290" display="https://www.binance.com/en/trade/RVN_BTC" xr:uid="{65AE7D6D-E03F-4B59-B698-89D9E9323C87}"/>
-    <hyperlink ref="A151" r:id="rId291" display="https://www.coingecko.com/en/coins/ftx-token" xr:uid="{11208422-26F4-4F43-BB1A-B168CB8EA64A}"/>
-    <hyperlink ref="B151" r:id="rId292" display="https://www.binance.com/en/trade/FTT_USDT" xr:uid="{2DB3AED7-994E-45CB-BC73-22AECD48CCC6}"/>
-    <hyperlink ref="A152" r:id="rId293" display="https://www.coingecko.com/en/coins/nem" xr:uid="{D7373551-1CDD-4380-AEC2-F0E58D4FA922}"/>
-    <hyperlink ref="B152" r:id="rId294" display="https://www.binance.com/en/trade/XEM_BTC" xr:uid="{95665472-32D2-41BE-971B-2D687A229E7A}"/>
-    <hyperlink ref="A153" r:id="rId295" display="https://www.coingecko.com/en/coins/basic-attention-token" xr:uid="{A475992A-A6CF-4D4F-9C9F-1D6BD34FEB84}"/>
-    <hyperlink ref="B153" r:id="rId296" display="https://www.binance.com/en/trade/BAT_USDT" xr:uid="{1F76BF62-1D7C-4CCA-9E84-02A4993B026C}"/>
-    <hyperlink ref="A154" r:id="rId297" display="https://www.coingecko.com/en/coins/reserve-rights-token" xr:uid="{9886993E-51DD-4939-B353-F7C2891C5DD5}"/>
-    <hyperlink ref="B154" r:id="rId298" display="https://www.binance.com/en/trade/RSR_USDT" xr:uid="{7BEAFDFF-06EB-46D6-8163-1BED595E85E9}"/>
-    <hyperlink ref="A155" r:id="rId299" display="https://www.coingecko.com/en/coins/eos" xr:uid="{C1D6F8AE-88FB-44E1-9B0D-BEC1A96CD052}"/>
-    <hyperlink ref="B155" r:id="rId300" display="https://www.binance.com/en/trade/EOS_BTC" xr:uid="{88E67305-FEE4-49F3-B35B-02C1214386B1}"/>
-    <hyperlink ref="A156" r:id="rId301" display="https://www.coingecko.com/en/coins/tezos" xr:uid="{0E9F9E1E-D78B-4D4F-8F68-B6DBFB01E9C2}"/>
-    <hyperlink ref="B156" r:id="rId302" display="https://www.binance.com/en/trade/XTZ_BTC" xr:uid="{A30C72A9-0BE2-4EF9-9012-AA0A711841F3}"/>
-    <hyperlink ref="A157" r:id="rId303" display="https://www.coingecko.com/en/coins/monero" xr:uid="{114EB069-4A8E-4C39-9DD0-F64E99BE496B}"/>
-    <hyperlink ref="B157" r:id="rId304" display="https://www.binance.com/en/trade/XMR_BTC" xr:uid="{C217A8E8-740A-4AED-BA6C-2069CC719A84}"/>
-    <hyperlink ref="A158" r:id="rId305" display="https://www.coingecko.com/en/coins/terra-luna" xr:uid="{AA900C22-77AB-418F-AE78-35DF09197C25}"/>
-    <hyperlink ref="B158" r:id="rId306" display="https://www.binance.com/en/trade/LUNA_BTC" xr:uid="{55E5ACE5-599E-490F-A608-ABEDE74DDFC2}"/>
-    <hyperlink ref="A160" r:id="rId307" display="https://www.coingecko.com/en/coins/phala-network" xr:uid="{86652132-72DD-460A-92F9-50FA6BAA4B08}"/>
-    <hyperlink ref="B160" r:id="rId308" display="https://www.binance.com/en/trade/PHA_BTC" xr:uid="{FCB64DD7-5D29-472B-A370-7BD1E5AA5FFA}"/>
-    <hyperlink ref="A161" r:id="rId309" display="https://www.coingecko.com/en/coins/hifi-finance" xr:uid="{2CEC5E3A-F2A7-4CB3-B65F-8938540F8E19}"/>
-    <hyperlink ref="B161" r:id="rId310" display="https://www.binance.com/en/trade/MFT_USDT" xr:uid="{E070AF9C-1268-41D0-9310-3028D7F26B8B}"/>
-    <hyperlink ref="A162" r:id="rId311" display="https://www.coingecko.com/en/coins/algorand" xr:uid="{5E06CFE4-A522-4DD7-B41E-D9A92F78A993}"/>
-    <hyperlink ref="B162" r:id="rId312" display="https://www.binance.com/en/trade/ALGO_BTC" xr:uid="{265127B4-2C4C-45FE-80C1-E23BFEB72FDD}"/>
-    <hyperlink ref="A163" r:id="rId313" display="https://www.coingecko.com/en/coins/bluzelle" xr:uid="{97992944-DBB2-4843-9572-A742C1620083}"/>
-    <hyperlink ref="B163" r:id="rId314" display="https://www.binance.com/en/trade/BLZ_USDT" xr:uid="{C3BA0A33-1125-4B9E-8AAC-901DDEF9F6B3}"/>
-    <hyperlink ref="A164" r:id="rId315" display="https://www.coingecko.com/en/coins/vechain" xr:uid="{2EF4A00E-D6E7-4E85-B734-46EC02D070CD}"/>
-    <hyperlink ref="B164" r:id="rId316" display="https://www.binance.com/en/trade/VET_BTC" xr:uid="{2C38E38B-4DDD-488C-BFDC-6699820B503C}"/>
-    <hyperlink ref="A165" r:id="rId317" display="https://www.coingecko.com/en/coins/chiliz" xr:uid="{130C1524-6F09-47E4-B89A-028ACC36B254}"/>
-    <hyperlink ref="B165" r:id="rId318" display="https://www.binance.com/en/trade/CHZ_BTC" xr:uid="{D0A7CE32-C126-4A02-99D4-CCF0A9A96BF3}"/>
-    <hyperlink ref="A166" r:id="rId319" display="https://www.coingecko.com/en/coins/orion-protocol" xr:uid="{8AD67874-6EE7-4E45-8270-891D6A5EF41B}"/>
-    <hyperlink ref="B166" r:id="rId320" display="https://www.binance.com/en/trade/ORN_USDT" xr:uid="{068093A0-23E4-416D-B26E-50FB8C361965}"/>
-    <hyperlink ref="A167" r:id="rId321" display="https://www.coingecko.com/en/coins/tether" xr:uid="{439B89B9-8990-475A-856B-89A245FCB62F}"/>
-    <hyperlink ref="B167" r:id="rId322" display="https://www.binance.com/en/trade/USDT_DAI" xr:uid="{D5849139-AAFB-4FF8-9E09-8A630406DE21}"/>
-    <hyperlink ref="A168" r:id="rId323" display="https://www.coingecko.com/en/coins/dfi-money" xr:uid="{2A37357A-796B-4E22-814D-E3ACEA9AA826}"/>
-    <hyperlink ref="B168" r:id="rId324" display="https://www.binance.com/en/trade/YFII_USDT" xr:uid="{F8E686DC-0C36-4438-85D1-4E6410A71048}"/>
-    <hyperlink ref="A169" r:id="rId325" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{82E0D9E7-0A4A-4DC3-A869-58259F5FBA9F}"/>
-    <hyperlink ref="B169" r:id="rId326" display="https://www.binance.com/en/trade/BNB_GBP" xr:uid="{7C80A290-46B6-40EC-8776-1C38860D4558}"/>
-    <hyperlink ref="A170" r:id="rId327" display="https://www.coingecko.com/en/coins/pancakeswap" xr:uid="{F87A4C80-A79F-4F78-811B-93713EA0EB2F}"/>
-    <hyperlink ref="B170" r:id="rId328" display="https://www.binance.com/en/trade/CAKE_BNB" xr:uid="{D95AE787-08FD-479B-8EF3-FDB5D2FC6FDC}"/>
-    <hyperlink ref="A171" r:id="rId329" display="https://www.coingecko.com/en/coins/the-graph" xr:uid="{519CC4D5-7A6A-4BD5-A238-EB3F25E2FECC}"/>
-    <hyperlink ref="B171" r:id="rId330" display="https://www.binance.com/en/trade/GRT_BTC" xr:uid="{E2DC76FD-9102-4D13-9514-0D434819F6DD}"/>
-    <hyperlink ref="A172" r:id="rId331" display="https://www.coingecko.com/en/coins/aave" xr:uid="{A361C590-CD66-4C80-A6FC-56335DB2B3AC}"/>
-    <hyperlink ref="B172" r:id="rId332" display="https://www.binance.com/en/trade/AAVE_BTC" xr:uid="{D4DF100C-31E6-406A-8C88-AF8F449854D4}"/>
-    <hyperlink ref="A173" r:id="rId333" display="https://www.coingecko.com/en/coins/true-usd" xr:uid="{E80F61AB-8A20-43F2-BEC5-05879BCC92D2}"/>
-    <hyperlink ref="B173" r:id="rId334" display="https://www.binance.com/en/trade/TUSD_USDT" xr:uid="{3050F3D6-7D32-43E2-A002-76A5D9F79321}"/>
-    <hyperlink ref="A174" r:id="rId335" display="https://www.coingecko.com/en/coins/ankr-network" xr:uid="{2FE6D821-83C4-43D9-9FC7-520C526093E6}"/>
-    <hyperlink ref="B174" r:id="rId336" display="https://www.binance.com/en/trade/ANKR_BTC" xr:uid="{F9F2119E-3BF0-4810-9DD1-D6D9065DF642}"/>
-    <hyperlink ref="A175" r:id="rId337" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{78B60E42-FA8F-496E-9D2B-6D6C6144FDCE}"/>
-    <hyperlink ref="B175" r:id="rId338" display="https://www.binance.com/en/trade/LINK_BUSD" xr:uid="{8CA60609-57BB-45C8-A3F3-FED48A617A38}"/>
-    <hyperlink ref="A176" r:id="rId339" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{8383A878-3581-4A71-A320-227662DFCF13}"/>
-    <hyperlink ref="B176" r:id="rId340" display="https://www.binance.com/en/trade/DOGE_BUSD" xr:uid="{2E8F0424-4C78-4C08-8B83-84D8A4B99439}"/>
-    <hyperlink ref="A177" r:id="rId341" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{2ED048F6-7AB3-4D62-ADD2-EF00C43ABEE8}"/>
-    <hyperlink ref="B177" r:id="rId342" display="https://www.binance.com/en/trade/SXP_BUSD" xr:uid="{44505CD2-345D-4C87-9357-DCBE313694EB}"/>
-    <hyperlink ref="A178" r:id="rId343" display="https://www.coingecko.com/en/coins/elrond" xr:uid="{BA64DC20-AFE5-4BAF-97AF-6559CAE6E14E}"/>
-    <hyperlink ref="B178" r:id="rId344" display="https://www.binance.com/en/trade/EGLD_BTC" xr:uid="{F42DBB42-E7C0-4B9A-B1DE-A1086C7C8242}"/>
-    <hyperlink ref="A179" r:id="rId345" display="https://www.coingecko.com/en/coins/dent" xr:uid="{E45F7945-F17A-417F-B120-FA922D218C1C}"/>
-    <hyperlink ref="B179" r:id="rId346" display="https://www.binance.com/en/trade/DENT_USDT" xr:uid="{D96B79B9-8248-4587-8BD9-D24B208A1EEA}"/>
-    <hyperlink ref="A180" r:id="rId347" display="https://www.coingecko.com/en/coins/serum" xr:uid="{AC4F07B8-4F13-4FB0-898D-1AE36CF00EBE}"/>
-    <hyperlink ref="B180" r:id="rId348" display="https://www.binance.com/en/trade/SRM_BTC" xr:uid="{6D2C5ADD-957A-4F3C-A23C-6424D9704F78}"/>
-    <hyperlink ref="A181" r:id="rId349" display="https://www.coingecko.com/en/coins/solana" xr:uid="{4AF823B5-09C9-4CDE-9117-07866A61FDFE}"/>
-    <hyperlink ref="B181" r:id="rId350" display="https://www.binance.com/en/trade/SOL_BUSD" xr:uid="{33FB09C3-BCB5-4868-8EFF-90B07801FBF9}"/>
-    <hyperlink ref="A182" r:id="rId351" display="https://www.coingecko.com/en/coins/eos" xr:uid="{4BAADC7B-E68F-474A-BFD5-EFCB65954425}"/>
-    <hyperlink ref="B182" r:id="rId352" display="https://www.binance.com/en/trade/EOS_BUSD" xr:uid="{31F93193-4370-4160-8675-A09FF1433CC3}"/>
-    <hyperlink ref="A183" r:id="rId353" display="https://www.coingecko.com/en/coins/horizen" xr:uid="{CF152E05-9071-4D3F-8BD5-C84FD5116A3C}"/>
-    <hyperlink ref="B183" r:id="rId354" display="https://www.binance.com/en/trade/ZEN_USDT" xr:uid="{11703D34-8253-4051-8008-4E771C29EDFF}"/>
-    <hyperlink ref="A184" r:id="rId355" display="https://www.coingecko.com/en/coins/ocean-protocol" xr:uid="{2D489DE6-9567-441D-B007-44CC0494AFCF}"/>
-    <hyperlink ref="B184" r:id="rId356" display="https://www.binance.com/en/trade/OCEAN_USDT" xr:uid="{E98106B9-E643-42E6-88F9-98FDA1B230FD}"/>
-    <hyperlink ref="A185" r:id="rId357" display="https://www.coingecko.com/en/coins/cartesi" xr:uid="{57F78846-F4D5-4ABE-B94C-AD30F7A7B49F}"/>
-    <hyperlink ref="B185" r:id="rId358" display="https://www.binance.com/en/trade/CTSI_USDT" xr:uid="{BBB05298-A624-442F-A5F4-CBE064CDDCB5}"/>
-    <hyperlink ref="A186" r:id="rId359" display="https://www.coingecko.com/en/coins/stack" xr:uid="{42C76EFD-330C-4C43-A833-31B7269994C7}"/>
-    <hyperlink ref="B186" r:id="rId360" display="https://www.binance.com/en/trade/STX_BTC" xr:uid="{A49DAFD0-8E47-40FA-A1F3-956B0EF76AE5}"/>
-    <hyperlink ref="A187" r:id="rId361" display="https://www.coingecko.com/en/coins/ac-milan-fan-token" xr:uid="{E8B4E11D-AA3F-457F-A047-2BDDAC2BA6D8}"/>
-    <hyperlink ref="B187" r:id="rId362" display="https://www.binance.com/en/trade/ACM_BUSD" xr:uid="{53BE8191-20CD-4E07-95EF-EF9C727BA573}"/>
-    <hyperlink ref="A188" r:id="rId363" display="https://www.coingecko.com/en/coins/bounce" xr:uid="{96A46624-B4AC-4E64-8FB3-4B79C45B61E3}"/>
-    <hyperlink ref="B188" r:id="rId364" display="https://www.binance.com/en/trade/AUCTION_BUSD" xr:uid="{477DF5EE-E104-4CC7-B00F-FC33DE671A3F}"/>
-    <hyperlink ref="A189" r:id="rId365" display="https://www.coingecko.com/en/coins/nervos-network" xr:uid="{A4FC74AB-F3B2-4055-808A-793ED6E4A34F}"/>
-    <hyperlink ref="B189" r:id="rId366" display="https://www.binance.com/en/trade/CKB_BTC" xr:uid="{BC97BFA3-0019-49D7-A4BD-8FE01BCCD653}"/>
-    <hyperlink ref="A190" r:id="rId367" display="https://www.coingecko.com/en/coins/avalanche" xr:uid="{9DA58C2B-C56E-456E-B665-BDC8E7BE7FE8}"/>
-    <hyperlink ref="B190" r:id="rId368" display="https://www.binance.com/en/trade/AVAX_BTC" xr:uid="{B883B503-C6C0-4079-8A20-C6D91A271F55}"/>
-    <hyperlink ref="A191" r:id="rId369" display="https://www.coingecko.com/en/coins/ren" xr:uid="{CB84D29E-9CCB-4948-99E6-0ACF7B32A7B6}"/>
-    <hyperlink ref="B191" r:id="rId370" display="https://www.binance.com/en/trade/REN_BTC" xr:uid="{1B531CDA-7B85-481C-9686-BC9CA1FD7B12}"/>
-    <hyperlink ref="A192" r:id="rId371" display="https://www.coingecko.com/en/coins/aion" xr:uid="{2793D0EB-E4A7-4400-8453-BF95A9F93B55}"/>
-    <hyperlink ref="B192" r:id="rId372" display="https://www.binance.com/en/trade/AION_USDT" xr:uid="{FA22ED38-1571-4178-BB91-394897EF9C33}"/>
-    <hyperlink ref="A194" r:id="rId373" display="https://www.coingecko.com/en/coins/wrapped-bitcoin" xr:uid="{CD4BCBFF-0328-4A8C-AF29-3AA5A343F70D}"/>
-    <hyperlink ref="B194" r:id="rId374" display="https://www.binance.com/en/trade/WBTC_BTC" xr:uid="{9BA9A046-255C-4F3B-9037-5C84B7944A6F}"/>
-    <hyperlink ref="A195" r:id="rId375" display="https://www.coingecko.com/en/coins/ontology-gas" xr:uid="{E7CB6785-FC61-465B-989E-C65C5760CEC0}"/>
-    <hyperlink ref="B195" r:id="rId376" display="https://www.binance.com/en/trade/ONG_USDT" xr:uid="{ECC5AF0E-00B1-4AF5-8192-2546A7723B51}"/>
-    <hyperlink ref="A196" r:id="rId377" display="https://www.coingecko.com/en/coins/unifi-protocol-dao" xr:uid="{191EA5DB-496C-4F3F-8139-5E33046DC536}"/>
-    <hyperlink ref="B196" r:id="rId378" display="https://www.binance.com/en/trade/UNFI_BUSD" xr:uid="{1F2EB17A-34F1-46CC-8A02-A5C6447F881C}"/>
-    <hyperlink ref="A197" r:id="rId379" display="https://www.coingecko.com/en/coins/pancakeswap" xr:uid="{5CF4F72E-6A5E-4480-908F-D060B6161151}"/>
-    <hyperlink ref="B197" r:id="rId380" display="https://www.binance.com/en/trade/CAKE_BTC" xr:uid="{0FB09ECF-9C5E-40BC-8CAD-6837B65187B1}"/>
-    <hyperlink ref="A198" r:id="rId381" display="https://www.coingecko.com/en/coins/bancor-network" xr:uid="{38EFBA02-66E8-4BF6-B1C7-A8A4D1A59710}"/>
-    <hyperlink ref="B198" r:id="rId382" display="https://www.binance.com/en/trade/BNT_USDT" xr:uid="{EB874751-5EB0-4BE6-B475-E189446E3174}"/>
-    <hyperlink ref="A199" r:id="rId383" display="https://www.coingecko.com/en/coins/tomochain" xr:uid="{A6180A26-D2E4-4200-83AE-7E1D479979B3}"/>
-    <hyperlink ref="B199" r:id="rId384" display="https://www.binance.com/en/trade/TOMO_BTC" xr:uid="{A4025A36-98FA-4980-89F3-0EBF329C1129}"/>
-    <hyperlink ref="A200" r:id="rId385" display="https://www.coingecko.com/en/coins/bakerytoken" xr:uid="{DF4729CA-AC99-4E5E-BA29-A8FF1B71BC7F}"/>
-    <hyperlink ref="B200" r:id="rId386" display="https://www.binance.com/en/trade/BAKE_BNB" xr:uid="{83B6A665-0145-4D1D-A630-60A790D22712}"/>
-    <hyperlink ref="A201" r:id="rId387" display="https://www.coingecko.com/en/coins/neo" xr:uid="{7DE73DF1-B822-4C2C-A924-AF3C258EB1FD}"/>
-    <hyperlink ref="B201" r:id="rId388" display="https://www.binance.com/en/trade/NEO_BTC" xr:uid="{053C2152-D3D3-49E9-8BE6-096553AA8229}"/>
-    <hyperlink ref="A202" r:id="rId389" display="https://www.coingecko.com/en/coins/iota" xr:uid="{BE2F0772-76C5-4E7F-9F9F-B77D9A6AF6F7}"/>
-    <hyperlink ref="B202" r:id="rId390" display="https://www.binance.com/en/trade/IOTA_BTC" xr:uid="{95C40B9D-A011-4A27-BCA8-DD09744E18B6}"/>
-    <hyperlink ref="A203" r:id="rId391" display="https://www.coingecko.com/en/coins/icon" xr:uid="{C2071B65-148C-4674-88B6-FCA1502580C6}"/>
-    <hyperlink ref="B203" r:id="rId392" display="https://www.binance.com/en/trade/ICX_BTC" xr:uid="{8FE14EDD-695E-4A7D-B09C-C249B99BD7E4}"/>
-    <hyperlink ref="A204" r:id="rId393" display="https://www.coingecko.com/en/coins/paxos-standard" xr:uid="{91917CC5-83F9-4BB7-994B-2C3923947A43}"/>
-    <hyperlink ref="B204" r:id="rId394" display="https://www.binance.com/en/trade/PAX_USDT" xr:uid="{464A64EF-1704-4C22-A0D8-51CBD3C9C642}"/>
-    <hyperlink ref="A205" r:id="rId395" display="https://www.coingecko.com/en/coins/zilliqa" xr:uid="{EBD199A1-77E8-4CBC-BB25-977B801BEA90}"/>
-    <hyperlink ref="B205" r:id="rId396" display="https://www.binance.com/en/trade/ZIL_BTC" xr:uid="{EA83CADB-C967-40D9-82B1-AF06C1D73B6C}"/>
-    <hyperlink ref="A206" r:id="rId397" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{AA2F7585-30E8-4A98-82FA-28332ACA804F}"/>
-    <hyperlink ref="B206" r:id="rId398" display="https://www.binance.com/en/trade/BUSD_DAI" xr:uid="{DA8687F1-37B1-4142-ACD6-F3D83A848B03}"/>
-    <hyperlink ref="A207" r:id="rId399" display="https://www.coingecko.com/en/coins/sand" xr:uid="{CC5D9532-710E-43C9-97FE-4015813ABA53}"/>
-    <hyperlink ref="B207" r:id="rId400" display="https://www.binance.com/en/trade/SAND_USDT" xr:uid="{90853C79-5AF7-43BC-8888-92B02A40FD7C}"/>
-    <hyperlink ref="A208" r:id="rId401" display="https://www.coingecko.com/en/coins/nano" xr:uid="{1D974F52-68AD-48AC-A94A-4F658B7F0F58}"/>
-    <hyperlink ref="B208" r:id="rId402" display="https://www.binance.com/en/trade/NANO_USDT" xr:uid="{EACA6901-19AF-4B83-8EDA-2F023B194643}"/>
-    <hyperlink ref="A209" r:id="rId403" display="https://www.coingecko.com/en/coins/tron" xr:uid="{55FB7C72-2E31-4D4A-A438-EF2BCAB99F68}"/>
-    <hyperlink ref="B209" r:id="rId404" display="https://www.binance.com/en/trade/TRX_BTC" xr:uid="{8D393BB5-0FCD-451A-8949-B0275C7EB79D}"/>
-    <hyperlink ref="A210" r:id="rId405" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{9EFA3C5A-6800-4342-9CCC-01F32DB6ACCC}"/>
-    <hyperlink ref="B210" r:id="rId406" display="https://www.binance.com/en/trade/BNB_USDC" xr:uid="{81C41BF6-F0B3-4713-87A3-6E8BD08DFC76}"/>
-    <hyperlink ref="A211" r:id="rId407" display="https://www.coingecko.com/en/coins/thorchain" xr:uid="{BDF63923-3536-41D0-B201-325E46C65FFF}"/>
-    <hyperlink ref="B211" r:id="rId408" display="https://www.binance.com/en/trade/RUNE_BTC" xr:uid="{3EFED1FD-2F9D-43AC-8A7E-5F3726C0A6BE}"/>
-    <hyperlink ref="A212" r:id="rId409" display="https://www.coingecko.com/en/coins/uniswap" xr:uid="{10C4FAE4-8705-4D32-810E-8FC67B52F7D9}"/>
-    <hyperlink ref="B212" r:id="rId410" display="https://www.binance.com/en/trade/UNI_BUSD" xr:uid="{6B40D4A3-993C-47A7-8788-6867B87C4091}"/>
-    <hyperlink ref="A215" r:id="rId411" display="https://www.coingecko.com/en/coins/pivx" xr:uid="{4F3ABD34-D349-4D4D-87DC-CCE045327759}"/>
-    <hyperlink ref="B215" r:id="rId412" display="https://www.binance.com/en/trade/PIVX_BTC" xr:uid="{095256BB-D450-4FA6-8096-0AC4DB348A63}"/>
-    <hyperlink ref="A216" r:id="rId413" display="https://www.coingecko.com/en/coins/travala" xr:uid="{22F42973-B4B6-4BEC-A211-D58D8791D7EF}"/>
-    <hyperlink ref="B216" r:id="rId414" display="https://www.binance.com/en/trade/AVA_USDT" xr:uid="{0EABE1A4-640A-4DCF-84FE-358F88436877}"/>
-    <hyperlink ref="A217" r:id="rId415" display="https://www.coingecko.com/en/coins/fetch-ai" xr:uid="{52E6D250-7862-4716-891D-2A566F197620}"/>
-    <hyperlink ref="B217" r:id="rId416" display="https://www.binance.com/en/trade/FET_USDT" xr:uid="{9C3508F6-90E8-4E91-9202-9C33367F3F44}"/>
-    <hyperlink ref="A218" r:id="rId417" display="https://www.coingecko.com/en/coins/hedera-hashgraph" xr:uid="{D3F72497-6DB3-414E-BA8B-B334912846BB}"/>
-    <hyperlink ref="B218" r:id="rId418" display="https://www.binance.com/en/trade/HBAR_BTC" xr:uid="{50C34D8B-BE3F-4A09-9224-FADA12ACFCB8}"/>
-    <hyperlink ref="A219" r:id="rId419" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{A39B1352-4CFD-402F-9915-5DB6EB7E0909}"/>
-    <hyperlink ref="B219" r:id="rId420" display="https://www.binance.com/en/trade/DOT_BNB" xr:uid="{BC80FED7-5D58-41F4-96EE-955B128AC2C0}"/>
-    <hyperlink ref="A220" r:id="rId421" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{F119D123-62B0-476A-8869-5494C79FAED0}"/>
-    <hyperlink ref="B220" r:id="rId422" display="https://www.binance.com/en/trade/BTC_BRL" xr:uid="{983202B7-47AB-4C0E-9CCE-86A6C7B9C129}"/>
-    <hyperlink ref="A221" r:id="rId423" display="https://www.coingecko.com/en/coins/dusk-network" xr:uid="{F4C59D9D-AF31-41E2-8BA3-8A037EB6D7D7}"/>
-    <hyperlink ref="B221" r:id="rId424" display="https://www.binance.com/en/trade/DUSK_USDT" xr:uid="{618F6711-DE32-4318-87F0-49FFF5280508}"/>
-    <hyperlink ref="A222" r:id="rId425" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{EA260ADE-1A03-45EB-B574-3F689D159DD0}"/>
-    <hyperlink ref="B222" r:id="rId426" display="https://www.binance.com/en/trade/XRP_EUR" xr:uid="{307D16E1-EEDB-4E0B-BC63-A31FCAACE819}"/>
-    <hyperlink ref="A223" r:id="rId427" display="https://www.coingecko.com/en/coins/synthetix-network-token" xr:uid="{FF1E6176-A192-405D-8BDC-8CBE48771C27}"/>
-    <hyperlink ref="B223" r:id="rId428" display="https://www.binance.com/en/trade/SNX_BTC" xr:uid="{E55F4B92-C246-4621-861F-E27B44B5FF63}"/>
-    <hyperlink ref="A224" r:id="rId429" display="https://www.coingecko.com/en/coins/flamingo-finance" xr:uid="{4B5A4EAB-54BC-4DA7-B125-709B423D06BD}"/>
-    <hyperlink ref="B224" r:id="rId430" display="https://www.binance.com/en/trade/FLM_USDT" xr:uid="{FF1375F4-02D0-4073-8157-AACDF8565A77}"/>
-    <hyperlink ref="A227" r:id="rId431" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{6AD13603-010C-4DD5-981A-FA7C374643FA}"/>
-    <hyperlink ref="B227" r:id="rId432" display="https://www.binance.com/en/trade/ETH_AUD" xr:uid="{96E6E58F-3E99-49AF-B587-9918A987DE60}"/>
-    <hyperlink ref="A228" r:id="rId433" display="https://www.coingecko.com/en/coins/harmony" xr:uid="{82DE143D-B634-4A9E-AD01-7EB6F9E36B60}"/>
-    <hyperlink ref="B228" r:id="rId434" display="https://www.binance.com/en/trade/ONE_USDT" xr:uid="{4546A61A-6459-4220-B18B-E01FB4F45398}"/>
-    <hyperlink ref="A229" r:id="rId435" display="https://www.coingecko.com/en/coins/aavegotchi" xr:uid="{DA5DFB2B-C422-4937-93B0-44278DA88DF1}"/>
-    <hyperlink ref="B229" r:id="rId436" display="https://www.binance.com/en/trade/GHST_BUSD" xr:uid="{FBDF92CD-E245-46AA-8DBA-110F5915CF5C}"/>
-    <hyperlink ref="A230" r:id="rId437" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{542CDF79-7D82-44D4-9557-A99B58C55A6A}"/>
-    <hyperlink ref="B230" r:id="rId438" display="https://www.binance.com/en/trade/LTC_EUR" xr:uid="{4230721E-25EB-4541-AC72-7A5BE7C41E3E}"/>
-    <hyperlink ref="A232" r:id="rId439" display="https://www.coingecko.com/en/coins/funfair" xr:uid="{BD433592-D0E8-4678-A217-E2E8D5F000D8}"/>
-    <hyperlink ref="B232" r:id="rId440" display="https://www.binance.com/en/trade/FUN_USDT" xr:uid="{72819455-1A95-4BB1-98B6-32C3C83A6ED9}"/>
-    <hyperlink ref="A234" r:id="rId441" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{1364B8AE-D3FD-42B8-B368-7FD26FE4DA07}"/>
-    <hyperlink ref="B234" r:id="rId442" display="https://www.binance.com/en/trade/BCH_BUSD" xr:uid="{79DA96EC-0595-4E7C-A7B8-9417250DE816}"/>
-    <hyperlink ref="A235" r:id="rId443" display="https://www.coingecko.com/en/coins/sushi" xr:uid="{82259FFC-F475-4302-824E-491B65F7F037}"/>
-    <hyperlink ref="B235" r:id="rId444" display="https://www.binance.com/en/trade/SUSHI_BUSD" xr:uid="{7DFF37A3-62BC-4ED5-8B59-4056BB4DA715}"/>
-    <hyperlink ref="A236" r:id="rId445" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{98732238-5BF1-40C7-B17F-D08E4F00995B}"/>
-    <hyperlink ref="B236" r:id="rId446" display="https://www.binance.com/en/trade/DOT_EUR" xr:uid="{AF5C5119-16C0-41ED-9E0D-B0C29721A42E}"/>
-    <hyperlink ref="A237" r:id="rId447" display="https://www.coingecko.com/en/coins/oasis-network" xr:uid="{2214EC04-369D-4179-B131-70ADB34A4478}"/>
-    <hyperlink ref="B237" r:id="rId448" display="https://www.binance.com/en/trade/ROSE_USDT" xr:uid="{5E419C19-BB5E-4F4C-B13B-EE44C8D53711}"/>
-    <hyperlink ref="A238" r:id="rId449" display="https://www.coingecko.com/en/coins/venus" xr:uid="{555730BE-3EB2-4A36-B661-553582C49359}"/>
-    <hyperlink ref="B238" r:id="rId450" display="https://www.binance.com/en/trade/XVS_BTC" xr:uid="{F0D0A4A0-6C69-4043-BACA-F812B9265E48}"/>
-    <hyperlink ref="A239" r:id="rId451" display="https://www.coingecko.com/en/coins/bounce" xr:uid="{1ADB98A9-F64E-41DE-A368-7013B4305060}"/>
-    <hyperlink ref="B239" r:id="rId452" display="https://www.binance.com/en/trade/AUCTION_BTC" xr:uid="{0F8A8092-B340-461B-B329-3133154A83EE}"/>
-    <hyperlink ref="A240" r:id="rId453" display="https://www.coingecko.com/en/coins/dash" xr:uid="{22E430A8-9753-437E-A67E-850CD7BB6EBA}"/>
-    <hyperlink ref="B240" r:id="rId454" display="https://www.binance.com/en/trade/DASH_BTC" xr:uid="{5A0A8F10-16D3-4237-85FF-AE99E0FAA507}"/>
-    <hyperlink ref="A241" r:id="rId455" display="https://www.coingecko.com/en/coins/terra-luna" xr:uid="{4340CB59-EA2E-4723-977F-D32AAD4B53EA}"/>
-    <hyperlink ref="B241" r:id="rId456" display="https://www.binance.com/en/trade/LUNA_BNB" xr:uid="{4D938F76-5690-4DEE-971D-669C4BF5586A}"/>
-    <hyperlink ref="A242" r:id="rId457" display="https://www.coingecko.com/en/coins/zcash" xr:uid="{55C7E865-D845-44FB-80F7-E06B641CCD6C}"/>
-    <hyperlink ref="B242" r:id="rId458" display="https://www.binance.com/en/trade/ZEC_BTC" xr:uid="{1C998B55-F504-4D35-A689-C04EE98F29E4}"/>
-    <hyperlink ref="A243" r:id="rId459" display="https://www.coingecko.com/en/coins/btc-standard-hashrate-token" xr:uid="{422411B1-76DF-471F-8A14-DEBF619DA36E}"/>
-    <hyperlink ref="B243" r:id="rId460" display="https://www.binance.com/en/trade/BTCST_BTC" xr:uid="{5BCA57AB-3741-42F3-A86C-8CE2DF142009}"/>
-    <hyperlink ref="A244" r:id="rId461" display="https://www.coingecko.com/en/coins/theta-network" xr:uid="{EE400052-BAAF-47EC-9844-207035B2F840}"/>
-    <hyperlink ref="B244" r:id="rId462" display="https://www.binance.com/en/trade/THETA_BTC" xr:uid="{AAAEDE30-FDA1-477A-911B-001D560C1939}"/>
-    <hyperlink ref="A245" r:id="rId463" display="https://www.coingecko.com/en/coins/litentry" xr:uid="{D5541205-AECD-433A-941D-9357FA1444B1}"/>
-    <hyperlink ref="B245" r:id="rId464" display="https://www.binance.com/en/trade/LIT_BTC" xr:uid="{E9017E01-0EEE-478D-A437-A8D32837AE5C}"/>
-    <hyperlink ref="A246" r:id="rId465" display="https://www.coingecko.com/en/coins/injective-protocol" xr:uid="{B46E62F3-CC4C-4AC5-857F-B7E5FF218B6A}"/>
-    <hyperlink ref="B246" r:id="rId466" display="https://www.binance.com/en/trade/INJ_USDT" xr:uid="{6C403CF8-834C-4A42-A86C-79AC239C562A}"/>
-    <hyperlink ref="A247" r:id="rId467" display="https://www.coingecko.com/en/coins/theta-fuel" xr:uid="{77B6057A-C8FA-4D10-8FF2-4D4BCABAD37D}"/>
-    <hyperlink ref="B247" r:id="rId468" display="https://www.binance.com/en/trade/TFUEL_USDT" xr:uid="{661736E5-8567-4B4D-9D48-7424DEBE4C05}"/>
-    <hyperlink ref="A248" r:id="rId469" display="https://www.coingecko.com/en/coins/basic-attention-token" xr:uid="{654743E9-3481-44F0-A7C0-B62CD2FA861F}"/>
-    <hyperlink ref="B248" r:id="rId470" display="https://www.binance.com/en/trade/BAT_BTC" xr:uid="{1288D75E-CBA0-435C-A6FF-80D869C81582}"/>
-    <hyperlink ref="A249" r:id="rId471" display="https://www.coingecko.com/en/coins/decentraland" xr:uid="{E5C9F9E4-807A-4AA5-91FE-88EC7B5DAAE2}"/>
-    <hyperlink ref="B249" r:id="rId472" display="https://www.binance.com/en/trade/MANA_USDT" xr:uid="{E8E5B293-7A6C-4219-BE4E-CE02E7997EA0}"/>
-    <hyperlink ref="A250" r:id="rId473" display="https://www.coingecko.com/en/coins/skycoin" xr:uid="{5849154A-CD8B-4F7A-A82A-42E29C04E509}"/>
-    <hyperlink ref="B250" r:id="rId474" display="https://www.binance.com/en/trade/SKY_BTC" xr:uid="{675732D5-11EB-47F1-969F-907FC5560376}"/>
-    <hyperlink ref="A251" r:id="rId475" display="https://www.coingecko.com/en/coins/bancor-network" xr:uid="{065E2B81-34BF-446E-A7D8-BABC7F4004B0}"/>
-    <hyperlink ref="B251" r:id="rId476" display="https://www.binance.com/en/trade/BNT_BTC" xr:uid="{BBBFB046-712D-4A80-AEE5-1B3356F3F309}"/>
-    <hyperlink ref="A252" r:id="rId477" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{B50F6935-6FE5-493A-BB36-4BEC1906996F}"/>
-    <hyperlink ref="B252" r:id="rId478" display="https://www.binance.com/en/trade/LTC_ETH" xr:uid="{D1804D26-9246-4686-87E1-B7EC8683DD29}"/>
-    <hyperlink ref="A253" r:id="rId479" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{C6C3D3E2-A692-480B-B80F-7B64F5B58E06}"/>
-    <hyperlink ref="B253" r:id="rId480" display="https://www.binance.com/en/trade/BTC_DAI" xr:uid="{8B6370B9-4564-40F6-82CE-4764DEBBB269}"/>
-    <hyperlink ref="A254" r:id="rId481" display="https://www.coingecko.com/en/coins/pnetwork" xr:uid="{483F2F15-AEAE-402F-ADE7-13043DFA06F4}"/>
-    <hyperlink ref="B254" r:id="rId482" display="https://www.binance.com/en/trade/PNT_USDT" xr:uid="{7A970D3F-A0F9-4307-B23E-0442B4730041}"/>
-    <hyperlink ref="A256" r:id="rId483" display="https://www.coingecko.com/en/coins/elrond" xr:uid="{F530B37E-7729-4A9A-A008-F3D590210A1F}"/>
-    <hyperlink ref="B256" r:id="rId484" display="https://www.binance.com/en/trade/EGLD_BUSD" xr:uid="{1FD3EEE2-90B9-4D2D-827E-6E8BD0278DA8}"/>
-    <hyperlink ref="A257" r:id="rId485" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{3FCF9216-499A-4F38-98AE-54E0622F32F7}"/>
-    <hyperlink ref="B257" r:id="rId486" display="https://www.binance.com/en/trade/XRP_BNB" xr:uid="{EEA2038C-54A3-432B-9CF0-177B4472B8EF}"/>
-    <hyperlink ref="A258" r:id="rId487" display="https://www.coingecko.com/en/coins/bzx-protocol" xr:uid="{A6376D95-F49D-4280-9BDD-3FEE377E3782}"/>
-    <hyperlink ref="B258" r:id="rId488" display="https://www.binance.com/en/trade/BZRX_USDT" xr:uid="{AF257783-5BB8-43F1-9470-D87B63B3060B}"/>
-    <hyperlink ref="A259" r:id="rId489" display="https://www.coingecko.com/en/coins/kusama" xr:uid="{DE4A46E0-5220-4C75-867E-1FF89908C830}"/>
-    <hyperlink ref="B259" r:id="rId490" display="https://www.binance.com/en/trade/KSM_BTC" xr:uid="{5508EE19-90B4-4884-9948-A47641484A28}"/>
-    <hyperlink ref="A260" r:id="rId491" display="https://www.coingecko.com/en/coins/certik" xr:uid="{F2BE8300-6E90-4F1C-AC69-13FBE5F852AB}"/>
-    <hyperlink ref="B260" r:id="rId492" display="https://www.binance.com/en/trade/CTK_USDT" xr:uid="{C5E4CA97-A2F1-47A0-9A88-1ECB2AF5188C}"/>
-    <hyperlink ref="A261" r:id="rId493" display="https://www.coingecko.com/en/coins/curve-dao-token" xr:uid="{AB3D3C0E-26A5-4330-AC9C-72F297AE7FAD}"/>
-    <hyperlink ref="B261" r:id="rId494" display="https://www.binance.com/en/trade/CRV_BTC" xr:uid="{72F0909B-98E1-4D42-8454-AED0F051636C}"/>
-    <hyperlink ref="A262" r:id="rId495" display="https://www.coingecko.com/en/coins/nano" xr:uid="{D3D08E99-A7BB-4C15-8BDB-36ACEE245DBD}"/>
-    <hyperlink ref="B262" r:id="rId496" display="https://www.binance.com/en/trade/NANO_BTC" xr:uid="{FF45D27B-981D-43DE-A638-A49DEEF1DF40}"/>
-    <hyperlink ref="A263" r:id="rId497" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{3E72960C-E477-4082-93B2-D7760D90E725}"/>
-    <hyperlink ref="B263" r:id="rId498" display="https://www.binance.com/en/trade/BTC_TUSD" xr:uid="{C804AAC6-AF82-42BC-B815-C3F80140E8B7}"/>
-    <hyperlink ref="A264" r:id="rId499" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{D1BEE64E-CEF9-4408-BFCA-6679DF5E5832}"/>
-    <hyperlink ref="B264" r:id="rId500" display="https://www.binance.com/en/trade/LTC_BNB" xr:uid="{0E1F5495-5505-4052-8103-CCA2F7231669}"/>
-    <hyperlink ref="A265" r:id="rId501" display="https://www.coingecko.com/en/coins/near" xr:uid="{5D5E612F-9204-4A9C-A7C1-227566A79D4E}"/>
-    <hyperlink ref="B265" r:id="rId502" display="https://www.binance.com/en/trade/NEAR_BTC" xr:uid="{FFD12A0E-662A-4B95-9A05-6E09A9A587F5}"/>
-    <hyperlink ref="A266" r:id="rId503" display="https://www.coingecko.com/en/coins/trust-wallet-token" xr:uid="{B9CAE287-14C5-4E5E-8C14-4973BBACB62E}"/>
-    <hyperlink ref="B266" r:id="rId504" display="https://www.binance.com/en/trade/TWT_USDT" xr:uid="{B017121A-9DA7-4618-867E-EA089DDED31C}"/>
-    <hyperlink ref="A267" r:id="rId505" display="https://www.coingecko.com/en/coins/bella-protocol" xr:uid="{DC73B922-9C1C-4535-BD25-308BB60F686E}"/>
-    <hyperlink ref="B267" r:id="rId506" display="https://www.binance.com/en/trade/BEL_USDT" xr:uid="{BE9428DC-FE3D-40E4-9BE7-40DCAD07B5BB}"/>
-    <hyperlink ref="A268" r:id="rId507" display="https://www.coingecko.com/en/coins/kyber-network" xr:uid="{36BD9391-61EF-4BF1-AF08-4C3B85091D35}"/>
-    <hyperlink ref="B268" r:id="rId508" display="https://www.binance.com/en/trade/KNC_USDT" xr:uid="{626B3751-F1A2-4CB7-AE7C-223420ED078D}"/>
-    <hyperlink ref="A269" r:id="rId509" display="https://www.coingecko.com/en/coins/travala" xr:uid="{906DC098-A978-4D40-8EEB-A2CFB08B8FE9}"/>
-    <hyperlink ref="B269" r:id="rId510" display="https://www.binance.com/en/trade/AVA_BTC" xr:uid="{C8D785F2-CDD3-443B-80CB-109957BCC2F7}"/>
-    <hyperlink ref="A270" r:id="rId511" display="https://www.coingecko.com/en/coins/polymath-network" xr:uid="{72FF5E02-23C3-4B21-A6B7-3EF376620F0C}"/>
-    <hyperlink ref="B270" r:id="rId512" display="https://www.binance.com/en/trade/POLY_BTC" xr:uid="{C7BB5083-6E66-489D-903D-235D16BEA596}"/>
-    <hyperlink ref="A271" r:id="rId513" display="https://www.coingecko.com/en/coins/venus" xr:uid="{5FB3FDA1-741C-431E-AEFC-3366B76A3C9C}"/>
-    <hyperlink ref="B271" r:id="rId514" display="https://www.binance.com/en/trade/XVS_BNB" xr:uid="{F97E0641-5B11-4C2E-B60A-4AFA727D6408}"/>
-    <hyperlink ref="A272" r:id="rId515" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{82B832E2-6D9A-4805-8D24-2BF4D02FB6E8}"/>
-    <hyperlink ref="B272" r:id="rId516" display="https://www.binance.com/en/trade/ADA_USDC" xr:uid="{EC6F0265-0792-4933-9ED0-6CE29027788A}"/>
-    <hyperlink ref="A273" r:id="rId517" display="https://www.coingecko.com/en/coins/enjin-coin" xr:uid="{23F6DCA5-205F-4DB6-BBFD-81B0C44E6271}"/>
-    <hyperlink ref="B273" r:id="rId518" display="https://www.binance.com/en/trade/ENJ_BUSD" xr:uid="{571BF5A0-B234-43A2-83C3-B71EC04D437E}"/>
-    <hyperlink ref="A274" r:id="rId519" display="https://www.coingecko.com/en/coins/civic" xr:uid="{512A8962-83BB-41C9-8952-3F99BC7CCBF4}"/>
-    <hyperlink ref="B274" r:id="rId520" display="https://www.binance.com/en/trade/CVC_USDT" xr:uid="{9F3DDBC2-90C2-4D82-826F-CAB3D7DD3E3C}"/>
-    <hyperlink ref="A275" r:id="rId521" display="https://www.coingecko.com/en/coins/balancer" xr:uid="{FD4EC62C-F505-4F12-8DAB-390E2B4FB35D}"/>
-    <hyperlink ref="B275" r:id="rId522" display="https://www.binance.com/en/trade/BAL_USDT" xr:uid="{67ABD40C-6FED-45F0-A68B-9619F652CBE3}"/>
-    <hyperlink ref="A276" r:id="rId523" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{247CDA68-7E85-4CFA-A5D8-6E219DBA15A2}"/>
-    <hyperlink ref="B276" r:id="rId524" display="https://www.binance.com/en/trade/ETH_TRY" xr:uid="{362A4718-45C1-4512-AF8C-9FC6A10BC74F}"/>
-    <hyperlink ref="A277" r:id="rId525" display="https://www.coingecko.com/en/coins/maker" xr:uid="{1E92A08B-B88E-4D25-A205-9FD826D2C2BB}"/>
-    <hyperlink ref="B277" r:id="rId526" display="https://www.binance.com/en/trade/MKR_USDT" xr:uid="{C17261D9-9911-423D-BE5B-8A1AE7E94E25}"/>
-    <hyperlink ref="A278" r:id="rId527" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{96EB59A4-BEEA-405F-9ADE-7D72A220AFF6}"/>
-    <hyperlink ref="B278" r:id="rId528" display="https://www.binance.com/en/trade/BNB_AUD" xr:uid="{A6B2430A-E2B6-44D6-B361-79989EE2F1E3}"/>
-    <hyperlink ref="A279" r:id="rId529" display="https://www.coingecko.com/en/coins/band-protocol" xr:uid="{385841E5-D22B-4748-A333-8B7547186202}"/>
-    <hyperlink ref="B279" r:id="rId530" display="https://www.binance.com/en/trade/BAND_BTC" xr:uid="{77D52318-6043-475B-A59A-18A32A1A8DDF}"/>
-    <hyperlink ref="A280" r:id="rId531" display="https://www.coingecko.com/en/coins/unifi-protocol-dao" xr:uid="{94C3F719-CC80-4B81-84DB-286627124261}"/>
-    <hyperlink ref="B280" r:id="rId532" display="https://www.binance.com/en/trade/UNFI_BNB" xr:uid="{CC5AF766-AC48-4F69-B86C-DBD49EDF2982}"/>
-    <hyperlink ref="A281" r:id="rId533" display="https://www.coingecko.com/en/coins/just" xr:uid="{E541EDD8-D039-4A29-BF99-E8DBB33CD003}"/>
-    <hyperlink ref="B281" r:id="rId534" display="https://www.binance.com/en/trade/JST_USDT" xr:uid="{C634987F-3C14-4A80-A707-98C5A3A05D66}"/>
-    <hyperlink ref="A282" r:id="rId535" display="https://www.coingecko.com/en/coins/ontology" xr:uid="{CFB33181-F695-466D-96C4-784B8D688BEC}"/>
-    <hyperlink ref="B282" r:id="rId536" display="https://www.binance.com/en/trade/ONT_BTC" xr:uid="{6A705165-7973-4008-8630-94C1379FE975}"/>
-    <hyperlink ref="A283" r:id="rId537" display="https://www.coingecko.com/en/coins/lto-network" xr:uid="{C9212389-206F-4B91-94F7-4F54B89C7D42}"/>
-    <hyperlink ref="B283" r:id="rId538" display="https://www.binance.com/en/trade/LTO_BTC" xr:uid="{AADF54A6-431C-48C9-BDF9-847E51C85C53}"/>
-    <hyperlink ref="A284" r:id="rId539" display="https://www.coingecko.com/en/coins/akropolis" xr:uid="{D79305D3-2F3F-4039-B322-B9B614A5754C}"/>
-    <hyperlink ref="B284" r:id="rId540" display="https://www.binance.com/en/trade/AKRO_USDT" xr:uid="{8343CCC7-09FA-4CA4-9ACB-DEE85EF3F1EF}"/>
-    <hyperlink ref="A285" r:id="rId541" display="https://www.coingecko.com/en/coins/compound" xr:uid="{E93CEA1D-36C4-443B-A597-91590191C074}"/>
-    <hyperlink ref="B285" r:id="rId542" display="https://www.binance.com/en/trade/COMP_BTC" xr:uid="{CE573732-5462-46E5-8746-E8E4ECF6D30D}"/>
-    <hyperlink ref="A286" r:id="rId543" display="https://www.coingecko.com/en/coins/serum" xr:uid="{D748B0B4-F2E7-4E93-B139-CA8EED3AB665}"/>
-    <hyperlink ref="B286" r:id="rId544" display="https://www.binance.com/en/trade/SRM_BUSD" xr:uid="{D1F5E607-46A7-44B1-8A0D-92D2C84F4774}"/>
-    <hyperlink ref="A287" r:id="rId545" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{FA568068-98CA-4AC7-9890-60C345D722D0}"/>
-    <hyperlink ref="B287" r:id="rId546" display="https://www.binance.com/en/trade/BNB_BRL" xr:uid="{66DFBF6B-6FBD-43F0-9CD0-CCB15567B1C5}"/>
-    <hyperlink ref="A288" r:id="rId547" display="https://www.coingecko.com/en/coins/loopring" xr:uid="{BEDB42BB-B680-491A-97FC-44360D29541E}"/>
-    <hyperlink ref="B288" r:id="rId548" display="https://www.binance.com/en/trade/LRC_USDT" xr:uid="{1A95D081-F0A3-443F-BBFD-359ABDB8A4B7}"/>
-    <hyperlink ref="A289" r:id="rId549" display="https://www.coingecko.com/en/coins/iost" xr:uid="{2888A112-950B-42A0-814C-DE8ED0751E54}"/>
-    <hyperlink ref="B289" r:id="rId550" display="https://www.binance.com/en/trade/IOST_BNB" xr:uid="{5270D235-773D-4604-B67E-DE5DAD9A3346}"/>
-    <hyperlink ref="A291" r:id="rId551" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{282E4E8E-2C23-4764-BC45-BBF8588DA092}"/>
-    <hyperlink ref="B291" r:id="rId552" display="https://www.binance.com/en/trade/XLM_BUSD" xr:uid="{00BDCCA0-B3D5-4769-947B-068EB6D77296}"/>
-    <hyperlink ref="A292" r:id="rId553" display="https://www.coingecko.com/en/coins/dia" xr:uid="{7E2D7F0F-070F-440F-9C63-98801C176A03}"/>
-    <hyperlink ref="B292" r:id="rId554" display="https://www.binance.com/en/trade/DIA_USDT" xr:uid="{DAB5834F-2BEF-408F-9A2A-770735A02CB6}"/>
-    <hyperlink ref="A293" r:id="rId555" display="https://www.coingecko.com/en/coins/0x" xr:uid="{6EDA6E87-3765-4CB5-A46A-C2B22FC4D151}"/>
-    <hyperlink ref="B293" r:id="rId556" display="https://www.binance.com/en/trade/ZRX_BTC" xr:uid="{F8C05EFA-AF6A-4FE7-BDC5-8B7162DB2543}"/>
-    <hyperlink ref="A294" r:id="rId557" display="https://www.coingecko.com/en/coins/verge" xr:uid="{B9DCF4C8-E221-4D40-A426-DF7E79697D2B}"/>
-    <hyperlink ref="B294" r:id="rId558" display="https://www.binance.com/en/trade/XVG_BTC" xr:uid="{0C0EBF86-CE14-4FB5-9AEB-435A374B6647}"/>
-    <hyperlink ref="A296" r:id="rId559" display="https://www.coingecko.com/en/coins/polygon" xr:uid="{73F2BCA6-DA2F-4AF3-9163-7C8585E73415}"/>
-    <hyperlink ref="B296" r:id="rId560" display="https://www.binance.com/en/trade/MATIC_BNB" xr:uid="{79CEFEF3-7AAD-40AC-8D90-2C0492AFA459}"/>
-    <hyperlink ref="A297" r:id="rId561" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{4B56A837-0D01-4A64-8E96-32895AD6CFAD}"/>
-    <hyperlink ref="B297" r:id="rId562" display="https://www.binance.com/en/trade/DOGE_EUR" xr:uid="{19BD51AE-482C-4A1C-AA26-4F36FB624761}"/>
-    <hyperlink ref="A298" r:id="rId563" display="https://www.coingecko.com/en/coins/solana" xr:uid="{59640A5F-FF75-47CD-9782-1BF54615AF69}"/>
-    <hyperlink ref="B298" r:id="rId564" display="https://www.binance.com/en/trade/SOL_BNB" xr:uid="{D9B4234D-80FC-4CDE-A745-A9F5A5F62765}"/>
-    <hyperlink ref="A299" r:id="rId565" display="https://www.coingecko.com/en/coins/avalanche" xr:uid="{957800C2-FEDE-4FD4-BE3B-009355E36657}"/>
-    <hyperlink ref="B299" r:id="rId566" display="https://www.binance.com/en/trade/AVAX_TRY" xr:uid="{041DFA1F-7C9E-4F81-8680-198AE5C97E6A}"/>
-    <hyperlink ref="A300" r:id="rId567" display="https://www.coingecko.com/en/coins/btc-standard-hashrate-token" xr:uid="{09BD2D26-C5C2-48C4-8123-B401AE741807}"/>
-    <hyperlink ref="B300" r:id="rId568" display="https://www.binance.com/en/trade/BTCST_BUSD" xr:uid="{D6CD8688-D9B8-46E2-A412-A71751D530BA}"/>
-    <hyperlink ref="A301" r:id="rId569" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{E9E290BF-B357-441C-B1F4-E531F8E02384}"/>
-    <hyperlink ref="B301" r:id="rId570" display="https://www.binance.com/en/trade/LINK_ETH" xr:uid="{05B6AB31-9EA0-41EF-A6CB-1C0BCBD88172}"/>
-    <hyperlink ref="A302" r:id="rId571" display="https://www.coingecko.com/en/coins/ftx-token" xr:uid="{209FC4CB-A52F-49FF-AF22-549E45BEC83A}"/>
-    <hyperlink ref="B302" r:id="rId572" display="https://www.binance.com/en/trade/FTT_BTC" xr:uid="{24D0BC5C-C36A-4113-BA44-BC2251D34B47}"/>
-    <hyperlink ref="A303" r:id="rId573" display="https://www.coingecko.com/en/coins/stormx" xr:uid="{0D6ED89A-272B-48B8-A1C1-8F29A92C3C0C}"/>
-    <hyperlink ref="B303" r:id="rId574" display="https://www.binance.com/en/trade/STMX_USDT" xr:uid="{7CAA5477-0B39-4846-80C6-9B4FD34FD130}"/>
-    <hyperlink ref="A304" r:id="rId575" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{B5716A89-D64B-4E86-9C3F-131CBA78DE68}"/>
-    <hyperlink ref="B304" r:id="rId576" display="https://www.binance.com/en/trade/BUSD_TRY" xr:uid="{0440F108-7BD7-41EB-9066-1CEDDEFB11C4}"/>
-    <hyperlink ref="A305" r:id="rId577" display="https://www.coingecko.com/en/coins/aion" xr:uid="{EDD7FFB2-8F94-4C3B-AA96-3A78384D6893}"/>
-    <hyperlink ref="B305" r:id="rId578" display="https://www.binance.com/en/trade/AION_BTC" xr:uid="{FD1C47C0-B9AE-4EFF-888D-755620AA0405}"/>
-    <hyperlink ref="A306" r:id="rId579" display="https://www.coingecko.com/en/coins/ark" xr:uid="{037AF3F9-3BDA-4015-B96A-4E053CD492B9}"/>
-    <hyperlink ref="B306" r:id="rId580" display="https://www.binance.com/en/trade/ARK_BTC" xr:uid="{ED1653CE-4279-4BBB-8A83-1C7E7830EABC}"/>
-    <hyperlink ref="A307" r:id="rId581" display="https://www.coingecko.com/en/coins/venus" xr:uid="{35BF94B4-5B84-4C29-8AC7-FE0AD118B655}"/>
-    <hyperlink ref="B307" r:id="rId582" display="https://www.binance.com/en/trade/XVS_BUSD" xr:uid="{B8F0EAB3-58D1-4FC9-A5D9-92848231F350}"/>
-    <hyperlink ref="A308" r:id="rId583" display="https://www.coingecko.com/en/coins/reserve-rights-token" xr:uid="{D5D2DF05-A966-4683-A3E8-739F23E0B4BE}"/>
-    <hyperlink ref="B308" r:id="rId584" display="https://www.binance.com/en/trade/RSR_BTC" xr:uid="{D5CC0048-987F-4A6E-A4EB-0312E91619C5}"/>
-    <hyperlink ref="A309" r:id="rId585" display="https://www.coingecko.com/en/coins/celer-network" xr:uid="{7B2720D6-F077-4020-B06D-E0029A9B9BF2}"/>
-    <hyperlink ref="B309" r:id="rId586" display="https://www.binance.com/en/trade/CELR_USDT" xr:uid="{F66FC6DF-3BE0-4C49-AFA5-BF88D336F548}"/>
-    <hyperlink ref="A310" r:id="rId587" display="https://www.coingecko.com/en/coins/nervos-network" xr:uid="{7A37947D-6D67-49C8-A429-637EE2B8C2E3}"/>
-    <hyperlink ref="B310" r:id="rId588" display="https://www.binance.com/en/trade/CKB_BUSD" xr:uid="{B8E49AFB-C32C-4B5C-ABA1-C77EECD7E737}"/>
-    <hyperlink ref="A311" r:id="rId589" display="https://www.coingecko.com/en/coins/omg-network" xr:uid="{C27AD228-E5C3-4378-B003-42B558411A9D}"/>
-    <hyperlink ref="B311" r:id="rId590" display="https://www.binance.com/en/trade/OMG_BTC" xr:uid="{68E6273B-5565-4504-8D0E-F4053CFF63A7}"/>
-    <hyperlink ref="A312" r:id="rId591" display="https://www.coingecko.com/en/coins/qtum" xr:uid="{6B8E62D6-B91C-445F-B21D-7EBFDC8794A5}"/>
-    <hyperlink ref="B312" r:id="rId592" display="https://www.binance.com/en/trade/QTUM_BTC" xr:uid="{A821B5D6-A94B-4A92-90B2-5DF4C7CE2B05}"/>
-    <hyperlink ref="A313" r:id="rId593" display="https://www.coingecko.com/en/coins/waves" xr:uid="{40FB5646-5E49-4604-BB1D-E7FF77E955B5}"/>
-    <hyperlink ref="B313" r:id="rId594" display="https://www.binance.com/en/trade/WAVES_BTC" xr:uid="{2674A58D-253B-4D8F-A2C9-DEB4E7AAE4F5}"/>
-    <hyperlink ref="A314" r:id="rId595" display="https://www.coingecko.com/en/coins/poa-network" xr:uid="{5EDE3772-B3B2-46DE-8E80-39B256B7CD33}"/>
-    <hyperlink ref="B314" r:id="rId596" display="https://www.binance.com/en/trade/POA_BTC" xr:uid="{70D89CAD-95FB-431B-B603-021FB5FA302C}"/>
-    <hyperlink ref="A315" r:id="rId597" display="https://www.coingecko.com/en/coins/digibyte" xr:uid="{56EDF845-3AE5-4A8C-AED3-72A71EEB4170}"/>
-    <hyperlink ref="B315" r:id="rId598" display="https://www.binance.com/en/trade/DGB_USDT" xr:uid="{2479B8ED-6E1C-4B28-9847-F869C6DFCF9C}"/>
-    <hyperlink ref="A316" r:id="rId599" display="https://www.coingecko.com/en/coins/selfkey" xr:uid="{42D11F0F-0E9F-4723-A557-AADB3310E9D2}"/>
-    <hyperlink ref="B316" r:id="rId600" display="https://www.binance.com/en/trade/KEY_USDT" xr:uid="{AD7CE828-4DB6-4D10-80A4-4399EF0E7C82}"/>
-    <hyperlink ref="A317" r:id="rId601" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{EBF494EC-499A-4316-9883-4659BFFBD97C}"/>
-    <hyperlink ref="B317" r:id="rId602" display="https://www.binance.com/en/trade/BNB_DAI" xr:uid="{1C091F77-FDDE-4CF2-A98C-45145C1494CD}"/>
-    <hyperlink ref="A318" r:id="rId603" display="https://www.coingecko.com/en/coins/eos" xr:uid="{8C806C75-2497-41A5-8C8D-2F65CF4F30FF}"/>
-    <hyperlink ref="B318" r:id="rId604" display="https://www.binance.com/en/trade/EOS_ETH" xr:uid="{8FEDEE12-6442-47B5-92FE-843EFD109CFD}"/>
-    <hyperlink ref="A319" r:id="rId605" display="https://www.coingecko.com/en/coins/the-graph" xr:uid="{BABBBD9F-357E-4A9C-851B-94C4114A9074}"/>
-    <hyperlink ref="B319" r:id="rId606" display="https://www.binance.com/en/trade/GRT_EUR" xr:uid="{B148F2A5-CCA9-4F27-AB2B-F0F0262BD192}"/>
-    <hyperlink ref="A320" r:id="rId607" display="https://www.coingecko.com/en/coins/ontology-gas" xr:uid="{A16E5A1F-CDDB-4F66-8363-9D7B4BBE507B}"/>
-    <hyperlink ref="B320" r:id="rId608" display="https://www.binance.com/en/trade/ONG_BTC" xr:uid="{69FF422D-3D00-4D44-968A-ED5DDC72C8CC}"/>
-    <hyperlink ref="A321" r:id="rId609" display="https://www.coingecko.com/en/coins/ethereum-classic" xr:uid="{F790A0FF-1B29-4D3D-9DCE-87B746A5EF31}"/>
-    <hyperlink ref="B321" r:id="rId610" display="https://www.binance.com/en/trade/ETC_BTC" xr:uid="{DD4476ED-739E-4DF2-93D2-7EC027CE0E53}"/>
-    <hyperlink ref="A322" r:id="rId611" display="https://www.coingecko.com/en/coins/prometeus" xr:uid="{12089AC4-4D95-4938-8CE4-687DE9AFB044}"/>
-    <hyperlink ref="B322" r:id="rId612" display="https://www.binance.com/en/trade/PROM_BUSD" xr:uid="{03500DBC-3F72-4D0F-AB1F-E1DB475EC47E}"/>
-    <hyperlink ref="A323" r:id="rId613" display="https://www.coingecko.com/en/coins/vechain" xr:uid="{1797FB60-A6A8-4366-9763-657B6F5F0AD7}"/>
-    <hyperlink ref="B323" r:id="rId614" display="https://www.binance.com/en/trade/VET_BUSD" xr:uid="{BEC23CE9-8E68-437C-B53E-FF8E4C5CE8C2}"/>
-    <hyperlink ref="A324" r:id="rId615" display="https://www.coingecko.com/en/coins/terra-luna" xr:uid="{CB6E6487-C8C2-415B-AA52-50B17777CFDC}"/>
-    <hyperlink ref="B324" r:id="rId616" display="https://www.binance.com/en/trade/LUNA_BUSD" xr:uid="{8F84CC6A-5FAB-4C87-A37F-1121601A83E8}"/>
-    <hyperlink ref="A325" r:id="rId617" display="https://www.coingecko.com/en/coins/alpha-finance" xr:uid="{F2572F63-EFBB-49DD-A09E-5D94825EBDF6}"/>
-    <hyperlink ref="B325" r:id="rId618" display="https://www.binance.com/en/trade/ALPHA_BUSD" xr:uid="{A7D6277E-6798-4B9D-BDF9-F91E80C12FB8}"/>
-    <hyperlink ref="A326" r:id="rId619" display="https://www.coingecko.com/en/coins/keep3rv1" xr:uid="{D4412BE9-E642-483C-923E-35F1A2E84E21}"/>
-    <hyperlink ref="B326" r:id="rId620" display="https://www.binance.com/en/trade/KP3R_BUSD" xr:uid="{FF95B9C2-1DDD-4F54-B034-B3C9C2496D15}"/>
-    <hyperlink ref="A327" r:id="rId621" display="https://www.coingecko.com/en/coins/pax-gold" xr:uid="{D07F65BA-3A27-42CD-B8C7-79DC27FDB6F3}"/>
-    <hyperlink ref="B327" r:id="rId622" display="https://www.binance.com/en/trade/PAXG_USDT" xr:uid="{C4E25281-E935-49A9-8D15-37615B824B18}"/>
-    <hyperlink ref="A328" r:id="rId623" display="https://www.coingecko.com/en/coins/fetch-ai" xr:uid="{568C5150-F718-4866-A542-31C677C2151A}"/>
-    <hyperlink ref="B328" r:id="rId624" display="https://www.binance.com/en/trade/FET_BTC" xr:uid="{A66CC562-8728-444A-8683-D7E1F188310E}"/>
-    <hyperlink ref="A329" r:id="rId625" display="https://www.coingecko.com/en/coins/cartesi" xr:uid="{D9AEC03E-1435-4D60-BACF-A4D60262517F}"/>
-    <hyperlink ref="B329" r:id="rId626" display="https://www.binance.com/en/trade/CTSI_BTC" xr:uid="{6D2735EB-F59F-49A6-BDB8-888E846C8449}"/>
-    <hyperlink ref="A330" r:id="rId627" display="https://www.coingecko.com/en/coins/orion-protocol" xr:uid="{3B716B24-AEC6-447B-893B-55202AC5DDF6}"/>
-    <hyperlink ref="B330" r:id="rId628" display="https://www.binance.com/en/trade/ORN_BTC" xr:uid="{3A8F8D36-D72C-45CC-9DB6-E4288D47B165}"/>
-    <hyperlink ref="A331" r:id="rId629" display="https://www.coingecko.com/en/coins/kava" xr:uid="{0BCD594D-A790-4959-AC4A-820B2ED10A33}"/>
-    <hyperlink ref="B331" r:id="rId630" display="https://www.binance.com/en/trade/KAVA_BTC" xr:uid="{84A7CE8B-9E60-4F25-9F7A-4D4A50D81DC8}"/>
-    <hyperlink ref="A332" r:id="rId631" display="https://www.coingecko.com/en/coins/axie-infinity" xr:uid="{F2CE5E2D-2BB1-4437-8F8A-D1FC7A9FD02A}"/>
-    <hyperlink ref="B332" r:id="rId632" display="https://www.binance.com/en/trade/AXS_USDT" xr:uid="{5AED1BEF-B28D-49AF-9B67-FD7C33C1E683}"/>
-    <hyperlink ref="A334" r:id="rId633" display="https://www.coingecko.com/en/coins/yearn-finance" xr:uid="{5B92D256-1095-4098-88C0-8A5E2F3B93E1}"/>
-    <hyperlink ref="B334" r:id="rId634" display="https://www.binance.com/en/trade/YFI_BTC" xr:uid="{E7490C9B-A7F6-4CAD-B8AF-C13E5473441D}"/>
-    <hyperlink ref="A335" r:id="rId635" display="https://www.coingecko.com/en/coins/holo" xr:uid="{203DFFCF-F6E2-456B-BBC7-319F99D4E73D}"/>
-    <hyperlink ref="B335" r:id="rId636" display="https://www.binance.com/en/trade/HOT_BNB" xr:uid="{F616E092-2D50-4BC2-8429-1F2136C47F1E}"/>
-    <hyperlink ref="A336" r:id="rId637" display="https://www.coingecko.com/en/coins/decred" xr:uid="{BE553248-B955-4C64-89ED-03631F1055DE}"/>
-    <hyperlink ref="B336" r:id="rId638" display="https://www.binance.com/en/trade/DCR_BTC" xr:uid="{3770E7A4-E279-4F5C-9173-22738F81F0EF}"/>
-    <hyperlink ref="A337" r:id="rId639" display="https://www.coingecko.com/en/coins/binance-eth-staking" xr:uid="{E1E858A6-E145-4C80-9AE5-CEFFBC0B12B4}"/>
-    <hyperlink ref="B337" r:id="rId640" display="https://www.binance.com/en/trade/BETH_ETH" xr:uid="{0DB96A54-C2FA-453A-A222-2B55BF184388}"/>
-    <hyperlink ref="A338" r:id="rId641" display="https://www.coingecko.com/en/coins/orchid-protocol" xr:uid="{D9F03BAC-4BE1-46A3-987D-177856901B20}"/>
-    <hyperlink ref="B338" r:id="rId642" display="https://www.binance.com/en/trade/OXT_USDT" xr:uid="{7153E3BE-7FFA-4C4E-9259-4DF847FD6581}"/>
-    <hyperlink ref="A339" r:id="rId643" display="https://www.coingecko.com/en/coins/icon" xr:uid="{F7F12B63-71C7-455F-8EB7-A6B3E1B0B94D}"/>
-    <hyperlink ref="B339" r:id="rId644" display="https://www.binance.com/en/trade/ICX_BUSD" xr:uid="{8295D3E7-452E-4B0D-B74C-14856DE641FF}"/>
-    <hyperlink ref="A341" r:id="rId645" display="https://www.coingecko.com/en/coins/dent" xr:uid="{777634FA-C97E-4416-8562-6F7E84F9491E}"/>
-    <hyperlink ref="B341" r:id="rId646" display="https://www.binance.com/en/trade/DENT_ETH" xr:uid="{EBD37452-D50A-40AE-81FD-262DA105AFAD}"/>
-    <hyperlink ref="A342" r:id="rId647" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{E87044CD-D9CF-4F2C-9BF0-F6EC6329E5CB}"/>
-    <hyperlink ref="B342" r:id="rId648" display="https://www.binance.com/en/trade/XRP_ETH" xr:uid="{1FBBF2BA-1F99-4BE8-8C2A-DD83ED894B16}"/>
-    <hyperlink ref="A343" r:id="rId649" display="https://www.coingecko.com/en/coins/harmony" xr:uid="{8AFBA317-EBB7-4535-A6CB-8A10596C1645}"/>
-    <hyperlink ref="B343" r:id="rId650" display="https://www.binance.com/en/trade/ONE_BTC" xr:uid="{472E6CA0-02F0-4923-BE8D-3387A0FE2673}"/>
-    <hyperlink ref="A344" r:id="rId651" display="https://www.coingecko.com/en/coins/bluzelle" xr:uid="{521A149F-BEBE-4079-A185-0EAF6CF3555B}"/>
-    <hyperlink ref="B344" r:id="rId652" display="https://www.binance.com/en/trade/BLZ_BTC" xr:uid="{D3D8F6A1-7B58-4B78-BC12-A52D48CB10E7}"/>
-    <hyperlink ref="A345" r:id="rId653" display="https://www.coingecko.com/en/coins/tron" xr:uid="{5868E0AD-D196-4FB5-92A2-17868606DA3B}"/>
-    <hyperlink ref="B345" r:id="rId654" display="https://www.binance.com/en/trade/TRX_ETH" xr:uid="{48E7CE1E-06BF-4AED-8527-953767E6F571}"/>
-    <hyperlink ref="A346" r:id="rId655" display="https://www.coingecko.com/en/coins/pundi-x" xr:uid="{387A0213-6EA9-4D68-BB2E-B306C1B8839F}"/>
-    <hyperlink ref="B346" r:id="rId656" display="https://www.binance.com/en/trade/NPXS_ETH" xr:uid="{12CD4AA2-B589-4102-9CB9-0C9548A0EA69}"/>
-    <hyperlink ref="A347" r:id="rId657" display="https://www.coingecko.com/en/coins/skale" xr:uid="{790DC9C4-532E-4835-8172-C590EBF38985}"/>
-    <hyperlink ref="B347" r:id="rId658" display="https://www.binance.com/en/trade/SKL_USDT" xr:uid="{5258D874-9B5C-4579-8A08-646A9A0EA337}"/>
-    <hyperlink ref="A349" r:id="rId659" display="https://www.coingecko.com/en/coins/safepal" xr:uid="{9A060199-B083-4859-82AC-A66F0B2607CB}"/>
-    <hyperlink ref="B349" r:id="rId660" display="https://www.binance.com/en/trade/SFP_BTC" xr:uid="{91421ABC-2BEE-4DC9-9E38-C9CDF7BB56A4}"/>
-    <hyperlink ref="A350" r:id="rId661" display="https://www.coingecko.com/en/coins/celer-network" xr:uid="{C37A63A3-218A-4019-ADA7-E9660A979793}"/>
-    <hyperlink ref="B350" r:id="rId662" display="https://www.binance.com/en/trade/CELR_BTC" xr:uid="{30D9E63F-4AE2-4614-AEE9-0F209C15CBFD}"/>
-    <hyperlink ref="A351" r:id="rId663" display="https://www.coingecko.com/en/coins/dusk-network" xr:uid="{5C0B77CA-7231-44E6-9C19-F91EA405942C}"/>
-    <hyperlink ref="B351" r:id="rId664" display="https://www.binance.com/en/trade/DUSK_BTC" xr:uid="{A301F9BD-8644-4EA6-9AE5-D19AFAE7C674}"/>
-    <hyperlink ref="A352" r:id="rId665" display="https://www.coingecko.com/en/coins/frontier" xr:uid="{382B6B31-F7F8-41D3-A87D-564E9C06BFB6}"/>
-    <hyperlink ref="B352" r:id="rId666" display="https://www.binance.com/en/trade/FRONT_BUSD" xr:uid="{2EECE460-978E-4ED0-B84A-92C56B7B3A49}"/>
-    <hyperlink ref="A353" r:id="rId667" display="https://www.coingecko.com/en/coins/iexec-rlc" xr:uid="{52F99B21-C719-47EA-A47D-E2E4D5F6A109}"/>
-    <hyperlink ref="B353" r:id="rId668" display="https://www.binance.com/en/trade/RLC_USDT" xr:uid="{73DCB26A-AD9A-4E13-AE1A-FAE0CB8857E8}"/>
-    <hyperlink ref="A354" r:id="rId669" display="https://www.coingecko.com/en/coins/chiliz" xr:uid="{02BADD1B-E917-443D-8475-12B46BA1D479}"/>
-    <hyperlink ref="B354" r:id="rId670" display="https://www.binance.com/en/trade/CHZ_TRY" xr:uid="{2677640D-1557-44BA-B30D-E2FFF1BA47A7}"/>
-    <hyperlink ref="A356" r:id="rId671" display="https://www.coingecko.com/en/coins/unilend-finance" xr:uid="{F1966C9C-BE5F-4805-AF63-2498DFA8B321}"/>
-    <hyperlink ref="B356" r:id="rId672" display="https://www.binance.com/en/trade/UFT_BUSD" xr:uid="{E098B85D-6FB0-41FA-ABEF-44350572D82A}"/>
-    <hyperlink ref="A357" r:id="rId673" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{AE6B9C0A-7E42-4F94-8E80-8D809A45D7B7}"/>
-    <hyperlink ref="B357" r:id="rId674" display="https://www.binance.com/en/trade/ETH_PAX" xr:uid="{114C28D5-F653-4D19-8297-6388B87ACC4D}"/>
-    <hyperlink ref="A358" r:id="rId675" display="https://www.coingecko.com/en/coins/funfair" xr:uid="{42C5EE08-153A-4A7E-AE69-A08FEBEAEFD0}"/>
-    <hyperlink ref="B358" r:id="rId676" display="https://www.binance.com/en/trade/FUN_BTC" xr:uid="{C93C9E3D-8F4B-45B7-80FD-51EF2D78CB59}"/>
-    <hyperlink ref="A359" r:id="rId677" display="https://www.coingecko.com/en/coins/filecoin" xr:uid="{1ADD3AC6-149F-4223-8CBF-A9B7A38DB2EC}"/>
-    <hyperlink ref="B359" r:id="rId678" display="https://www.binance.com/en/trade/FIL_BTC" xr:uid="{939F87A2-6972-4255-8F6A-CA0619F8015A}"/>
-    <hyperlink ref="A361" r:id="rId679" display="https://www.coingecko.com/en/coins/iost" xr:uid="{653EA88E-17B2-4A09-AB20-2E7A8F5AF51E}"/>
-    <hyperlink ref="B361" r:id="rId680" display="https://www.binance.com/en/trade/IOST_BUSD" xr:uid="{7C72D2E2-2A8C-4590-B789-7DC758B1888F}"/>
-    <hyperlink ref="A362" r:id="rId681" display="https://www.coingecko.com/en/coins/hard-protocol" xr:uid="{DB8C0F8A-FC3E-467E-9F64-1A6611FBB4E2}"/>
-    <hyperlink ref="B362" r:id="rId682" display="https://www.binance.com/en/trade/HARD_USDT" xr:uid="{09552B50-E350-4ED0-A2FD-D8D08911ECAC}"/>
-    <hyperlink ref="A363" r:id="rId683" display="https://www.coingecko.com/en/coins/1inch" xr:uid="{420A081C-2C04-4A4C-AC9D-ECFB2429218A}"/>
-    <hyperlink ref="B363" r:id="rId684" display="https://www.binance.com/en/trade/1INCH_BUSD" xr:uid="{359BC298-C92A-4724-B7BD-800E9A61B818}"/>
-    <hyperlink ref="A364" r:id="rId685" display="https://www.coingecko.com/en/coins/tezos" xr:uid="{94871007-8CDB-4374-9E43-854FEE2DDF7F}"/>
-    <hyperlink ref="B364" r:id="rId686" display="https://www.binance.com/en/trade/XTZ_BUSD" xr:uid="{AC311937-D161-4EA5-A96E-FF5726266252}"/>
-    <hyperlink ref="A365" r:id="rId687" display="https://www.coingecko.com/en/coins/storj" xr:uid="{4683B873-1BCD-4268-BFB0-C77D4C2A921C}"/>
-    <hyperlink ref="B365" r:id="rId688" display="https://www.binance.com/en/trade/STORJ_USDT" xr:uid="{942408AF-B23F-4ADC-AB0E-9E71D38C407E}"/>
-    <hyperlink ref="A366" r:id="rId689" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{14A9E686-A86D-4DB9-A493-964DE794C2B8}"/>
-    <hyperlink ref="B366" r:id="rId690" display="https://www.binance.com/en/trade/BNB_BIDR" xr:uid="{FD0D4333-9F69-4DAC-A6FD-55044EF0A21A}"/>
-    <hyperlink ref="A367" r:id="rId691" display="https://www.coingecko.com/en/coins/burger-swap" xr:uid="{442BD108-1E23-498E-B09A-3F549D2BFBC9}"/>
-    <hyperlink ref="B367" r:id="rId692" display="https://www.binance.com/en/trade/BURGER_BNB" xr:uid="{51452423-6917-4D08-A239-77033A717150}"/>
-    <hyperlink ref="A368" r:id="rId693" display="https://www.coingecko.com/en/coins/hive" xr:uid="{94BF7B7A-B642-4EDC-9913-C12229446313}"/>
-    <hyperlink ref="B368" r:id="rId694" display="https://www.binance.com/en/trade/HIVE_USDT" xr:uid="{D585A3AD-3983-485E-99B8-318646A38875}"/>
-    <hyperlink ref="A369" r:id="rId695" display="https://www.coingecko.com/en/coins/aave" xr:uid="{737DFBED-A8D1-4884-B143-424E34BD15A6}"/>
-    <hyperlink ref="B369" r:id="rId696" display="https://www.binance.com/en/trade/AAVE_BUSD" xr:uid="{9EE2E181-3CD5-48E1-997F-B275255B6B33}"/>
-    <hyperlink ref="A370" r:id="rId697" display="https://www.coingecko.com/en/coins/komodo" xr:uid="{F00A9955-08E4-49E1-B079-57AD2EFC0BF2}"/>
-    <hyperlink ref="B370" r:id="rId698" display="https://www.binance.com/en/trade/KMD_USDT" xr:uid="{4D7347AB-0F43-4A69-B290-BCA56B97A3D6}"/>
-    <hyperlink ref="A371" r:id="rId699" display="https://www.coingecko.com/en/coins/helium" xr:uid="{26F80A51-C5E5-42DB-B1B5-AED00E64F986}"/>
-    <hyperlink ref="B371" r:id="rId700" display="https://www.binance.com/en/trade/HNT_USDT" xr:uid="{64BC958F-97EE-4750-8936-636507695D48}"/>
-    <hyperlink ref="A372" r:id="rId701" display="https://www.coingecko.com/en/coins/wanchain" xr:uid="{3616A00C-694F-4B0E-90F7-0E5D7FEF34CF}"/>
-    <hyperlink ref="B372" r:id="rId702" display="https://www.binance.com/en/trade/WAN_USDT" xr:uid="{2BA0E248-BF52-4404-858F-C3E46D15C8E5}"/>
-    <hyperlink ref="A373" r:id="rId703" display="https://www.coingecko.com/en/coins/algorand" xr:uid="{7369B15A-98E1-42DB-A99B-A0AD2BAD3904}"/>
-    <hyperlink ref="B373" r:id="rId704" display="https://www.binance.com/en/trade/ALGO_BUSD" xr:uid="{32BE10B5-EBC7-40E5-A60C-9389345A33A1}"/>
-    <hyperlink ref="A374" r:id="rId705" display="https://www.coingecko.com/en/coins/alpha-finance" xr:uid="{4BF5716A-4BF0-4834-B213-F8DFBF689CE6}"/>
-    <hyperlink ref="B374" r:id="rId706" display="https://www.binance.com/en/trade/ALPHA_BNB" xr:uid="{59E9BC91-213D-4291-94B7-4BAADC077952}"/>
-    <hyperlink ref="A375" r:id="rId707" display="https://www.coingecko.com/en/coins/avalanche" xr:uid="{ED7A909B-B57A-45C9-8C8D-7B4CB4BFDE16}"/>
-    <hyperlink ref="B375" r:id="rId708" display="https://www.binance.com/en/trade/AVAX_BUSD" xr:uid="{22485E2E-06B1-4963-82C6-5272A00EFE51}"/>
-    <hyperlink ref="A376" r:id="rId709" display="https://www.coingecko.com/en/coins/wink" xr:uid="{79ED3CBB-D41F-4783-9FB7-EC4A50437585}"/>
-    <hyperlink ref="B376" r:id="rId710" display="https://www.binance.com/en/trade/WIN_USDT" xr:uid="{B0012B4A-99F2-43BE-B514-7AC448989A73}"/>
-    <hyperlink ref="A377" r:id="rId711" display="https://www.coingecko.com/en/coins/golem" xr:uid="{705BE1E0-665D-4DEC-B48C-BE209275197B}"/>
-    <hyperlink ref="B377" r:id="rId712" display="https://www.binance.com/en/trade/GLM_BTC" xr:uid="{C447B508-CAB6-40DD-A86D-823FD9B18D8C}"/>
-    <hyperlink ref="A378" r:id="rId713" display="https://www.coingecko.com/en/coins/secret" xr:uid="{A34DE355-C36D-4B31-9793-DAB65A054EA9}"/>
-    <hyperlink ref="B378" r:id="rId714" display="https://www.binance.com/en/trade/SCRT_BTC" xr:uid="{C5F33701-AA49-4634-B7CB-28906AE31429}"/>
-    <hyperlink ref="A379" r:id="rId715" display="https://www.coingecko.com/en/coins/tether" xr:uid="{9F23BBDB-0AFB-472D-AED3-7970038E3136}"/>
-    <hyperlink ref="B379" r:id="rId716" display="https://www.binance.com/en/trade/USDT_BRL" xr:uid="{D27BBEC0-2FC2-4A66-AF4D-57B70432C194}"/>
-    <hyperlink ref="A381" r:id="rId717" display="https://www.coingecko.com/en/coins/origin-protocol" xr:uid="{6079DE42-2449-4C64-AC0C-F3377D88B667}"/>
-    <hyperlink ref="B381" r:id="rId718" display="https://www.binance.com/en/trade/OGN_USDT" xr:uid="{AF06DE41-1C3C-4834-B734-1837A9664923}"/>
-    <hyperlink ref="A382" r:id="rId719" display="https://www.coingecko.com/en/coins/holo" xr:uid="{F76EEBC7-979A-496B-B883-84955573C035}"/>
-    <hyperlink ref="B382" r:id="rId720" display="https://www.binance.com/en/trade/HOT_ETH" xr:uid="{1CB53665-AF85-4223-93EF-60D4D79E7B62}"/>
-    <hyperlink ref="A383" r:id="rId721" display="https://www.coingecko.com/en/coins/aragon" xr:uid="{B6C5A52D-2DC5-4836-9752-926142E56FD2}"/>
-    <hyperlink ref="B383" r:id="rId722" display="https://www.binance.com/en/trade/ANT_USDT" xr:uid="{D971FEE0-AC9F-4D4E-AA0E-1A54ADD52B52}"/>
-    <hyperlink ref="A384" r:id="rId723" display="https://www.coingecko.com/en/coins/enjin-coin" xr:uid="{C40F9EFE-7B02-4EAC-AA38-BA40EEE37FC2}"/>
-    <hyperlink ref="B384" r:id="rId724" display="https://www.binance.com/en/trade/ENJ_ETH" xr:uid="{304F7150-CD7F-49DA-8040-518AA9E9C5BA}"/>
-    <hyperlink ref="A386" r:id="rId725" display="https://www.coingecko.com/en/coins/kyber-network" xr:uid="{CB8FF39E-A0CB-4367-9258-5FF9ED0A8AD7}"/>
-    <hyperlink ref="B386" r:id="rId726" display="https://www.binance.com/en/trade/KNC_BTC" xr:uid="{F63B76CC-40AF-4317-8159-971F5CF8C50D}"/>
-    <hyperlink ref="A387" r:id="rId727" display="https://www.coingecko.com/en/coins/litentry" xr:uid="{2B38EA25-1559-43B0-829E-53D9C740C14B}"/>
-    <hyperlink ref="B387" r:id="rId728" display="https://www.binance.com/en/trade/LIT_BUSD" xr:uid="{673AA9D2-2DE7-4C31-A036-9FBD990C30B5}"/>
-    <hyperlink ref="A388" r:id="rId729" display="https://www.coingecko.com/en/coins/easyfi" xr:uid="{F09A724B-F551-4BCD-8B37-69FB10DB77DE}"/>
-    <hyperlink ref="B388" r:id="rId730" display="https://www.binance.com/en/trade/EASY_ETH" xr:uid="{06FF2E0C-05C5-4994-A92F-5337F9143C14}"/>
-    <hyperlink ref="A389" r:id="rId731" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{50365E06-12F7-4444-985E-8CD9786B2ED0}"/>
-    <hyperlink ref="B389" r:id="rId732" display="https://www.binance.com/en/trade/BTC_RUB" xr:uid="{245C9298-8058-4AF6-831D-92F87A89EC68}"/>
-    <hyperlink ref="A390" r:id="rId733" display="https://www.coingecko.com/en/coins/safepal" xr:uid="{79D0E76A-9E98-4260-8DC4-06FBE0060E7B}"/>
-    <hyperlink ref="B390" r:id="rId734" display="https://www.binance.com/en/trade/SFP_BUSD" xr:uid="{A2F46C93-F388-4DB2-AF4F-4E51B01A92F6}"/>
-    <hyperlink ref="A391" r:id="rId735" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{7582EA46-0381-4454-8AC9-E3036222D3DE}"/>
-    <hyperlink ref="B391" r:id="rId736" display="https://www.binance.com/en/trade/SXP_BNB" xr:uid="{CA75F287-CA73-44D4-8484-03D9D1334AC4}"/>
-    <hyperlink ref="A393" r:id="rId737" display="https://www.coingecko.com/en/coins/siacoin" xr:uid="{37CF715A-A23A-4F27-96BA-CE7D7ED9149F}"/>
-    <hyperlink ref="B393" r:id="rId738" display="https://www.binance.com/en/trade/SC_USDT" xr:uid="{39F8791D-B199-4D80-97F5-97B9F31D5096}"/>
-    <hyperlink ref="A394" r:id="rId739" display="https://www.coingecko.com/en/coins/bitcoin-gold" xr:uid="{84C37050-E6CC-4B0D-A5EC-0C4CF866F2E1}"/>
-    <hyperlink ref="B394" r:id="rId740" display="https://www.binance.com/en/trade/BTG_BTC" xr:uid="{AAD67E9F-29D2-477E-BD85-3447B8942FDD}"/>
-    <hyperlink ref="A395" r:id="rId741" display="https://www.coingecko.com/en/coins/sand" xr:uid="{88C5B824-3D79-4226-B46C-D76A574C1451}"/>
-    <hyperlink ref="B395" r:id="rId742" display="https://www.binance.com/en/trade/SAND_BTC" xr:uid="{F96BA676-9227-4908-9EC4-BCE054CD69E2}"/>
-    <hyperlink ref="A396" r:id="rId743" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{C098D8BB-1FBE-4274-8765-6422FDF34751}"/>
-    <hyperlink ref="B396" r:id="rId744" display="https://www.binance.com/en/trade/LINK_EUR" xr:uid="{2C0723CD-6DCF-4C2E-B63E-ED866CCCED22}"/>
-    <hyperlink ref="A397" r:id="rId745" display="https://www.coingecko.com/en/coins/iotex" xr:uid="{32A6D577-C41C-41EC-9E47-C94CC2D1F287}"/>
-    <hyperlink ref="B397" r:id="rId746" display="https://www.binance.com/en/trade/IOTX_USDT" xr:uid="{A80FE016-7CF9-4E47-87C6-1965631CA5D7}"/>
-    <hyperlink ref="A398" r:id="rId747" display="https://www.coingecko.com/en/coins/dodo" xr:uid="{F305D554-93DD-4388-A031-6AFFAB69F55F}"/>
-    <hyperlink ref="B398" r:id="rId748" display="https://www.binance.com/en/trade/DODO_BTC" xr:uid="{54CFE071-5861-448B-96DC-5A535C4B5A3C}"/>
-    <hyperlink ref="A399" r:id="rId749" display="https://www.coingecko.com/en/coins/frax-share" xr:uid="{0832E00F-5FD6-474F-A299-2FFF92DA165D}"/>
-    <hyperlink ref="B399" r:id="rId750" display="https://www.binance.com/en/trade/FXS_BUSD" xr:uid="{0DB79DA5-F72D-48FB-A52F-36F609C1CB33}"/>
-    <hyperlink ref="A400" r:id="rId751" display="https://www.coingecko.com/en/coins/kusama" xr:uid="{DB6A32BE-949C-48C5-A488-99D69587A2AF}"/>
-    <hyperlink ref="B400" r:id="rId752" display="https://www.binance.com/en/trade/KSM_BUSD" xr:uid="{86E1D2D2-B6B7-419E-AC95-BE2E9C38FC1E}"/>
-    <hyperlink ref="A401" r:id="rId753" display="https://www.coingecko.com/en/coins/dodo" xr:uid="{A94CB00D-58F8-4E7A-A86F-5896039356E5}"/>
-    <hyperlink ref="B401" r:id="rId754" display="https://www.binance.com/en/trade/DODO_BUSD" xr:uid="{AD96927C-08FC-4FB6-AF99-9F0A4A11D2EE}"/>
-    <hyperlink ref="A402" r:id="rId755" display="https://www.coingecko.com/en/coins/true-usd" xr:uid="{C623C796-C5F0-4325-A41A-7F0388324E15}"/>
-    <hyperlink ref="B402" r:id="rId756" display="https://www.binance.com/en/trade/TUSD_BUSD" xr:uid="{54728BF5-CB46-431C-85F3-67289E8F8D94}"/>
-    <hyperlink ref="A403" r:id="rId757" display="https://www.coingecko.com/en/coins/cosmos" xr:uid="{36A8FE68-1321-4548-9EFF-D5A86B7610CD}"/>
-    <hyperlink ref="B403" r:id="rId758" display="https://www.binance.com/en/trade/ATOM_BUSD" xr:uid="{C7E9A80B-14FB-411C-984A-1F9FB8D05803}"/>
-    <hyperlink ref="A404" r:id="rId759" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{3E09B6F6-A465-440A-A414-2813D8BDFA12}"/>
-    <hyperlink ref="B404" r:id="rId760" display="https://www.binance.com/en/trade/DOGE_TRY" xr:uid="{47A3F0E9-4354-4DE5-8945-551D03575B37}"/>
-    <hyperlink ref="A405" r:id="rId761" display="https://www.coingecko.com/en/coins/tether" xr:uid="{B1864E16-918A-4F3B-A4BA-C51496E52815}"/>
-    <hyperlink ref="B405" r:id="rId762" display="https://www.binance.com/en/trade/USDT_BIDR" xr:uid="{8166B1A1-BB41-459A-B70E-CF8A85632D8F}"/>
-    <hyperlink ref="A407" r:id="rId763" display="https://www.coingecko.com/en/coins/iost" xr:uid="{C108B43C-E3BA-4ECE-80BB-8C21466738F5}"/>
-    <hyperlink ref="B407" r:id="rId764" display="https://www.binance.com/en/trade/IOST_ETH" xr:uid="{C65E6067-AE90-4EDD-A8B1-22BD4F0B954F}"/>
-    <hyperlink ref="A408" r:id="rId765" display="https://www.coingecko.com/en/coins/vethor-token" xr:uid="{6FA046FA-8F20-4D00-AAB1-C5962D47375A}"/>
-    <hyperlink ref="B408" r:id="rId766" display="https://www.binance.com/en/trade/VTHO_USDT" xr:uid="{15D886C9-EFAA-4C9C-A42D-DE4CE769A02E}"/>
-    <hyperlink ref="A409" r:id="rId767" display="https://www.coingecko.com/en/coins/augur" xr:uid="{ACCFFE81-FCE1-4659-8382-84ABF4B3A2E7}"/>
-    <hyperlink ref="B409" r:id="rId768" display="https://www.binance.com/en/trade/REP_USDT" xr:uid="{B9A3FC8F-C398-403F-870B-BD1403EC80C4}"/>
-    <hyperlink ref="A411" r:id="rId769" display="https://www.coingecko.com/en/coins/theta-fuel" xr:uid="{EDB1EDB7-19E6-4881-BC67-1420E6A3420E}"/>
-    <hyperlink ref="B411" r:id="rId770" display="https://www.binance.com/en/trade/TFUEL_BTC" xr:uid="{89F8A463-14AE-4203-8983-A20967360B82}"/>
-    <hyperlink ref="A412" r:id="rId771" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{E7D25451-C0EB-41F8-94BD-326937FD5DA0}"/>
-    <hyperlink ref="B412" r:id="rId772" display="https://www.binance.com/en/trade/SXP_EUR" xr:uid="{7A91587D-0D1A-47B5-A3D2-D971703A0790}"/>
-    <hyperlink ref="A413" r:id="rId773" display="https://www.coingecko.com/en/coins/digibyte" xr:uid="{289F9363-CB23-4624-9D1E-B6F5B53CA33B}"/>
-    <hyperlink ref="B413" r:id="rId774" display="https://www.binance.com/en/trade/DGB_BTC" xr:uid="{F275D420-A83C-4189-8801-38C2A42BEE8B}"/>
-    <hyperlink ref="A414" r:id="rId775" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{439ABB99-6A41-4565-A9D9-BDFFE7AC16C1}"/>
-    <hyperlink ref="B414" r:id="rId776" display="https://www.binance.com/en/trade/LTC_USDC" xr:uid="{7CE84777-FEF2-4AE1-801C-E05CDB2BFAA7}"/>
-    <hyperlink ref="A415" r:id="rId777" display="https://www.coingecko.com/en/coins/hifi-finance" xr:uid="{7D08D5BC-0395-4268-90B3-ABF30079F746}"/>
-    <hyperlink ref="B415" r:id="rId778" display="https://www.binance.com/en/trade/MFT_ETH" xr:uid="{1EB5369E-A578-4EE8-B94C-718A53059403}"/>
-    <hyperlink ref="A416" r:id="rId779" display="https://www.coingecko.com/en/coins/pnetwork" xr:uid="{D97252C1-C9F0-4FEA-8CA2-FE4125F082BA}"/>
-    <hyperlink ref="B416" r:id="rId780" display="https://www.binance.com/en/trade/PNT_BTC" xr:uid="{76152159-A2F5-4AAE-9366-1C6DF817819D}"/>
-    <hyperlink ref="A417" r:id="rId781" display="https://www.coingecko.com/en/coins/rsk-infrastructure-framework" xr:uid="{580183DE-AE11-4FD0-A877-645E3472447A}"/>
-    <hyperlink ref="B417" r:id="rId782" display="https://www.binance.com/en/trade/RIF_BTC" xr:uid="{24D48761-D1F7-424B-A178-B5214F7388AE}"/>
-    <hyperlink ref="A418" r:id="rId783" display="https://www.coingecko.com/en/coins/district0x" xr:uid="{071225C7-6113-4AFB-9165-F826A9FDA5C1}"/>
-    <hyperlink ref="B418" r:id="rId784" display="https://www.binance.com/en/trade/DNT_USDT" xr:uid="{1508F71F-539D-41C9-B7C3-87612C6010C2}"/>
-    <hyperlink ref="A419" r:id="rId785" display="https://www.coingecko.com/en/coins/elrond" xr:uid="{13C29FFB-4CB9-4E2E-B368-026CE40513A8}"/>
-    <hyperlink ref="B419" r:id="rId786" display="https://www.binance.com/en/trade/EGLD_BNB" xr:uid="{62C1DB14-FDF0-46F9-9E4E-34425AE4ED74}"/>
-    <hyperlink ref="A420" r:id="rId787" display="https://www.coingecko.com/en/coins/audius" xr:uid="{92BC6337-FC4D-41AF-A51F-00F22D056E2D}"/>
-    <hyperlink ref="B420" r:id="rId788" display="https://www.binance.com/en/trade/AUDIO_USDT" xr:uid="{58997C2F-7605-4B5E-B6B8-5EE39F9AFA7C}"/>
-    <hyperlink ref="A421" r:id="rId789" display="https://www.coingecko.com/en/coins/wazirx" xr:uid="{02A71F10-D1E4-4739-BD78-91CAE8F67066}"/>
-    <hyperlink ref="B421" r:id="rId790" display="https://www.binance.com/en/trade/WRX_USDT" xr:uid="{B3F8285F-F98F-4703-9179-B78E79EA256B}"/>
-    <hyperlink ref="A422" r:id="rId791" display="https://www.coingecko.com/en/coins/steem" xr:uid="{B37B4162-AD3A-4D93-9D2C-A1D4171930E4}"/>
-    <hyperlink ref="B422" r:id="rId792" display="https://www.binance.com/en/trade/STEEM_BTC" xr:uid="{FA384356-21CD-4599-A9C3-B485BAB120A8}"/>
-    <hyperlink ref="A423" r:id="rId793" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{87D646A9-8308-4F2F-8FDD-CCCEB237187D}"/>
-    <hyperlink ref="B423" r:id="rId794" display="https://www.binance.com/en/trade/BTC_ZAR" xr:uid="{656958C2-9E55-48E2-B028-FE551F0C8328}"/>
-    <hyperlink ref="A424" r:id="rId795" display="https://www.coingecko.com/en/coins/zilliqa" xr:uid="{AD72AC89-09CD-401A-A652-F1F24DA22C2A}"/>
-    <hyperlink ref="B424" r:id="rId796" display="https://www.binance.com/en/trade/ZIL_BUSD" xr:uid="{C11CE4EF-C277-4BE4-8808-B31E95E85E43}"/>
-    <hyperlink ref="A425" r:id="rId797" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{59BB746F-5780-4890-B3C3-438EC0FD83B1}"/>
-    <hyperlink ref="B425" r:id="rId798" display="https://www.binance.com/en/trade/BTC_BIDR" xr:uid="{81D46DE9-7A4F-4FC5-9D84-C6B460F959D3}"/>
-    <hyperlink ref="A426" r:id="rId799" display="https://www.coingecko.com/en/coins/bitshares" xr:uid="{35BFCDD6-732F-490E-8764-F05553ED48FA}"/>
-    <hyperlink ref="B426" r:id="rId800" display="https://www.binance.com/en/trade/BTS_USDT" xr:uid="{0BD92428-02AE-4B10-BF7D-542F907BEE18}"/>
-    <hyperlink ref="A427" r:id="rId801" display="https://www.coingecko.com/en/coins/pax-gold" xr:uid="{EB697273-2659-4376-BD95-2E2BBA9A9932}"/>
-    <hyperlink ref="B427" r:id="rId802" display="https://www.binance.com/en/trade/PAXG_BTC" xr:uid="{79B2B816-4108-4EE8-A158-CEABE223F68C}"/>
-    <hyperlink ref="A428" r:id="rId803" display="https://www.coingecko.com/en/coins/dia" xr:uid="{CB694BE4-791A-4A68-82E5-3F380CAF8255}"/>
-    <hyperlink ref="B428" r:id="rId804" display="https://www.binance.com/en/trade/DIA_BTC" xr:uid="{8A40A569-5B77-4499-BE0A-9E535031AB3C}"/>
-    <hyperlink ref="A429" r:id="rId805" display="https://www.coingecko.com/en/coins/augur" xr:uid="{4CCA5947-EFB4-448B-BB42-69636F920E8F}"/>
-    <hyperlink ref="B429" r:id="rId806" display="https://www.binance.com/en/trade/REP_BTC" xr:uid="{AEB5A112-09B2-4FB0-8832-2C71F3D12996}"/>
-    <hyperlink ref="A430" r:id="rId807" display="https://www.coingecko.com/en/coins/filecoin" xr:uid="{D726522F-9316-4A92-9952-633C92D3019E}"/>
-    <hyperlink ref="B430" r:id="rId808" display="https://www.binance.com/en/trade/FIL_BUSD" xr:uid="{CBA04433-0816-429D-B548-FB6161D59A3B}"/>
-    <hyperlink ref="A431" r:id="rId809" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{953DDF5D-40C9-4A4B-8C6C-99F91397704C}"/>
-    <hyperlink ref="B431" r:id="rId810" display="https://www.binance.com/en/trade/XRP_USDC" xr:uid="{EE2E62CA-EEF5-414D-B54D-1A3C9FA3AE79}"/>
-    <hyperlink ref="A432" r:id="rId811" display="https://www.coingecko.com/en/coins/stormx" xr:uid="{E7027D9C-2C8F-4809-B0E4-D544A8C796A2}"/>
-    <hyperlink ref="B432" r:id="rId812" display="https://www.binance.com/en/trade/STMX_BTC" xr:uid="{B65E05F6-0C8A-4E4A-BE3B-2C7CCCFCAFB6}"/>
-    <hyperlink ref="A433" r:id="rId813" display="https://www.coingecko.com/en/coins/prometeus" xr:uid="{76BA1FE5-6AE7-4242-BC8E-2EB54EEAEDC0}"/>
-    <hyperlink ref="B433" r:id="rId814" display="https://www.binance.com/en/trade/PROM_BNB" xr:uid="{046BAA0B-78E6-4EE8-B5CB-200B426A7D57}"/>
-    <hyperlink ref="A436" r:id="rId815" display="https://www.coingecko.com/en/coins/komodo" xr:uid="{7DA94249-DDC3-4286-B7E3-C41965C6F3F7}"/>
-    <hyperlink ref="B436" r:id="rId816" display="https://www.binance.com/en/trade/KMD_BTC" xr:uid="{EF8A2100-F193-4A24-9E40-4E7287C97B4A}"/>
-    <hyperlink ref="A437" r:id="rId817" display="https://www.coingecko.com/en/coins/elf" xr:uid="{757FDA8A-2E46-4D17-BCCD-6FB43A7414F9}"/>
-    <hyperlink ref="B437" r:id="rId818" display="https://www.binance.com/en/trade/ELF_BTC" xr:uid="{D5444A5B-EA6A-498B-A767-1A6A7504A5A6}"/>
-    <hyperlink ref="A438" r:id="rId819" display="https://www.coingecko.com/en/coins/horizen" xr:uid="{F6B6B127-CADE-4D6C-9C8C-2DE9DE58D13D}"/>
-    <hyperlink ref="B438" r:id="rId820" display="https://www.binance.com/en/trade/ZEN_BTC" xr:uid="{17C2376D-B912-4B74-B57F-A443434530D7}"/>
-    <hyperlink ref="A439" r:id="rId821" display="https://www.coingecko.com/en/coins/wrapped-bitcoin" xr:uid="{BF108E7D-FFAE-44C4-88AF-5D1EBFE1DA88}"/>
-    <hyperlink ref="B439" r:id="rId822" display="https://www.binance.com/en/trade/WBTC_ETH" xr:uid="{76FA0E26-CB8B-49DC-8396-8715332840A2}"/>
-    <hyperlink ref="A440" r:id="rId823" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{431866A0-54AD-4569-A5FB-3B4AFA8CBE99}"/>
-    <hyperlink ref="B440" r:id="rId824" display="https://www.binance.com/en/trade/XLM_EUR" xr:uid="{24DBD375-8692-432F-9048-910F3FBA7697}"/>
-    <hyperlink ref="A441" r:id="rId825" display="https://www.coingecko.com/en/coins/coti" xr:uid="{EDF9CA13-398A-4DAA-875C-8D08C31CD3F0}"/>
-    <hyperlink ref="B441" r:id="rId826" display="https://www.binance.com/en/trade/COTI_BNB" xr:uid="{0F5B35DB-4D09-4E59-8FBB-6CC8ABC6CA00}"/>
-    <hyperlink ref="A442" r:id="rId827" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{AE940729-EC13-416E-B75A-7767E1F54CBB}"/>
-    <hyperlink ref="B442" r:id="rId828" display="https://www.binance.com/en/trade/ETH_TUSD" xr:uid="{9E9F32FC-556B-4B2E-AC36-2E117D7B8094}"/>
-    <hyperlink ref="A443" r:id="rId829" display="https://www.coingecko.com/en/coins/flamingo-finance" xr:uid="{21E399C6-03AA-49D7-8FD1-891127172FFD}"/>
-    <hyperlink ref="B443" r:id="rId830" display="https://www.binance.com/en/trade/FLM_BTC" xr:uid="{32EA42D7-53E2-4280-8737-9F96703EDC34}"/>
-    <hyperlink ref="A444" r:id="rId831" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{1617031E-8BE6-4CF6-B8C0-AC5803372728}"/>
-    <hyperlink ref="B444" r:id="rId832" display="https://www.binance.com/en/trade/BUSD_VAI" xr:uid="{28C35EC8-12FB-4093-87DB-5FE6341CD063}"/>
-    <hyperlink ref="A445" r:id="rId833" display="https://www.coingecko.com/en/coins/sushi" xr:uid="{6FCBA3EF-1EFC-4869-92A6-A6E4078393C4}"/>
-    <hyperlink ref="B445" r:id="rId834" display="https://www.binance.com/en/trade/SUSHI_BNB" xr:uid="{9B032067-C347-427F-8A9B-CBFFD7ADFED7}"/>
-    <hyperlink ref="A446" r:id="rId835" display="https://www.coingecko.com/en/coins/decred" xr:uid="{9334F959-5D0E-4D12-93D9-ED8534F42F8B}"/>
-    <hyperlink ref="B446" r:id="rId836" display="https://www.binance.com/en/trade/DCR_USDT" xr:uid="{1E8088CF-B0F3-4520-B277-FFC83258E6EB}"/>
-    <hyperlink ref="A447" r:id="rId837" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{87DD74A0-9939-4434-BCC5-B84EA6BAB89C}"/>
-    <hyperlink ref="B447" r:id="rId838" display="https://www.binance.com/en/trade/LINK_USDC" xr:uid="{B036A5FC-022D-4862-A2DF-F888617B681B}"/>
-    <hyperlink ref="A448" r:id="rId839" display="https://www.coingecko.com/en/coins/lisk" xr:uid="{C9662EE9-DA2F-498A-88D3-E3285C9EC858}"/>
-    <hyperlink ref="B448" r:id="rId840" display="https://www.binance.com/en/trade/LSK_ETH" xr:uid="{93F10FDD-D00F-4358-ABF4-19D27F95AA2A}"/>
-    <hyperlink ref="A449" r:id="rId841" display="https://www.coingecko.com/en/coins/ravencoin" xr:uid="{2BCF5EB6-EC35-4157-8B94-8D49EF7748CD}"/>
-    <hyperlink ref="B449" r:id="rId842" display="https://www.binance.com/en/trade/RVN_BUSD" xr:uid="{5BD352DC-52DC-441B-BEBC-B76D51BABE4E}"/>
-    <hyperlink ref="A450" r:id="rId843" display="https://www.coingecko.com/en/coins/reef-finance" xr:uid="{E262528A-7884-4C0B-8C32-4ACE94B8FBA9}"/>
-    <hyperlink ref="B450" r:id="rId844" display="https://www.binance.com/en/trade/REEF_BUSD" xr:uid="{D2F2352C-AB97-4F06-AF67-E43CA299B3FE}"/>
-    <hyperlink ref="A451" r:id="rId845" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{EA385501-8A71-49DF-A120-8593A42A94B7}"/>
-    <hyperlink ref="B451" r:id="rId846" display="https://www.binance.com/en/trade/BNB_ZAR" xr:uid="{5D3ED357-5033-40BD-9A2D-51095E29CAEC}"/>
-    <hyperlink ref="A452" r:id="rId847" display="https://www.coingecko.com/en/coins/ocean-protocol" xr:uid="{F1FD91F7-318E-4CAA-8A32-EBC73DAE01D4}"/>
-    <hyperlink ref="B452" r:id="rId848" display="https://www.binance.com/en/trade/OCEAN_BTC" xr:uid="{034D9187-A827-41A2-B7FB-68CF1A8364F4}"/>
-    <hyperlink ref="A453" r:id="rId849" display="https://www.coingecko.com/en/coins/irisnet" xr:uid="{F92B3AF1-79EE-46DD-9DE6-6E881E1890BC}"/>
-    <hyperlink ref="B453" r:id="rId850" display="https://www.binance.com/en/trade/IRIS_USDT" xr:uid="{BB95ECAF-EA4D-4BBD-824B-31BF3B76A3FB}"/>
-    <hyperlink ref="A454" r:id="rId851" display="https://www.coingecko.com/en/coins/tron" xr:uid="{5DE2F86D-7BF8-46F9-BA89-2E02E322170B}"/>
-    <hyperlink ref="B454" r:id="rId852" display="https://www.binance.com/en/trade/TRX_BUSD" xr:uid="{AE0EF482-309D-42CE-B399-9F462C53CE94}"/>
-    <hyperlink ref="A455" r:id="rId853" display="https://www.coingecko.com/en/coins/ontology" xr:uid="{A0224939-8BA6-4CB7-A7B5-8E8C36BFA23D}"/>
-    <hyperlink ref="B455" r:id="rId854" display="https://www.binance.com/en/trade/ONT_BUSD" xr:uid="{B91E115A-B700-4B52-A7FE-CC050463EB35}"/>
-    <hyperlink ref="A456" r:id="rId855" display="https://www.coingecko.com/en/coins/hive" xr:uid="{A627174B-6EA7-4B34-96E1-AA451DF133D3}"/>
-    <hyperlink ref="B456" r:id="rId856" display="https://www.binance.com/en/trade/HIVE_BTC" xr:uid="{810774BF-DC65-4CF7-A5DA-7E41528EB2AC}"/>
-    <hyperlink ref="A457" r:id="rId857" display="https://www.coingecko.com/en/coins/hedera-hashgraph" xr:uid="{AB2B1BDC-7D41-4F51-90D7-5865D31CE279}"/>
-    <hyperlink ref="B457" r:id="rId858" display="https://www.binance.com/en/trade/HBAR_BUSD" xr:uid="{C8DEC1F6-09D5-4D71-9A7A-00CE2AA1C4D7}"/>
-    <hyperlink ref="A458" r:id="rId859" display="https://www.coingecko.com/en/coins/waltonchain" xr:uid="{76EBB683-54B4-4E8B-8A8D-281028BC1D09}"/>
-    <hyperlink ref="B458" r:id="rId860" display="https://www.binance.com/en/trade/WTC_USDT" xr:uid="{0ED4C756-5D7C-4F07-A0E8-370C19205AB0}"/>
-    <hyperlink ref="A459" r:id="rId861" display="https://www.coingecko.com/en/coins/vechain" xr:uid="{88EB91DC-7621-4C8D-86C0-E04021881916}"/>
-    <hyperlink ref="B459" r:id="rId862" display="https://www.binance.com/en/trade/VET_ETH" xr:uid="{26E63A3F-0F5E-4D16-A9AF-91BDBE6E4F79}"/>
-    <hyperlink ref="A461" r:id="rId863" display="https://www.coingecko.com/en/coins/singularitynet" xr:uid="{1D9D33CB-62D6-4D0D-B8E0-2382D015F8C4}"/>
-    <hyperlink ref="B461" r:id="rId864" display="https://www.binance.com/en/trade/AGI_BTC" xr:uid="{FD2201AB-58D5-4AA0-8615-B73D071DA0C0}"/>
-    <hyperlink ref="A462" r:id="rId865" display="https://www.coingecko.com/en/coins/ethereum-classic" xr:uid="{6951975A-7310-4832-8BEC-67F2081914F0}"/>
-    <hyperlink ref="B462" r:id="rId866" display="https://www.binance.com/en/trade/ETC_BUSD" xr:uid="{B844C646-0A3B-46A5-8431-8134032F39B4}"/>
-    <hyperlink ref="A463" r:id="rId867" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{6A9CD97B-18DC-4DC2-A492-8DB262CB3073}"/>
-    <hyperlink ref="B463" r:id="rId868" display="https://www.binance.com/en/trade/SXP_TRY" xr:uid="{92F588AA-5910-473F-99AE-36EC1337556E}"/>
-    <hyperlink ref="A464" r:id="rId869" display="https://www.coingecko.com/en/coins/loopring" xr:uid="{7A392C88-6A64-4175-B370-00D8A062C6C8}"/>
-    <hyperlink ref="B464" r:id="rId870" display="https://www.binance.com/en/trade/LRC_BTC" xr:uid="{9D118704-26D7-4C7F-A328-68382AF1C695}"/>
-    <hyperlink ref="A465" r:id="rId871" display="https://www.coingecko.com/en/coins/stp-network" xr:uid="{6D663ACC-BF42-445A-88FC-6E9DC74EE5D1}"/>
-    <hyperlink ref="B465" r:id="rId872" display="https://www.binance.com/en/trade/STPT_USDT" xr:uid="{8B5E5123-78BA-4BF0-AA8D-F2DF6FC80EA9}"/>
-    <hyperlink ref="A466" r:id="rId873" display="https://www.coingecko.com/en/coins/pivx" xr:uid="{06B6618F-5D6A-4A4B-BB10-8DAC450936A7}"/>
-    <hyperlink ref="B466" r:id="rId874" display="https://www.binance.com/en/trade/PIVX_ETH" xr:uid="{A045B078-2B45-447B-9F3C-3340913AFD33}"/>
-    <hyperlink ref="A467" r:id="rId875" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{1D6A4D43-7868-4C07-8E20-FBA092C15275}"/>
-    <hyperlink ref="B467" r:id="rId876" display="https://www.binance.com/en/trade/XRP_TRY" xr:uid="{4738EB71-3485-4386-B6E9-9C9369258263}"/>
-    <hyperlink ref="A468" r:id="rId877" display="https://www.coingecko.com/en/coins/uma" xr:uid="{A724179A-FA19-4BDF-A38E-0DF0B452E2DC}"/>
-    <hyperlink ref="B468" r:id="rId878" display="https://www.binance.com/en/trade/UMA_USDT" xr:uid="{7916894F-CD5A-4B94-87E0-FDDAD9613D6B}"/>
-    <hyperlink ref="A469" r:id="rId879" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{78775C31-0A9B-425B-B082-5F8F31D0DFC0}"/>
-    <hyperlink ref="B469" r:id="rId880" display="https://www.binance.com/en/trade/BTC_NGN" xr:uid="{D29CE349-C43E-4A24-904A-C9E34B93B00B}"/>
-    <hyperlink ref="A470" r:id="rId881" display="https://www.coingecko.com/en/coins/tellor" xr:uid="{F60C389E-F7D0-4D99-A509-D3FC7E0F6CB0}"/>
-    <hyperlink ref="B470" r:id="rId882" display="https://www.binance.com/en/trade/TRB_BTC" xr:uid="{A864FE0A-02E6-46BB-9387-FCE9F948187A}"/>
-    <hyperlink ref="A471" r:id="rId883" display="https://www.coingecko.com/en/coins/certik" xr:uid="{0ECA2B3B-1E8D-43FF-BAFB-7E73DB2AEBBF}"/>
-    <hyperlink ref="B471" r:id="rId884" display="https://www.binance.com/en/trade/CTK_BTC" xr:uid="{2831D9F5-E3E1-4CBC-A8F9-4793E247029A}"/>
-    <hyperlink ref="A472" r:id="rId885" display="https://www.coingecko.com/en/coins/decentraland" xr:uid="{69BC57C9-FBA0-4349-B072-FC5585732DCE}"/>
-    <hyperlink ref="B472" r:id="rId886" display="https://www.binance.com/en/trade/MANA_BTC" xr:uid="{5ABA4385-363F-473D-93D0-FCE783946554}"/>
-    <hyperlink ref="A473" r:id="rId887" display="https://www.coingecko.com/en/coins/audius" xr:uid="{B63113A9-7D6B-4427-B01C-321090DBE638}"/>
-    <hyperlink ref="B473" r:id="rId888" display="https://www.binance.com/en/trade/AUDIO_BTC" xr:uid="{1DC43B81-7050-4DEB-8602-C9E7BF683161}"/>
-    <hyperlink ref="A475" r:id="rId889" display="https://www.coingecko.com/en/coins/thorchain" xr:uid="{CA188A82-BDBF-46BF-95EE-61E356198082}"/>
-    <hyperlink ref="B475" r:id="rId890" display="https://www.binance.com/en/trade/RUNE_BUSD" xr:uid="{871270A3-ADE6-4D62-B812-2ED6339B0365}"/>
-    <hyperlink ref="A476" r:id="rId891" display="https://www.coingecko.com/en/coins/bread" xr:uid="{FA95F415-5D93-4280-AC62-B6AC8E8016C6}"/>
-    <hyperlink ref="B476" r:id="rId892" display="https://www.binance.com/en/trade/BRD_BTC" xr:uid="{D631D65E-1ABB-4C4A-95F2-A83CAAD1BF2C}"/>
-    <hyperlink ref="A477" r:id="rId893" display="https://www.coingecko.com/en/coins/synthetix-network-token" xr:uid="{846B4028-B4A1-4868-9F54-D3A14376590B}"/>
-    <hyperlink ref="B477" r:id="rId894" display="https://www.binance.com/en/trade/SNX_BUSD" xr:uid="{6C5F1044-8C33-4EB2-83D7-ECC84EAD6ED5}"/>
-    <hyperlink ref="A478" r:id="rId895" display="https://www.coingecko.com/en/coins/tron" xr:uid="{9CF1CFB5-A773-4405-824D-7AE083A56BDA}"/>
-    <hyperlink ref="B478" r:id="rId896" display="https://www.binance.com/en/trade/TRX_BNB" xr:uid="{088FDDA2-2669-4B3B-86F1-2D238467204D}"/>
-    <hyperlink ref="A479" r:id="rId897" display="https://www.coingecko.com/en/coins/arpa-chain" xr:uid="{827AFD9B-D59B-4881-BDF9-FFDA97BF56E4}"/>
-    <hyperlink ref="B479" r:id="rId898" display="https://www.binance.com/en/trade/ARPA_USDT" xr:uid="{EF64644D-2745-432A-AA4C-02D572A07739}"/>
-    <hyperlink ref="A480" r:id="rId899" display="https://www.coingecko.com/en/coins/ankr-network" xr:uid="{3D450BAB-E776-49BE-B0FC-2AF032717CC5}"/>
-    <hyperlink ref="B480" r:id="rId900" display="https://www.binance.com/en/trade/ANKR_BNB" xr:uid="{4B0EC97E-11A6-4BA6-AC48-3FC27560E76C}"/>
-    <hyperlink ref="A481" r:id="rId901" display="https://www.coingecko.com/en/coins/iexec-rlc" xr:uid="{CB70F8DD-3A74-4083-A8BB-7D47B6A94887}"/>
-    <hyperlink ref="B481" r:id="rId902" display="https://www.binance.com/en/trade/RLC_BTC" xr:uid="{0E3914F3-4CDB-423D-BB06-527851D30A7C}"/>
-    <hyperlink ref="A482" r:id="rId903" display="https://www.coingecko.com/en/coins/perlin" xr:uid="{DB1FB5A3-2EDC-4452-9E36-313E097FE665}"/>
-    <hyperlink ref="B482" r:id="rId904" display="https://www.binance.com/en/trade/PERL_USDT" xr:uid="{9911A20A-00E1-484D-9AB0-58CB738AD13A}"/>
-    <hyperlink ref="A483" r:id="rId905" display="https://www.coingecko.com/en/coins/iotex" xr:uid="{FEF38388-81B4-47CD-AD34-C71E7B96BEE4}"/>
-    <hyperlink ref="B483" r:id="rId906" display="https://www.binance.com/en/trade/IOTX_BTC" xr:uid="{26CF1BEA-6E7C-45D7-BE9D-B50CEA7A9294}"/>
-    <hyperlink ref="A484" r:id="rId907" display="https://www.coingecko.com/en/coins/near" xr:uid="{30CD6ED9-8713-4171-AF84-98105BD32B5E}"/>
-    <hyperlink ref="B484" r:id="rId908" display="https://www.binance.com/en/trade/NEAR_BUSD" xr:uid="{48B0C5BE-9FF8-4AA3-A737-1B284AF89B85}"/>
-    <hyperlink ref="A485" r:id="rId909" display="https://www.coingecko.com/en/coins/utrust" xr:uid="{D154AD6E-9265-4DF9-9684-16DEC859E3A8}"/>
-    <hyperlink ref="B485" r:id="rId910" display="https://www.binance.com/en/trade/UTK_USDT" xr:uid="{F1B83E6F-18E1-4463-801F-DBDB8BE8061D}"/>
-    <hyperlink ref="A486" r:id="rId911" display="https://www.coingecko.com/en/coins/chromia" xr:uid="{9C645884-697C-4905-90B8-7CA844EC6358}"/>
-    <hyperlink ref="B486" r:id="rId912" display="https://www.binance.com/en/trade/CHR_USDT" xr:uid="{18C4EC49-06BD-4DA4-B5E2-4C3EB0976DF0}"/>
-    <hyperlink ref="A487" r:id="rId913" display="https://www.coingecko.com/en/coins/chiliz" xr:uid="{DAEDD2B4-0A56-49CA-970D-54C889762F90}"/>
-    <hyperlink ref="B487" r:id="rId914" display="https://www.binance.com/en/trade/CHZ_BNB" xr:uid="{6894F5B4-3A3E-4BCB-ABF3-0E6D4E177D61}"/>
-    <hyperlink ref="A488" r:id="rId915" display="https://www.coingecko.com/en/coins/sun-token" xr:uid="{73C9DA31-4907-4BEB-840A-E1055C2514E8}"/>
-    <hyperlink ref="B488" r:id="rId916" display="https://www.binance.com/en/trade/SUN_BTC" xr:uid="{700ADC3F-A65A-4D62-A5E2-A528583A863E}"/>
-    <hyperlink ref="A489" r:id="rId917" display="https://www.coingecko.com/en/coins/voyager-token" xr:uid="{A42E22C6-5ECC-4D5A-9D84-326613CF0426}"/>
-    <hyperlink ref="B489" r:id="rId918" display="https://www.binance.com/en/trade/BQX_ETH" xr:uid="{F49BB7AD-5E80-42B8-A6AD-24FF0B9F091D}"/>
-    <hyperlink ref="A490" r:id="rId919" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{78B666A4-1DE8-4C28-A153-D692D542EB9E}"/>
-    <hyperlink ref="B490" r:id="rId920" display="https://www.binance.com/en/trade/XRP_GBP" xr:uid="{6359287C-CB7D-40E5-82D3-11D0AD250257}"/>
-    <hyperlink ref="A491" r:id="rId921" display="https://www.coingecko.com/en/coins/thorchain" xr:uid="{E27974AD-F79E-415B-AFE3-87415E2C20CD}"/>
-    <hyperlink ref="B491" r:id="rId922" display="https://www.binance.com/en/trade/RUNE_BNB" xr:uid="{E57655D2-F6F6-4F78-A2E5-8264E18672BD}"/>
-    <hyperlink ref="A492" r:id="rId923" display="https://www.coingecko.com/en/coins/adex" xr:uid="{60095621-19FB-40D9-8AC8-ADFF3D057430}"/>
-    <hyperlink ref="B492" r:id="rId924" display="https://www.binance.com/en/trade/ADX_BTC" xr:uid="{E23607DE-EAB2-4910-BF24-EAC95B7D1FF2}"/>
-    <hyperlink ref="A493" r:id="rId925" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{0416E34A-1957-452D-8DDE-E3C07E76BBB5}"/>
-    <hyperlink ref="B493" r:id="rId926" display="https://www.binance.com/en/trade/ETH_BIDR" xr:uid="{0BED5ABE-B97D-4AEF-8827-485C7A2F26AC}"/>
-    <hyperlink ref="A494" r:id="rId927" display="https://www.coingecko.com/en/coins/oasis-network" xr:uid="{0C80A8BF-907B-4C55-9584-F8AA35C11ACC}"/>
-    <hyperlink ref="B494" r:id="rId928" display="https://www.binance.com/en/trade/ROSE_BTC" xr:uid="{C72F7E0F-4B53-41DA-9F09-548F359547A4}"/>
-    <hyperlink ref="A495" r:id="rId929" display="https://www.coingecko.com/en/coins/truefi" xr:uid="{E71CCD92-108B-4119-99B0-149C09A071AE}"/>
-    <hyperlink ref="B495" r:id="rId930" display="https://www.binance.com/en/trade/TRU_USDT" xr:uid="{62251649-AAD3-49FC-8BE9-EB73C4495D94}"/>
-    <hyperlink ref="A496" r:id="rId931" display="https://www.coingecko.com/en/coins/iota" xr:uid="{0B111B7E-A67C-4B99-9DE5-16503A276525}"/>
-    <hyperlink ref="B496" r:id="rId932" display="https://www.binance.com/en/trade/IOTA_BUSD" xr:uid="{714831F2-CCC2-4467-BB5E-D330D90944E4}"/>
-    <hyperlink ref="A497" r:id="rId933" display="https://www.coingecko.com/en/coins/celo" xr:uid="{E1F383D0-F111-4890-A283-AA548ECED093}"/>
-    <hyperlink ref="B497" r:id="rId934" display="https://www.binance.com/en/trade/CELO_USDT" xr:uid="{69B0395F-7440-468F-9CA9-319AB2A03CB2}"/>
-    <hyperlink ref="A498" r:id="rId935" display="https://www.coingecko.com/en/coins/dash" xr:uid="{DFC3CFDF-090E-45D4-BEB3-5D7B412E65B4}"/>
-    <hyperlink ref="B498" r:id="rId936" display="https://www.binance.com/en/trade/DASH_BUSD" xr:uid="{4AAD5A77-90BD-4D11-8C6C-B7D3519D3DB4}"/>
-    <hyperlink ref="A499" r:id="rId937" display="https://www.coingecko.com/en/coins/maker" xr:uid="{3F91AE72-12CC-4751-BEFE-8260046500C0}"/>
-    <hyperlink ref="B499" r:id="rId938" display="https://www.binance.com/en/trade/MKR_BTC" xr:uid="{994C2A44-F00F-4603-99EB-AB07F7ED51C4}"/>
-    <hyperlink ref="A500" r:id="rId939" display="https://www.coingecko.com/en/coins/district0x" xr:uid="{5D467A07-43E7-4DB0-AADE-E0E946E5E1C3}"/>
-    <hyperlink ref="B500" r:id="rId940" display="https://www.binance.com/en/trade/DNT_BTC" xr:uid="{E890ADC5-6CAB-49FF-806E-48DC6093FE54}"/>
-    <hyperlink ref="A501" r:id="rId941" display="https://www.coingecko.com/en/coins/fortube" xr:uid="{F45B0AFE-FD98-405C-895C-062225700141}"/>
-    <hyperlink ref="B501" r:id="rId942" display="https://www.binance.com/en/trade/FOR_BUSD" xr:uid="{EC0D2F6B-94CB-4CEE-B58A-8DA7CDBC5AC0}"/>
-    <hyperlink ref="A502" r:id="rId943" display="https://www.coingecko.com/en/coins/hifi-finance" xr:uid="{08716D86-B174-40D9-9FA6-AAC4029A8332}"/>
-    <hyperlink ref="B502" r:id="rId944" display="https://www.binance.com/en/trade/MFT_BNB" xr:uid="{5FD9CBE8-898D-439D-BFD3-CAA8D356DE5F}"/>
-    <hyperlink ref="A503" r:id="rId945" display="https://www.coingecko.com/en/coins/civic" xr:uid="{29AF7ED7-CFDD-4B74-A9DE-B3700671990B}"/>
-    <hyperlink ref="B503" r:id="rId946" display="https://www.binance.com/en/trade/CVC_BTC" xr:uid="{1E029DFF-29CD-4DDB-A7CE-40FBECA244D5}"/>
-    <hyperlink ref="A504" r:id="rId947" display="https://www.coingecko.com/en/coins/storj" xr:uid="{C01DB6C9-4E94-4746-AFBB-4BBFD95A77D4}"/>
-    <hyperlink ref="B504" r:id="rId948" display="https://www.binance.com/en/trade/STORJ_BTC" xr:uid="{C2E14DD0-0ED0-4CE5-83DD-1A84CA8D1FD4}"/>
-    <hyperlink ref="A505" r:id="rId949" display="https://www.coingecko.com/en/coins/cocos-bcx" xr:uid="{D636911F-FE50-4CEF-908D-8E6956497FE3}"/>
-    <hyperlink ref="B505" r:id="rId950" display="https://www.binance.com/en/trade/COCOS_USDT" xr:uid="{737CB8EF-B022-4D5F-8C37-CE50790055B3}"/>
-    <hyperlink ref="A506" r:id="rId951" display="https://www.coingecko.com/en/coins/metal" xr:uid="{D79652F6-14D9-4D32-B2D1-56CEC3354D4B}"/>
-    <hyperlink ref="B506" r:id="rId952" display="https://www.binance.com/en/trade/MTL_USDT" xr:uid="{372D29F8-C734-43AB-BD08-B7BC7B2F0768}"/>
-    <hyperlink ref="A507" r:id="rId953" display="https://www.coingecko.com/en/coins/troy" xr:uid="{14851E7C-E5FF-44D7-B477-041F0B6422B4}"/>
-    <hyperlink ref="B507" r:id="rId954" display="https://www.binance.com/en/trade/TROY_BTC" xr:uid="{2587762E-929E-4B95-8524-BF6601EEFE92}"/>
-    <hyperlink ref="A508" r:id="rId955" display="https://www.coingecko.com/en/coins/tether" xr:uid="{62A43B82-5855-465A-957D-2D61995EBB52}"/>
-    <hyperlink ref="B508" r:id="rId956" display="https://www.binance.com/en/trade/USDT_RUB" xr:uid="{00DB55B0-2AD0-401B-898E-FBA5F44E44D4}"/>
-    <hyperlink ref="A509" r:id="rId957" display="https://www.coingecko.com/en/coins/lto-network" xr:uid="{9069DD97-8D0E-4F11-B04A-2D158B0460B7}"/>
-    <hyperlink ref="B509" r:id="rId958" display="https://www.binance.com/en/trade/LTO_USDT" xr:uid="{41166CE0-E0AD-48F4-B68D-BE38DDCC8A42}"/>
-    <hyperlink ref="A510" r:id="rId959" display="https://www.coingecko.com/en/coins/stratis" xr:uid="{D7C8E5EC-342A-4946-BE72-745B4DDCAE11}"/>
-    <hyperlink ref="B510" r:id="rId960" display="https://www.binance.com/en/trade/STRAX_USDT" xr:uid="{A0F30F8C-1DE0-452B-9043-1DE44E7D11FB}"/>
-    <hyperlink ref="A511" r:id="rId961" display="https://www.coingecko.com/en/coins/syscoin" xr:uid="{165CEC7A-9D82-460D-BD3C-EA1A05EBDAA1}"/>
-    <hyperlink ref="B511" r:id="rId962" display="https://www.binance.com/en/trade/SYS_BTC" xr:uid="{074C80DF-5273-485E-BC27-F5C0ECD5C926}"/>
-    <hyperlink ref="A512" r:id="rId963" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{027FC0D2-B75C-47B2-83DA-9CC6DF3893AE}"/>
-    <hyperlink ref="B512" r:id="rId964" display="https://www.binance.com/en/trade/BUSD_BRL" xr:uid="{66AF3401-1CE2-4BE1-B890-CB5D3AF3530C}"/>
-    <hyperlink ref="A513" r:id="rId965" display="https://www.coingecko.com/en/coins/cream" xr:uid="{901015D2-7CDF-4893-878C-1F27964AB7D9}"/>
-    <hyperlink ref="B513" r:id="rId966" display="https://www.binance.com/en/trade/CREAM_BUSD" xr:uid="{610EB375-D019-4DCC-B864-9F7E711BFF30}"/>
-    <hyperlink ref="A514" r:id="rId967" display="https://www.coingecko.com/en/coins/bella-protocol" xr:uid="{ABB07C39-147F-4A3F-92FF-11C272B12374}"/>
-    <hyperlink ref="B514" r:id="rId968" display="https://www.binance.com/en/trade/BEL_BTC" xr:uid="{AA48AA9D-985C-4496-9446-8B20CF0236FF}"/>
-    <hyperlink ref="A515" r:id="rId969" display="https://www.coingecko.com/en/coins/tomochain" xr:uid="{6875A430-D75C-4F22-BC92-6590B13D7DA3}"/>
-    <hyperlink ref="B515" r:id="rId970" display="https://www.binance.com/en/trade/TOMO_BUSD" xr:uid="{F8302605-785C-4A2A-94E1-F165062ED470}"/>
-    <hyperlink ref="A517" r:id="rId971" display="https://www.coingecko.com/en/coins/frontier" xr:uid="{011700A0-AE8C-4403-8BE5-B202CCECDC36}"/>
-    <hyperlink ref="B517" r:id="rId972" display="https://www.binance.com/en/trade/FRONT_ETH" xr:uid="{C10C15E2-8F41-4021-B3FF-1FE5DC70E691}"/>
-    <hyperlink ref="A518" r:id="rId973" display="https://www.coingecko.com/en/coins/metal" xr:uid="{208AC367-472D-4562-A6DC-3F43FD829D72}"/>
-    <hyperlink ref="B518" r:id="rId974" display="https://www.binance.com/en/trade/MTL_BTC" xr:uid="{DC0565C4-19D2-4341-AC94-FBFE116DC8CF}"/>
-    <hyperlink ref="A519" r:id="rId975" display="https://www.coingecko.com/en/coins/wing-finance" xr:uid="{C355953D-21C6-4FEA-8D8A-D393D952D476}"/>
-    <hyperlink ref="B519" r:id="rId976" display="https://www.binance.com/en/trade/WING_USDT" xr:uid="{A72AEBB0-4744-4CE1-BB42-FB9109857172}"/>
-    <hyperlink ref="A520" r:id="rId977" display="https://www.coingecko.com/en/coins/origin-protocol" xr:uid="{E0083E54-2642-41B0-ADE9-582AF1D92756}"/>
-    <hyperlink ref="B520" r:id="rId978" display="https://www.binance.com/en/trade/OGN_BTC" xr:uid="{78F71EE4-8D04-4809-B814-A800FC13FB65}"/>
-    <hyperlink ref="A521" r:id="rId979" display="https://www.coingecko.com/en/coins/power-ledger" xr:uid="{A7BF1AFE-11AA-4F02-B825-8BD693EFC4FA}"/>
-    <hyperlink ref="B521" r:id="rId980" display="https://www.binance.com/en/trade/POWR_BTC" xr:uid="{A45A3C95-B233-442E-929D-14A598FCE86C}"/>
-    <hyperlink ref="A522" r:id="rId981" display="https://www.coingecko.com/en/coins/injective-protocol" xr:uid="{A4EFD742-1464-425E-B016-A3F9ACF68C2E}"/>
-    <hyperlink ref="B522" r:id="rId982" display="https://www.binance.com/en/trade/INJ_BTC" xr:uid="{E2A9E55C-4697-4670-BB5B-564D20D8CF67}"/>
-    <hyperlink ref="A524" r:id="rId983" display="https://www.coingecko.com/en/coins/groestlcoin" xr:uid="{63613744-8819-41AD-827D-DE67EAD3CA65}"/>
-    <hyperlink ref="B524" r:id="rId984" display="https://www.binance.com/en/trade/GRS_BTC" xr:uid="{769F37D3-FD3C-4384-A3A8-CDD319FA56CA}"/>
-    <hyperlink ref="A525" r:id="rId985" display="https://www.coingecko.com/en/coins/bzx-protocol" xr:uid="{8A104A44-9A4D-4C6F-ABB9-BE34AB7931FC}"/>
-    <hyperlink ref="B525" r:id="rId986" display="https://www.binance.com/en/trade/BZRX_BTC" xr:uid="{F4A77CED-DD67-4015-BB3C-ACE4E258227B}"/>
-    <hyperlink ref="A526" r:id="rId987" display="https://www.coingecko.com/en/coins/cosmos" xr:uid="{0CFFD4E0-1432-47E9-8F93-49C5D12EB745}"/>
-    <hyperlink ref="B526" r:id="rId988" display="https://www.binance.com/en/trade/ATOM_BNB" xr:uid="{7AC4696A-73E6-4E70-8600-A93832A0B3E1}"/>
-    <hyperlink ref="A527" r:id="rId989" display="https://www.coingecko.com/en/coins/neo" xr:uid="{3FC891C1-D84F-4F99-928D-4F73BB36328F}"/>
-    <hyperlink ref="B527" r:id="rId990" display="https://www.binance.com/en/trade/NEO_BUSD" xr:uid="{8FDCDDAB-8064-422F-B8DA-1170F919295E}"/>
-    <hyperlink ref="A528" r:id="rId991" display="https://www.coingecko.com/en/coins/fortube" xr:uid="{8B7632B2-78B8-45AB-A876-F8D07FA35228}"/>
-    <hyperlink ref="B528" r:id="rId992" display="https://www.binance.com/en/trade/FOR_BTC" xr:uid="{C167AB3A-044C-4A8E-A611-B762594764C6}"/>
-    <hyperlink ref="A529" r:id="rId993" display="https://www.coingecko.com/en/coins/nano" xr:uid="{3398CCBB-3986-4629-8852-1B9917ABAFB7}"/>
-    <hyperlink ref="B529" r:id="rId994" display="https://www.binance.com/en/trade/NANO_BUSD" xr:uid="{A34439DF-F4C9-4FF9-B053-A714A1F794F5}"/>
-    <hyperlink ref="A530" r:id="rId995" display="https://www.coingecko.com/en/coins/small-love-potion" xr:uid="{9070A665-06FC-46A0-A716-9765FC129757}"/>
-    <hyperlink ref="B530" r:id="rId996" display="https://www.binance.com/en/trade/SLP_ETH" xr:uid="{B9F2D441-69D8-45A7-85BF-14440C1CEDDA}"/>
-    <hyperlink ref="A531" r:id="rId997" display="https://www.coingecko.com/en/coins/aavegotchi" xr:uid="{940B666D-16A1-47C1-8A5A-94DF77ED3072}"/>
-    <hyperlink ref="B531" r:id="rId998" display="https://www.binance.com/en/trade/GHST_ETH" xr:uid="{848DB2D7-9012-43C8-A6ED-B58317C2E0A6}"/>
-    <hyperlink ref="A532" r:id="rId999" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{AB53A0BD-C378-42FE-9DA3-AACD95381414}"/>
-    <hyperlink ref="B532" r:id="rId1000" display="https://www.binance.com/en/trade/ETH_BRL" xr:uid="{B67E6432-A254-4249-939B-334C4A4B87D7}"/>
-    <hyperlink ref="A533" r:id="rId1001" display="https://www.coingecko.com/en/coins/stack" xr:uid="{4AA31E55-13AB-4A49-9190-335E3B148593}"/>
-    <hyperlink ref="B533" r:id="rId1002" display="https://www.binance.com/en/trade/STX_BNB" xr:uid="{B2A3ECBE-132C-414F-A35E-21A080D41124}"/>
-    <hyperlink ref="A534" r:id="rId1003" display="https://www.coingecko.com/en/coins/spartan-protocol-token" xr:uid="{1FF4B4FA-095E-43B2-B7C4-DBA56455A316}"/>
-    <hyperlink ref="B534" r:id="rId1004" display="https://www.binance.com/en/trade/SPARTA_BNB" xr:uid="{3F59AC28-B6C6-46F2-B10B-5E30DF500A84}"/>
-    <hyperlink ref="A535" r:id="rId1005" display="https://www.coingecko.com/en/coins/dfi-money" xr:uid="{5F94D812-6A53-495D-A571-2A7755053C39}"/>
-    <hyperlink ref="B535" r:id="rId1006" display="https://www.binance.com/en/trade/YFII_BTC" xr:uid="{41C36FBF-5045-40FD-9CA4-F886109FE43F}"/>
-    <hyperlink ref="A536" r:id="rId1007" display="https://www.coingecko.com/en/coins/enjin-coin" xr:uid="{4F067318-72F0-4484-A16A-58DB2F4A3917}"/>
-    <hyperlink ref="B536" r:id="rId1008" display="https://www.binance.com/en/trade/ENJ_BNB" xr:uid="{C65CA2C5-2D3C-4C96-9505-336A59F29A11}"/>
-    <hyperlink ref="A537" r:id="rId1009" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{78A9A48B-7686-45FC-BA1F-73161A2DF268}"/>
-    <hyperlink ref="B537" r:id="rId1010" display="https://www.binance.com/en/trade/BNB_RUB" xr:uid="{A93F0F7A-96EF-4F8F-AD97-2068AD721C0F}"/>
-    <hyperlink ref="A538" r:id="rId1011" display="https://www.coingecko.com/en/coins/helium" xr:uid="{B92EC44D-EB0C-4ECC-851E-482285EB718A}"/>
-    <hyperlink ref="B538" r:id="rId1012" display="https://www.binance.com/en/trade/HNT_BTC" xr:uid="{97503229-A32B-4C9E-A9E7-A314B4661A10}"/>
-    <hyperlink ref="A539" r:id="rId1013" display="https://www.coingecko.com/en/coins/moviebloc" xr:uid="{C9FAEBD9-3BF7-456B-84E8-6CDE6D3BD42D}"/>
-    <hyperlink ref="B539" r:id="rId1014" display="https://www.binance.com/en/trade/MBL_USDT" xr:uid="{6CCAEC57-4982-43BB-8B0C-5B87EC8E0448}"/>
-    <hyperlink ref="A540" r:id="rId1015" display="https://www.coingecko.com/en/coins/arpa-chain" xr:uid="{D274BEED-DD98-44D6-9051-21654A5A186D}"/>
-    <hyperlink ref="B540" r:id="rId1016" display="https://www.binance.com/en/trade/ARPA_BTC" xr:uid="{C72E6B6E-1324-47CF-A43A-B2FB9C125D54}"/>
-    <hyperlink ref="A541" r:id="rId1017" display="https://www.coingecko.com/en/coins/beam" xr:uid="{6F91E570-82FA-4159-8311-41D86B8F91A6}"/>
-    <hyperlink ref="B541" r:id="rId1018" display="https://www.binance.com/en/trade/BEAM_USDT" xr:uid="{EEBCAA8E-B971-4178-B86E-FAE0B2E2BD3C}"/>
-    <hyperlink ref="A542" r:id="rId1019" display="https://www.coingecko.com/en/coins/wink" xr:uid="{FFFBFC8A-8BF0-4362-96A8-E77B1BBB8D1C}"/>
-    <hyperlink ref="B542" r:id="rId1020" display="https://www.binance.com/en/trade/WIN_USDC" xr:uid="{6B76A840-6AA5-4CEA-9779-4FED9DCA7F42}"/>
-    <hyperlink ref="A543" r:id="rId1021" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{B35DFC5B-F9C1-49DC-87A7-75F4FD191EC2}"/>
-    <hyperlink ref="B543" r:id="rId1022" display="https://www.binance.com/en/trade/DOT_TRY" xr:uid="{25DBB149-63E4-46B1-8B75-3C363456B6A9}"/>
-    <hyperlink ref="A545" r:id="rId1023" display="https://www.coingecko.com/en/coins/uniswap" xr:uid="{79984020-DDA5-4952-9E31-D02D7FAE822A}"/>
-    <hyperlink ref="B545" r:id="rId1024" display="https://www.binance.com/en/trade/UNI_BNB" xr:uid="{AED0E4AB-EFAC-4FBC-9F63-5DB0E151757A}"/>
-    <hyperlink ref="A546" r:id="rId1025" display="https://www.coingecko.com/en/coins/hard-protocol" xr:uid="{F7C2A7DF-09B7-439E-B3F0-A963E93CFBF7}"/>
-    <hyperlink ref="B546" r:id="rId1026" display="https://www.binance.com/en/trade/HARD_BTC" xr:uid="{D68ACBE2-402A-418B-84AC-7631F54BF72A}"/>
-    <hyperlink ref="A547" r:id="rId1027" display="https://www.coingecko.com/en/coins/serum" xr:uid="{4823E9D5-130E-4FA1-978B-CE56D765FE9B}"/>
-    <hyperlink ref="B547" r:id="rId1028" display="https://www.binance.com/en/trade/SRM_BNB" xr:uid="{9EF9C7E6-5DAF-4712-856A-DA3FEE3E73D0}"/>
-    <hyperlink ref="A548" r:id="rId1029" display="https://www.coingecko.com/en/coins/travala" xr:uid="{A1F3FDA7-8232-47A3-B562-A63EFE173DFB}"/>
-    <hyperlink ref="B548" r:id="rId1030" display="https://www.binance.com/en/trade/AVA_BNB" xr:uid="{01946645-02A2-4FC0-B06C-B2011FFE8AE2}"/>
-    <hyperlink ref="A549" r:id="rId1031" display="https://www.coingecko.com/en/coins/troy" xr:uid="{95D7B1DF-8AC8-4BBC-AB34-F730876E9ACF}"/>
-    <hyperlink ref="B549" r:id="rId1032" display="https://www.binance.com/en/trade/TROY_USDT" xr:uid="{6DA12EF5-A57D-4DBB-9CEB-BC1A49CFA430}"/>
-    <hyperlink ref="A550" r:id="rId1033" display="https://www.coingecko.com/en/coins/avalanche" xr:uid="{6707DB8F-2060-4D68-AAEF-7F65499640A4}"/>
-    <hyperlink ref="B550" r:id="rId1034" display="https://www.binance.com/en/trade/AVAX_BNB" xr:uid="{7268C3AF-2697-4994-9CF8-AD17ECCF05C4}"/>
-    <hyperlink ref="A551" r:id="rId1035" display="https://www.coingecko.com/en/coins/request-network" xr:uid="{C5E5EA53-54F1-4510-BD39-B528A37B20BA}"/>
-    <hyperlink ref="B551" r:id="rId1036" display="https://www.binance.com/en/trade/REQ_BTC" xr:uid="{78398CA1-7E92-4769-A19F-F986AE2E5DC9}"/>
-    <hyperlink ref="A552" r:id="rId1037" display="https://www.coingecko.com/en/coins/irisnet" xr:uid="{679E4D7A-6F36-41C7-8BE6-4FACB6C3F74B}"/>
-    <hyperlink ref="B552" r:id="rId1038" display="https://www.binance.com/en/trade/IRIS_BTC" xr:uid="{8CFC1C02-AEC9-4707-BC06-CFEF6451ED83}"/>
-    <hyperlink ref="A553" r:id="rId1039" display="https://www.coingecko.com/en/coins/compound" xr:uid="{7CD759B4-31BB-434B-BF0B-197C311602B4}"/>
-    <hyperlink ref="B553" r:id="rId1040" display="https://www.binance.com/en/trade/COMP_BUSD" xr:uid="{AEDF9B1F-387D-4E8E-9FE8-10D6429912C5}"/>
-    <hyperlink ref="A554" r:id="rId1041" display="https://www.coingecko.com/en/coins/quarkchain" xr:uid="{36063B56-B7D8-4038-97BA-663D2FB9E019}"/>
-    <hyperlink ref="B554" r:id="rId1042" display="https://www.binance.com/en/trade/QKC_BTC" xr:uid="{BAADC861-003B-4E85-B9CE-DEDE11D3A1E4}"/>
-    <hyperlink ref="A555" r:id="rId1043" display="https://www.coingecko.com/en/coins/easyfi" xr:uid="{8B2599C7-DA02-4D93-A208-89C11C511E62}"/>
-    <hyperlink ref="B555" r:id="rId1044" display="https://www.binance.com/en/trade/EASY_BTC" xr:uid="{EED230A4-EC46-4B0C-94B3-C084C473D5AF}"/>
-    <hyperlink ref="A556" r:id="rId1045" display="https://www.coingecko.com/en/coins/travala" xr:uid="{2CEE510B-50A7-4D92-8DE5-19CEC22E1734}"/>
-    <hyperlink ref="B556" r:id="rId1046" display="https://www.binance.com/en/trade/AVA_BUSD" xr:uid="{0588653E-7343-43A3-8771-14C70836BB23}"/>
-    <hyperlink ref="A557" r:id="rId1047" display="https://www.coingecko.com/en/coins/loom-network" xr:uid="{70CE24CD-2542-4F26-9DFE-A01BE92CC998}"/>
-    <hyperlink ref="B557" r:id="rId1048" display="https://www.binance.com/en/trade/LOOM_BTC" xr:uid="{B8AA1216-24C8-4696-BCAC-D5D7D7BBE2DE}"/>
-    <hyperlink ref="A558" r:id="rId1049" display="https://www.coingecko.com/en/coins/siacoin" xr:uid="{C30B23BB-00E0-4884-A82B-D14C1A4F6B18}"/>
-    <hyperlink ref="B558" r:id="rId1050" display="https://www.binance.com/en/trade/SC_BTC" xr:uid="{24AB0886-8119-4C9F-96A7-E5EA4361AA0F}"/>
-    <hyperlink ref="A559" r:id="rId1051" display="https://www.coingecko.com/en/coins/ravencoin" xr:uid="{1464A94B-5ABE-4550-AD46-5DD0B78F203E}"/>
-    <hyperlink ref="B559" r:id="rId1052" display="https://www.binance.com/en/trade/RVN_BNB" xr:uid="{630C722D-438F-4425-B3E9-591E641FBBAA}"/>
-    <hyperlink ref="A560" r:id="rId1053" display="https://www.coingecko.com/en/coins/numeraire" xr:uid="{F92CA1BB-FAFE-42CF-A700-19D5EC5EA91D}"/>
-    <hyperlink ref="B560" r:id="rId1054" display="https://www.binance.com/en/trade/NMR_USDT" xr:uid="{2516C0FC-A5F3-45C7-A5C4-89F2BC260484}"/>
-    <hyperlink ref="A561" r:id="rId1055" display="https://www.coingecko.com/en/coins/the-graph" xr:uid="{F317A0BE-5933-4D53-8E68-9773D9218F22}"/>
-    <hyperlink ref="B561" r:id="rId1056" display="https://www.binance.com/en/trade/GRT_BUSD" xr:uid="{9908EE28-39A7-4768-8C14-3DC3B55A0047}"/>
-    <hyperlink ref="A562" r:id="rId1057" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{C50258DC-E7C7-4716-AB02-42E808D80C03}"/>
-    <hyperlink ref="B562" r:id="rId1058" display="https://www.binance.com/en/trade/DOGE_GBP" xr:uid="{362971FF-1CB5-4DB6-BAD3-2823896A7980}"/>
-    <hyperlink ref="A563" r:id="rId1059" display="https://www.coingecko.com/en/coins/akropolis" xr:uid="{0851633E-085C-4285-B5B4-BBD3B9472612}"/>
-    <hyperlink ref="B563" r:id="rId1060" display="https://www.binance.com/en/trade/AKRO_BTC" xr:uid="{B5BFA5D3-E3E2-4B9E-ABFD-79A065790691}"/>
-    <hyperlink ref="A564" r:id="rId1061" display="https://www.coingecko.com/en/coins/vechain" xr:uid="{EE03635C-AC0B-4A23-94B4-A23986D9D9C5}"/>
-    <hyperlink ref="B564" r:id="rId1062" display="https://www.binance.com/en/trade/VET_BNB" xr:uid="{135178EE-5895-4215-9DE8-48540DBC694E}"/>
-    <hyperlink ref="A565" r:id="rId1063" display="https://www.coingecko.com/en/coins/ardor" xr:uid="{60761D26-C4B3-46D6-926D-C0BB328EA653}"/>
-    <hyperlink ref="B565" r:id="rId1064" display="https://www.binance.com/en/trade/ARDR_USDT" xr:uid="{0327C7A2-4CC5-4BF6-BC85-C9027A35EF21}"/>
-    <hyperlink ref="A566" r:id="rId1065" display="https://www.coingecko.com/en/coins/cover-protocol" xr:uid="{E06D2F3B-D57E-43E1-B847-39C3D8FE9BDD}"/>
-    <hyperlink ref="B566" r:id="rId1066" display="https://www.binance.com/en/trade/COVER_BUSD" xr:uid="{54786668-DBDB-41C0-877D-58F247EC0434}"/>
-    <hyperlink ref="A567" r:id="rId1067" display="https://www.coingecko.com/en/coins/basic-attention-token" xr:uid="{A68AB102-A77A-4425-983F-F55CED2B1AFF}"/>
-    <hyperlink ref="B567" r:id="rId1068" display="https://www.binance.com/en/trade/BAT_BUSD" xr:uid="{16145B03-7DE1-42E6-9A52-0DD66D892DE1}"/>
-    <hyperlink ref="A568" r:id="rId1069" display="https://www.coingecko.com/en/coins/harmony" xr:uid="{B75DADB4-4D00-4E6B-9E4D-08E4BF462E0D}"/>
-    <hyperlink ref="B568" r:id="rId1070" display="https://www.binance.com/en/trade/ONE_BUSD" xr:uid="{6BAACB90-2AC8-4E2F-A134-6748178027BE}"/>
-    <hyperlink ref="A569" r:id="rId1071" display="https://www.coingecko.com/en/coins/yearn-finance" xr:uid="{0F02419D-FD17-4603-BE7D-86B3F96405A3}"/>
-    <hyperlink ref="B569" r:id="rId1072" display="https://www.binance.com/en/trade/YFI_BUSD" xr:uid="{8DFF58B4-A3D4-47A3-838E-01C1D8D0D2CB}"/>
-    <hyperlink ref="A570" r:id="rId1073" display="https://www.coingecko.com/en/coins/zilliqa" xr:uid="{10D2E1BD-E510-4BBE-9608-C97ECE357FE4}"/>
-    <hyperlink ref="B570" r:id="rId1074" display="https://www.binance.com/en/trade/ZIL_ETH" xr:uid="{FC5F6CFB-A293-4245-9501-6839834E673D}"/>
-    <hyperlink ref="A571" r:id="rId1075" display="https://www.coingecko.com/en/coins/vidt-datalink" xr:uid="{80E928CF-1A1B-46F4-B4BB-24E99E3CE653}"/>
-    <hyperlink ref="B571" r:id="rId1076" display="https://www.binance.com/en/trade/VIDT_BTC" xr:uid="{7DB37177-AC8D-4A72-A940-314909BB6D0C}"/>
-    <hyperlink ref="A572" r:id="rId1077" display="https://www.coingecko.com/en/coins/prosper" xr:uid="{096F504E-01A7-4243-B330-7B30499C31B6}"/>
-    <hyperlink ref="B572" r:id="rId1078" display="https://www.binance.com/en/trade/PROS_ETH" xr:uid="{73B8499F-377A-41BD-9133-6CA3FFDFAA61}"/>
-    <hyperlink ref="A573" r:id="rId1079" display="https://www.coingecko.com/en/coins/aragon" xr:uid="{29F7CFC1-7602-48C2-A9F9-366B95085315}"/>
-    <hyperlink ref="B573" r:id="rId1080" display="https://www.binance.com/en/trade/ANT_BNB" xr:uid="{0EB94624-FB4A-44A3-9D45-E2FB01C25044}"/>
-    <hyperlink ref="A574" r:id="rId1081" display="https://www.coingecko.com/en/coins/wanchain" xr:uid="{190547B3-ED2F-4E76-A76C-C34F0B573489}"/>
-    <hyperlink ref="B574" r:id="rId1082" display="https://www.binance.com/en/trade/WAN_BTC" xr:uid="{D2F43DE5-D8E4-4C4C-9049-31AC40624BAE}"/>
-    <hyperlink ref="A575" r:id="rId1083" display="https://www.coingecko.com/en/coins/status" xr:uid="{EB539C78-0615-4DE2-82E6-97B41270EE68}"/>
-    <hyperlink ref="B575" r:id="rId1084" display="https://www.binance.com/en/trade/SNT_BTC" xr:uid="{B0401620-0599-4DD4-8F19-21FF2AC50096}"/>
-    <hyperlink ref="A576" r:id="rId1085" display="https://www.coingecko.com/en/coins/dexe" xr:uid="{975F7315-06EB-4874-8414-BE96312375D3}"/>
-    <hyperlink ref="B576" r:id="rId1086" display="https://www.binance.com/en/trade/DEXE_BUSD" xr:uid="{DEF03BCD-F65E-4E03-8801-27B5A1842FDA}"/>
-    <hyperlink ref="A577" r:id="rId1087" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{50B732C2-D7B3-450C-BE6E-C3BFB11CC093}"/>
-    <hyperlink ref="B577" r:id="rId1088" display="https://www.binance.com/en/trade/BCH_EUR" xr:uid="{6E0B615E-7A1B-434D-9557-05B27D08A497}"/>
-    <hyperlink ref="A578" r:id="rId1089" display="https://www.coingecko.com/en/coins/bitshares" xr:uid="{5201BF81-6066-4B31-8ABC-BDB7BF3FDF45}"/>
-    <hyperlink ref="B578" r:id="rId1090" display="https://www.binance.com/en/trade/BTS_BTC" xr:uid="{9CC63654-9B42-4BAE-A3CB-2F1D94099001}"/>
-    <hyperlink ref="A579" r:id="rId1091" display="https://www.coingecko.com/en/coins/frontier" xr:uid="{ED154486-70E4-4662-ABAC-F94344199FB6}"/>
-    <hyperlink ref="B579" r:id="rId1092" display="https://www.binance.com/en/trade/FRONT_BTC" xr:uid="{843B111C-27A0-4A17-A5C9-5B87E6CA2B9B}"/>
-    <hyperlink ref="A580" r:id="rId1093" display="https://www.coingecko.com/en/coins/waltonchain" xr:uid="{66E4DAE2-E114-4677-8512-259816D5BDBB}"/>
-    <hyperlink ref="B580" r:id="rId1094" display="https://www.binance.com/en/trade/WTC_BTC" xr:uid="{B9D342CE-2A88-44D0-87C4-5AFA0FE6EDDB}"/>
-    <hyperlink ref="A581" r:id="rId1095" display="https://www.coingecko.com/en/coins/skale" xr:uid="{762692DD-5C51-43B6-8DF6-F705338926C5}"/>
-    <hyperlink ref="B581" r:id="rId1096" display="https://www.binance.com/en/trade/SKL_BTC" xr:uid="{BC7B22AE-69A1-4BDF-B3F4-5A6A43E4C292}"/>
-    <hyperlink ref="A582" r:id="rId1097" display="https://www.coingecko.com/en/coins/nuls" xr:uid="{E8CADB57-6B7E-4733-8226-CBC6C8CEEE32}"/>
-    <hyperlink ref="B582" r:id="rId1098" display="https://www.binance.com/en/trade/NULS_USDT" xr:uid="{FE70B555-14EA-4C0F-8DE5-72DF5F584DA1}"/>
-    <hyperlink ref="A583" r:id="rId1099" display="https://www.coingecko.com/en/coins/uma" xr:uid="{EECB69A2-13F6-45B2-A549-DF8A0F3867F5}"/>
-    <hyperlink ref="B583" r:id="rId1100" display="https://www.binance.com/en/trade/UMA_BTC" xr:uid="{D88EE9CF-DC6D-471D-8EAF-99639D9015D7}"/>
-    <hyperlink ref="A584" r:id="rId1101" display="https://www.coingecko.com/en/coins/nem" xr:uid="{CCB500E4-171E-4E7D-A593-D1FECAE71EF9}"/>
-    <hyperlink ref="B584" r:id="rId1102" display="https://www.binance.com/en/trade/XEM_ETH" xr:uid="{CFE8ACED-3660-4E59-B201-C1221F180E02}"/>
-    <hyperlink ref="A585" r:id="rId1103" display="https://www.coingecko.com/en/coins/firo" xr:uid="{615DFECC-A6F2-45A3-9937-C4503B3C313B}"/>
-    <hyperlink ref="B585" r:id="rId1104" display="https://www.binance.com/en/trade/FIRO_USDT" xr:uid="{862CAE9C-10FC-43D6-B156-FC5825EDE371}"/>
-    <hyperlink ref="A586" r:id="rId1105" display="https://www.coingecko.com/en/coins/ardor" xr:uid="{05CFEB9D-C6F6-412B-825A-E695D4766DC3}"/>
-    <hyperlink ref="B586" r:id="rId1106" display="https://www.binance.com/en/trade/ARDR_BTC" xr:uid="{3496DFB8-78E4-4F84-BBA8-73880F08BCE5}"/>
-    <hyperlink ref="A587" r:id="rId1107" display="https://www.coingecko.com/en/coins/the-graph" xr:uid="{E5B3AC3C-5A38-43E1-A2BD-26B750A85961}"/>
-    <hyperlink ref="B587" r:id="rId1108" display="https://www.binance.com/en/trade/GRT_ETH" xr:uid="{8B5C44E8-04A5-489A-9D9F-00A9D8C5128D}"/>
-    <hyperlink ref="A588" r:id="rId1109" display="https://www.coingecko.com/en/coins/wazirx" xr:uid="{5F9BA234-240F-4252-9141-B9B2F27EAB6B}"/>
-    <hyperlink ref="B588" r:id="rId1110" display="https://www.binance.com/en/trade/WRX_BTC" xr:uid="{0283DB1A-1998-4604-835B-9F1B19584D73}"/>
-    <hyperlink ref="A589" r:id="rId1111" display="https://www.coingecko.com/en/coins/nkn" xr:uid="{2608E2E9-E9AA-47BF-B68A-410FFD94D211}"/>
-    <hyperlink ref="B589" r:id="rId1112" display="https://www.binance.com/en/trade/NKN_USDT" xr:uid="{38C1C712-F73D-4F8D-B039-4A0EA2F016A0}"/>
-    <hyperlink ref="A590" r:id="rId1113" display="https://www.coingecko.com/en/coins/cartesi" xr:uid="{7F51F658-443D-4E6F-8018-10A944180F21}"/>
-    <hyperlink ref="B590" r:id="rId1114" display="https://www.binance.com/en/trade/CTSI_BUSD" xr:uid="{5FA77A00-1252-4A6B-80A4-9FE80AE0C866}"/>
-    <hyperlink ref="A591" r:id="rId1115" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{B711F0B4-8686-472D-9D27-BE911E792130}"/>
-    <hyperlink ref="B591" r:id="rId1116" display="https://www.binance.com/en/trade/BCH_USDC" xr:uid="{1B461A5A-FBCE-41E1-98F7-2C5AF47B0B31}"/>
-    <hyperlink ref="A593" r:id="rId1117" display="https://www.coingecko.com/en/coins/curve-dao-token" xr:uid="{094155B9-DE33-4073-97B4-0F37535C11B0}"/>
-    <hyperlink ref="B593" r:id="rId1118" display="https://www.binance.com/en/trade/CRV_BUSD" xr:uid="{508A97D9-BCFB-4A1B-97F2-FD6EA5D9A496}"/>
-    <hyperlink ref="A594" r:id="rId1119" display="https://www.coingecko.com/en/coins/verge" xr:uid="{9DB4F3A1-1AFB-4970-957D-4829C8422FBB}"/>
-    <hyperlink ref="B594" r:id="rId1120" display="https://www.binance.com/en/trade/XVG_ETH" xr:uid="{78650033-04E7-478A-BF39-D50221AE8404}"/>
-    <hyperlink ref="A595" r:id="rId1121" display="https://www.coingecko.com/en/coins/paxos-standard" xr:uid="{7A0DA9FB-61D4-4306-9C7A-74A15EA4017A}"/>
-    <hyperlink ref="B595" r:id="rId1122" display="https://www.binance.com/en/trade/PAX_BUSD" xr:uid="{CA87E5F2-6852-4AE9-8860-6AAC2DE8094B}"/>
-    <hyperlink ref="A596" r:id="rId1123" display="https://www.coingecko.com/en/coins/secret" xr:uid="{1284E840-2B30-472C-A5DA-9187B7BE1027}"/>
-    <hyperlink ref="B596" r:id="rId1124" display="https://www.binance.com/en/trade/SCRT_ETH" xr:uid="{C1F651A5-15B5-47DB-A68C-F86956F89A30}"/>
-    <hyperlink ref="A597" r:id="rId1125" display="https://www.coingecko.com/en/coins/tron" xr:uid="{2687B612-0677-4360-A835-F20BAD901218}"/>
-    <hyperlink ref="B597" r:id="rId1126" display="https://www.binance.com/en/trade/TRX_USDC" xr:uid="{7967F7D7-CCB1-4CA1-A0BB-190BDBCCB1EE}"/>
-    <hyperlink ref="A598" r:id="rId1127" display="https://www.coingecko.com/en/coins/wrapped-nxm" xr:uid="{906C0D7D-FBD3-4103-85E0-38FEACCA5423}"/>
-    <hyperlink ref="B598" r:id="rId1128" display="https://www.binance.com/en/trade/WNXM_USDT" xr:uid="{D8F8813A-C4F7-4196-B171-DEFE502712A1}"/>
-    <hyperlink ref="A599" r:id="rId1129" display="https://www.coingecko.com/en/coins/neo" xr:uid="{1592A5DE-D34C-4B6C-AFDC-12950AF4253D}"/>
-    <hyperlink ref="B599" r:id="rId1130" display="https://www.binance.com/en/trade/NEO_ETH" xr:uid="{7BDAE24E-6958-446F-82FD-CA43CF0ABA79}"/>
-    <hyperlink ref="A600" r:id="rId1131" display="https://www.coingecko.com/en/coins/aave" xr:uid="{53705359-A75D-4CF4-A88E-3C7B0108E4A8}"/>
-    <hyperlink ref="B600" r:id="rId1132" display="https://www.binance.com/en/trade/AAVE_ETH" xr:uid="{75658723-B16F-408E-A9BE-08E33A929A1D}"/>
-    <hyperlink ref="A601" r:id="rId1133" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{48F8F913-66EA-4705-9031-3531636719F4}"/>
-    <hyperlink ref="B601" r:id="rId1134" display="https://www.binance.com/en/trade/XLM_ETH" xr:uid="{F1695FE9-4F72-4580-8DC3-6907F42C7648}"/>
-    <hyperlink ref="A602" r:id="rId1135" display="https://www.coingecko.com/en/coins/moeda-loyalty-points" xr:uid="{EC267C03-D0FD-411F-BFBF-8A8E3C1B5D9E}"/>
-    <hyperlink ref="B602" r:id="rId1136" display="https://www.binance.com/en/trade/MDA_BTC" xr:uid="{D3E14390-81A1-4DA8-8F41-4E0597F7AB0A}"/>
-    <hyperlink ref="A603" r:id="rId1137" display="https://www.coingecko.com/en/coins/rsk-infrastructure-framework" xr:uid="{BABB78C9-132B-4759-94AA-49EDAD96CB24}"/>
-    <hyperlink ref="B603" r:id="rId1138" display="https://www.binance.com/en/trade/RIF_USDT" xr:uid="{F6F7C6E0-466E-46C4-84E5-9663E0C4425E}"/>
-    <hyperlink ref="A604" r:id="rId1139" display="https://www.coingecko.com/en/coins/chromia" xr:uid="{DE48B470-C0E8-429B-A2A7-92CE9DF82F94}"/>
-    <hyperlink ref="B604" r:id="rId1140" display="https://www.binance.com/en/trade/CHR_BTC" xr:uid="{C3B55D0E-9AE1-41F9-AD2F-5495B7C571C5}"/>
-    <hyperlink ref="A605" r:id="rId1141" display="https://www.coingecko.com/en/coins/zcash" xr:uid="{40BBBE3E-243D-494A-B208-9D4817ADBAB5}"/>
-    <hyperlink ref="B605" r:id="rId1142" display="https://www.binance.com/en/trade/ZEC_BUSD" xr:uid="{69CE9C1C-AD66-4E12-8F7F-98D2A568C05A}"/>
-    <hyperlink ref="A606" r:id="rId1143" display="https://www.coingecko.com/en/coins/stratis" xr:uid="{B7D3A683-F92F-4C34-B498-158365B7361E}"/>
-    <hyperlink ref="B606" r:id="rId1144" display="https://www.binance.com/en/trade/STRAX_BTC" xr:uid="{D45B4BE8-1659-4D2C-9A9A-BC3F1B4D0A76}"/>
-    <hyperlink ref="A607" r:id="rId1145" display="https://www.coingecko.com/en/coins/contentos" xr:uid="{2A506329-62A3-4705-BFE8-F93BD7E9F5D3}"/>
-    <hyperlink ref="B607" r:id="rId1146" display="https://www.binance.com/en/trade/COS_USDT" xr:uid="{FFEF6AFA-9BEF-4DBA-AC6A-B063781C630E}"/>
-    <hyperlink ref="A608" r:id="rId1147" display="https://www.coingecko.com/en/coins/bitcoin-diamond" xr:uid="{E83F8B06-E79B-4F34-ABB6-B0D9D64AD23E}"/>
-    <hyperlink ref="B608" r:id="rId1148" display="https://www.binance.com/en/trade/BCD_BTC" xr:uid="{29D53852-3313-425A-AB09-33CCAAB33CD2}"/>
-    <hyperlink ref="A609" r:id="rId1149" display="https://www.coingecko.com/en/coins/utrust" xr:uid="{67994F6B-0E47-4CA8-9654-AC382BE66D7A}"/>
-    <hyperlink ref="B609" r:id="rId1150" display="https://www.binance.com/en/trade/UTK_BTC" xr:uid="{94677919-1020-4E2B-B8BB-D87D03126EBB}"/>
-    <hyperlink ref="A610" r:id="rId1151" display="https://www.coingecko.com/en/coins/nexus" xr:uid="{89E6053C-9D40-4EC6-A758-CC80299E24AE}"/>
-    <hyperlink ref="B610" r:id="rId1152" display="https://www.binance.com/en/trade/NXS_BTC" xr:uid="{AF39EDB5-AAE0-4C46-A549-2AB42246DC2E}"/>
-    <hyperlink ref="A611" r:id="rId1153" display="https://www.coingecko.com/en/coins/vite" xr:uid="{F7151A89-2949-4665-BBF6-FC5795AF581B}"/>
-    <hyperlink ref="B611" r:id="rId1154" display="https://www.binance.com/en/trade/VITE_USDT" xr:uid="{61A30A9C-3F86-411A-A393-36E06AED8D3C}"/>
-    <hyperlink ref="A612" r:id="rId1155" display="https://www.coingecko.com/en/coins/injective-protocol" xr:uid="{B1707696-C59D-48C9-B1EE-0E2817C4B260}"/>
-    <hyperlink ref="B612" r:id="rId1156" display="https://www.binance.com/en/trade/INJ_BUSD" xr:uid="{3A27602B-58BC-490B-889B-B3EAEE96FFDC}"/>
-    <hyperlink ref="A613" r:id="rId1157" display="https://www.coingecko.com/en/coins/dexe" xr:uid="{7203480B-46EA-423E-AE8D-9EF04D2B2664}"/>
-    <hyperlink ref="B613" r:id="rId1158" display="https://www.binance.com/en/trade/DEXE_ETH" xr:uid="{D3945E0A-8D81-414A-AF2B-1EFC804A9AA6}"/>
-    <hyperlink ref="A614" r:id="rId1159" display="https://www.coingecko.com/en/coins/reserve-rights-token" xr:uid="{C94B5A9A-7A02-41BB-AF42-8AA757D4EE56}"/>
-    <hyperlink ref="B614" r:id="rId1160" display="https://www.binance.com/en/trade/RSR_BUSD" xr:uid="{2AA3B1D8-668E-4317-8327-1222300596ED}"/>
-    <hyperlink ref="A615" r:id="rId1161" display="https://www.coingecko.com/en/coins/sand" xr:uid="{33F646B8-53A0-4E29-8544-00B3BD7DBA7F}"/>
-    <hyperlink ref="B615" r:id="rId1162" display="https://www.binance.com/en/trade/SAND_BUSD" xr:uid="{317AE36E-52DE-4241-8423-C2CE78C9402F}"/>
-    <hyperlink ref="A617" r:id="rId1163" display="https://www.coingecko.com/en/coins/streamr-datacoin" xr:uid="{62B93A85-6025-4CB5-8FE4-79487C6CCA73}"/>
-    <hyperlink ref="B617" r:id="rId1164" display="https://www.binance.com/en/trade/DATA_USDT" xr:uid="{3668099E-3C8D-402E-80CF-5838203D15BF}"/>
-    <hyperlink ref="A618" r:id="rId1165" display="https://www.coingecko.com/en/coins/idex" xr:uid="{B6799DF7-A579-418E-BD4D-8942AE06FDE2}"/>
-    <hyperlink ref="B618" r:id="rId1166" display="https://www.binance.com/en/trade/IDEX_BTC" xr:uid="{341167AD-4025-4312-B902-67A5C08FCCCF}"/>
-    <hyperlink ref="A619" r:id="rId1167" display="https://www.coingecko.com/en/coins/tether" xr:uid="{4AB59883-C290-4B45-B9B4-DA7C4E92021B}"/>
-    <hyperlink ref="B619" r:id="rId1168" display="https://www.binance.com/en/trade/USDT_NGN" xr:uid="{72263EEC-4A2B-43BC-B0A9-9EB595EF1D5A}"/>
-    <hyperlink ref="A620" r:id="rId1169" display="https://www.coingecko.com/en/coins/vidt-datalink" xr:uid="{18D0BD16-EB58-4779-9D02-0055FB9BC1A0}"/>
-    <hyperlink ref="B620" r:id="rId1170" display="https://www.binance.com/en/trade/VIDT_BUSD" xr:uid="{74E5F4E5-F559-4AB0-B097-B5B044696904}"/>
-    <hyperlink ref="A621" r:id="rId1171" display="https://www.coingecko.com/en/coins/aion" xr:uid="{F7A5ECBD-4253-4548-B701-A6E92510B189}"/>
-    <hyperlink ref="B621" r:id="rId1172" display="https://www.binance.com/en/trade/AION_ETH" xr:uid="{04F92CC2-1890-4BAB-82D0-3C0E3351D3D6}"/>
-    <hyperlink ref="A622" r:id="rId1173" display="https://www.coingecko.com/en/coins/new-bitshares" xr:uid="{DC1AD008-8E55-4AF4-A6DD-4865EC48523E}"/>
-    <hyperlink ref="B622" r:id="rId1174" display="https://www.binance.com/en/trade/NBS_USDT" xr:uid="{41C03FC7-C7E9-415D-BF85-488F4A5CC1CB}"/>
-    <hyperlink ref="A623" r:id="rId1175" display="https://www.coingecko.com/en/coins/stormx" xr:uid="{4F4BA5C0-8D58-4460-9751-942338824B9C}"/>
-    <hyperlink ref="B623" r:id="rId1176" display="https://www.binance.com/en/trade/STMX_ETH" xr:uid="{FD8117A1-4DB9-4491-AEAF-6DC0A12D954F}"/>
-    <hyperlink ref="A624" r:id="rId1177" display="https://www.coingecko.com/en/coins/perlin" xr:uid="{7DD54EB4-0592-4A8D-9FCE-6368E536AE9B}"/>
-    <hyperlink ref="B624" r:id="rId1178" display="https://www.binance.com/en/trade/PERL_BTC" xr:uid="{59C827C9-504C-4BA5-AC1F-6ED4DEF73886}"/>
-    <hyperlink ref="A625" r:id="rId1179" display="https://www.coingecko.com/en/coins/cartesi" xr:uid="{98EF6DBF-DC85-4ED8-9AA2-0642DF9727C8}"/>
-    <hyperlink ref="B625" r:id="rId1180" display="https://www.binance.com/en/trade/CTSI_BNB" xr:uid="{E5C1E9BE-F258-4B82-AB32-78B68B959BFC}"/>
-    <hyperlink ref="A626" r:id="rId1181" display="https://www.coingecko.com/en/coins/waves" xr:uid="{118AAB95-AE50-45C8-B7BB-B22655CC120A}"/>
-    <hyperlink ref="B626" r:id="rId1182" display="https://www.binance.com/en/trade/WAVES_BUSD" xr:uid="{BEE0B8E2-D8D3-45B0-9D5A-FD769F900015}"/>
-    <hyperlink ref="A627" r:id="rId1183" display="https://www.coingecko.com/en/coins/ocean-protocol" xr:uid="{5D3AB859-6D8D-4626-9A64-D1055B8F7CCC}"/>
-    <hyperlink ref="B627" r:id="rId1184" display="https://www.binance.com/en/trade/OCEAN_BUSD" xr:uid="{CE28B62C-0447-497B-83E6-AF1293F31BBB}"/>
-    <hyperlink ref="A628" r:id="rId1185" display="https://www.coingecko.com/en/coins/og-fan-token" xr:uid="{63E3D21E-74B9-4198-ADAA-374D832E5444}"/>
-    <hyperlink ref="B628" r:id="rId1186" display="https://www.binance.com/en/trade/OG_USDT" xr:uid="{2ADC9E7A-DAD0-40F4-AC20-860447246A30}"/>
-    <hyperlink ref="A629" r:id="rId1187" display="https://www.coingecko.com/en/coins/axie-infinity" xr:uid="{B6B912FE-63FD-4215-858D-96AA1283E26B}"/>
-    <hyperlink ref="B629" r:id="rId1188" display="https://www.binance.com/en/trade/AXS_BTC" xr:uid="{F9820366-679A-4472-B6C8-6A4D57AB62C1}"/>
-    <hyperlink ref="A630" r:id="rId1189" display="https://www.coingecko.com/en/coins/monero" xr:uid="{6AE9AEC7-B55F-4DD1-A57F-145CD1DFD099}"/>
-    <hyperlink ref="B630" r:id="rId1190" display="https://www.binance.com/en/trade/XMR_BUSD" xr:uid="{ACCACA9E-CA50-49F5-BB5C-9C93050A7EC4}"/>
-    <hyperlink ref="A631" r:id="rId1191" display="https://www.coingecko.com/en/coins/wabi" xr:uid="{F37C6FAC-3296-4FB7-BD79-30FF2BFC3921}"/>
-    <hyperlink ref="B631" r:id="rId1192" display="https://www.binance.com/en/trade/WABI_BTC" xr:uid="{AD1A36CE-C790-4BA5-8E29-4517ADB1C146}"/>
-    <hyperlink ref="A632" r:id="rId1193" display="https://www.coingecko.com/en/coins/trust-wallet-token" xr:uid="{04871A81-8C79-42D7-9B7A-E9B8CB3668B4}"/>
-    <hyperlink ref="B632" r:id="rId1194" display="https://www.binance.com/en/trade/TWT_BTC" xr:uid="{E96226BE-945C-4C06-A397-56DBC91D0453}"/>
-    <hyperlink ref="A633" r:id="rId1195" display="https://www.coingecko.com/en/coins/waves" xr:uid="{40ED6DF3-5E36-42FB-A440-59AE616FEBE4}"/>
-    <hyperlink ref="B633" r:id="rId1196" display="https://www.binance.com/en/trade/WAVES_BNB" xr:uid="{5FD134F6-E90B-49C0-914D-1E09D044572B}"/>
-    <hyperlink ref="A634" r:id="rId1197" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{EA0EE81B-0661-4ABD-8A53-AE360081611A}"/>
-    <hyperlink ref="B634" r:id="rId1198" display="https://www.binance.com/en/trade/XLM_BNB" xr:uid="{AE0BDA14-605C-446E-A45B-FE8298B117F6}"/>
-    <hyperlink ref="A635" r:id="rId1199" display="https://www.coingecko.com/en/coins/zcash" xr:uid="{3B49163A-4E22-425B-B052-88CD91185AB2}"/>
-    <hyperlink ref="B635" r:id="rId1200" display="https://www.binance.com/en/trade/ZEC_USDC" xr:uid="{0DA5E6AA-3A20-440F-8D8F-581D10A0F582}"/>
-    <hyperlink ref="A636" r:id="rId1201" display="https://www.coingecko.com/en/coins/agrello" xr:uid="{42FFD44B-FC20-479B-8BFE-27907E12975A}"/>
-    <hyperlink ref="B636" r:id="rId1202" display="https://www.binance.com/en/trade/DLT_BTC" xr:uid="{7375B0C5-BFD1-4E08-BD7A-28BC02CBF9A2}"/>
-    <hyperlink ref="A637" r:id="rId1203" display="https://www.coingecko.com/en/coins/trust-wallet-token" xr:uid="{43149AF8-69BA-42E2-B4AE-04BD58AF74A8}"/>
-    <hyperlink ref="B637" r:id="rId1204" display="https://www.binance.com/en/trade/TWT_BUSD" xr:uid="{1E10D962-00DF-4465-89E7-040CCC24916C}"/>
-    <hyperlink ref="A638" r:id="rId1205" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{65BBD5E1-1EC4-4501-B170-0A33FAE25EA9}"/>
-    <hyperlink ref="B638" r:id="rId1206" display="https://www.binance.com/en/trade/BCH_BNB" xr:uid="{470B1A66-0C76-4A25-8702-A7E83779BFEC}"/>
-    <hyperlink ref="A639" r:id="rId1207" display="https://www.coingecko.com/en/coins/gifto" xr:uid="{471B3135-3E1F-46D1-AF21-94B3BECABD1F}"/>
-    <hyperlink ref="B639" r:id="rId1208" display="https://www.binance.com/en/trade/GTO_USDT" xr:uid="{C8DAE518-3203-4370-B4AB-1AAD565C7E48}"/>
-    <hyperlink ref="A640" r:id="rId1209" display="https://www.coingecko.com/en/coins/icon" xr:uid="{2B879D65-36A3-440F-BF55-994E4EDC0951}"/>
-    <hyperlink ref="B640" r:id="rId1210" display="https://www.binance.com/en/trade/ICX_ETH" xr:uid="{831F54B0-0F23-4453-A764-AA9896E6543C}"/>
-    <hyperlink ref="A641" r:id="rId1211" display="https://www.coingecko.com/en/coins/aave" xr:uid="{921FC711-5516-4292-9FAC-1803E410BD04}"/>
-    <hyperlink ref="B641" r:id="rId1212" display="https://www.binance.com/en/trade/AAVE_BNB" xr:uid="{9E215217-C817-4932-B62B-1D5BAF65D1BB}"/>
-    <hyperlink ref="A642" r:id="rId1213" display="https://www.coingecko.com/en/coins/bittorrent" xr:uid="{CA0FA62B-2025-4E96-850C-17AEF6BD1E2C}"/>
-    <hyperlink ref="B642" r:id="rId1214" display="https://www.binance.com/en/trade/BTT_BUSD" xr:uid="{752E589A-F471-4BA1-91BC-E0E7DDF25A95}"/>
-    <hyperlink ref="A643" r:id="rId1215" display="https://www.coingecko.com/en/coins/maker" xr:uid="{83B8E9B6-47B2-47B8-8C26-17B2CA960A6F}"/>
-    <hyperlink ref="B643" r:id="rId1216" display="https://www.binance.com/en/trade/MKR_BUSD" xr:uid="{EA05C59D-2D60-43C3-9C24-58BADB2F05AD}"/>
-    <hyperlink ref="A644" r:id="rId1217" display="https://www.coingecko.com/en/coins/nkn" xr:uid="{7AF28B78-E6E6-4DF3-BB4D-53B030AC65E5}"/>
-    <hyperlink ref="B644" r:id="rId1218" display="https://www.binance.com/en/trade/NKN_BTC" xr:uid="{0081CD19-56EB-48DC-A098-A16B9D89E983}"/>
-    <hyperlink ref="A645" r:id="rId1219" display="https://www.coingecko.com/en/coins/dia" xr:uid="{76A99417-7FB6-4167-81F6-A1B0E03E41DF}"/>
-    <hyperlink ref="B645" r:id="rId1220" display="https://www.binance.com/en/trade/DIA_BUSD" xr:uid="{DE5FBA23-976B-4C09-BE74-9CAEF7080A00}"/>
-    <hyperlink ref="A646" r:id="rId1221" display="https://www.coingecko.com/en/coins/ontology" xr:uid="{A8126877-CCC1-47FA-8B9E-10B90FE4964D}"/>
-    <hyperlink ref="B646" r:id="rId1222" display="https://www.binance.com/en/trade/ONT_ETH" xr:uid="{26E353AE-2B23-4388-951E-8E1C8B42BBF6}"/>
-    <hyperlink ref="A647" r:id="rId1223" display="https://www.coingecko.com/en/coins/monero" xr:uid="{F1E5C29A-EA27-4E4C-A43C-9C80A6E1F798}"/>
-    <hyperlink ref="B647" r:id="rId1224" display="https://www.binance.com/en/trade/XMR_BNB" xr:uid="{D854B17C-67E4-4560-8263-304F3DCE802C}"/>
-    <hyperlink ref="A648" r:id="rId1225" display="https://www.coingecko.com/en/coins/monero" xr:uid="{FBD566FC-6D0F-40FE-AB77-86CB99FAEEE8}"/>
-    <hyperlink ref="B648" r:id="rId1226" display="https://www.binance.com/en/trade/XMR_ETH" xr:uid="{5D1E636F-7671-42D0-B9AF-B2F6DBF914DC}"/>
-    <hyperlink ref="A649" r:id="rId1227" display="https://www.coingecko.com/en/coins/fio-protocol" xr:uid="{DE31FDE0-53DD-4417-8CF2-EDE0B04905BA}"/>
-    <hyperlink ref="B649" r:id="rId1228" display="https://www.binance.com/en/trade/FIO_USDT" xr:uid="{B4F0ACDA-35E8-49B9-94EE-294370022B18}"/>
-    <hyperlink ref="A650" r:id="rId1229" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{A21544E4-DFF2-4740-9A13-D69084C33921}"/>
-    <hyperlink ref="B650" r:id="rId1230" display="https://www.binance.com/en/trade/BTC_UAH" xr:uid="{5B42DF5E-C66E-4429-9E38-D10034B9D157}"/>
-    <hyperlink ref="A651" r:id="rId1231" display="https://www.coingecko.com/en/coins/frax-share" xr:uid="{8F2EB875-ABAB-4147-9E03-C25C14F0E0DC}"/>
-    <hyperlink ref="B651" r:id="rId1232" display="https://www.binance.com/en/trade/FXS_BTC" xr:uid="{2907A0C5-5636-4353-8F40-E70C49DE67DF}"/>
-    <hyperlink ref="A652" r:id="rId1233" display="https://www.coingecko.com/en/coins/oasis-network" xr:uid="{E47C58FC-23C4-45D7-91D7-5DC086E1CE32}"/>
-    <hyperlink ref="B652" r:id="rId1234" display="https://www.binance.com/en/trade/ROSE_BUSD" xr:uid="{C84B60B8-7CD3-4A93-9965-E14A9EC46543}"/>
-    <hyperlink ref="A653" r:id="rId1235" display="https://www.coingecko.com/en/coins/iotex" xr:uid="{10C89FC0-19F4-4381-A5E9-356A64CBEA32}"/>
-    <hyperlink ref="B653" r:id="rId1236" display="https://www.binance.com/en/trade/IOTX_ETH" xr:uid="{01F6AFEF-A76D-4E02-A2AF-553EBB2BAAA9}"/>
-    <hyperlink ref="A654" r:id="rId1237" display="https://www.coingecko.com/en/coins/stp-network" xr:uid="{0ADD707C-2CEC-4772-998D-88EFB97E0AF6}"/>
-    <hyperlink ref="B654" r:id="rId1238" display="https://www.binance.com/en/trade/STPT_BTC" xr:uid="{C038C1BF-AE21-4E57-9D7A-CCFBA31751D6}"/>
-    <hyperlink ref="A655" r:id="rId1239" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{A795818B-B19B-4F90-A108-5EA20AFB57A8}"/>
-    <hyperlink ref="B655" r:id="rId1240" display="https://www.binance.com/en/trade/ETH_RUB" xr:uid="{E05B2C7A-797C-4DA2-84A6-25DDF6B9BD94}"/>
-    <hyperlink ref="A656" r:id="rId1241" display="https://www.coingecko.com/en/coins/viberate" xr:uid="{C063DE8A-3778-4449-B1EA-C91FCC6D6472}"/>
-    <hyperlink ref="B656" r:id="rId1242" display="https://www.binance.com/en/trade/VIB_BTC" xr:uid="{1195981A-CFCB-4CD7-AA70-4302CE23D5AE}"/>
-    <hyperlink ref="A657" r:id="rId1243" display="https://www.coingecko.com/en/coins/drep" xr:uid="{4B7D6B07-04C7-454E-993C-2A5B1D60C0B3}"/>
-    <hyperlink ref="B657" r:id="rId1244" display="https://www.binance.com/en/trade/DREP_BTC" xr:uid="{903F4045-BBFE-46E2-B7E9-F1ED1CAE84C2}"/>
-    <hyperlink ref="A658" r:id="rId1245" display="https://www.coingecko.com/en/coins/celer-network" xr:uid="{778FF4BF-B6F7-4343-8A8C-0E948EF3D465}"/>
-    <hyperlink ref="B658" r:id="rId1246" display="https://www.binance.com/en/trade/CELR_BNB" xr:uid="{1F5275F8-0205-4EBA-9DD8-775DAF6248B4}"/>
-    <hyperlink ref="A659" r:id="rId1247" display="https://www.coingecko.com/en/coins/0x" xr:uid="{06439CFB-3DE5-4B26-82C0-34E0CBE8D5A5}"/>
-    <hyperlink ref="B659" r:id="rId1248" display="https://www.binance.com/en/trade/ZRX_BUSD" xr:uid="{DCDC0C80-F12C-4B3B-8901-448A860AD647}"/>
-    <hyperlink ref="A660" r:id="rId1249" display="https://www.coingecko.com/en/coins/streamr-datacoin" xr:uid="{19E4BAEE-AA6B-4D23-AAF8-2A38E5DB3CD2}"/>
-    <hyperlink ref="B660" r:id="rId1250" display="https://www.binance.com/en/trade/DATA_BTC" xr:uid="{CD1598F3-17D5-40B8-B91B-FBA1E42BF895}"/>
-    <hyperlink ref="A661" r:id="rId1251" display="https://www.coingecko.com/en/coins/aragon" xr:uid="{AFD52AAC-F97E-4549-BB5F-06C4398AEC6F}"/>
-    <hyperlink ref="B661" r:id="rId1252" display="https://www.binance.com/en/trade/ANT_BTC" xr:uid="{17A39AD3-A04C-4521-A35F-CC133513EB89}"/>
-    <hyperlink ref="A662" r:id="rId1253" display="https://www.coingecko.com/en/coins/golem" xr:uid="{3FDBCA18-9733-4A6F-9914-D4C4B2BEEEF5}"/>
-    <hyperlink ref="B662" r:id="rId1254" display="https://www.binance.com/en/trade/GLM_ETH" xr:uid="{C12D5D36-C685-43A8-943F-3754573065A2}"/>
-    <hyperlink ref="A663" r:id="rId1255" display="https://www.coingecko.com/en/coins/just" xr:uid="{55664B8F-CD21-43F2-AA0E-049136F6961B}"/>
-    <hyperlink ref="B663" r:id="rId1256" display="https://www.binance.com/en/trade/JST_BTC" xr:uid="{26949EA7-439F-4C15-9110-5D9A57C9A39F}"/>
-    <hyperlink ref="A664" r:id="rId1257" display="https://www.coingecko.com/en/coins/numeraire" xr:uid="{AEA1FD4D-14B9-42B3-858D-BAADBD7EE147}"/>
-    <hyperlink ref="B664" r:id="rId1258" display="https://www.binance.com/en/trade/NMR_BTC" xr:uid="{2978673F-93AD-4257-8AD3-700275D38131}"/>
-    <hyperlink ref="A665" r:id="rId1259" display="https://www.coingecko.com/en/coins/balancer" xr:uid="{714AEC1C-D964-4FCE-A560-1699A010DF78}"/>
-    <hyperlink ref="B665" r:id="rId1260" display="https://www.binance.com/en/trade/BAL_BTC" xr:uid="{ACA6D520-F1DF-45A2-BB5B-83E556BE5F02}"/>
-    <hyperlink ref="A666" r:id="rId1261" display="https://www.coingecko.com/en/coins/komodo" xr:uid="{FB4727AC-B736-4637-BAFC-27489FBBCFAA}"/>
-    <hyperlink ref="B666" r:id="rId1262" display="https://www.binance.com/en/trade/KMD_ETH" xr:uid="{FAF80B18-A813-420E-BDA5-8F0E0CF5BFA5}"/>
-    <hyperlink ref="A667" r:id="rId1263" display="https://www.coingecko.com/en/coins/beam" xr:uid="{BF40D73D-8D94-42D1-80A0-918C63E3042A}"/>
-    <hyperlink ref="B667" r:id="rId1264" display="https://www.binance.com/en/trade/BEAM_BTC" xr:uid="{BF03E83A-B284-412B-BB98-97665D6B30D4}"/>
-    <hyperlink ref="A668" r:id="rId1265" display="https://www.coingecko.com/en/coins/qtum" xr:uid="{18EAF91A-3C36-4C9C-A237-B84C96BB5EDD}"/>
-    <hyperlink ref="B668" r:id="rId1266" display="https://www.binance.com/en/trade/QTUM_BUSD" xr:uid="{12893243-4637-4A49-B225-445F6B0AC20E}"/>
-    <hyperlink ref="A669" r:id="rId1267" display="https://www.coingecko.com/en/coins/unilend-finance" xr:uid="{BCAA599F-CDC9-4FA0-ABAD-D9806C7296D5}"/>
-    <hyperlink ref="B669" r:id="rId1268" display="https://www.binance.com/en/trade/UFT_ETH" xr:uid="{F552069A-434D-4273-93C8-DFC7CE84F5DC}"/>
-    <hyperlink ref="A670" r:id="rId1269" display="https://www.coingecko.com/en/coins/icon" xr:uid="{207F29B3-064F-4BC3-B4C0-01261FAD0609}"/>
-    <hyperlink ref="B670" r:id="rId1270" display="https://www.binance.com/en/trade/ICX_BNB" xr:uid="{94C97041-1E6D-4F4F-B4BD-B6792D9AFC97}"/>
-    <hyperlink ref="A671" r:id="rId1271" display="https://www.coingecko.com/en/coins/wing-finance" xr:uid="{A390B06E-A526-4794-884C-0909795BD021}"/>
-    <hyperlink ref="B671" r:id="rId1272" display="https://www.binance.com/en/trade/WING_BTC" xr:uid="{351CA5C0-D2A3-4BB4-9666-6EA99692E57C}"/>
-    <hyperlink ref="A672" r:id="rId1273" display="https://www.coingecko.com/en/coins/dock" xr:uid="{A6A9956D-759D-4CB5-9C40-43DFF88AA421}"/>
-    <hyperlink ref="B672" r:id="rId1274" display="https://www.binance.com/en/trade/DOCK_USDT" xr:uid="{859BC6B5-71CC-4C3F-AA3C-536EB71796F1}"/>
-    <hyperlink ref="A673" r:id="rId1275" display="https://www.coingecko.com/en/coins/firo" xr:uid="{9270801D-C2E2-45B3-AF17-27F81EE55640}"/>
-    <hyperlink ref="B673" r:id="rId1276" display="https://www.binance.com/en/trade/FIRO_BTC" xr:uid="{F45D772E-4E1E-4715-A55B-D3ACB730CB92}"/>
-    <hyperlink ref="A674" r:id="rId1277" display="https://www.coingecko.com/en/coins/ambrosus" xr:uid="{D0F9530D-4E46-430B-A123-375F6CFC1691}"/>
-    <hyperlink ref="B674" r:id="rId1278" display="https://www.binance.com/en/trade/AMB_BTC" xr:uid="{071831CA-DFFC-43D6-B9AC-515300C2BC32}"/>
-    <hyperlink ref="A675" r:id="rId1279" display="https://www.coingecko.com/en/coins/as-roma-fan-token" xr:uid="{F0391A06-E3DF-40E1-B018-5731B3E779FB}"/>
-    <hyperlink ref="B675" r:id="rId1280" display="https://www.binance.com/en/trade/ASR_USDT" xr:uid="{41098818-81AF-4B24-A250-6820582441C2}"/>
-    <hyperlink ref="A676" r:id="rId1281" display="https://www.coingecko.com/en/coins/hedera-hashgraph" xr:uid="{3A4BF473-DC3D-4091-B40C-5B292E6E98E5}"/>
-    <hyperlink ref="B676" r:id="rId1282" display="https://www.binance.com/en/trade/HBAR_BNB" xr:uid="{429EF00D-EB9E-42A6-8ACB-7222B2575D80}"/>
-    <hyperlink ref="A677" r:id="rId1283" display="https://www.coingecko.com/en/coins/pax-gold" xr:uid="{1BB9D407-4502-4A47-8265-48C1DE7E90A8}"/>
-    <hyperlink ref="B677" r:id="rId1284" display="https://www.binance.com/en/trade/PAXG_BNB" xr:uid="{CE77EE4C-5FA8-4E67-BF3B-3D2A1F01432A}"/>
-    <hyperlink ref="A678" r:id="rId1285" display="https://www.coingecko.com/en/coins/everipedia" xr:uid="{D670CD31-9D7C-4793-A753-0CFE5D1CC25E}"/>
-    <hyperlink ref="B678" r:id="rId1286" display="https://www.binance.com/en/trade/IQ_BUSD" xr:uid="{CEB22863-4365-4817-938E-8F4B5359DE78}"/>
-    <hyperlink ref="A679" r:id="rId1287" display="https://www.coingecko.com/en/coins/near" xr:uid="{6DA444DC-B8E6-403F-9540-805B2710D258}"/>
-    <hyperlink ref="B679" r:id="rId1288" display="https://www.binance.com/en/trade/NEAR_BNB" xr:uid="{446FF189-CF19-4F66-96FB-A8CDB548E349}"/>
-    <hyperlink ref="A680" r:id="rId1289" display="https://www.coingecko.com/en/coins/funfair" xr:uid="{C46BC240-987A-4A01-A63D-FE73CF63E137}"/>
-    <hyperlink ref="B680" r:id="rId1290" display="https://www.binance.com/en/trade/FUN_ETH" xr:uid="{62A746CF-8E3C-4B2E-B7AE-DAF287AB5CCB}"/>
-    <hyperlink ref="A681" r:id="rId1291" display="https://www.coingecko.com/en/coins/keep3rv1" xr:uid="{09F08E69-D4C8-49BE-B1E0-78B4528A117A}"/>
-    <hyperlink ref="B681" r:id="rId1292" display="https://www.binance.com/en/trade/KP3R_BNB" xr:uid="{BA54D16F-413B-48E4-BE2E-D60B31B37E28}"/>
-    <hyperlink ref="A682" r:id="rId1293" display="https://www.coingecko.com/en/coins/iota" xr:uid="{890DD3C5-DD28-4B6F-8AD6-C540E1E68933}"/>
-    <hyperlink ref="B682" r:id="rId1294" display="https://www.binance.com/en/trade/IOTA_BNB" xr:uid="{BC5B36EE-9C98-42DE-BA84-07B9EAB01DEA}"/>
-    <hyperlink ref="A683" r:id="rId1295" display="https://www.coingecko.com/en/coins/just" xr:uid="{9B7EBEBE-572E-4553-A89B-7B69FAEE5FAA}"/>
-    <hyperlink ref="B683" r:id="rId1296" display="https://www.binance.com/en/trade/JST_BUSD" xr:uid="{4F5CAFA9-391C-44B5-995C-B2F21D780BB6}"/>
-    <hyperlink ref="A684" r:id="rId1297" display="https://www.coingecko.com/en/coins/dock" xr:uid="{5FE6AF22-885E-4991-A3EE-D77C87F437B5}"/>
-    <hyperlink ref="B684" r:id="rId1298" display="https://www.binance.com/en/trade/DOCK_BTC" xr:uid="{F110076A-4323-4A48-8B33-05F2875A6327}"/>
-    <hyperlink ref="A685" r:id="rId1299" display="https://www.coingecko.com/en/coins/mithril" xr:uid="{41527C64-AFF3-4C4C-B82E-D6A0A644BC13}"/>
-    <hyperlink ref="B685" r:id="rId1300" display="https://www.binance.com/en/trade/MITH_USDT" xr:uid="{8FE06BEE-92A7-41CC-90EA-E13B833A49BA}"/>
-    <hyperlink ref="A686" r:id="rId1301" display="https://www.coingecko.com/en/coins/bittorrent" xr:uid="{7ED2CECC-6DB1-43D0-B441-33716E2B2DEE}"/>
-    <hyperlink ref="B686" r:id="rId1302" display="https://www.binance.com/en/trade/BTT_BNB" xr:uid="{450D0AE5-5886-49CB-B54E-5C0AF3C46D01}"/>
-    <hyperlink ref="A687" r:id="rId1303" display="https://www.coingecko.com/en/coins/truefi" xr:uid="{9FEDBA05-C744-4D50-A344-43B2E393E51C}"/>
-    <hyperlink ref="B687" r:id="rId1304" display="https://www.binance.com/en/trade/TRU_BTC" xr:uid="{568B644B-EDFF-41CA-A002-1C065415CA03}"/>
-    <hyperlink ref="A688" r:id="rId1305" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{7E9CEBBC-FF72-40A7-A880-B21D25564E91}"/>
-    <hyperlink ref="B688" r:id="rId1306" display="https://www.binance.com/en/trade/LINK_GBP" xr:uid="{581F9986-43F4-478D-A7FB-EF546E4F5E54}"/>
-    <hyperlink ref="A689" r:id="rId1307" display="https://www.coingecko.com/en/coins/iota" xr:uid="{F5312C75-23B4-46A1-A1A2-1C5E8A77105F}"/>
-    <hyperlink ref="B689" r:id="rId1308" display="https://www.binance.com/en/trade/IOTA_ETH" xr:uid="{E2107466-817D-48F7-BE02-70055FFBCB33}"/>
-    <hyperlink ref="A690" r:id="rId1309" display="https://www.coingecko.com/en/coins/airswap" xr:uid="{E98D2F25-5C6F-443C-9EE0-598171010831}"/>
-    <hyperlink ref="B690" r:id="rId1310" display="https://www.binance.com/en/trade/AST_BTC" xr:uid="{0DA61A72-825D-424C-8B90-829F453281E9}"/>
-    <hyperlink ref="A691" r:id="rId1311" display="https://www.coingecko.com/en/coins/orchid-protocol" xr:uid="{DCC72D3B-453A-4884-A428-627C6B33D3BD}"/>
-    <hyperlink ref="B691" r:id="rId1312" display="https://www.binance.com/en/trade/OXT_BTC" xr:uid="{6A613B2B-579D-4F10-89F0-B1A3F406A07E}"/>
-    <hyperlink ref="A692" r:id="rId1313" display="https://www.coingecko.com/en/coins/cardano" xr:uid="{D5346FDF-67CA-4EC3-A611-1AAF528E046E}"/>
-    <hyperlink ref="B692" r:id="rId1314" display="https://www.binance.com/en/trade/ADA_TUSD" xr:uid="{36A52F48-331A-4EF8-8035-7E1AA37A28DB}"/>
-    <hyperlink ref="A693" r:id="rId1315" display="https://www.coingecko.com/en/coins/celo" xr:uid="{45969ABF-0DCF-43C4-9514-8AE908B35D71}"/>
-    <hyperlink ref="B693" r:id="rId1316" display="https://www.binance.com/en/trade/CELO_BTC" xr:uid="{ADBF077D-97B9-45C0-8B15-23CE4B739C63}"/>
-    <hyperlink ref="A694" r:id="rId1317" display="https://www.coingecko.com/en/coins/nebulas" xr:uid="{C27F9C13-77FB-43E8-A99A-C03EF6A0527E}"/>
-    <hyperlink ref="B694" r:id="rId1318" display="https://www.binance.com/en/trade/NAS_BTC" xr:uid="{184DA0CC-CDB1-487E-B0A8-BB90B9CD54C3}"/>
-    <hyperlink ref="A695" r:id="rId1319" display="https://www.coingecko.com/en/coins/gxchain" xr:uid="{55E6BA4E-2A76-4406-B82D-73342945E5D0}"/>
-    <hyperlink ref="B695" r:id="rId1320" display="https://www.binance.com/en/trade/GXS_USDT" xr:uid="{BBAEC5D3-3F8C-45B3-BED1-2A8921A7B719}"/>
-    <hyperlink ref="A696" r:id="rId1321" display="https://www.coingecko.com/en/coins/harmony" xr:uid="{6B5AA892-F999-432B-B7FD-20BFFA5EC18C}"/>
-    <hyperlink ref="B696" r:id="rId1322" display="https://www.binance.com/en/trade/ONE_BNB" xr:uid="{16DE4772-A3E1-4D07-9879-B3FDDD977BE7}"/>
-    <hyperlink ref="A697" r:id="rId1323" display="https://www.coingecko.com/en/coins/fio-protocol" xr:uid="{27C43D9B-F5F2-4283-9993-00591007BBC1}"/>
-    <hyperlink ref="B697" r:id="rId1324" display="https://www.binance.com/en/trade/FIO_BTC" xr:uid="{4B98B2DE-4572-4271-9897-09D05D27F647}"/>
-    <hyperlink ref="A698" r:id="rId1325" display="https://www.coingecko.com/en/coins/tellor" xr:uid="{31A8683D-822F-4884-AFDB-929AEB95F936}"/>
-    <hyperlink ref="B698" r:id="rId1326" display="https://www.binance.com/en/trade/TRB_BUSD" xr:uid="{A63CF80F-6F6A-40ED-8070-660CCAE8A517}"/>
-    <hyperlink ref="A699" r:id="rId1327" display="https://www.coingecko.com/en/coins/eos" xr:uid="{7D859270-49FF-4503-9AFE-7A1E674F1596}"/>
-    <hyperlink ref="B699" r:id="rId1328" display="https://www.binance.com/en/trade/EOS_USDC" xr:uid="{6A485F70-2462-40F1-807E-B4AFED7C535D}"/>
-    <hyperlink ref="A700" r:id="rId1329" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{5EEDC70D-136B-4D3E-9597-0399F4716C76}"/>
-    <hyperlink ref="B700" r:id="rId1330" display="https://www.binance.com/en/trade/LINK_TRY" xr:uid="{44DF45F2-1691-4521-A644-FCC1F180DD86}"/>
-    <hyperlink ref="A701" r:id="rId1331" display="https://www.coingecko.com/en/coins/measurable-data-token" xr:uid="{1BC23AE5-1D7B-4D31-87E0-3F13B31490A6}"/>
-    <hyperlink ref="B701" r:id="rId1332" display="https://www.binance.com/en/trade/MDT_BTC" xr:uid="{512E5FEB-C5AD-4F80-B4FE-5AB69CD77E5D}"/>
-    <hyperlink ref="A702" r:id="rId1333" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{AF71D007-882C-4DD6-A4AE-108A9E0C5646}"/>
-    <hyperlink ref="B702" r:id="rId1334" display="https://www.binance.com/en/trade/BNB_TUSD" xr:uid="{5D4FFE1B-3709-4DE3-9AA2-CB72CD473114}"/>
-    <hyperlink ref="A703" r:id="rId1335" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{12B23470-B15F-4674-B698-9B6C515508E2}"/>
-    <hyperlink ref="B703" r:id="rId1336" display="https://www.binance.com/en/trade/SXP_GBP" xr:uid="{E6FCF2F1-8B0C-4539-9963-3BC22A31292F}"/>
-    <hyperlink ref="A704" r:id="rId1337" display="https://www.coingecko.com/en/coins/oax" xr:uid="{102CBDA5-8E29-407D-AE52-2CD8FA809595}"/>
-    <hyperlink ref="B704" r:id="rId1338" display="https://www.binance.com/en/trade/OAX_BTC" xr:uid="{F279BE69-45E6-436C-9580-7D8FA4C7B062}"/>
-    <hyperlink ref="A705" r:id="rId1339" display="https://www.coingecko.com/en/coins/qlc-chain" xr:uid="{9BBF8083-0C38-4D46-A4E7-DFEE11C2FAF8}"/>
-    <hyperlink ref="B705" r:id="rId1340" display="https://www.binance.com/en/trade/QLC_BTC" xr:uid="{371A2DD7-594C-40B9-A2BA-4502F1F92C5E}"/>
-    <hyperlink ref="A706" r:id="rId1341" display="https://www.coingecko.com/en/coins/selfkey" xr:uid="{E8EF0B3B-66D4-40FF-A7A1-09E98C1A1372}"/>
-    <hyperlink ref="B706" r:id="rId1342" display="https://www.binance.com/en/trade/KEY_ETH" xr:uid="{D3DC449D-B86D-4980-B868-4D989B0C84FD}"/>
-    <hyperlink ref="A707" r:id="rId1343" display="https://www.coingecko.com/en/coins/bzx-protocol" xr:uid="{25DE22B5-5B74-4DC5-A119-CB4F16979920}"/>
-    <hyperlink ref="B707" r:id="rId1344" display="https://www.binance.com/en/trade/BZRX_BUSD" xr:uid="{4859FB21-62BC-4DD9-9A5A-2EB3EFBD1F84}"/>
-    <hyperlink ref="A708" r:id="rId1345" display="https://www.coingecko.com/en/coins/contentos" xr:uid="{CF5B1269-2849-47EF-B503-EE056AD4F5C0}"/>
-    <hyperlink ref="B708" r:id="rId1346" display="https://www.binance.com/en/trade/COS_BTC" xr:uid="{08372054-3419-4D17-B16A-E6D1E7D0C677}"/>
-    <hyperlink ref="A709" r:id="rId1347" display="https://www.coingecko.com/en/coins/filecoin" xr:uid="{96557F9A-1F8A-43A3-9EC5-1575B44042EE}"/>
-    <hyperlink ref="B709" r:id="rId1348" display="https://www.binance.com/en/trade/FIL_BNB" xr:uid="{C851F3BB-4999-4561-B046-F3AFEE058828}"/>
-    <hyperlink ref="A710" r:id="rId1349" display="https://www.coingecko.com/en/coins/certik" xr:uid="{76364F61-1A39-4429-B432-21FADF5934AB}"/>
-    <hyperlink ref="B710" r:id="rId1350" display="https://www.binance.com/en/trade/CTK_BUSD" xr:uid="{CF1E2896-8BF8-49DB-ACDB-A0E3BBAD977D}"/>
-    <hyperlink ref="A711" r:id="rId1351" display="https://www.coingecko.com/en/coins/vite" xr:uid="{98F61A05-0AF4-4AF6-853B-643E5DED2B3F}"/>
-    <hyperlink ref="B711" r:id="rId1352" display="https://www.binance.com/en/trade/VITE_BTC" xr:uid="{ED669E03-4846-44B0-ABB1-75358336A413}"/>
-    <hyperlink ref="A712" r:id="rId1353" display="https://www.coingecko.com/en/coins/cream" xr:uid="{B29BAD1F-CF33-4366-9026-02CA7D094E00}"/>
-    <hyperlink ref="B712" r:id="rId1354" display="https://www.binance.com/en/trade/CREAM_BNB" xr:uid="{5B37F3D3-DD9D-4C92-A768-78FA36A317D6}"/>
-    <hyperlink ref="A713" r:id="rId1355" display="https://www.coingecko.com/en/coins/kusama" xr:uid="{E852D6EF-6167-403C-8AB0-55A07BB274D1}"/>
-    <hyperlink ref="B713" r:id="rId1356" display="https://www.binance.com/en/trade/KSM_BNB" xr:uid="{FD0304FB-3848-49FE-A515-4B42102E8694}"/>
-    <hyperlink ref="A714" r:id="rId1357" display="https://www.coingecko.com/en/coins/eos" xr:uid="{C134DEE1-2D7F-48CF-B903-9EC3FABE03E8}"/>
-    <hyperlink ref="B714" r:id="rId1358" display="https://www.binance.com/en/trade/EOS_EUR" xr:uid="{DE7935D4-387B-474C-893A-126DB726C9B7}"/>
-    <hyperlink ref="A715" r:id="rId1359" display="https://www.coingecko.com/en/coins/quantstamp" xr:uid="{CB45B245-8FFB-43A3-B5E3-1CA2F1FE68DD}"/>
-    <hyperlink ref="B715" r:id="rId1360" display="https://www.binance.com/en/trade/QSP_BTC" xr:uid="{92D235FF-1DB1-4877-BBCA-A027E7658CFF}"/>
-    <hyperlink ref="A716" r:id="rId1361" display="https://www.coingecko.com/en/coins/ripio-credit-network" xr:uid="{88F0AFC7-AB2F-49D2-9375-21DF2A72CA87}"/>
-    <hyperlink ref="B716" r:id="rId1362" display="https://www.binance.com/en/trade/RCN_BTC" xr:uid="{07795E4E-1F7E-4DF5-BF00-63A595895DC9}"/>
-    <hyperlink ref="A717" r:id="rId1363" display="https://www.coingecko.com/en/coins/everipedia" xr:uid="{0F345843-BD80-498C-90C8-4BEFB108316E}"/>
-    <hyperlink ref="B717" r:id="rId1364" display="https://www.binance.com/en/trade/IQ_BNB" xr:uid="{D86965CE-5F52-49BE-BE9E-497DD8EEBAF1}"/>
-    <hyperlink ref="A718" r:id="rId1365" display="https://www.coingecko.com/en/coins/cortex" xr:uid="{FE889925-F21C-4D2B-8620-AD23EE74CD41}"/>
-    <hyperlink ref="B718" r:id="rId1366" display="https://www.binance.com/en/trade/CTXC_USDT" xr:uid="{E924EC88-430D-48F1-80FA-1E34BBF68E14}"/>
-    <hyperlink ref="A719" r:id="rId1367" display="https://www.coingecko.com/en/coins/dash" xr:uid="{8CF4458C-2B9C-40AD-BA50-B58B1EF1F4A6}"/>
-    <hyperlink ref="B719" r:id="rId1368" display="https://www.binance.com/en/trade/DASH_ETH" xr:uid="{E318AFF0-1B31-4DAA-8FD5-ADBB0DB44E66}"/>
-    <hyperlink ref="A720" r:id="rId1369" display="https://www.coingecko.com/en/coins/drep" xr:uid="{D4EAD4B8-CB53-4C0D-87B1-E1E217CA3F92}"/>
-    <hyperlink ref="B720" r:id="rId1370" display="https://www.binance.com/en/trade/DREP_USDT" xr:uid="{0D6B3E96-F69E-4DC4-8B64-3E76F2CEB073}"/>
-    <hyperlink ref="A721" r:id="rId1371" display="https://www.coingecko.com/en/coins/nebulas" xr:uid="{707EFC74-E6CD-4E41-8443-164A41FBE608}"/>
-    <hyperlink ref="B721" r:id="rId1372" display="https://www.binance.com/en/trade/NAS_ETH" xr:uid="{C621E72D-707A-4390-91E1-5F6AC58B8617}"/>
-    <hyperlink ref="A722" r:id="rId1373" display="https://www.coingecko.com/en/coins/eos" xr:uid="{588D0026-3D34-4441-94E8-97B2D5849753}"/>
-    <hyperlink ref="B722" r:id="rId1374" display="https://www.binance.com/en/trade/EOS_BNB" xr:uid="{BA2BA65B-E902-4F2C-BA8D-BF6FE0C66D00}"/>
-    <hyperlink ref="A723" r:id="rId1375" display="https://www.coingecko.com/en/coins/tether" xr:uid="{25BE8ED7-E6A1-401D-BFE9-EF5389F5BBC4}"/>
-    <hyperlink ref="B723" r:id="rId1376" display="https://www.binance.com/en/trade/USDT_IDRT" xr:uid="{D57816FA-DC84-492E-8936-D7A477702557}"/>
-    <hyperlink ref="A724" r:id="rId1377" display="https://www.coingecko.com/en/coins/phoenix-global" xr:uid="{D0A19BAB-2E82-4C84-BDA6-A97818E41BA9}"/>
-    <hyperlink ref="B724" r:id="rId1378" display="https://www.binance.com/en/trade/PHB_BTC" xr:uid="{C8BA9172-AC45-4713-8CB4-3E2266C87DFB}"/>
-    <hyperlink ref="A725" r:id="rId1379" display="https://www.coingecko.com/en/coins/stellar" xr:uid="{02EB0604-29C9-4FB6-989F-B48774F346BA}"/>
-    <hyperlink ref="B725" r:id="rId1380" display="https://www.binance.com/en/trade/XLM_TRY" xr:uid="{62EFAFCC-ED7B-4BFA-8C71-E3DB0AAF3936}"/>
-    <hyperlink ref="A726" r:id="rId1381" display="https://www.coingecko.com/en/coins/as-roma-fan-token" xr:uid="{5532C4BF-CA06-47F4-8980-B22B646CBCD3}"/>
-    <hyperlink ref="B726" r:id="rId1382" display="https://www.binance.com/en/trade/ASR_BTC" xr:uid="{8E768B5A-C4B0-4C41-AFC6-6D8B2FB2C9C2}"/>
-    <hyperlink ref="A727" r:id="rId1383" display="https://www.coingecko.com/en/coins/tron" xr:uid="{C97A38EF-EB36-49EA-8794-CF53D8E87A14}"/>
-    <hyperlink ref="B727" r:id="rId1384" display="https://www.binance.com/en/trade/TRX_TRY" xr:uid="{930806CE-1504-4E33-88E6-8B5DB35EF20D}"/>
-    <hyperlink ref="A728" r:id="rId1385" display="https://www.coingecko.com/en/coins/swerve" xr:uid="{E87D5D99-B0CC-489F-81E3-14522D3F0941}"/>
-    <hyperlink ref="B728" r:id="rId1386" display="https://www.binance.com/en/trade/SWRV_BUSD" xr:uid="{37657773-8B03-4A13-BD04-605183C437C4}"/>
-    <hyperlink ref="A729" r:id="rId1387" display="https://www.coingecko.com/en/coins/paris-saint-germain-fan-token" xr:uid="{5D9CB9C2-7F62-42CD-84A7-80BACEBA1765}"/>
-    <hyperlink ref="B729" r:id="rId1388" display="https://www.binance.com/en/trade/PSG_USDT" xr:uid="{FFE2E9BE-20CE-4A04-ABF0-D4AC61F900FE}"/>
-    <hyperlink ref="A730" r:id="rId1389" display="https://www.coingecko.com/en/coins/ost" xr:uid="{FE7E1216-A0CE-4F80-BB1A-77DD7EBB0855}"/>
-    <hyperlink ref="B730" r:id="rId1390" display="https://www.binance.com/en/trade/OST_BTC" xr:uid="{3644DAA0-A02A-4E45-A079-AC58E97E6974}"/>
-    <hyperlink ref="A731" r:id="rId1391" display="https://www.coingecko.com/en/coins/loopring" xr:uid="{8F78DD2C-78FF-47D2-A126-99DE19A012BE}"/>
-    <hyperlink ref="B731" r:id="rId1392" display="https://www.binance.com/en/trade/LRC_ETH" xr:uid="{16D6B043-FE13-4639-A939-68ED64AE6E50}"/>
-    <hyperlink ref="A732" r:id="rId1393" display="https://www.coingecko.com/en/coins/tokenclub" xr:uid="{CC19ABEE-D3A2-4B9D-BEE6-C56D552B61BF}"/>
-    <hyperlink ref="B732" r:id="rId1394" display="https://www.binance.com/en/trade/TCT_USDT" xr:uid="{38ACA671-CDD6-4098-8A47-75B643E9347F}"/>
-    <hyperlink ref="A733" r:id="rId1395" display="https://www.coingecko.com/en/coins/atletico-madrid-fan-token" xr:uid="{C50649C8-F2F8-48BA-9ADB-B685D072E9C7}"/>
-    <hyperlink ref="B733" r:id="rId1396" display="https://www.binance.com/en/trade/ATM_USDT" xr:uid="{49A852CE-E5B6-4BC7-8874-A933C4A982DC}"/>
-    <hyperlink ref="A734" r:id="rId1397" display="https://www.coingecko.com/en/coins/raiden-network" xr:uid="{75A6CB94-7A7F-4970-AC93-03C0D9AD6465}"/>
-    <hyperlink ref="B734" r:id="rId1398" display="https://www.binance.com/en/trade/RDN_BTC" xr:uid="{512E2826-1F50-40CC-8A62-FCEEA3BC9F6F}"/>
-    <hyperlink ref="A735" r:id="rId1399" display="https://www.coingecko.com/en/coins/og-fan-token" xr:uid="{75B6671E-488D-490F-9B9A-C9094E0C8986}"/>
-    <hyperlink ref="B735" r:id="rId1400" display="https://www.binance.com/en/trade/OG_BTC" xr:uid="{9048C6FA-4EBE-4BB0-9E9A-3ED7A64050D2}"/>
-    <hyperlink ref="A736" r:id="rId1401" display="https://www.coingecko.com/en/coins/band-protocol" xr:uid="{DDFAC6CC-6BFA-431F-BB2B-80BE935483F3}"/>
-    <hyperlink ref="B736" r:id="rId1402" display="https://www.binance.com/en/trade/BAND_BNB" xr:uid="{8C306346-8398-4DCF-BC44-A7244562A493}"/>
-    <hyperlink ref="A737" r:id="rId1403" display="https://www.coingecko.com/en/coins/algorand" xr:uid="{24DD8A03-F8CE-4F5D-9041-ECC39034FBA8}"/>
-    <hyperlink ref="B737" r:id="rId1404" display="https://www.binance.com/en/trade/ALGO_BNB" xr:uid="{98E83F99-843B-4D96-91E1-C95C66657BB4}"/>
-    <hyperlink ref="A738" r:id="rId1405" display="https://www.coingecko.com/en/coins/tether" xr:uid="{884CC939-09F2-45CF-976A-AF4109AE295B}"/>
-    <hyperlink ref="B738" r:id="rId1406" display="https://www.binance.com/en/trade/USDT_ZAR" xr:uid="{4C768056-4FC8-4882-A415-B1229FFB8B7A}"/>
-    <hyperlink ref="A739" r:id="rId1407" display="https://www.coingecko.com/en/coins/0x" xr:uid="{4A351ADF-FF7A-4061-ADAD-E66DE5FB9C04}"/>
-    <hyperlink ref="B739" r:id="rId1408" display="https://www.binance.com/en/trade/ZRX_ETH" xr:uid="{0586824E-4CBB-4D57-B024-1FB18526F44B}"/>
-    <hyperlink ref="A740" r:id="rId1409" display="https://www.coingecko.com/en/coins/polkadot" xr:uid="{84AF6865-CE07-4994-9794-F9F0A1C2F8DE}"/>
-    <hyperlink ref="B740" r:id="rId1410" display="https://www.binance.com/en/trade/DOT_BIDR" xr:uid="{F06B1447-0E47-4F05-A202-CED26E62637D}"/>
-    <hyperlink ref="A741" r:id="rId1411" display="https://www.coingecko.com/en/coins/synthetix-network-token" xr:uid="{4C03A5E3-9979-4803-A25A-65B1776D23DB}"/>
-    <hyperlink ref="B741" r:id="rId1412" display="https://www.binance.com/en/trade/SNX_BNB" xr:uid="{69A844CF-625B-430D-BF6E-3079D130E948}"/>
-    <hyperlink ref="A742" r:id="rId1413" display="https://www.coingecko.com/en/coins/hegic" xr:uid="{AEDCF078-23D9-454F-BF44-974D9B0A7D49}"/>
-    <hyperlink ref="B742" r:id="rId1414" display="https://www.binance.com/en/trade/HEGIC_BUSD" xr:uid="{6330DDAC-E6E2-4996-961F-3F2534E6E18B}"/>
-    <hyperlink ref="A743" r:id="rId1415" display="https://www.coingecko.com/en/coins/yearn-finance" xr:uid="{83A7BA8D-4CD1-4D92-A12D-65163B8D5146}"/>
-    <hyperlink ref="B743" r:id="rId1416" display="https://www.binance.com/en/trade/YFI_BNB" xr:uid="{9A7FB91B-7F23-4BDC-BAA9-73CDA5C6B2AD}"/>
-    <hyperlink ref="A744" r:id="rId1417" display="https://www.coingecko.com/en/coins/bittorrent" xr:uid="{57029705-DE84-4EC6-BD2F-1612CD8E0598}"/>
-    <hyperlink ref="B744" r:id="rId1418" display="https://www.binance.com/en/trade/BTT_TRX" xr:uid="{D31B5F7A-EB7A-42B5-94C4-637BAEFFE40B}"/>
-    <hyperlink ref="A745" r:id="rId1419" display="https://www.coingecko.com/en/coins/dfi-money" xr:uid="{551DD326-927E-4CB5-AC39-7E8281FBF54D}"/>
-    <hyperlink ref="B745" r:id="rId1420" display="https://www.binance.com/en/trade/YFII_BUSD" xr:uid="{72FD17AD-4E9B-4897-B623-9EFFFCE1E957}"/>
-    <hyperlink ref="A746" r:id="rId1421" display="https://www.coingecko.com/en/coins/nano" xr:uid="{9DB70EB0-1144-439F-8D17-342628B61376}"/>
-    <hyperlink ref="B746" r:id="rId1422" display="https://www.binance.com/en/trade/NANO_ETH" xr:uid="{BF4967B8-BEFE-4740-B25A-A765D8C8AC59}"/>
-    <hyperlink ref="A747" r:id="rId1423" display="https://www.coingecko.com/en/coins/neo" xr:uid="{79DBAABB-D9FA-48CE-B7F7-8D49C9A56248}"/>
-    <hyperlink ref="B747" r:id="rId1424" display="https://www.binance.com/en/trade/NEO_BNB" xr:uid="{3C3B3E7E-F5B6-4314-9810-25C9BD18CD52}"/>
-    <hyperlink ref="A748" r:id="rId1425" display="https://www.coingecko.com/en/coins/aergo" xr:uid="{C819E144-F7E9-4E0D-8FF4-E16922C3B4E2}"/>
-    <hyperlink ref="B748" r:id="rId1426" display="https://www.binance.com/en/trade/AERGO_BTC" xr:uid="{2D693A7E-B218-464A-9238-50B50C26212F}"/>
-    <hyperlink ref="A749" r:id="rId1427" display="https://www.coingecko.com/en/coins/siacoin" xr:uid="{492B6723-5E75-4E90-B066-224846D613CE}"/>
-    <hyperlink ref="B749" r:id="rId1428" display="https://www.binance.com/en/trade/SC_ETH" xr:uid="{0E66A0A4-F35E-42C4-9BD3-531AAFE9099A}"/>
-    <hyperlink ref="A750" r:id="rId1429" display="https://www.coingecko.com/en/coins/zilliqa" xr:uid="{9E936C78-1BB4-4AA3-AA65-7692725F3F4C}"/>
-    <hyperlink ref="B750" r:id="rId1430" display="https://www.binance.com/en/trade/ZIL_BNB" xr:uid="{7CA64A50-F074-4E93-A3E4-0E5734C30646}"/>
-    <hyperlink ref="A751" r:id="rId1431" display="https://www.coingecko.com/en/coins/just" xr:uid="{27404FFF-6B7D-4B5A-8A2C-E6B82F9CCC17}"/>
-    <hyperlink ref="B751" r:id="rId1432" display="https://www.binance.com/en/trade/JST_BNB" xr:uid="{D966E895-82A2-4336-BC6C-E63BC8E851D8}"/>
-    <hyperlink ref="A752" r:id="rId1433" display="https://www.coingecko.com/en/coins/bluzelle" xr:uid="{A3734A28-04E3-4E38-A460-CF7BA97C44F7}"/>
-    <hyperlink ref="B752" r:id="rId1434" display="https://www.binance.com/en/trade/BLZ_BNB" xr:uid="{98629EB3-AFFF-45EB-8DA8-7FD9D36E3506}"/>
-    <hyperlink ref="A753" r:id="rId1435" display="https://www.coingecko.com/en/coins/measurable-data-token" xr:uid="{A8810882-CAE0-4BEE-A82C-2E38CCF3BB60}"/>
-    <hyperlink ref="B753" r:id="rId1436" display="https://www.binance.com/en/trade/MDT_USDT" xr:uid="{A23FBAEF-F95F-45A8-878C-E6BF1B304616}"/>
-    <hyperlink ref="A754" r:id="rId1437" display="https://www.coingecko.com/en/coins/theta-network" xr:uid="{DB1C0168-CC49-48ED-8C8B-7A0BF97F5F6A}"/>
-    <hyperlink ref="B754" r:id="rId1438" display="https://www.binance.com/en/trade/THETA_ETH" xr:uid="{B9F4537E-D1E6-444C-B5CB-93C05D5163C5}"/>
-    <hyperlink ref="A755" r:id="rId1439" display="https://www.coingecko.com/en/coins/nuls" xr:uid="{6FF60F88-8FEC-4F57-BD2A-A2748E3B4105}"/>
-    <hyperlink ref="B755" r:id="rId1440" display="https://www.binance.com/en/trade/NULS_BTC" xr:uid="{B1721AD0-A9DA-4CBD-83C2-F181FB2CD8A6}"/>
-    <hyperlink ref="A756" r:id="rId1441" display="https://www.coingecko.com/en/coins/balancer" xr:uid="{A1F95B73-A23E-48A8-B898-741A18D0AECA}"/>
-    <hyperlink ref="B756" r:id="rId1442" display="https://www.binance.com/en/trade/BAL_BUSD" xr:uid="{A48737BE-2E59-4FF5-8446-C99D14710A42}"/>
-    <hyperlink ref="A757" r:id="rId1443" display="https://www.coingecko.com/en/coins/band-protocol" xr:uid="{4592AD3E-90A9-4041-9A50-CD01340ACBDA}"/>
-    <hyperlink ref="B757" r:id="rId1444" display="https://www.binance.com/en/trade/BAND_BUSD" xr:uid="{BF85E6E2-1985-4695-B9FF-F45C021F70A2}"/>
-    <hyperlink ref="A758" r:id="rId1445" display="https://www.coingecko.com/en/coins/wepower" xr:uid="{A48B359C-E9A5-4E2F-B0AE-9E0A731A8C7C}"/>
-    <hyperlink ref="B758" r:id="rId1446" display="https://www.binance.com/en/trade/WPR_BTC" xr:uid="{740C366F-6F0A-4D4A-8DD7-FC9D10A0F374}"/>
-    <hyperlink ref="A759" r:id="rId1447" display="https://www.coingecko.com/en/coins/kyber-network" xr:uid="{63C078FC-87B1-4500-9A66-154FF7B8F279}"/>
-    <hyperlink ref="B759" r:id="rId1448" display="https://www.binance.com/en/trade/KNC_ETH" xr:uid="{197BA25A-7EB7-4FD6-AFA2-EEA2F5082A18}"/>
-    <hyperlink ref="A760" r:id="rId1449" display="https://www.coingecko.com/en/coins/populous" xr:uid="{6166B045-E1D4-4E20-911D-C917DD7C5033}"/>
-    <hyperlink ref="B760" r:id="rId1450" display="https://www.binance.com/en/trade/PPT_BTC" xr:uid="{7B6E591C-CF54-41D9-A7FD-CC2519FA4973}"/>
-    <hyperlink ref="A761" r:id="rId1451" display="https://www.coingecko.com/en/coins/dash" xr:uid="{E5FD2F90-88E0-4A44-B2A6-C14BFD54342B}"/>
-    <hyperlink ref="B761" r:id="rId1452" display="https://www.binance.com/en/trade/DASH_BNB" xr:uid="{57B0AA40-FC04-4FEF-B4EE-33DA0ADED818}"/>
-    <hyperlink ref="A762" r:id="rId1453" display="https://www.coingecko.com/en/coins/bancor-network" xr:uid="{60231C9A-6CE5-4BE8-89DB-99533E1CCFE2}"/>
-    <hyperlink ref="B762" r:id="rId1454" display="https://www.binance.com/en/trade/BNT_BUSD" xr:uid="{11D601B3-0930-49F2-8CE7-2A5F3CA0D11A}"/>
-    <hyperlink ref="A763" r:id="rId1455" display="https://www.coingecko.com/en/coins/gifto" xr:uid="{8472EF1B-0A95-4F55-A4EB-36499EF41053}"/>
-    <hyperlink ref="B763" r:id="rId1456" display="https://www.binance.com/en/trade/GTO_BTC" xr:uid="{1AD234F2-CF58-4F21-9613-79F85C93BBBC}"/>
-    <hyperlink ref="A764" r:id="rId1457" display="https://www.coingecko.com/en/coins/stormx" xr:uid="{BFAAE523-2B4B-4DC8-995C-37557F1F7DA0}"/>
-    <hyperlink ref="B764" r:id="rId1458" display="https://www.binance.com/en/trade/STMX_BNB" xr:uid="{638DCD8D-A2C7-4786-9660-420BB1C76D30}"/>
-    <hyperlink ref="A765" r:id="rId1459" display="https://www.coingecko.com/en/coins/zcash" xr:uid="{4F86D4E5-4698-4B29-8EBA-242BFE34873E}"/>
-    <hyperlink ref="B765" r:id="rId1460" display="https://www.binance.com/en/trade/ZEC_ETH" xr:uid="{9D4BA275-F0BD-4B69-868A-A69CED32A0A5}"/>
-    <hyperlink ref="A766" r:id="rId1461" display="https://www.coingecko.com/en/coins/new-bitshares" xr:uid="{DA7732C6-EF95-46CE-86DB-993BDF8053F4}"/>
-    <hyperlink ref="B766" r:id="rId1462" display="https://www.binance.com/en/trade/NBS_BTC" xr:uid="{8475596A-A0AB-45F9-990D-40846CC2F22F}"/>
-    <hyperlink ref="A767" r:id="rId1463" display="https://www.coingecko.com/en/coins/omg-network" xr:uid="{139FF748-6EDA-4C8F-8099-F63975BC68C3}"/>
-    <hyperlink ref="B767" r:id="rId1464" display="https://www.binance.com/en/trade/OMG_ETH" xr:uid="{A43D31C9-C420-4085-8839-A01827834E57}"/>
-    <hyperlink ref="A768" r:id="rId1465" display="https://www.coingecko.com/en/coins/tron" xr:uid="{25654910-61A9-406C-A821-9DA620F38EAB}"/>
-    <hyperlink ref="B768" r:id="rId1466" display="https://www.binance.com/en/trade/TRX_XRP" xr:uid="{B4809B9A-AB10-467F-86A8-0CD41028F9CB}"/>
-    <hyperlink ref="A769" r:id="rId1467" display="https://www.coingecko.com/en/coins/tezos" xr:uid="{94C4CF1B-E534-4B58-81BD-6F18AA7BFFD8}"/>
-    <hyperlink ref="B769" r:id="rId1468" display="https://www.binance.com/en/trade/XTZ_BNB" xr:uid="{ABB177E0-8B15-4E54-A864-1955B204A0F0}"/>
-    <hyperlink ref="A770" r:id="rId1469" display="https://www.coingecko.com/en/coins/neblio" xr:uid="{93620263-8DB9-440B-8117-B5905F69A943}"/>
-    <hyperlink ref="B770" r:id="rId1470" display="https://www.binance.com/en/trade/NEBL_BTC" xr:uid="{30419A11-1AB5-4447-9511-48DB2A465093}"/>
-    <hyperlink ref="A771" r:id="rId1471" display="https://www.coingecko.com/en/coins/juventus-fan-token" xr:uid="{D61DF2CD-30F1-4C37-8C50-6E55788F4382}"/>
-    <hyperlink ref="B771" r:id="rId1472" display="https://www.binance.com/en/trade/JUV_USDT" xr:uid="{18A80180-2291-4E51-8C44-8460D5775EC3}"/>
-    <hyperlink ref="A772" r:id="rId1473" display="https://www.coingecko.com/en/coins/wrapped-nxm" xr:uid="{294C34BB-5257-4FF6-8A52-C45B9CC7D53E}"/>
-    <hyperlink ref="B772" r:id="rId1474" display="https://www.binance.com/en/trade/WNXM_BTC" xr:uid="{3370920F-936A-4B8B-8E40-7D56E66F58AB}"/>
-    <hyperlink ref="A773" r:id="rId1475" display="https://www.coingecko.com/en/coins/ftx-token" xr:uid="{E2B1324B-1324-4061-845C-656FB94F1A02}"/>
-    <hyperlink ref="B773" r:id="rId1476" display="https://www.binance.com/en/trade/FTT_BNB" xr:uid="{B447F320-2D98-448A-BD9E-25F8E542BA81}"/>
-    <hyperlink ref="A774" r:id="rId1477" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{0A624572-98BF-4EB1-A453-772CB8562F80}"/>
-    <hyperlink ref="B774" r:id="rId1478" display="https://www.binance.com/en/trade/DOGE_BRL" xr:uid="{07C4F71C-E601-42AD-9592-4B05F0C4C387}"/>
-    <hyperlink ref="A775" r:id="rId1479" display="https://www.coingecko.com/en/coins/genesis-vision" xr:uid="{798FEC4D-1928-4029-ABE2-3B8A45AF09D5}"/>
-    <hyperlink ref="B775" r:id="rId1480" display="https://www.binance.com/en/trade/GVT_BTC" xr:uid="{1BE05DAD-DBFF-4B0C-878B-D704A829639A}"/>
-    <hyperlink ref="A776" r:id="rId1481" display="https://www.coingecko.com/en/coins/reserve-rights-token" xr:uid="{060812DC-D5D5-4638-AB24-A5EDB77C32B0}"/>
-    <hyperlink ref="B776" r:id="rId1482" display="https://www.binance.com/en/trade/RSR_BNB" xr:uid="{C38107EE-A91A-4E5F-89C5-1B40083A6659}"/>
-    <hyperlink ref="A777" r:id="rId1483" display="https://www.coingecko.com/en/coins/blox" xr:uid="{114A606E-0CD2-493E-A83D-0FE674A091ED}"/>
-    <hyperlink ref="B777" r:id="rId1484" display="https://www.binance.com/en/trade/CDT_BTC" xr:uid="{FB683E03-44BB-4681-9D46-B62EF25E7A54}"/>
-    <hyperlink ref="A778" r:id="rId1485" display="https://www.coingecko.com/en/coins/kyber-network" xr:uid="{149252C3-44CF-4D3E-B8C4-1DD01FD2DF10}"/>
-    <hyperlink ref="B778" r:id="rId1486" display="https://www.binance.com/en/trade/KNC_BUSD" xr:uid="{3EB73095-20B3-436C-80B1-2D305A07FF0E}"/>
-    <hyperlink ref="A779" r:id="rId1487" display="https://www.coingecko.com/en/coins/yearn-finance" xr:uid="{EC0214FA-1AB7-467D-8F80-D801DB7E2239}"/>
-    <hyperlink ref="B779" r:id="rId1488" display="https://www.binance.com/en/trade/YFI_EUR" xr:uid="{8A2541C0-AA1F-46BD-A6C7-1357C6565615}"/>
-    <hyperlink ref="A780" r:id="rId1489" display="https://www.coingecko.com/en/coins/augur" xr:uid="{811B7541-3CCC-4ADA-8612-A0EA70FA9DD2}"/>
-    <hyperlink ref="B780" r:id="rId1490" display="https://www.binance.com/en/trade/REP_ETH" xr:uid="{82E35447-379E-44F6-979B-93B7599618A5}"/>
-    <hyperlink ref="A781" r:id="rId1491" display="https://www.coingecko.com/en/coins/gxchain" xr:uid="{FC01207C-00D4-4785-98AE-1BFF07DBBAED}"/>
-    <hyperlink ref="B781" r:id="rId1492" display="https://www.binance.com/en/trade/GXS_BTC" xr:uid="{F034FDF0-D7B1-4ACA-9FBF-DC19EB46913D}"/>
-    <hyperlink ref="A782" r:id="rId1493" display="https://www.coingecko.com/en/coins/elf" xr:uid="{35A44699-2ADF-4D27-BC83-9B2976BC790C}"/>
-    <hyperlink ref="B782" r:id="rId1494" display="https://www.binance.com/en/trade/ELF_ETH" xr:uid="{AFA81BA2-1F53-49EB-A221-EC7F660B64A8}"/>
-    <hyperlink ref="A783" r:id="rId1495" display="https://www.coingecko.com/en/coins/aragon" xr:uid="{485F4746-890E-4D8F-92FF-8901F2E9684B}"/>
-    <hyperlink ref="B783" r:id="rId1496" display="https://www.binance.com/en/trade/ANT_BUSD" xr:uid="{29265880-80D5-4358-8BF9-FE09BA33F476}"/>
-    <hyperlink ref="A784" r:id="rId1497" display="https://www.coingecko.com/en/coins/tether" xr:uid="{6DFA05B0-985D-407A-A9CA-8E1DFA97EE87}"/>
-    <hyperlink ref="B784" r:id="rId1498" display="https://www.binance.com/en/trade/USDT_UAH" xr:uid="{898A02EC-6F23-4E36-9631-EF317A3A46F8}"/>
-    <hyperlink ref="A785" r:id="rId1499" display="https://www.coingecko.com/en/coins/curve-dao-token" xr:uid="{A304B02A-8FD2-46BD-BB04-2C84ECF7CDDA}"/>
-    <hyperlink ref="B785" r:id="rId1500" display="https://www.binance.com/en/trade/CRV_BNB" xr:uid="{D6FFC06D-81B9-4608-8743-01840A15E232}"/>
-    <hyperlink ref="A786" r:id="rId1501" display="https://www.coingecko.com/en/coins/idex" xr:uid="{689ECAD3-BCB2-4CEB-8932-E11E60FB5AA0}"/>
-    <hyperlink ref="B786" r:id="rId1502" display="https://www.binance.com/en/trade/IDEX_BUSD" xr:uid="{6C328285-63DD-49CD-967B-B8C2174B9DD4}"/>
-    <hyperlink ref="A787" r:id="rId1503" display="https://www.coingecko.com/en/coins/sonm" xr:uid="{1D5B9845-56CC-42D8-9BB0-097727E08B51}"/>
-    <hyperlink ref="B787" r:id="rId1504" display="https://www.binance.com/en/trade/SNM_BTC" xr:uid="{2B6FEA57-7ADE-41A7-8FEA-F9E0531DC975}"/>
-    <hyperlink ref="A788" r:id="rId1505" display="https://www.coingecko.com/en/coins/decentraland" xr:uid="{A625D95F-ACE0-45A8-A6B9-FCC3C1B10B71}"/>
-    <hyperlink ref="B788" r:id="rId1506" display="https://www.binance.com/en/trade/MANA_BUSD" xr:uid="{D27ED0B4-BD4E-4C34-87A5-C988EF3F6FA4}"/>
-    <hyperlink ref="A789" r:id="rId1507" display="https://www.coingecko.com/en/coins/adex" xr:uid="{431D8D31-8639-4C4C-B1DE-C9A7A72DA8B3}"/>
-    <hyperlink ref="B789" r:id="rId1508" display="https://www.binance.com/en/trade/ADX_ETH" xr:uid="{8F633F97-2D07-4727-BD92-3B16D7DD79BB}"/>
-    <hyperlink ref="A790" r:id="rId1509" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{6FD466C7-CB7B-42D0-83B3-08172C86B937}"/>
-    <hyperlink ref="B790" r:id="rId1510" display="https://www.binance.com/en/trade/LTC_BRL" xr:uid="{C3274A0A-53C8-4DCB-8D09-0EFE1B1E91B9}"/>
-    <hyperlink ref="A791" r:id="rId1511" display="https://www.coingecko.com/en/coins/certik" xr:uid="{96E149FA-0223-4E1F-B254-F15A23D395A0}"/>
-    <hyperlink ref="B791" r:id="rId1512" display="https://www.binance.com/en/trade/CTK_BNB" xr:uid="{294C9F42-2CA3-42A9-9A8F-CFD4EF5A7F0D}"/>
-    <hyperlink ref="A792" r:id="rId1513" display="https://www.coingecko.com/en/coins/theta-network" xr:uid="{ED18485B-784A-4CE0-8765-F53F2FA421D6}"/>
-    <hyperlink ref="B792" r:id="rId1514" display="https://www.binance.com/en/trade/THETA_BNB" xr:uid="{8C785769-0C4C-4D49-BE33-41EF1BBF25C3}"/>
-    <hyperlink ref="A793" r:id="rId1515" display="https://www.coingecko.com/en/coins/everex" xr:uid="{BD0898DD-327A-418D-984E-800D928811E4}"/>
-    <hyperlink ref="B793" r:id="rId1516" display="https://www.binance.com/en/trade/EVX_BTC" xr:uid="{74258EEB-4BF3-4EC9-B556-8DE4F14B0B1E}"/>
-    <hyperlink ref="A794" r:id="rId1517" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{15226494-760E-4F51-86CF-1297514AF709}"/>
-    <hyperlink ref="B794" r:id="rId1518" display="https://www.binance.com/en/trade/BUSD_BIDR" xr:uid="{F409C2CC-397B-4238-91B9-1AA6E91C09BD}"/>
-    <hyperlink ref="A795" r:id="rId1519" display="https://www.coingecko.com/en/coins/ethereum-classic" xr:uid="{83FB1189-7F2B-459F-8FF9-F2E108A6274C}"/>
-    <hyperlink ref="B795" r:id="rId1520" display="https://www.binance.com/en/trade/ETC_ETH" xr:uid="{9BED4563-F3E6-4801-860B-7A853F20ADEA}"/>
-    <hyperlink ref="A796" r:id="rId1521" display="https://www.coingecko.com/en/coins/wink" xr:uid="{AABF82DF-ACA1-4A41-8ACF-E61CC65DF385}"/>
-    <hyperlink ref="B796" r:id="rId1522" display="https://www.binance.com/en/trade/WIN_BNB" xr:uid="{C9B479AB-3D87-468D-94E1-EE5C80D077A3}"/>
-    <hyperlink ref="A797" r:id="rId1523" display="https://www.coingecko.com/en/coins/bread" xr:uid="{0D6FD1A2-2CD3-4662-AD2B-74F70FCE3ED9}"/>
-    <hyperlink ref="B797" r:id="rId1524" display="https://www.binance.com/en/trade/BRD_ETH" xr:uid="{2628C4D8-7078-457C-A678-4CC5D81033B4}"/>
-    <hyperlink ref="A798" r:id="rId1525" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{214001CA-1F65-441C-8D00-BC62BA94F319}"/>
-    <hyperlink ref="B798" r:id="rId1526" display="https://www.binance.com/en/trade/SXP_AUD" xr:uid="{E8CEE277-4E29-4810-9234-66E84D2DEE0E}"/>
-    <hyperlink ref="A799" r:id="rId1527" display="https://www.coingecko.com/en/coins/steem" xr:uid="{BD4BFAB7-6320-490C-ABD0-0C42F32F08F0}"/>
-    <hyperlink ref="B799" r:id="rId1528" display="https://www.binance.com/en/trade/STEEM_ETH" xr:uid="{E9198B69-00A4-44B2-A796-0E98191CBE5F}"/>
-    <hyperlink ref="A800" r:id="rId1529" display="https://www.coingecko.com/en/coins/gochain" xr:uid="{D345C89C-04FA-496F-B589-79ECC7120C16}"/>
-    <hyperlink ref="B800" r:id="rId1530" display="https://www.binance.com/en/trade/GO_BTC" xr:uid="{27C2FDB7-F628-4132-9408-95317EC416FB}"/>
-    <hyperlink ref="A801" r:id="rId1531" display="https://www.coingecko.com/en/coins/tokenclub" xr:uid="{0F945BC4-3EC0-4EB5-A326-E56AEC01D0BE}"/>
-    <hyperlink ref="B801" r:id="rId1532" display="https://www.binance.com/en/trade/TCT_BTC" xr:uid="{EB7508E6-0973-495A-B749-5DB1AE369DFC}"/>
-    <hyperlink ref="A802" r:id="rId1533" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{5FD0917A-E908-476E-A4E9-FBC8D79DCB31}"/>
-    <hyperlink ref="B802" r:id="rId1534" display="https://www.binance.com/en/trade/XRP_AUD" xr:uid="{94DB9C46-54A2-4F87-A7B9-23473B58D89C}"/>
-    <hyperlink ref="A803" r:id="rId1535" display="https://www.coingecko.com/en/coins/power-ledger" xr:uid="{466EFE17-3F99-4886-826D-2CC47BEE8923}"/>
-    <hyperlink ref="B803" r:id="rId1536" display="https://www.binance.com/en/trade/POWR_ETH" xr:uid="{43A4B4C2-B9D6-48E0-9C2D-B0096D577D1B}"/>
-    <hyperlink ref="A804" r:id="rId1537" display="https://www.coingecko.com/en/coins/digibyte" xr:uid="{B1BDDB66-06E8-4D2B-8DED-254D65FDF995}"/>
-    <hyperlink ref="B804" r:id="rId1538" display="https://www.binance.com/en/trade/DGB_BUSD" xr:uid="{05969F75-A5C4-4932-B160-080A656268BB}"/>
-    <hyperlink ref="A805" r:id="rId1539" display="https://www.coingecko.com/en/coins/wink" xr:uid="{5C773257-AD38-4482-947A-82743154EC97}"/>
-    <hyperlink ref="B805" r:id="rId1540" display="https://www.binance.com/en/trade/WIN_TRX" xr:uid="{D0002F27-EF81-48F1-9CD9-A3983D718BE4}"/>
-    <hyperlink ref="A806" r:id="rId1541" display="https://www.coingecko.com/en/coins/yoyow" xr:uid="{9B2E1FCC-91D1-47CC-A570-280767F55267}"/>
-    <hyperlink ref="B806" r:id="rId1542" display="https://www.binance.com/en/trade/YOYO_BTC" xr:uid="{911C7D68-83E3-49E9-97D2-6B563C5DB66A}"/>
-    <hyperlink ref="A807" r:id="rId1543" display="https://www.coingecko.com/en/coins/bitcoin-cash-abc" xr:uid="{D2D1271C-ABD6-400C-B596-8C06FDBE32F8}"/>
-    <hyperlink ref="B807" r:id="rId1544" display="https://www.binance.com/en/trade/BCHA_BUSD" xr:uid="{356C89FB-0C63-450F-BA67-23E52E523E1A}"/>
-    <hyperlink ref="A808" r:id="rId1545" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{EC48CCCB-F669-4AEF-97A3-86BACE709AF3}"/>
-    <hyperlink ref="B808" r:id="rId1546" display="https://www.binance.com/en/trade/LINK_BRL" xr:uid="{6D7BF13D-D3ED-4598-9692-1717F27A3C65}"/>
-    <hyperlink ref="A809" r:id="rId1547" display="https://www.coingecko.com/en/coins/cortex" xr:uid="{868224CB-2557-4F25-935C-FAA4CFC0C606}"/>
-    <hyperlink ref="B809" r:id="rId1548" display="https://www.binance.com/en/trade/CTXC_BTC" xr:uid="{90E8FD8A-6210-4972-880F-00A8D9C5128D}"/>
-    <hyperlink ref="A810" r:id="rId1549" display="https://www.coingecko.com/en/coins/bluzelle" xr:uid="{AAF25CDD-1A43-452E-B70A-B71BA4127EF0}"/>
-    <hyperlink ref="B810" r:id="rId1550" display="https://www.binance.com/en/trade/BLZ_ETH" xr:uid="{CBFDE5DD-FA87-4EF4-AF28-F24D1778C959}"/>
-    <hyperlink ref="A811" r:id="rId1551" display="https://www.coingecko.com/en/coins/ethereum-classic" xr:uid="{29A9A0DA-7A5D-4F3E-944F-DFA266D1C2F3}"/>
-    <hyperlink ref="B811" r:id="rId1552" display="https://www.binance.com/en/trade/ETC_BNB" xr:uid="{AEF24B02-FAA3-40D1-8D86-64B3B3DDC1B0}"/>
-    <hyperlink ref="A812" r:id="rId1553" display="https://www.coingecko.com/en/coins/digibyte" xr:uid="{0B56D013-0868-449A-B64F-CA5550F6B86F}"/>
-    <hyperlink ref="B812" r:id="rId1554" display="https://www.binance.com/en/trade/DGB_BNB" xr:uid="{1ACF58DD-5596-4F60-9798-0B9218A82774}"/>
-    <hyperlink ref="A813" r:id="rId1555" display="https://www.coingecko.com/en/coins/vethor-token" xr:uid="{FA94827F-A5BE-40C5-A6FE-CF5CAA3F8225}"/>
-    <hyperlink ref="B813" r:id="rId1556" display="https://www.binance.com/en/trade/VTHO_BNB" xr:uid="{E777B6F1-CAC4-44DF-B81C-976724EE8AA8}"/>
-    <hyperlink ref="A814" r:id="rId1557" display="https://www.coingecko.com/en/coins/viacoin" xr:uid="{A3E53682-B728-465F-B1EA-8111879187F0}"/>
-    <hyperlink ref="B814" r:id="rId1558" display="https://www.binance.com/en/trade/VIA_BTC" xr:uid="{D305E278-1B85-4B44-93DD-D5C16BDCE5AC}"/>
-    <hyperlink ref="A815" r:id="rId1559" display="https://www.coingecko.com/en/coins/powerpool-concentrated-voting-power" xr:uid="{A7C37FED-9A38-4072-86B8-1C7CE0BF79F6}"/>
-    <hyperlink ref="B815" r:id="rId1560" display="https://www.binance.com/en/trade/CVP_BUSD" xr:uid="{550AF7CA-6EB3-46E2-B1AE-1DDBF377950F}"/>
-    <hyperlink ref="A816" r:id="rId1561" display="https://www.coingecko.com/en/coins/troy" xr:uid="{23447FF3-56F9-487D-8D8A-50692183BD14}"/>
-    <hyperlink ref="B816" r:id="rId1562" display="https://www.binance.com/en/trade/TROY_BNB" xr:uid="{FB6851F5-3144-4C0A-B92E-69DDB792EE28}"/>
-    <hyperlink ref="A817" r:id="rId1563" display="https://www.coingecko.com/en/coins/zcash" xr:uid="{9FDFF604-F3F6-4107-AA85-6006A2392969}"/>
-    <hyperlink ref="B817" r:id="rId1564" display="https://www.binance.com/en/trade/ZEC_BNB" xr:uid="{BB578322-8010-4C0C-BB9E-EA27F0E63456}"/>
-    <hyperlink ref="A818" r:id="rId1565" display="https://www.coingecko.com/en/coins/susd" xr:uid="{9A536208-8FB9-494D-8E61-69BCDA050BB3}"/>
-    <hyperlink ref="B818" r:id="rId1566" display="https://www.binance.com/en/trade/SUSD_USDT" xr:uid="{6EFDCDB7-072C-4F58-B2F8-E2F232D87CD7}"/>
-    <hyperlink ref="A819" r:id="rId1567" display="https://www.coingecko.com/en/coins/aergo" xr:uid="{EBEB6B06-931F-4E6D-8572-7534669BD89A}"/>
-    <hyperlink ref="B819" r:id="rId1568" display="https://www.binance.com/en/trade/AERGO_BUSD" xr:uid="{6AD612A9-4CF4-442B-9A76-33F8569ED928}"/>
-    <hyperlink ref="A820" r:id="rId1569" display="https://www.coingecko.com/en/coins/appcoins" xr:uid="{7E1FCF34-C9A3-4806-8B89-5461A4FC714B}"/>
-    <hyperlink ref="B820" r:id="rId1570" display="https://www.binance.com/en/trade/APPC_BTC" xr:uid="{64A8D180-BE8A-4B49-8326-D7171D44ED1D}"/>
-    <hyperlink ref="A821" r:id="rId1571" display="https://www.coingecko.com/en/coins/dforce-token" xr:uid="{DC031765-2A56-47B4-9608-00707DC7B7C0}"/>
-    <hyperlink ref="B821" r:id="rId1572" display="https://www.binance.com/en/trade/DF_BUSD" xr:uid="{364B65BC-23EB-4692-AD02-F50D5DE45A23}"/>
-    <hyperlink ref="A822" r:id="rId1573" display="https://www.coingecko.com/en/coins/wazirx" xr:uid="{9ED11B6A-C055-412F-B876-4F727AFC9F8B}"/>
-    <hyperlink ref="B822" r:id="rId1574" display="https://www.binance.com/en/trade/WRX_BNB" xr:uid="{6D31D65B-2630-461A-924D-BDDF3DBC3680}"/>
-    <hyperlink ref="A823" r:id="rId1575" display="https://www.coingecko.com/en/coins/decentraland" xr:uid="{218D34C0-280A-46C2-A672-C71C7A9BEAA5}"/>
-    <hyperlink ref="B823" r:id="rId1576" display="https://www.binance.com/en/trade/MANA_ETH" xr:uid="{8202EE00-EFBD-4D3B-A3B2-CF534C89D628}"/>
-    <hyperlink ref="A824" r:id="rId1577" display="https://www.coingecko.com/en/coins/bancor-network" xr:uid="{72FF37C1-1D7D-4D80-A5C9-19FE5BA80E2D}"/>
-    <hyperlink ref="B824" r:id="rId1578" display="https://www.binance.com/en/trade/BNT_ETH" xr:uid="{3E88FAD9-47BB-4F7D-A87A-8B9C13F661E8}"/>
-    <hyperlink ref="A825" r:id="rId1579" display="https://www.coingecko.com/en/coins/fetch-ai" xr:uid="{29E3E8A6-CCBA-4EC6-B429-B2FCB480DEB1}"/>
-    <hyperlink ref="B825" r:id="rId1580" display="https://www.binance.com/en/trade/FET_BNB" xr:uid="{EA7F66CA-CA6C-46E1-AEE0-842DFE5EADA6}"/>
-    <hyperlink ref="A826" r:id="rId1581" display="https://www.coingecko.com/en/coins/bella-protocol" xr:uid="{AB52B1A3-FAE2-430A-93C5-E5B81FB8C9A0}"/>
-    <hyperlink ref="B826" r:id="rId1582" display="https://www.binance.com/en/trade/BEL_BUSD" xr:uid="{F7F07C45-4887-4E2F-BF0A-9CE28BE53587}"/>
-    <hyperlink ref="A827" r:id="rId1583" display="https://www.coingecko.com/en/coins/audius" xr:uid="{A54129C8-C705-4B55-BFD5-86BD4E862159}"/>
-    <hyperlink ref="B827" r:id="rId1584" display="https://www.binance.com/en/trade/AUDIO_BUSD" xr:uid="{3B8F56A0-843B-4A8B-AB19-6FCEB1536DBB}"/>
-    <hyperlink ref="A828" r:id="rId1585" display="https://www.coingecko.com/en/coins/mithril" xr:uid="{AE9D8AC4-D160-406A-9DDE-8D31C30B4A3B}"/>
-    <hyperlink ref="B828" r:id="rId1586" display="https://www.binance.com/en/trade/MITH_BTC" xr:uid="{13E3501A-2519-4927-94E8-5764EBC00FAB}"/>
-    <hyperlink ref="A829" r:id="rId1587" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{2DAA8698-08DE-4583-9A46-3D1F776F4291}"/>
-    <hyperlink ref="B829" r:id="rId1588" display="https://www.binance.com/en/trade/BTC_VAI" xr:uid="{64E0F910-9B1C-492A-8B15-4345F1C7515A}"/>
-    <hyperlink ref="A830" r:id="rId1589" display="https://www.coingecko.com/en/coins/ontology" xr:uid="{AAF019CF-3A6E-4FAC-B148-928C6A127468}"/>
-    <hyperlink ref="B830" r:id="rId1590" display="https://www.binance.com/en/trade/ONT_BNB" xr:uid="{BAC0649A-11EE-4390-A8E0-C271856037CB}"/>
-    <hyperlink ref="A831" r:id="rId1591" display="https://www.coingecko.com/en/coins/algorand" xr:uid="{CBD2435F-839B-4F4D-82D7-FEF062352CD4}"/>
-    <hyperlink ref="B831" r:id="rId1592" display="https://www.binance.com/en/trade/ALGO_TUSD" xr:uid="{F485A92C-4C9A-4BC6-8A61-02F376DF8F79}"/>
-    <hyperlink ref="A832" r:id="rId1593" display="https://www.coingecko.com/en/coins/monetha" xr:uid="{C46FE125-DD07-4C0F-828A-2DB5C2304477}"/>
-    <hyperlink ref="B832" r:id="rId1594" display="https://www.binance.com/en/trade/MTH_BTC" xr:uid="{D43D60F8-7CAA-4F2E-A1C9-4FC51A9DD519}"/>
-    <hyperlink ref="A833" r:id="rId1595" display="https://www.coingecko.com/en/coins/dogecoin" xr:uid="{DD73CA4E-FE72-41A1-B620-039242478E93}"/>
-    <hyperlink ref="B833" r:id="rId1596" display="https://www.binance.com/en/trade/DOGE_AUD" xr:uid="{C21EF271-7B58-4B85-A886-F387AB0D7AB7}"/>
-    <hyperlink ref="A834" r:id="rId1597" display="https://www.coingecko.com/en/coins/metal" xr:uid="{A7C8B889-A8DC-414C-95D9-322ED7D94631}"/>
-    <hyperlink ref="B834" r:id="rId1598" display="https://www.binance.com/en/trade/MTL_ETH" xr:uid="{1EF4DFF8-796F-4D23-BC7A-9117DE606380}"/>
-    <hyperlink ref="A835" r:id="rId1599" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{0ABAC6C2-A47B-4BD7-8FA5-2BAEF7937972}"/>
-    <hyperlink ref="B835" r:id="rId1600" display="https://www.binance.com/en/trade/LINK_AUD" xr:uid="{D973E8A2-F0E1-4949-A551-34FD91BB519A}"/>
-    <hyperlink ref="A836" r:id="rId1601" display="https://www.coingecko.com/en/coins/singulardtv" xr:uid="{282440BD-E653-4E50-8B81-FD4FA132C183}"/>
-    <hyperlink ref="B836" r:id="rId1602" display="https://www.binance.com/en/trade/SNGLS_BTC" xr:uid="{C397B39E-3C4B-4101-BDAA-B1D9B1356422}"/>
-    <hyperlink ref="A837" r:id="rId1603" display="https://www.coingecko.com/en/coins/renbtc" xr:uid="{6B3F5E8F-E458-4C0B-9C4D-B3118AA9983E}"/>
-    <hyperlink ref="B837" r:id="rId1604" display="https://www.binance.com/en/trade/RENBTC_BTC" xr:uid="{D638B4B2-ABAF-4891-B40F-3C1899E6BDAE}"/>
-    <hyperlink ref="A838" r:id="rId1605" display="https://www.coingecko.com/en/coins/arpa-chain" xr:uid="{6C983157-220E-4EB5-8A41-1BC89828FD59}"/>
-    <hyperlink ref="B838" r:id="rId1606" display="https://www.binance.com/en/trade/ARPA_BNB" xr:uid="{D3F6493C-73E8-43A9-8B3F-86F35D6FA368}"/>
-    <hyperlink ref="A839" r:id="rId1607" display="https://www.coingecko.com/en/coins/wanchain" xr:uid="{ECD34420-27FD-4DC5-889B-99E428E335A8}"/>
-    <hyperlink ref="B839" r:id="rId1608" display="https://www.binance.com/en/trade/WAN_BNB" xr:uid="{5FBD7A7C-3F7B-49D5-9E26-9F7276E62209}"/>
-    <hyperlink ref="A840" r:id="rId1609" display="https://www.coingecko.com/en/coins/horizen" xr:uid="{1FFBAE0D-B56B-4A96-BE65-EE135AF6FBE9}"/>
-    <hyperlink ref="B840" r:id="rId1610" display="https://www.binance.com/en/trade/ZEN_ETH" xr:uid="{66F28055-6565-41C3-BA4C-67BF302DF089}"/>
-    <hyperlink ref="A841" r:id="rId1611" display="https://www.coingecko.com/en/coins/cover-protocol" xr:uid="{9D1B7703-5E62-4471-B9C6-8662221ADCB0}"/>
-    <hyperlink ref="B841" r:id="rId1612" display="https://www.binance.com/en/trade/COVER_ETH" xr:uid="{20941F00-8401-4DA8-83A0-18CA66AE74A2}"/>
-    <hyperlink ref="A842" r:id="rId1613" display="https://www.coingecko.com/en/coins/truefi" xr:uid="{56D25107-75AF-4557-B4F8-5E6872C9BD1F}"/>
-    <hyperlink ref="B842" r:id="rId1614" display="https://www.binance.com/en/trade/TRU_BUSD" xr:uid="{37EADAB4-55D7-4749-9995-EBCFE1B7E864}"/>
-    <hyperlink ref="A843" r:id="rId1615" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{33885BBB-4DDF-4451-BE42-3FD466D27CE1}"/>
-    <hyperlink ref="B843" r:id="rId1616" display="https://www.binance.com/en/trade/XRP_TUSD" xr:uid="{370DCFAE-39F5-4C4E-B148-F624B19FD64F}"/>
-    <hyperlink ref="A844" r:id="rId1617" display="https://www.coingecko.com/en/coins/ocean-protocol" xr:uid="{DE063AF5-3491-4588-8F47-6B705F6AED23}"/>
-    <hyperlink ref="B844" r:id="rId1618" display="https://www.binance.com/en/trade/OCEAN_BNB" xr:uid="{E2B1D6B7-ED36-4A79-84E0-F3715AE3A1AB}"/>
-    <hyperlink ref="A845" r:id="rId1619" display="https://www.coingecko.com/en/coins/waves" xr:uid="{D64B7FC9-AD4D-4A5A-97DB-86616D083709}"/>
-    <hyperlink ref="B845" r:id="rId1620" display="https://www.binance.com/en/trade/WAVES_ETH" xr:uid="{10276362-E810-40F6-A78E-CC80926D4D2E}"/>
-    <hyperlink ref="A846" r:id="rId1621" display="https://www.coingecko.com/en/coins/wanchain" xr:uid="{0C9C7622-1A96-4204-86E8-4A7B9EB7806F}"/>
-    <hyperlink ref="B846" r:id="rId1622" display="https://www.binance.com/en/trade/WAN_ETH" xr:uid="{2315343D-215E-4980-A723-48C703300615}"/>
-    <hyperlink ref="A847" r:id="rId1623" display="https://www.coingecko.com/en/coins/loom-network" xr:uid="{29AAAA2D-4C1B-4814-8D79-BE54041B3016}"/>
-    <hyperlink ref="B847" r:id="rId1624" display="https://www.binance.com/en/trade/LOOM_ETH" xr:uid="{84AD9927-D217-4839-8942-F0AF127B9EDF}"/>
-    <hyperlink ref="A848" r:id="rId1625" display="https://www.coingecko.com/en/coins/skale" xr:uid="{68476664-64D8-4EA0-94A6-8A62951E7116}"/>
-    <hyperlink ref="B848" r:id="rId1626" display="https://www.binance.com/en/trade/SKL_BUSD" xr:uid="{0963A4B3-7255-4F85-9F3D-C17D5A2F3FBD}"/>
-    <hyperlink ref="A849" r:id="rId1627" display="https://www.coingecko.com/en/coins/navcoin" xr:uid="{822B0AC0-D72B-4A8D-8322-E4A01C37C7C4}"/>
-    <hyperlink ref="B849" r:id="rId1628" display="https://www.binance.com/en/trade/NAV_BTC" xr:uid="{923B9CCF-42F5-42F9-A9C3-094964974C02}"/>
-    <hyperlink ref="A850" r:id="rId1629" display="https://www.coingecko.com/en/coins/cocos-bcx" xr:uid="{890360C2-09E3-423F-ACCE-E44F164153B9}"/>
-    <hyperlink ref="B850" r:id="rId1630" display="https://www.binance.com/en/trade/COCOS_BNB" xr:uid="{D3B5C907-4DEC-4243-B543-FFE506967E56}"/>
-    <hyperlink ref="A851" r:id="rId1631" display="https://www.coingecko.com/en/coins/bitcoin" xr:uid="{7A0FF557-81D0-4301-B171-5F0F5BB903EA}"/>
-    <hyperlink ref="B851" r:id="rId1632" display="https://www.binance.com/en/trade/BTC_IDRT" xr:uid="{16A21BF3-A526-4E6F-9D43-B5ACDEC7E016}"/>
-    <hyperlink ref="A852" r:id="rId1633" display="https://www.coingecko.com/en/coins/flamingo-finance" xr:uid="{8FF8A89B-6EF2-4E0B-851B-10B9AE97E41A}"/>
-    <hyperlink ref="B852" r:id="rId1634" display="https://www.binance.com/en/trade/FLM_BUSD" xr:uid="{5E2E0DD2-1422-4C19-B88B-40DD702A8D70}"/>
-    <hyperlink ref="A853" r:id="rId1635" display="https://www.coingecko.com/en/coins/ost" xr:uid="{09E53523-8824-496D-ABAD-A8DEBF875162}"/>
-    <hyperlink ref="B853" r:id="rId1636" display="https://www.binance.com/en/trade/OST_ETH" xr:uid="{64ABE675-899D-4775-B50E-9850C727BDCA}"/>
-    <hyperlink ref="A854" r:id="rId1637" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{EB401378-B6A8-4F73-A262-7EABC98B7AC0}"/>
-    <hyperlink ref="B854" r:id="rId1638" display="https://www.binance.com/en/trade/BNB_IDRT" xr:uid="{D92E9E61-07D8-4A36-ADE0-E40FDDF1462E}"/>
-    <hyperlink ref="A855" r:id="rId1639" display="https://www.coingecko.com/en/coins/basic-attention-token" xr:uid="{C92B29FA-5933-4A39-B78D-4EBCF7BFDB80}"/>
-    <hyperlink ref="B855" r:id="rId1640" display="https://www.binance.com/en/trade/BAT_ETH" xr:uid="{1D6DA601-3F1C-455F-B1CD-84612ECABCE2}"/>
-    <hyperlink ref="A856" r:id="rId1641" display="https://www.coingecko.com/en/coins/swipe" xr:uid="{2A1FB3CC-9874-455F-955E-8426C2C2B033}"/>
-    <hyperlink ref="B856" r:id="rId1642" display="https://www.binance.com/en/trade/SXP_BIDR" xr:uid="{A1348C2F-7BF8-4FF4-A1A0-CB9BB94E3B82}"/>
-    <hyperlink ref="A857" r:id="rId1643" display="https://www.coingecko.com/en/coins/omg-network" xr:uid="{A73CE011-FD28-46CE-A1D2-86C231A08A21}"/>
-    <hyperlink ref="B857" r:id="rId1644" display="https://www.binance.com/en/trade/OMG_BUSD" xr:uid="{A88A970A-4B66-46F1-B877-D2FE84069E52}"/>
-    <hyperlink ref="A858" r:id="rId1645" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{FD3EE2F9-8A76-4CBC-AFCA-C2C89CBB6E51}"/>
-    <hyperlink ref="B858" r:id="rId1646" display="https://www.binance.com/en/trade/BUSD_RUB" xr:uid="{2CD95A95-7744-4800-95A7-AC00EAFAA6CE}"/>
-    <hyperlink ref="A859" r:id="rId1647" display="https://www.coingecko.com/en/coins/hegic" xr:uid="{47D94189-74D9-44FE-813B-3BC661D7E1CF}"/>
-    <hyperlink ref="B859" r:id="rId1648" display="https://www.binance.com/en/trade/HEGIC_ETH" xr:uid="{D62AA773-CF26-41F9-892B-800CA1D8643D}"/>
-    <hyperlink ref="A860" r:id="rId1649" display="https://www.coingecko.com/en/coins/civic" xr:uid="{3E9CD22E-AA08-4544-8BD1-B8727680AEC1}"/>
-    <hyperlink ref="B860" r:id="rId1650" display="https://www.binance.com/en/trade/CVC_ETH" xr:uid="{6EED9CBB-6814-411D-9ABC-79664C73A133}"/>
-    <hyperlink ref="A861" r:id="rId1651" display="https://www.coingecko.com/en/coins/status" xr:uid="{31549116-2B73-47B5-B306-2E83E3CB8624}"/>
-    <hyperlink ref="B861" r:id="rId1652" display="https://www.binance.com/en/trade/SNT_ETH" xr:uid="{9CC356AF-A362-4126-A7B3-A4BAE75DAFB0}"/>
-    <hyperlink ref="A862" r:id="rId1653" display="https://www.coingecko.com/en/coins/gxchain" xr:uid="{A1883481-7472-4011-8B50-7C8567E01C49}"/>
-    <hyperlink ref="B862" r:id="rId1654" display="https://www.binance.com/en/trade/GXS_ETH" xr:uid="{22D536EA-9982-4B65-99C3-FBB1DACEF329}"/>
-    <hyperlink ref="A863" r:id="rId1655" display="https://www.coingecko.com/en/coins/moviebloc" xr:uid="{23201824-79E1-48F6-8F90-7ADFE3408FBC}"/>
-    <hyperlink ref="B863" r:id="rId1656" display="https://www.binance.com/en/trade/MBL_BNB" xr:uid="{BBBFEF95-6D57-4E0C-B6DE-8C0251777D48}"/>
-    <hyperlink ref="A864" r:id="rId1657" display="https://www.coingecko.com/en/coins/bella-protocol" xr:uid="{49D8424E-BDA6-46D7-B1EE-6F389F615B8E}"/>
-    <hyperlink ref="B864" r:id="rId1658" display="https://www.binance.com/en/trade/BEL_BNB" xr:uid="{E1616304-393B-43AB-9266-B7A0B80596B4}"/>
-    <hyperlink ref="A865" r:id="rId1659" display="https://www.coingecko.com/en/coins/sand" xr:uid="{5AA454E8-2BA8-4102-9B3C-1FFEB01720B5}"/>
-    <hyperlink ref="B865" r:id="rId1660" display="https://www.binance.com/en/trade/SAND_BNB" xr:uid="{0EDE39BD-8487-4EB9-9737-20542DC7084B}"/>
-    <hyperlink ref="A866" r:id="rId1661" display="https://www.coingecko.com/en/coins/fio-protocol" xr:uid="{8D883FA2-9C6E-43E6-A5D9-A260EF1458BC}"/>
-    <hyperlink ref="B866" r:id="rId1662" display="https://www.binance.com/en/trade/FIO_BNB" xr:uid="{C1B86967-6F5E-459D-841D-9D4F6CD696A0}"/>
-    <hyperlink ref="A867" r:id="rId1663" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{735DF32F-502D-4505-AC3D-5180DCD34158}"/>
-    <hyperlink ref="B867" r:id="rId1664" display="https://www.binance.com/en/trade/XRP_BRL" xr:uid="{AA6F438C-9F9F-47A8-BA4F-94AD074E5D92}"/>
-    <hyperlink ref="A868" r:id="rId1665" display="https://www.coingecko.com/en/coins/injective-protocol" xr:uid="{5E5A29E1-F137-4926-9EB8-2807AE771BC0}"/>
-    <hyperlink ref="B868" r:id="rId1666" display="https://www.binance.com/en/trade/INJ_BNB" xr:uid="{279D3847-C369-4422-9978-50F0B90352C1}"/>
-    <hyperlink ref="A869" r:id="rId1667" display="https://www.coingecko.com/en/coins/qtum" xr:uid="{024E2576-A20C-47E4-AEB9-96D8F16C9CA5}"/>
-    <hyperlink ref="B869" r:id="rId1668" display="https://www.binance.com/en/trade/QTUM_ETH" xr:uid="{FA6BD37B-CB8C-4854-A3B6-2CE44B64F496}"/>
-    <hyperlink ref="A870" r:id="rId1669" display="https://www.coingecko.com/en/coins/axie-infinity" xr:uid="{7910835D-478D-454C-9158-66832AAB5637}"/>
-    <hyperlink ref="B870" r:id="rId1670" display="https://www.binance.com/en/trade/AXS_BUSD" xr:uid="{B22CE223-FC2C-4050-BD10-B31CEC32AA1A}"/>
-    <hyperlink ref="A871" r:id="rId1671" display="https://www.coingecko.com/en/coins/hard-protocol" xr:uid="{5115196A-9C45-449C-9E73-CC8B7E786F15}"/>
-    <hyperlink ref="B871" r:id="rId1672" display="https://www.binance.com/en/trade/HARD_BNB" xr:uid="{0214D8E7-6D58-4061-9749-5E40012E06A1}"/>
-    <hyperlink ref="A872" r:id="rId1673" display="https://www.coingecko.com/en/coins/horizen" xr:uid="{EEE8988C-4D4D-45DD-BB31-0BF5AECFFB1C}"/>
-    <hyperlink ref="B872" r:id="rId1674" display="https://www.binance.com/en/trade/ZEN_BNB" xr:uid="{772BBE35-D33E-4302-BDAF-E72589D499CD}"/>
-    <hyperlink ref="A873" r:id="rId1675" display="https://www.coingecko.com/en/coins/powerpool-concentrated-voting-power" xr:uid="{5E579049-5DE0-4B83-891F-F489A51F06CA}"/>
-    <hyperlink ref="B873" r:id="rId1676" display="https://www.binance.com/en/trade/CVP_ETH" xr:uid="{1619C5F0-2D20-4C35-A2DA-064171BD1BC9}"/>
-    <hyperlink ref="A874" r:id="rId1677" display="https://www.coingecko.com/en/coins/loopring" xr:uid="{C7A217F5-12D2-4316-96F0-3624244A5DC8}"/>
-    <hyperlink ref="B874" r:id="rId1678" display="https://www.binance.com/en/trade/LRC_BUSD" xr:uid="{178832A2-EC41-40AF-91F3-B619900FAA7F}"/>
-    <hyperlink ref="A875" r:id="rId1679" display="https://www.coingecko.com/en/coins/numeraire" xr:uid="{C433BC91-F76A-4F92-BFDC-82B1B1001CED}"/>
-    <hyperlink ref="B875" r:id="rId1680" display="https://www.binance.com/en/trade/NMR_BUSD" xr:uid="{F6CF0B42-7D7A-4938-A684-50F3AF9E79E8}"/>
-    <hyperlink ref="A876" r:id="rId1681" display="https://www.coingecko.com/en/coins/kava" xr:uid="{7B5EEBB5-9DEA-46A8-AA6E-510E62551BB2}"/>
-    <hyperlink ref="B876" r:id="rId1682" display="https://www.binance.com/en/trade/KAVA_BNB" xr:uid="{7AF101E8-62F1-42E4-B6AF-523562A097D7}"/>
-    <hyperlink ref="A877" r:id="rId1683" display="https://www.coingecko.com/en/coins/quantstamp" xr:uid="{25BDD6CD-260C-4FAC-A724-739F7131A2BF}"/>
-    <hyperlink ref="B877" r:id="rId1684" display="https://www.binance.com/en/trade/QSP_ETH" xr:uid="{20BF900B-AA90-4DB0-9552-96A23CDBB622}"/>
-    <hyperlink ref="A878" r:id="rId1685" display="https://www.coingecko.com/en/coins/cindicator" xr:uid="{0EED4155-D04A-4744-9475-B2A23FAA5DEE}"/>
-    <hyperlink ref="B878" r:id="rId1686" display="https://www.binance.com/en/trade/CND_BTC" xr:uid="{ADE2DA2E-AA63-4326-9A54-109BCDA10EA1}"/>
-    <hyperlink ref="A879" r:id="rId1687" display="https://www.coingecko.com/en/coins/nucleus-vision" xr:uid="{3840F55B-5088-4022-9650-263DA4AC4EBB}"/>
-    <hyperlink ref="B879" r:id="rId1688" display="https://www.binance.com/en/trade/NCASH_ETH" xr:uid="{273287BD-5FA9-4E07-8B46-3235DF6A7297}"/>
-    <hyperlink ref="A880" r:id="rId1689" display="https://www.coingecko.com/en/coins/stratis" xr:uid="{F72FD1CE-9808-48ED-A777-056DC9138518}"/>
-    <hyperlink ref="B880" r:id="rId1690" display="https://www.binance.com/en/trade/STRAX_ETH" xr:uid="{AFBCC6E8-6646-463D-BAF8-53C7AD4D055E}"/>
-    <hyperlink ref="A881" r:id="rId1691" display="https://www.coingecko.com/en/coins/wazirx" xr:uid="{A31E66F1-DC7D-45C9-B7F5-9FA80A2F1239}"/>
-    <hyperlink ref="B881" r:id="rId1692" display="https://www.binance.com/en/trade/WRX_BUSD" xr:uid="{CAD22184-DEB4-4F2C-8B5C-8E022813ED4E}"/>
-    <hyperlink ref="A882" r:id="rId1693" display="https://www.coingecko.com/en/coins/renbtc" xr:uid="{03A802BA-6B36-45A3-8D5A-1D26703AC7F0}"/>
-    <hyperlink ref="B882" r:id="rId1694" display="https://www.binance.com/en/trade/RENBTC_ETH" xr:uid="{6F31A8B7-462C-49EB-8A08-A56911311B84}"/>
-    <hyperlink ref="A883" r:id="rId1695" display="https://www.coingecko.com/en/coins/viberate" xr:uid="{A33CFD79-F363-40B0-B330-1269B90210D8}"/>
-    <hyperlink ref="B883" r:id="rId1696" display="https://www.binance.com/en/trade/VIB_ETH" xr:uid="{32FFC0A7-80EA-4016-8655-D1EC4624FDE7}"/>
-    <hyperlink ref="A884" r:id="rId1697" display="https://www.coingecko.com/en/coins/dia" xr:uid="{C79A3BE2-8EA7-4C08-9674-CD68BC8714F4}"/>
-    <hyperlink ref="B884" r:id="rId1698" display="https://www.binance.com/en/trade/DIA_BNB" xr:uid="{22126E6F-E270-419B-8571-56002E609F33}"/>
-    <hyperlink ref="A885" r:id="rId1699" display="https://www.coingecko.com/en/coins/hard-protocol" xr:uid="{4AF9B23E-6BEB-4C3F-AF38-90EA74E9A6C3}"/>
-    <hyperlink ref="B885" r:id="rId1700" display="https://www.binance.com/en/trade/HARD_BUSD" xr:uid="{B995D822-AA78-449D-973E-B10267FD41D3}"/>
-    <hyperlink ref="A886" r:id="rId1701" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{E8782847-7CB4-4B47-8351-A70038182C40}"/>
-    <hyperlink ref="B886" r:id="rId1702" display="https://www.binance.com/en/trade/LTC_TUSD" xr:uid="{2331E5E3-180E-4522-88C2-6598A6AD026E}"/>
-    <hyperlink ref="A887" r:id="rId1703" display="https://www.coingecko.com/en/coins/contentos" xr:uid="{00CFE2C2-07DA-48A9-A671-6CAB389E5A08}"/>
-    <hyperlink ref="B887" r:id="rId1704" display="https://www.binance.com/en/trade/COS_BNB" xr:uid="{CDD93EBF-B2F3-4D01-ADF8-6BA1419707C8}"/>
-    <hyperlink ref="A888" r:id="rId1705" display="https://www.coingecko.com/en/coins/paris-saint-germain-fan-token" xr:uid="{20004162-8596-4941-8E02-6FEE3F0FCF4C}"/>
-    <hyperlink ref="B888" r:id="rId1706" display="https://www.binance.com/en/trade/PSG_BTC" xr:uid="{59EC0EA4-10C0-467F-ABC1-A038197EBFB0}"/>
-    <hyperlink ref="A889" r:id="rId1707" display="https://www.coingecko.com/en/coins/quarkchain" xr:uid="{4E072969-DFDE-4B96-A415-A1C4B630BDB7}"/>
-    <hyperlink ref="B889" r:id="rId1708" display="https://www.binance.com/en/trade/QKC_ETH" xr:uid="{58FCDE57-F93E-429F-872E-82D9FAF0D9DD}"/>
-    <hyperlink ref="A890" r:id="rId1709" display="https://www.coingecko.com/en/coins/qlc-chain" xr:uid="{3B6A5C94-54A1-439F-9B97-F3961A43A9CF}"/>
-    <hyperlink ref="B890" r:id="rId1710" display="https://www.binance.com/en/trade/QLC_ETH" xr:uid="{9B6E1C66-199F-457E-95B4-24478EE7FD3F}"/>
-    <hyperlink ref="A891" r:id="rId1711" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{3AE4790A-0892-46CD-96AE-B933408A2F6F}"/>
-    <hyperlink ref="B891" r:id="rId1712" display="https://www.binance.com/en/trade/LTC_RUB" xr:uid="{79D7705B-D204-448A-A057-873C056DD31D}"/>
-    <hyperlink ref="A892" r:id="rId1713" display="https://www.coingecko.com/en/coins/wabi" xr:uid="{09B8366E-4B77-4F7A-AF41-0C8B586043AF}"/>
-    <hyperlink ref="B892" r:id="rId1714" display="https://www.binance.com/en/trade/WABI_BNB" xr:uid="{3FD2922B-D0E6-4E4D-BB79-CAE710E379BB}"/>
-    <hyperlink ref="A893" r:id="rId1715" display="https://www.coingecko.com/en/coins/neo" xr:uid="{67F68BC3-F669-478F-83BE-497CE0ACE0B1}"/>
-    <hyperlink ref="B893" r:id="rId1716" display="https://www.binance.com/en/trade/NEO_USDC" xr:uid="{62448F71-45B4-41C4-9F42-61A137A4FB0A}"/>
-    <hyperlink ref="A894" r:id="rId1717" display="https://www.coingecko.com/en/coins/cosmos" xr:uid="{2EDF3242-C181-4F80-80F8-0C299F9D5A0B}"/>
-    <hyperlink ref="B894" r:id="rId1718" display="https://www.binance.com/en/trade/ATOM_USDC" xr:uid="{50021608-4EA2-49CA-8131-007E862B857C}"/>
-    <hyperlink ref="A895" r:id="rId1719" display="https://www.coingecko.com/en/coins/iexec-rlc" xr:uid="{2F041189-E93D-4AEC-83F0-F73122722916}"/>
-    <hyperlink ref="B895" r:id="rId1720" display="https://www.binance.com/en/trade/RLC_ETH" xr:uid="{D997E056-CFAA-49B2-9AF2-3178F267EAAA}"/>
-    <hyperlink ref="A896" r:id="rId1721" display="https://www.coingecko.com/en/coins/susd" xr:uid="{E2A9A0DE-45FD-49A9-A322-92FF36F7AE98}"/>
-    <hyperlink ref="B896" r:id="rId1722" display="https://www.binance.com/en/trade/SUSD_BTC" xr:uid="{46D46664-24AE-4AEA-BDEC-93610A3A7E10}"/>
-    <hyperlink ref="A897" r:id="rId1723" display="https://www.coingecko.com/en/coins/mithril" xr:uid="{5719D42E-29DA-4041-998A-4138700E18E7}"/>
-    <hyperlink ref="B897" r:id="rId1724" display="https://www.binance.com/en/trade/MITH_BNB" xr:uid="{4F2EB854-8CFB-4055-A628-17C41C2BA67E}"/>
-    <hyperlink ref="A898" r:id="rId1725" display="https://www.coingecko.com/en/coins/perlin" xr:uid="{EF4C689B-421F-4619-8387-70A61C17A177}"/>
-    <hyperlink ref="B898" r:id="rId1726" display="https://www.binance.com/en/trade/PERL_BNB" xr:uid="{0BFBF795-436F-4C4B-95B1-98FC2E7B59D0}"/>
-    <hyperlink ref="A899" r:id="rId1727" display="https://www.coingecko.com/en/coins/basic-attention-token" xr:uid="{D110F4B0-3203-4ED2-840F-2194662DE28E}"/>
-    <hyperlink ref="B899" r:id="rId1728" display="https://www.binance.com/en/trade/BAT_BNB" xr:uid="{EF204CDD-664F-4EE5-B422-A30F02A9005D}"/>
-    <hyperlink ref="A900" r:id="rId1729" display="https://www.coingecko.com/en/coins/zilliqa" xr:uid="{97D57701-8388-4F4C-B75E-BB4BE8985275}"/>
-    <hyperlink ref="B900" r:id="rId1730" display="https://www.binance.com/en/trade/ZIL_BIDR" xr:uid="{246F09CD-7030-4AB7-8223-8FA5032AE919}"/>
-    <hyperlink ref="A901" r:id="rId1731" display="https://www.coingecko.com/en/coins/swerve" xr:uid="{9846729F-5CDD-48B3-B569-39A7E9834E07}"/>
-    <hyperlink ref="B901" r:id="rId1732" display="https://www.binance.com/en/trade/SWRV_BNB" xr:uid="{3BF496A4-78AC-4832-A601-BF19BA69A137}"/>
-    <hyperlink ref="A902" r:id="rId1733" display="https://www.coingecko.com/en/coins/district0x" xr:uid="{54447CBF-E3FC-4716-A952-B9A994C0837A}"/>
-    <hyperlink ref="B902" r:id="rId1734" display="https://www.binance.com/en/trade/DNT_BUSD" xr:uid="{32F34CD8-DC8F-46C9-9E6F-F9E010752C7C}"/>
-    <hyperlink ref="A903" r:id="rId1735" display="https://www.coingecko.com/en/coins/syscoin" xr:uid="{D754B7AF-A012-4B0F-A8AE-E6F25A957F5A}"/>
-    <hyperlink ref="B903" r:id="rId1736" display="https://www.binance.com/en/trade/SYS_BUSD" xr:uid="{E0B6BEA5-DFD2-44DB-943A-84621069DBA7}"/>
-    <hyperlink ref="A904" r:id="rId1737" display="https://www.coingecko.com/en/coins/fio-protocol" xr:uid="{C30A8AC8-B23C-4086-85DC-DFF8548AFC41}"/>
-    <hyperlink ref="B904" r:id="rId1738" display="https://www.binance.com/en/trade/FIO_BUSD" xr:uid="{D77C34CC-04ED-4785-947C-73441E2EAD0C}"/>
-    <hyperlink ref="A905" r:id="rId1739" display="https://www.coingecko.com/en/coins/stratis" xr:uid="{332EF42E-CA5C-417C-AF2E-302EE8BAC94D}"/>
-    <hyperlink ref="B905" r:id="rId1740" display="https://www.binance.com/en/trade/STRAX_BUSD" xr:uid="{ECB1587F-CED0-4CF8-A7AF-BC67278A92CB}"/>
-    <hyperlink ref="A906" r:id="rId1741" display="https://www.coingecko.com/en/coins/atletico-madrid-fan-token" xr:uid="{442FB5AB-DE0C-4852-A94C-CD1C00B38B6B}"/>
-    <hyperlink ref="B906" r:id="rId1742" display="https://www.binance.com/en/trade/ATM_BTC" xr:uid="{84BF92E1-9CC8-44F7-80CD-DD3583C9F8E7}"/>
-    <hyperlink ref="A907" r:id="rId1743" display="https://www.coingecko.com/en/coins/wing-finance" xr:uid="{BA95AAF0-2F70-40AC-B0FD-84972EDE1EA9}"/>
-    <hyperlink ref="B907" r:id="rId1744" display="https://www.binance.com/en/trade/WING_BUSD" xr:uid="{AA8F32B5-6F95-4CB1-86A1-3F79E6FAA4D1}"/>
-    <hyperlink ref="A908" r:id="rId1745" display="https://www.coingecko.com/en/coins/binance-coin" xr:uid="{66ECF552-D5B2-4F77-920A-A7F2B4311BB3}"/>
-    <hyperlink ref="B908" r:id="rId1746" display="https://www.binance.com/en/trade/BNB_PAX" xr:uid="{E9BD939A-0104-49B5-A143-6A0B57F3B640}"/>
-    <hyperlink ref="A909" r:id="rId1747" display="https://www.coingecko.com/en/coins/chromia" xr:uid="{EDD22AAA-7DEB-4481-A325-ABB50E5849E5}"/>
-    <hyperlink ref="B909" r:id="rId1748" display="https://www.binance.com/en/trade/CHR_BNB" xr:uid="{11F40BA6-37FF-4865-8C38-B00AFAAC1DEF}"/>
-    <hyperlink ref="A910" r:id="rId1749" display="https://www.coingecko.com/en/coins/siacoin" xr:uid="{63E0CA47-755C-40B6-BCFB-EF345B4EAC1E}"/>
-    <hyperlink ref="B910" r:id="rId1750" display="https://www.binance.com/en/trade/SC_BNB" xr:uid="{48E5295A-C52E-451C-9630-84E50DF4A4B1}"/>
-    <hyperlink ref="A911" r:id="rId1751" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{F025C5EC-257A-4784-B69A-D4DD604E42A1}"/>
-    <hyperlink ref="B911" r:id="rId1752" display="https://www.binance.com/en/trade/XRP_RUB" xr:uid="{2877B67D-C6FD-4C7D-8D94-EE04EDBF92CC}"/>
-    <hyperlink ref="A912" r:id="rId1753" display="https://www.coingecko.com/en/coins/origin-protocol" xr:uid="{403361DD-D885-425D-8D5C-F98D00020244}"/>
-    <hyperlink ref="B912" r:id="rId1754" display="https://www.binance.com/en/trade/OGN_BNB" xr:uid="{D782E13B-0B3C-4525-A01F-58FED79B3DBC}"/>
-    <hyperlink ref="A913" r:id="rId1755" display="https://www.coingecko.com/en/coins/wing-finance" xr:uid="{4451538B-9A7A-4155-BBE4-E844B5618D0F}"/>
-    <hyperlink ref="B913" r:id="rId1756" display="https://www.binance.com/en/trade/WING_BNB" xr:uid="{F4932A59-4B79-461A-9FC1-457262D06B85}"/>
-    <hyperlink ref="A914" r:id="rId1757" display="https://www.coingecko.com/en/coins/juventus-fan-token" xr:uid="{740CB304-8D59-47F4-A157-2417DE99A5F3}"/>
-    <hyperlink ref="B914" r:id="rId1758" display="https://www.binance.com/en/trade/JUV_BTC" xr:uid="{DA5FB2ED-D6D6-4776-8279-39A96F882696}"/>
-    <hyperlink ref="A915" r:id="rId1759" display="https://www.coingecko.com/en/coins/axie-infinity" xr:uid="{08CA9C94-B73B-4627-9BEF-5B3C2F0E9FAE}"/>
-    <hyperlink ref="B915" r:id="rId1760" display="https://www.binance.com/en/trade/AXS_BNB" xr:uid="{69E5A059-6836-4F85-A8B7-51D5AB2E18E4}"/>
-    <hyperlink ref="A916" r:id="rId1761" display="https://www.coingecko.com/en/coins/firo" xr:uid="{4616AACA-0B05-44EC-8B09-71F93017751C}"/>
-    <hyperlink ref="B916" r:id="rId1762" display="https://www.binance.com/en/trade/FIRO_ETH" xr:uid="{5B3DC44D-1F8C-4566-AE40-77E726BDB178}"/>
-    <hyperlink ref="A917" r:id="rId1763" display="https://www.coingecko.com/en/coins/neblio" xr:uid="{5609BC3A-30AD-4323-A99F-58D7ED46DA9B}"/>
-    <hyperlink ref="B917" r:id="rId1764" display="https://www.binance.com/en/trade/NEBL_ETH" xr:uid="{0665C340-3B75-46D0-90DA-7DED00B1B9C7}"/>
-    <hyperlink ref="A918" r:id="rId1765" display="https://www.coingecko.com/en/coins/maker" xr:uid="{D18F83E6-3AB8-42A6-83C2-407D3A7A7F20}"/>
-    <hyperlink ref="B918" r:id="rId1766" display="https://www.binance.com/en/trade/MKR_BNB" xr:uid="{E4661B21-40F0-4698-8E1E-44A276845C7D}"/>
-    <hyperlink ref="A919" r:id="rId1767" display="https://www.coingecko.com/en/coins/phoenix-global" xr:uid="{1B1627C0-1323-4460-941A-11EA8672E361}"/>
-    <hyperlink ref="B919" r:id="rId1768" display="https://www.binance.com/en/trade/PHB_TUSD" xr:uid="{8B82B7FC-68E5-49DA-A2E9-CD23B6ECC6F1}"/>
-    <hyperlink ref="A920" r:id="rId1769" display="https://www.coingecko.com/en/coins/blox" xr:uid="{13B22078-1235-4201-8A78-CE4A2CA043FD}"/>
-    <hyperlink ref="B920" r:id="rId1770" display="https://www.binance.com/en/trade/CDT_ETH" xr:uid="{226260DC-7F99-438F-B725-D48A86C595B3}"/>
-    <hyperlink ref="A921" r:id="rId1771" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{E76257F4-555A-49E8-985B-83252E99F2C5}"/>
-    <hyperlink ref="B921" r:id="rId1772" display="https://www.binance.com/en/trade/BCH_PAX" xr:uid="{999EA20F-3744-441E-A947-B033F5469F0B}"/>
-    <hyperlink ref="A922" r:id="rId1773" display="https://www.coingecko.com/en/coins/chainlink" xr:uid="{4B7699C5-96EA-4979-A23C-D75115842DB8}"/>
-    <hyperlink ref="B922" r:id="rId1774" display="https://www.binance.com/en/trade/LINK_TUSD" xr:uid="{D88A7025-9809-4219-A75E-84A7EFA444C5}"/>
-    <hyperlink ref="A923" r:id="rId1775" display="https://www.coingecko.com/en/coins/dfi-money" xr:uid="{D655E063-BCBE-4E50-AD07-69B4B4A3B38D}"/>
-    <hyperlink ref="B923" r:id="rId1776" display="https://www.binance.com/en/trade/YFII_BNB" xr:uid="{DAC76BB2-3680-4A50-A09B-1970D55684E6}"/>
-    <hyperlink ref="A924" r:id="rId1777" display="https://www.coingecko.com/en/coins/tron" xr:uid="{522B8E1A-DA2B-4B3A-94D3-C6810A6EDE36}"/>
-    <hyperlink ref="B924" r:id="rId1778" display="https://www.binance.com/en/trade/TRX_TUSD" xr:uid="{33C6086B-6496-4643-9140-EE1DC79458F4}"/>
-    <hyperlink ref="A925" r:id="rId1779" display="https://www.coingecko.com/en/coins/bittorrent" xr:uid="{64614880-2226-46F9-A444-74E10FAACF1F}"/>
-    <hyperlink ref="B925" r:id="rId1780" display="https://www.binance.com/en/trade/BTT_USDC" xr:uid="{D7CF5A92-5994-4069-8571-B3DD2857D119}"/>
-    <hyperlink ref="A926" r:id="rId1781" display="https://www.coingecko.com/en/coins/dforce-token" xr:uid="{EE3C64A9-1EFB-4003-83A7-E74BD4370887}"/>
-    <hyperlink ref="B926" r:id="rId1782" display="https://www.binance.com/en/trade/DF_ETH" xr:uid="{9E407F49-1D36-4DC8-844A-C402FD012593}"/>
-    <hyperlink ref="A927" r:id="rId1783" display="https://www.coingecko.com/en/coins/waltonchain" xr:uid="{4DDDA305-2FDF-429A-9AC9-CAF9A7BE23B7}"/>
-    <hyperlink ref="B927" r:id="rId1784" display="https://www.binance.com/en/trade/WTC_BNB" xr:uid="{3C33E126-5C7A-4B89-ADBF-7378B7E889D5}"/>
-    <hyperlink ref="A928" r:id="rId1785" display="https://www.coingecko.com/en/coins/eos" xr:uid="{DAF2D87C-AC9F-439E-B8A0-0F5DE624ADE8}"/>
-    <hyperlink ref="B928" r:id="rId1786" display="https://www.binance.com/en/trade/EOS_TUSD" xr:uid="{9D1AB679-7F2E-4B2D-9DBB-340713E6B694}"/>
-    <hyperlink ref="A929" r:id="rId1787" display="https://www.coingecko.com/en/coins/basic-attention-token" xr:uid="{5429AFA2-E927-47EC-80E3-B10D55281E02}"/>
-    <hyperlink ref="B929" r:id="rId1788" display="https://www.binance.com/en/trade/BAT_USDC" xr:uid="{2B40D990-9E62-4DB4-8EAE-A3715CD51260}"/>
-    <hyperlink ref="A930" r:id="rId1789" display="https://www.coingecko.com/en/coins/paris-saint-germain-fan-token" xr:uid="{568CAAEF-7CB0-4123-B69C-79E67F131C62}"/>
-    <hyperlink ref="B930" r:id="rId1790" display="https://www.binance.com/en/trade/PSG_BUSD" xr:uid="{34030F4C-6F07-45CD-9953-3A48D6D5383B}"/>
-    <hyperlink ref="A931" r:id="rId1791" display="https://www.coingecko.com/en/coins/streamr-datacoin" xr:uid="{07D19D44-CC01-409E-8A23-B99EC6233206}"/>
-    <hyperlink ref="B931" r:id="rId1792" display="https://www.binance.com/en/trade/DATA_ETH" xr:uid="{FCD21AE6-0FC6-4A00-ADA3-F48CC5364A7B}"/>
-    <hyperlink ref="A932" r:id="rId1793" display="https://www.coingecko.com/en/coins/bitcoin-cash" xr:uid="{D115D3A5-767E-4F1B-A3BF-83AD00F8CB25}"/>
-    <hyperlink ref="B932" r:id="rId1794" display="https://www.binance.com/en/trade/BCH_TUSD" xr:uid="{B3E896D5-78BC-44BE-B0C5-45A0971F76A6}"/>
-    <hyperlink ref="A933" r:id="rId1795" display="https://www.coingecko.com/en/coins/wrapped-nxm" xr:uid="{AF9DC6A5-9C92-4D17-BFD8-D6B082E54DC1}"/>
-    <hyperlink ref="B933" r:id="rId1796" display="https://www.binance.com/en/trade/WNXM_BNB" xr:uid="{41861BA9-DF21-45DC-BCEE-2CE0518E182D}"/>
-    <hyperlink ref="A934" r:id="rId1797" display="https://www.coingecko.com/en/coins/juventus-fan-token" xr:uid="{8EC50F4E-99EC-4133-BB35-BC5452E11D84}"/>
-    <hyperlink ref="B934" r:id="rId1798" display="https://www.binance.com/en/trade/JUV_BUSD" xr:uid="{18987599-3F41-4B53-819B-7E9999BFF918}"/>
-    <hyperlink ref="A935" r:id="rId1799" display="https://www.coingecko.com/en/coins/streamr-datacoin" xr:uid="{E3C7D46D-0DF1-4ADA-AAD1-7D86EF39D8DE}"/>
-    <hyperlink ref="B935" r:id="rId1800" display="https://www.binance.com/en/trade/DATA_BUSD" xr:uid="{55184351-FDAE-4A73-9ADC-072D918C4A59}"/>
-    <hyperlink ref="A936" r:id="rId1801" display="https://www.coingecko.com/en/coins/numeraire" xr:uid="{9457AAEF-2B6F-4CD6-B28D-C21570DA9780}"/>
-    <hyperlink ref="B936" r:id="rId1802" display="https://www.binance.com/en/trade/NMR_BNB" xr:uid="{914CD43D-70EA-4D42-8EC3-FE6D11940A82}"/>
-    <hyperlink ref="A937" r:id="rId1803" display="https://www.coingecko.com/en/coins/tron" xr:uid="{6BACDC32-85FE-40AC-84AA-7EB1068BBE83}"/>
-    <hyperlink ref="B937" r:id="rId1804" display="https://www.binance.com/en/trade/TRX_PAX" xr:uid="{8A3F404F-D06C-442B-839E-B104F9F4E50B}"/>
-    <hyperlink ref="A938" r:id="rId1805" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{D8DA776C-5A2F-4270-B6B6-DE806BCF92EC}"/>
-    <hyperlink ref="B938" r:id="rId1806" display="https://www.binance.com/en/trade/BUSD_ZAR" xr:uid="{ABC390D1-63EB-44B6-A90D-D9CDC1096EC0}"/>
-    <hyperlink ref="A939" r:id="rId1807" display="https://www.coingecko.com/en/coins/bittorrent" xr:uid="{99C8CC1C-B273-4601-9230-EFB276AC16BD}"/>
-    <hyperlink ref="B939" r:id="rId1808" display="https://www.binance.com/en/trade/BTT_TUSD" xr:uid="{C6DFC850-0BAE-4785-AE59-898EF629EC3E}"/>
-    <hyperlink ref="A940" r:id="rId1809" display="https://www.coingecko.com/en/coins/ethereum" xr:uid="{1FA975F8-4975-450C-A0CD-723558AF2C32}"/>
-    <hyperlink ref="B940" r:id="rId1810" display="https://www.binance.com/en/trade/ETH_ZAR" xr:uid="{C31E3E99-721F-49A0-AB13-485F43E0A657}"/>
-    <hyperlink ref="A941" r:id="rId1811" display="https://www.coingecko.com/en/coins/litecoin" xr:uid="{4DB15191-C449-4571-A6E3-1AC325470B26}"/>
-    <hyperlink ref="B941" r:id="rId1812" display="https://www.binance.com/en/trade/LTC_PAX" xr:uid="{9C33EEA6-4C3C-405B-B9E5-0D96751AB995}"/>
-    <hyperlink ref="A942" r:id="rId1813" display="https://www.coingecko.com/en/coins/xrp" xr:uid="{42E22F41-5012-432D-8F12-7C38E90E7F12}"/>
-    <hyperlink ref="B942" r:id="rId1814" display="https://www.binance.com/en/trade/XRP_PAX" xr:uid="{D29A9718-B51E-4D16-94B7-0F98707725D0}"/>
-    <hyperlink ref="A943" r:id="rId1815" display="https://www.coingecko.com/en/coins/tether" xr:uid="{EE2B95EC-6EDF-428D-BECE-A5E35D3989BC}"/>
-    <hyperlink ref="B943" r:id="rId1816" display="https://www.binance.com/en/trade/USDT_BVND" xr:uid="{CB27C8EB-3659-4630-87BB-77CBE17F5E4C}"/>
-    <hyperlink ref="A944" r:id="rId1817" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{5281C6C8-C244-45E2-8B5C-6CF7941D2E98}"/>
-    <hyperlink ref="B944" r:id="rId1818" display="https://www.binance.com/en/trade/BUSD_BVND" xr:uid="{32313F7C-D8C3-496F-A5BD-17BB405BFF7E}"/>
-    <hyperlink ref="A945" r:id="rId1819" display="https://www.coingecko.com/en/coins/bounce-old" xr:uid="{A1A45557-27F8-44B0-80AD-70BD43E8A014}"/>
-    <hyperlink ref="B945" r:id="rId1820" display="https://www.binance.com/en/trade/BOT_BUSD" xr:uid="{A188D994-8858-459F-A952-A27DE210A5C6}"/>
-    <hyperlink ref="A946" r:id="rId1821" display="https://www.coingecko.com/en/coins/bounce-old" xr:uid="{E6F86220-7BB7-4B16-BC5A-CD2D169E7887}"/>
-    <hyperlink ref="B946" r:id="rId1822" display="https://www.binance.com/en/trade/BOT_BTC" xr:uid="{CB9AC7EA-F875-42A4-A236-857C4DE8D0BF}"/>
-    <hyperlink ref="A947" r:id="rId1823" display="https://www.coingecko.com/en/coins/tether" xr:uid="{3DCCFBC1-EAF5-4460-A288-1D028F18F9EF}"/>
-    <hyperlink ref="B947" r:id="rId1824" display="https://www.binance.com/en/trade/USDT_BKRW" xr:uid="{7E7F175F-1482-479C-B9F0-04A7283D8AF7}"/>
-    <hyperlink ref="A948" r:id="rId1825" display="https://www.coingecko.com/en/coins/binance-usd" xr:uid="{CE860928-6811-40A3-B0C0-5C07F340EFD7}"/>
-    <hyperlink ref="B948" r:id="rId1826" display="https://www.binance.com/en/trade/BUSD_IDRT" xr:uid="{B8435314-4F59-4863-A01F-7336E583A4A2}"/>
-    <hyperlink ref="A949" r:id="rId1827" display="https://www.coingecko.com/en/coins/susd" xr:uid="{F383BD65-ED2D-4C84-89B1-AF9A750DE568}"/>
-    <hyperlink ref="B949" r:id="rId1828" display="https://www.binance.com/en/trade/SUSD_ETH" xr:uid="{5B547800-552D-4427-A5BF-AF225E1E65BD}"/>
-    <hyperlink ref="E128" r:id="rId1829" xr:uid="{68C2D879-9891-474F-A7A3-14A265C77B59}"/>
-    <hyperlink ref="E293" r:id="rId1830" xr:uid="{9FFBADFF-4BB7-40B7-8614-62A043EDE94E}"/>
-    <hyperlink ref="E659" r:id="rId1831" xr:uid="{2FADD6B5-D056-41DC-94E2-2A5EE6A2E054}"/>
-    <hyperlink ref="E739" r:id="rId1832" xr:uid="{1CC83B76-3EAD-4FE2-8228-6E2BE0780742}"/>
-    <hyperlink ref="E32" r:id="rId1833" xr:uid="{3494EB2F-EDCB-43A7-A022-469BE2955544}"/>
-    <hyperlink ref="E138" r:id="rId1834" xr:uid="{D1B5F749-4D01-448C-9903-B3BAC811B0CB}"/>
-    <hyperlink ref="E363" r:id="rId1835" xr:uid="{71E83426-868E-4112-A650-B8A9F5A378A9}"/>
-    <hyperlink ref="E51" r:id="rId1836" xr:uid="{7EE787D1-EB82-488A-9ED3-865AAD8BDEC1}"/>
-    <hyperlink ref="E172" r:id="rId1837" xr:uid="{25FD60E3-FACC-49AF-9BE4-56201E05D025}"/>
-    <hyperlink ref="E369" r:id="rId1838" xr:uid="{473D8A74-83DC-45C6-ACF8-AB817FAD355A}"/>
-    <hyperlink ref="E600" r:id="rId1839" xr:uid="{3FC23918-A0ED-4776-91A1-515F8C95FE41}"/>
-    <hyperlink ref="E641" r:id="rId1840" xr:uid="{36DC2788-0704-426D-9562-7E3FB9F996F5}"/>
-    <hyperlink ref="E229" r:id="rId1841" xr:uid="{C3A6446D-0CB0-4E17-BAFD-3417106FE61D}"/>
-    <hyperlink ref="E531" r:id="rId1842" xr:uid="{4DFA89C5-9382-4768-AA73-03953C787575}"/>
-    <hyperlink ref="E41" r:id="rId1843" xr:uid="{08AEC5D0-1602-478B-A8C0-9B4973E54687}"/>
-    <hyperlink ref="E134" r:id="rId1844" xr:uid="{8D65D9C9-E37D-4449-B717-AE9CAD7115D0}"/>
-    <hyperlink ref="E187" r:id="rId1845" xr:uid="{6AD7EEDB-31B3-454E-ABF3-982892E86FC0}"/>
-    <hyperlink ref="E492" r:id="rId1846" xr:uid="{E1962E40-4B56-4605-82DD-807B2FC24A18}"/>
-    <hyperlink ref="E789" r:id="rId1847" xr:uid="{A59A3611-3781-44E6-B1D5-73C8B2D12A8C}"/>
-    <hyperlink ref="E748" r:id="rId1848" xr:uid="{A82BAC65-4FDC-48A2-AFA6-F6E24079128E}"/>
-    <hyperlink ref="E819" r:id="rId1849" xr:uid="{6DBC2804-E3CA-4CC6-BDF1-A5116A80C81A}"/>
-    <hyperlink ref="E636" r:id="rId1850" xr:uid="{AA7FA496-CC6A-4F6D-9CAA-FE06C131FF73}"/>
-    <hyperlink ref="E192" r:id="rId1851" xr:uid="{79D5ABBD-2A79-4822-AC3A-1B487A1B456B}"/>
-    <hyperlink ref="E305" r:id="rId1852" xr:uid="{83349E55-BFB2-4528-9C17-245488051FAD}"/>
-    <hyperlink ref="E621" r:id="rId1853" xr:uid="{82F94268-0C42-4EA0-9A0C-FDB000DD3EAA}"/>
-    <hyperlink ref="E690" r:id="rId1854" xr:uid="{07E88D7D-1595-426F-AED9-3A071EF5E530}"/>
-    <hyperlink ref="E284" r:id="rId1855" xr:uid="{A6C0A812-C240-4AB4-99FA-57C8A65D25D7}"/>
-    <hyperlink ref="E563" r:id="rId1856" xr:uid="{5C1FE01F-3EA7-4F4E-90B4-8E5B5BE37577}"/>
-    <hyperlink ref="E55" r:id="rId1857" xr:uid="{214F1744-ABE3-4768-8CD6-36EAB554F57D}"/>
-    <hyperlink ref="E162" r:id="rId1858" xr:uid="{98A9BB40-46BF-4FA9-80DF-6BD645755A54}"/>
-    <hyperlink ref="E373" r:id="rId1859" xr:uid="{E109E3FB-ED20-4E20-B3BF-756A41D4437E}"/>
-    <hyperlink ref="E737" r:id="rId1860" xr:uid="{0B99C157-1662-47E4-8091-58B738DA7420}"/>
-    <hyperlink ref="E831" r:id="rId1861" xr:uid="{8671B5F2-C4B0-4F5B-BF36-6A1E48D8A04E}"/>
-    <hyperlink ref="E37" r:id="rId1862" xr:uid="{FC080DF3-C969-456A-BABB-4C05C107650A}"/>
-    <hyperlink ref="E147" r:id="rId1863" xr:uid="{013D7E2C-F6F3-4FE9-BA28-A88BADA53944}"/>
-    <hyperlink ref="E325" r:id="rId1864" xr:uid="{2452084F-7168-4BAB-A548-0A544D8F5D67}"/>
-    <hyperlink ref="E374" r:id="rId1865" xr:uid="{C3B9C87C-0C89-4A4F-B7C4-1B0CAD118AFB}"/>
-    <hyperlink ref="E674" r:id="rId1866" xr:uid="{C76DA13B-1586-424D-8D3D-D8EF14F42BC6}"/>
-    <hyperlink ref="E64" r:id="rId1867" xr:uid="{93FD65C1-8775-4932-8352-A63CB567B921}"/>
-    <hyperlink ref="E174" r:id="rId1868" xr:uid="{4E8F6B94-100C-498C-855B-7773DE30FD04}"/>
-    <hyperlink ref="E480" r:id="rId1869" xr:uid="{E4F0F24D-8886-4A05-A24F-8DBD9EDEB2B7}"/>
-    <hyperlink ref="E820" r:id="rId1870" xr:uid="{E22EDFEE-7698-4775-8C59-08B5B581401C}"/>
-    <hyperlink ref="E383" r:id="rId1871" xr:uid="{990B47B3-4FE9-4433-A1E1-C479FEED573A}"/>
-    <hyperlink ref="E573" r:id="rId1872" xr:uid="{F30B3D80-351B-43D5-B56C-2EE135DE04B8}"/>
-    <hyperlink ref="E661" r:id="rId1873" xr:uid="{3C9CE23A-1191-438F-9B5C-9C15F92563D7}"/>
-    <hyperlink ref="E783" r:id="rId1874" xr:uid="{AE36B217-3393-4CFC-8924-5F4800D2D0C2}"/>
-    <hyperlink ref="E565" r:id="rId1875" xr:uid="{52A0B65F-CF36-47CA-AD42-30CBEF0404B4}"/>
-    <hyperlink ref="E586" r:id="rId1876" xr:uid="{BBAA7A50-0A2C-4795-A60C-ABFA45D0E3CC}"/>
-    <hyperlink ref="E306" r:id="rId1877" xr:uid="{4438B0DF-E058-49CC-9307-E8004FE3E702}"/>
-    <hyperlink ref="E479" r:id="rId1878" xr:uid="{9C1492E5-7C67-4C24-8698-06A37AF4E743}"/>
-    <hyperlink ref="E540" r:id="rId1879" xr:uid="{1E32DDFA-8765-416A-A5F8-96E78E6B145E}"/>
-    <hyperlink ref="E838" r:id="rId1880" xr:uid="{842AB8C6-394A-4FF3-B4A3-230325CA354C}"/>
-    <hyperlink ref="E675" r:id="rId1881" xr:uid="{B87693FE-83ED-4BA0-9CAA-3C6916B319E2}"/>
-    <hyperlink ref="E726" r:id="rId1882" xr:uid="{3F2DF51B-9954-4426-A548-801F245C335D}"/>
-    <hyperlink ref="E733" r:id="rId1883" xr:uid="{20ED30B8-82F9-49D5-9D28-C48D6118D27A}"/>
-    <hyperlink ref="E906" r:id="rId1884" xr:uid="{5B58A57D-0F29-4E77-B1EB-4F8745B7EE7D}"/>
-    <hyperlink ref="E420" r:id="rId1885" xr:uid="{93921A95-017F-463C-A8E1-E45AC9AF8D91}"/>
-    <hyperlink ref="E473" r:id="rId1886" xr:uid="{0A432E00-1ED2-4FFD-B546-FEB524B06A7C}"/>
-    <hyperlink ref="E827" r:id="rId1887" xr:uid="{3E81D4B8-6637-4FC2-8C4F-BD42D5C37AEA}"/>
-    <hyperlink ref="E409" r:id="rId1888" xr:uid="{FEED2AC1-935C-4D38-9E4D-5F89437EBF7D}"/>
-    <hyperlink ref="E429" r:id="rId1889" xr:uid="{217EBDBD-62A4-41A6-A56D-C52DD203B01A}"/>
-    <hyperlink ref="E780" r:id="rId1890" xr:uid="{F26152AB-6C53-4A5B-8D80-B0BF1FF36073}"/>
-    <hyperlink ref="E52" r:id="rId1891" xr:uid="{BF1A381D-FBEB-4A71-A89C-A3BEB6F7983D}"/>
-    <hyperlink ref="E190" r:id="rId1892" xr:uid="{7B7439E9-FF32-4881-9CA0-5CF1A100711D}"/>
-    <hyperlink ref="E299" r:id="rId1893" xr:uid="{DFAFB92A-D57D-431B-9409-B897ACE6635A}"/>
-    <hyperlink ref="E375" r:id="rId1894" xr:uid="{6C7AEB61-6075-49A9-82A3-E177D479F1EB}"/>
-    <hyperlink ref="E550" r:id="rId1895" xr:uid="{8E9026E7-3F2C-4651-A8B8-3A16FA1D2803}"/>
-    <hyperlink ref="E332" r:id="rId1896" xr:uid="{AEB54F87-AE42-49F3-BCDF-AF30179AAB17}"/>
-    <hyperlink ref="E629" r:id="rId1897" xr:uid="{31802F4B-DD1D-4349-826D-4CDD2A6295CC}"/>
-    <hyperlink ref="E870" r:id="rId1898" xr:uid="{66840829-E018-4022-AF49-4C70BF6B8820}"/>
-    <hyperlink ref="E915" r:id="rId1899" xr:uid="{E103E78F-D57C-42AA-A730-588B1CE56FFE}"/>
-    <hyperlink ref="E266" r:id="rId1900" xr:uid="{2DB1ED3B-C4FB-4AAB-9152-3579AEE8D3A1}"/>
-    <hyperlink ref="E632" r:id="rId1901" xr:uid="{CAB6F24C-7592-4AA1-ADDE-6082BDD451B5}"/>
-    <hyperlink ref="E637" r:id="rId1902" xr:uid="{8BC070DA-76B8-46C4-9306-DD44ECC5CA16}"/>
-    <hyperlink ref="E95" r:id="rId1903" xr:uid="{9097C488-EA93-4A6B-B5E5-AC7900B2AEE2}"/>
-    <hyperlink ref="E205" r:id="rId1904" xr:uid="{3C05904C-AA5C-4529-9C44-AA9B798590D7}"/>
-    <hyperlink ref="E424" r:id="rId1905" xr:uid="{270C32A7-3F8B-4A03-A1DB-5FC5A4C9E275}"/>
-    <hyperlink ref="E570" r:id="rId1906" xr:uid="{9BCB1E13-070A-4203-9412-F3847BC0BE17}"/>
-    <hyperlink ref="E750" r:id="rId1907" xr:uid="{FC262193-12CE-4720-882B-37063C4E39E2}"/>
-    <hyperlink ref="E900" r:id="rId1908" xr:uid="{F37A9D25-BBEE-4B2B-A64E-2153CD56F1C9}"/>
-    <hyperlink ref="E61" r:id="rId1909" xr:uid="{E688A623-4078-495E-8E8E-87597812FA1A}"/>
-    <hyperlink ref="E245" r:id="rId1910" xr:uid="{05419DD5-52E2-45DC-95A6-58AB55DC2CA0}"/>
-    <hyperlink ref="E387" r:id="rId1911" xr:uid="{FF407416-6D7E-4336-BDDF-55AE281F992F}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.binance.com/en/trade/BTC_USDT"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.binance.com/en/trade/BNB_USDT"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://www.binance.com/en/trade/ETH_USDT"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B5" r:id="rId8" display="https://www.binance.com/en/trade/ADA_USDT"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B6" r:id="rId10" display="https://www.binance.com/en/trade/BTC_BUSD"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://www.binance.com/en/trade/BUSD_USDT"/>
+    <hyperlink ref="A8" r:id="rId13" display="https://www.coingecko.com/en/coins/fantom"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://www.binance.com/en/trade/FTM_USDT"/>
+    <hyperlink ref="A9" r:id="rId15" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B9" r:id="rId16" display="https://www.binance.com/en/trade/ETH_BUSD"/>
+    <hyperlink ref="A10" r:id="rId17" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B10" r:id="rId18" display="https://www.binance.com/en/trade/BNB_BUSD"/>
+    <hyperlink ref="A11" r:id="rId19" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B11" r:id="rId20" display="https://www.binance.com/en/trade/ETH_BTC"/>
+    <hyperlink ref="A12" r:id="rId21" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B12" r:id="rId22" display="https://www.binance.com/en/trade/DOT_USDT"/>
+    <hyperlink ref="A13" r:id="rId23" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B13" r:id="rId24" display="https://www.binance.com/en/trade/LTC_USDT"/>
+    <hyperlink ref="A14" r:id="rId25" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B14" r:id="rId26" display="https://www.binance.com/en/trade/XRP_USDT"/>
+    <hyperlink ref="A15" r:id="rId27" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B15" r:id="rId28" display="https://www.binance.com/en/trade/BNB_BTC"/>
+    <hyperlink ref="A16" r:id="rId29" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B16" r:id="rId30" display="https://www.binance.com/en/trade/DOGE_USDT"/>
+    <hyperlink ref="A17" r:id="rId31" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B17" r:id="rId32" display="https://www.binance.com/en/trade/ADA_BTC"/>
+    <hyperlink ref="A18" r:id="rId33" display="https://www.coingecko.com/en/coins/iost"/>
+    <hyperlink ref="B18" r:id="rId34" display="https://www.binance.com/en/trade/IOST_USDT"/>
+    <hyperlink ref="A19" r:id="rId35" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B19" r:id="rId36" display="https://www.binance.com/en/trade/LINK_USDT"/>
+    <hyperlink ref="A20" r:id="rId37" display="https://www.coingecko.com/en/coins/polygon"/>
+    <hyperlink ref="B20" r:id="rId38" display="https://www.binance.com/en/trade/MATIC_USDT"/>
+    <hyperlink ref="A21" r:id="rId39" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B21" r:id="rId40" display="https://www.binance.com/en/trade/BTC_EUR"/>
+    <hyperlink ref="A22" r:id="rId41" display="https://www.coingecko.com/en/coins/fantom"/>
+    <hyperlink ref="B22" r:id="rId42" display="https://www.binance.com/en/trade/FTM_BTC"/>
+    <hyperlink ref="A23" r:id="rId43" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B23" r:id="rId44" display="https://www.binance.com/en/trade/SXP_USDT"/>
+    <hyperlink ref="A24" r:id="rId45" display="https://www.coingecko.com/en/coins/usd-coin"/>
+    <hyperlink ref="B24" r:id="rId46" display="https://www.binance.com/en/trade/USDC_USDT"/>
+    <hyperlink ref="A25" r:id="rId47" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B25" r:id="rId48" display="https://www.binance.com/en/trade/BTC_USDC"/>
+    <hyperlink ref="A26" r:id="rId49" display="https://www.coingecko.com/en/coins/solana"/>
+    <hyperlink ref="B26" r:id="rId50" display="https://www.binance.com/en/trade/SOL_USDT"/>
+    <hyperlink ref="A27" r:id="rId51" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B27" r:id="rId52" display="https://www.binance.com/en/trade/BCH_USDT"/>
+    <hyperlink ref="A28" r:id="rId53" display="https://www.coingecko.com/en/coins/uniswap"/>
+    <hyperlink ref="B28" r:id="rId54" display="https://www.binance.com/en/trade/UNI_USDT"/>
+    <hyperlink ref="A29" r:id="rId55" display="https://www.coingecko.com/en/coins/sushi"/>
+    <hyperlink ref="B29" r:id="rId56" display="https://www.binance.com/en/trade/SUSHI_USDT"/>
+    <hyperlink ref="A30" r:id="rId57" display="https://www.coingecko.com/en/coins/unifi-protocol-dao"/>
+    <hyperlink ref="B30" r:id="rId58" display="https://www.binance.com/en/trade/UNFI_USDT"/>
+    <hyperlink ref="A31" r:id="rId59" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B31" r:id="rId60" display="https://www.binance.com/en/trade/EOS_USDT"/>
+    <hyperlink ref="A32" r:id="rId61" display="https://www.coingecko.com/en/coins/1inch"/>
+    <hyperlink ref="B32" r:id="rId62" display="https://www.binance.com/en/trade/1INCH_USDT"/>
+    <hyperlink ref="A33" r:id="rId63" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B33" r:id="rId64" display="https://www.binance.com/en/trade/ADA_BUSD"/>
+    <hyperlink ref="A34" r:id="rId65" display="https://www.coingecko.com/en/coins/serum"/>
+    <hyperlink ref="B34" r:id="rId66" display="https://www.binance.com/en/trade/SRM_USDT"/>
+    <hyperlink ref="A35" r:id="rId67" display="https://www.coingecko.com/en/coins/the-graph"/>
+    <hyperlink ref="B35" r:id="rId68" display="https://www.binance.com/en/trade/GRT_USDT"/>
+    <hyperlink ref="A36" r:id="rId69" display="https://www.coingecko.com/en/coins/reef-finance"/>
+    <hyperlink ref="B36" r:id="rId70" display="https://www.binance.com/en/trade/REEF_USDT"/>
+    <hyperlink ref="A37" r:id="rId71" display="https://www.coingecko.com/en/coins/alpha-finance"/>
+    <hyperlink ref="B37" r:id="rId72" display="https://www.binance.com/en/trade/ALPHA_USDT"/>
+    <hyperlink ref="A38" r:id="rId73" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B38" r:id="rId74" display="https://www.binance.com/en/trade/BNB_EUR"/>
+    <hyperlink ref="A39" r:id="rId75" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B39" r:id="rId76" display="https://www.binance.com/en/trade/ETH_EUR"/>
+    <hyperlink ref="A40" r:id="rId77" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B40" r:id="rId78" display="https://www.binance.com/en/trade/LTC_BTC"/>
+    <hyperlink ref="A41" r:id="rId79" display="https://www.coingecko.com/en/coins/ac-milan-fan-token"/>
+    <hyperlink ref="B41" r:id="rId80" display="https://www.binance.com/en/trade/ACM_USDT"/>
+    <hyperlink ref="A42" r:id="rId81" display="https://www.coingecko.com/en/coins/chiliz"/>
+    <hyperlink ref="B42" r:id="rId82" display="https://www.binance.com/en/trade/CHZ_USDT"/>
+    <hyperlink ref="A43" r:id="rId83" display="https://www.coingecko.com/en/coins/enjin-coin"/>
+    <hyperlink ref="B43" r:id="rId84" display="https://www.binance.com/en/trade/ENJ_USDT"/>
+    <hyperlink ref="A44" r:id="rId85" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B44" r:id="rId86" display="https://www.binance.com/en/trade/DOT_BTC"/>
+    <hyperlink ref="A45" r:id="rId87" display="https://www.coingecko.com/en/coins/polygon"/>
+    <hyperlink ref="B45" r:id="rId88" display="https://www.binance.com/en/trade/MATIC_BTC"/>
+    <hyperlink ref="A46" r:id="rId89" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B46" r:id="rId90" display="https://www.binance.com/en/trade/TRX_USDT"/>
+    <hyperlink ref="A47" r:id="rId91" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B47" r:id="rId92" display="https://www.binance.com/en/trade/XLM_USDT"/>
+    <hyperlink ref="A48" r:id="rId93" display="https://www.coingecko.com/en/coins/terra-luna"/>
+    <hyperlink ref="B48" r:id="rId94" display="https://www.binance.com/en/trade/LUNA_USDT"/>
+    <hyperlink ref="A49" r:id="rId95" display="https://www.coingecko.com/en/coins/vechain"/>
+    <hyperlink ref="B49" r:id="rId96" display="https://www.binance.com/en/trade/VET_USDT"/>
+    <hyperlink ref="A50" r:id="rId97" display="https://www.coingecko.com/en/coins/cosmos"/>
+    <hyperlink ref="B50" r:id="rId98" display="https://www.binance.com/en/trade/ATOM_USDT"/>
+    <hyperlink ref="A51" r:id="rId99" display="https://www.coingecko.com/en/coins/aave"/>
+    <hyperlink ref="B51" r:id="rId100" display="https://www.binance.com/en/trade/AAVE_USDT"/>
+    <hyperlink ref="A52" r:id="rId101" display="https://www.coingecko.com/en/coins/avalanche"/>
+    <hyperlink ref="B52" r:id="rId102" display="https://www.binance.com/en/trade/AVAX_USDT"/>
+    <hyperlink ref="A53" r:id="rId103" display="https://www.coingecko.com/en/coins/ontology"/>
+    <hyperlink ref="B53" r:id="rId104" display="https://www.binance.com/en/trade/ONT_USDT"/>
+    <hyperlink ref="A54" r:id="rId105" display="https://www.coingecko.com/en/coins/tezos"/>
+    <hyperlink ref="B54" r:id="rId106" display="https://www.binance.com/en/trade/XTZ_USDT"/>
+    <hyperlink ref="A55" r:id="rId107" display="https://www.coingecko.com/en/coins/algorand"/>
+    <hyperlink ref="B55" r:id="rId108" display="https://www.binance.com/en/trade/ALGO_USDT"/>
+    <hyperlink ref="A56" r:id="rId109" display="https://www.coingecko.com/en/coins/pancakeswap"/>
+    <hyperlink ref="B56" r:id="rId110" display="https://www.binance.com/en/trade/CAKE_USDT"/>
+    <hyperlink ref="A57" r:id="rId111" display="https://www.coingecko.com/en/coins/iost"/>
+    <hyperlink ref="B57" r:id="rId112" display="https://www.binance.com/en/trade/IOST_BTC"/>
+    <hyperlink ref="A58" r:id="rId113" display="https://www.coingecko.com/en/coins/dash"/>
+    <hyperlink ref="B58" r:id="rId114" display="https://www.binance.com/en/trade/DASH_USDT"/>
+    <hyperlink ref="A59" r:id="rId115" display="https://www.coingecko.com/en/coins/neo"/>
+    <hyperlink ref="B59" r:id="rId116" display="https://www.binance.com/en/trade/NEO_USDT"/>
+    <hyperlink ref="A60" r:id="rId117" display="https://www.coingecko.com/en/coins/elrond"/>
+    <hyperlink ref="B60" r:id="rId118" display="https://www.binance.com/en/trade/EGLD_USDT"/>
+    <hyperlink ref="A61" r:id="rId119" display="https://www.coingecko.com/en/coins/litentry"/>
+    <hyperlink ref="B61" r:id="rId120" display="https://www.binance.com/en/trade/LIT_USDT"/>
+    <hyperlink ref="A62" r:id="rId121" display="https://www.coingecko.com/en/coins/solana"/>
+    <hyperlink ref="B62" r:id="rId122" display="https://www.binance.com/en/trade/SOL_BTC"/>
+    <hyperlink ref="A63" r:id="rId123" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B63" r:id="rId124" display="https://www.binance.com/en/trade/LINK_BTC"/>
+    <hyperlink ref="A64" r:id="rId125" display="https://www.coingecko.com/en/coins/ankr-network"/>
+    <hyperlink ref="B64" r:id="rId126" display="https://www.binance.com/en/trade/ANKR_USDT"/>
+    <hyperlink ref="A65" r:id="rId127" display="https://www.coingecko.com/en/coins/filecoin"/>
+    <hyperlink ref="B65" r:id="rId128" display="https://www.binance.com/en/trade/FIL_USDT"/>
+    <hyperlink ref="A66" r:id="rId129" display="https://www.coingecko.com/en/coins/coti"/>
+    <hyperlink ref="B66" r:id="rId130" display="https://www.binance.com/en/trade/COTI_USDT"/>
+    <hyperlink ref="A67" r:id="rId131" display="https://www.coingecko.com/en/coins/gas"/>
+    <hyperlink ref="B67" r:id="rId132" display="https://www.binance.com/en/trade/GAS_BTC"/>
+    <hyperlink ref="A68" r:id="rId133" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B68" r:id="rId134" display="https://www.binance.com/en/trade/ETH_USDC"/>
+    <hyperlink ref="A69" r:id="rId135" display="https://www.coingecko.com/en/coins/venus"/>
+    <hyperlink ref="B69" r:id="rId136" display="https://www.binance.com/en/trade/XVS_USDT"/>
+    <hyperlink ref="A70" r:id="rId137" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B70" r:id="rId138" display="https://www.binance.com/en/trade/DOGE_BTC"/>
+    <hyperlink ref="A71" r:id="rId139" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B71" r:id="rId140" display="https://www.binance.com/en/trade/ADA_EUR"/>
+    <hyperlink ref="A72" r:id="rId141" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B72" r:id="rId142" display="https://www.binance.com/en/trade/XRP_BTC"/>
+    <hyperlink ref="A73" r:id="rId143" display="https://www.coingecko.com/en/coins/nervos-network"/>
+    <hyperlink ref="B73" r:id="rId144" display="https://www.binance.com/en/trade/CKB_USDT"/>
+    <hyperlink ref="A74" r:id="rId145" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B74" r:id="rId146" display="https://www.binance.com/en/trade/BTC_GBP"/>
+    <hyperlink ref="A75" r:id="rId147" display="https://www.coingecko.com/en/coins/iota"/>
+    <hyperlink ref="B75" r:id="rId148" display="https://www.binance.com/en/trade/IOTA_USDT"/>
+    <hyperlink ref="A76" r:id="rId149" display="https://www.coingecko.com/en/coins/zcash"/>
+    <hyperlink ref="B76" r:id="rId150" display="https://www.binance.com/en/trade/ZEC_USDT"/>
+    <hyperlink ref="A77" r:id="rId151" display="https://www.coingecko.com/en/coins/sun-token"/>
+    <hyperlink ref="B77" r:id="rId152" display="https://www.binance.com/en/trade/SUN_USDT"/>
+    <hyperlink ref="A78" r:id="rId153" display="https://www.coingecko.com/en/coins/btc-standard-hashrate-token"/>
+    <hyperlink ref="B78" r:id="rId154" display="https://www.binance.com/en/trade/BTCST_USDT"/>
+    <hyperlink ref="A79" r:id="rId155" display="https://www.coingecko.com/en/coins/icon"/>
+    <hyperlink ref="B79" r:id="rId156" display="https://www.binance.com/en/trade/ICX_USDT"/>
+    <hyperlink ref="A80" r:id="rId157" display="https://www.coingecko.com/en/coins/ethereum-classic"/>
+    <hyperlink ref="B80" r:id="rId158" display="https://www.binance.com/en/trade/ETC_USDT"/>
+    <hyperlink ref="A81" r:id="rId159" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B81" r:id="rId160" display="https://www.binance.com/en/trade/BNB_ETH"/>
+    <hyperlink ref="A82" r:id="rId161" display="https://www.coingecko.com/en/coins/near"/>
+    <hyperlink ref="B82" r:id="rId162" display="https://www.binance.com/en/trade/NEAR_USDT"/>
+    <hyperlink ref="A83" r:id="rId163" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B83" r:id="rId164" display="https://www.binance.com/en/trade/SXP_BTC"/>
+    <hyperlink ref="A84" r:id="rId165" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B84" r:id="rId166" display="https://www.binance.com/en/trade/BCH_BTC"/>
+    <hyperlink ref="A85" r:id="rId167" display="https://www.coingecko.com/en/coins/tomochain"/>
+    <hyperlink ref="B85" r:id="rId168" display="https://www.binance.com/en/trade/TOMO_USDT"/>
+    <hyperlink ref="A86" r:id="rId169" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B86" r:id="rId170" display="https://www.binance.com/en/trade/DOT_BUSD"/>
+    <hyperlink ref="A87" r:id="rId171" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B87" r:id="rId172" display="https://www.binance.com/en/trade/ADA_ETH"/>
+    <hyperlink ref="A88" r:id="rId173" display="https://www.coingecko.com/en/coins/enjin-coin"/>
+    <hyperlink ref="B88" r:id="rId174" display="https://www.binance.com/en/trade/ENJ_BTC"/>
+    <hyperlink ref="A89" r:id="rId175" display="https://www.coingecko.com/en/coins/safepal"/>
+    <hyperlink ref="B89" r:id="rId176" display="https://www.binance.com/en/trade/SFP_USDT"/>
+    <hyperlink ref="A90" r:id="rId177" display="https://www.coingecko.com/en/coins/sushi"/>
+    <hyperlink ref="B90" r:id="rId178" display="https://www.binance.com/en/trade/SUSHI_BTC"/>
+    <hyperlink ref="A91" r:id="rId179" display="https://www.coingecko.com/en/coins/ren"/>
+    <hyperlink ref="B91" r:id="rId180" display="https://www.binance.com/en/trade/REN_USDT"/>
+    <hyperlink ref="A92" r:id="rId181" display="https://www.coingecko.com/en/coins/unifi-protocol-dao"/>
+    <hyperlink ref="B92" r:id="rId182" display="https://www.binance.com/en/trade/UNFI_BTC"/>
+    <hyperlink ref="A93" r:id="rId183" display="https://www.coingecko.com/en/coins/phala-network"/>
+    <hyperlink ref="B93" r:id="rId184" display="https://www.binance.com/en/trade/PHA_BUSD"/>
+    <hyperlink ref="A94" r:id="rId185" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B94" r:id="rId186" display="https://www.binance.com/en/trade/USDT_TRY"/>
+    <hyperlink ref="A95" r:id="rId187" display="https://www.coingecko.com/en/coins/zilliqa"/>
+    <hyperlink ref="B95" r:id="rId188" display="https://www.binance.com/en/trade/ZIL_USDT"/>
+    <hyperlink ref="A96" r:id="rId189" display="https://www.coingecko.com/en/coins/ravencoin"/>
+    <hyperlink ref="B96" r:id="rId190" display="https://www.binance.com/en/trade/RVN_USDT"/>
+    <hyperlink ref="A97" r:id="rId191" display="https://www.coingecko.com/en/coins/nem"/>
+    <hyperlink ref="B97" r:id="rId192" display="https://www.binance.com/en/trade/XEM_USDT"/>
+    <hyperlink ref="A98" r:id="rId193" display="https://www.coingecko.com/en/coins/dodo"/>
+    <hyperlink ref="B98" r:id="rId194" display="https://www.binance.com/en/trade/DODO_USDT"/>
+    <hyperlink ref="A99" r:id="rId195" display="https://www.coingecko.com/en/coins/yearn-finance"/>
+    <hyperlink ref="B99" r:id="rId196" display="https://www.binance.com/en/trade/YFI_USDT"/>
+    <hyperlink ref="A100" r:id="rId197" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B100" r:id="rId198" display="https://www.binance.com/en/trade/ETH_GBP"/>
+    <hyperlink ref="A101" r:id="rId199" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B101" r:id="rId200" display="https://www.binance.com/en/trade/LTC_BUSD"/>
+    <hyperlink ref="A102" r:id="rId201" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B102" r:id="rId202" display="https://www.binance.com/en/trade/ETH_GBP"/>
+    <hyperlink ref="A103" r:id="rId203" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B103" r:id="rId204" display="https://www.binance.com/en/trade/LTC_BUSD"/>
+    <hyperlink ref="A104" r:id="rId205" display="https://www.coingecko.com/en/coins/stack"/>
+    <hyperlink ref="B104" r:id="rId206" display="https://www.binance.com/en/trade/STX_USDT"/>
+    <hyperlink ref="A105" r:id="rId207" display="https://www.coingecko.com/en/coins/pancakeswap"/>
+    <hyperlink ref="B105" r:id="rId208" display="https://www.binance.com/en/trade/CAKE_BUSD"/>
+    <hyperlink ref="A106" r:id="rId209" display="https://www.coingecko.com/en/coins/curve-dao-token"/>
+    <hyperlink ref="B106" r:id="rId210" display="https://www.binance.com/en/trade/CRV_USDT"/>
+    <hyperlink ref="A107" r:id="rId211" display="https://www.coingecko.com/en/coins/lisk"/>
+    <hyperlink ref="B107" r:id="rId212" display="https://www.binance.com/en/trade/LSK_USDT"/>
+    <hyperlink ref="A108" r:id="rId213" display="https://www.coingecko.com/en/coins/theta-network"/>
+    <hyperlink ref="B108" r:id="rId214" display="https://www.binance.com/en/trade/THETA_USDT"/>
+    <hyperlink ref="A109" r:id="rId215" display="https://www.coingecko.com/en/coins/synthetix-network-token"/>
+    <hyperlink ref="B109" r:id="rId216" display="https://www.binance.com/en/trade/SNX_USDT"/>
+    <hyperlink ref="A111" r:id="rId217" display="https://www.coingecko.com/en/coins/usd-coin"/>
+    <hyperlink ref="B111" r:id="rId218" display="https://www.binance.com/en/trade/USDC_BUSD"/>
+    <hyperlink ref="A112" r:id="rId219" display="https://www.coingecko.com/en/coins/monero"/>
+    <hyperlink ref="B112" r:id="rId220" display="https://www.binance.com/en/trade/XMR_USDT"/>
+    <hyperlink ref="A114" r:id="rId221" display="https://www.coingecko.com/en/coins/coti"/>
+    <hyperlink ref="B114" r:id="rId222" display="https://www.binance.com/en/trade/COTI_BTC"/>
+    <hyperlink ref="A116" r:id="rId223" display="https://www.coingecko.com/en/coins/kusama"/>
+    <hyperlink ref="B116" r:id="rId224" display="https://www.binance.com/en/trade/KSM_USDT"/>
+    <hyperlink ref="A117" r:id="rId225" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B117" r:id="rId226" display="https://www.binance.com/en/trade/ETH_DAI"/>
+    <hyperlink ref="A118" r:id="rId227" display="https://www.coingecko.com/en/coins/band-protocol"/>
+    <hyperlink ref="B118" r:id="rId228" display="https://www.binance.com/en/trade/BAND_USDT"/>
+    <hyperlink ref="A119" r:id="rId229" display="https://www.coingecko.com/en/coins/thorchain"/>
+    <hyperlink ref="B119" r:id="rId230" display="https://www.binance.com/en/trade/RUNE_USDT"/>
+    <hyperlink ref="A120" r:id="rId231" display="https://www.coingecko.com/en/coins/tellor"/>
+    <hyperlink ref="B120" r:id="rId232" display="https://www.binance.com/en/trade/TRB_USDT"/>
+    <hyperlink ref="A121" r:id="rId233" display="https://www.coingecko.com/en/coins/fantom"/>
+    <hyperlink ref="B121" r:id="rId234" display="https://www.binance.com/en/trade/FTM_BNB"/>
+    <hyperlink ref="A122" r:id="rId235" display="https://www.coingecko.com/en/coins/qtum"/>
+    <hyperlink ref="B122" r:id="rId236" display="https://www.binance.com/en/trade/QTUM_USDT"/>
+    <hyperlink ref="A123" r:id="rId237" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B123" r:id="rId238" display="https://www.binance.com/en/trade/ADA_BNB"/>
+    <hyperlink ref="A124" r:id="rId239" display="https://www.coingecko.com/en/coins/holo"/>
+    <hyperlink ref="B124" r:id="rId240" display="https://www.binance.com/en/trade/HOT_USDT"/>
+    <hyperlink ref="A125" r:id="rId241" display="https://www.coingecko.com/en/coins/bittorrent"/>
+    <hyperlink ref="B125" r:id="rId242" display="https://www.binance.com/en/trade/BTT_USDT"/>
+    <hyperlink ref="A126" r:id="rId243" display="https://www.coingecko.com/en/coins/hedera-hashgraph"/>
+    <hyperlink ref="B126" r:id="rId244" display="https://www.binance.com/en/trade/HBAR_USDT"/>
+    <hyperlink ref="A127" r:id="rId245" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B127" r:id="rId246" display="https://www.binance.com/en/trade/BTC_AUD"/>
+    <hyperlink ref="A128" r:id="rId247" display="https://www.coingecko.com/en/coins/0x"/>
+    <hyperlink ref="B128" r:id="rId248" display="https://www.binance.com/en/trade/ZRX_USDT"/>
+    <hyperlink ref="A129" r:id="rId249" display="https://www.coingecko.com/en/coins/pundi-x"/>
+    <hyperlink ref="B129" r:id="rId250" display="https://www.binance.com/en/trade/NPXS_USDT"/>
+    <hyperlink ref="A130" r:id="rId251" display="https://www.coingecko.com/en/coins/cosmos"/>
+    <hyperlink ref="B130" r:id="rId252" display="https://www.binance.com/en/trade/ATOM_BTC"/>
+    <hyperlink ref="A131" r:id="rId253" display="https://www.coingecko.com/en/coins/bakerytoken"/>
+    <hyperlink ref="B131" r:id="rId254" display="https://www.binance.com/en/trade/BAKE_BUSD"/>
+    <hyperlink ref="A132" r:id="rId255" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B132" r:id="rId256" display="https://www.binance.com/en/trade/XLM_BTC"/>
+    <hyperlink ref="A133" r:id="rId257" display="https://www.coingecko.com/en/coins/kava"/>
+    <hyperlink ref="B133" r:id="rId258" display="https://www.binance.com/en/trade/KAVA_USDT"/>
+    <hyperlink ref="A134" r:id="rId259" display="https://www.coingecko.com/en/coins/ac-milan-fan-token"/>
+    <hyperlink ref="B134" r:id="rId260" display="https://www.binance.com/en/trade/ACM_BTC"/>
+    <hyperlink ref="A135" r:id="rId261" display="https://www.coingecko.com/en/coins/omg-network"/>
+    <hyperlink ref="B135" r:id="rId262" display="https://www.binance.com/en/trade/OMG_USDT"/>
+    <hyperlink ref="A136" r:id="rId263" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B136" r:id="rId264" display="https://www.binance.com/en/trade/BNB_TRY"/>
+    <hyperlink ref="A138" r:id="rId265" display="https://www.coingecko.com/en/coins/1inch"/>
+    <hyperlink ref="B138" r:id="rId266" display="https://www.binance.com/en/trade/1INCH_BTC"/>
+    <hyperlink ref="A139" r:id="rId267" display="https://www.coingecko.com/en/coins/waves"/>
+    <hyperlink ref="B139" r:id="rId268" display="https://www.binance.com/en/trade/WAVES_USDT"/>
+    <hyperlink ref="A140" r:id="rId269" display="https://www.coingecko.com/en/coins/polygon"/>
+    <hyperlink ref="B140" r:id="rId270" display="https://www.binance.com/en/trade/MATIC_BUSD"/>
+    <hyperlink ref="A141" r:id="rId271" display="https://www.coingecko.com/en/coins/reef-finance"/>
+    <hyperlink ref="B141" r:id="rId272" display="https://www.binance.com/en/trade/REEF_BTC"/>
+    <hyperlink ref="A142" r:id="rId273" display="https://www.coingecko.com/en/coins/compound"/>
+    <hyperlink ref="B142" r:id="rId274" display="https://www.binance.com/en/trade/COMP_USDT"/>
+    <hyperlink ref="A143" r:id="rId275" display="https://www.coingecko.com/en/coins/uniswap"/>
+    <hyperlink ref="B143" r:id="rId276" display="https://www.binance.com/en/trade/UNI_BTC"/>
+    <hyperlink ref="A144" r:id="rId277" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B144" r:id="rId278" display="https://www.binance.com/en/trade/XRP_BUSD"/>
+    <hyperlink ref="A145" r:id="rId279" display="https://www.coingecko.com/en/coins/voyager-token"/>
+    <hyperlink ref="B145" r:id="rId280" display="https://www.binance.com/en/trade/BQX_BTC"/>
+    <hyperlink ref="A146" r:id="rId281" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B146" r:id="rId282" display="https://www.binance.com/en/trade/BTC_TRY"/>
+    <hyperlink ref="A147" r:id="rId283" display="https://www.coingecko.com/en/coins/alpha-finance"/>
+    <hyperlink ref="B147" r:id="rId284" display="https://www.binance.com/en/trade/ALPHA_BTC"/>
+    <hyperlink ref="A148" r:id="rId285" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B148" r:id="rId286" display="https://www.binance.com/en/trade/BTC_PAX"/>
+    <hyperlink ref="A149" r:id="rId287" display="https://www.coingecko.com/en/coins/lisk"/>
+    <hyperlink ref="B149" r:id="rId288" display="https://www.binance.com/en/trade/LSK_BTC"/>
+    <hyperlink ref="A150" r:id="rId289" display="https://www.coingecko.com/en/coins/ravencoin"/>
+    <hyperlink ref="B150" r:id="rId290" display="https://www.binance.com/en/trade/RVN_BTC"/>
+    <hyperlink ref="A151" r:id="rId291" display="https://www.coingecko.com/en/coins/ftx-token"/>
+    <hyperlink ref="B151" r:id="rId292" display="https://www.binance.com/en/trade/FTT_USDT"/>
+    <hyperlink ref="A152" r:id="rId293" display="https://www.coingecko.com/en/coins/nem"/>
+    <hyperlink ref="B152" r:id="rId294" display="https://www.binance.com/en/trade/XEM_BTC"/>
+    <hyperlink ref="A153" r:id="rId295" display="https://www.coingecko.com/en/coins/basic-attention-token"/>
+    <hyperlink ref="B153" r:id="rId296" display="https://www.binance.com/en/trade/BAT_USDT"/>
+    <hyperlink ref="A154" r:id="rId297" display="https://www.coingecko.com/en/coins/reserve-rights-token"/>
+    <hyperlink ref="B154" r:id="rId298" display="https://www.binance.com/en/trade/RSR_USDT"/>
+    <hyperlink ref="A155" r:id="rId299" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B155" r:id="rId300" display="https://www.binance.com/en/trade/EOS_BTC"/>
+    <hyperlink ref="A156" r:id="rId301" display="https://www.coingecko.com/en/coins/tezos"/>
+    <hyperlink ref="B156" r:id="rId302" display="https://www.binance.com/en/trade/XTZ_BTC"/>
+    <hyperlink ref="A157" r:id="rId303" display="https://www.coingecko.com/en/coins/monero"/>
+    <hyperlink ref="B157" r:id="rId304" display="https://www.binance.com/en/trade/XMR_BTC"/>
+    <hyperlink ref="A158" r:id="rId305" display="https://www.coingecko.com/en/coins/terra-luna"/>
+    <hyperlink ref="B158" r:id="rId306" display="https://www.binance.com/en/trade/LUNA_BTC"/>
+    <hyperlink ref="A160" r:id="rId307" display="https://www.coingecko.com/en/coins/phala-network"/>
+    <hyperlink ref="B160" r:id="rId308" display="https://www.binance.com/en/trade/PHA_BTC"/>
+    <hyperlink ref="A161" r:id="rId309" display="https://www.coingecko.com/en/coins/hifi-finance"/>
+    <hyperlink ref="B161" r:id="rId310" display="https://www.binance.com/en/trade/MFT_USDT"/>
+    <hyperlink ref="A162" r:id="rId311" display="https://www.coingecko.com/en/coins/algorand"/>
+    <hyperlink ref="B162" r:id="rId312" display="https://www.binance.com/en/trade/ALGO_BTC"/>
+    <hyperlink ref="A163" r:id="rId313" display="https://www.coingecko.com/en/coins/bluzelle"/>
+    <hyperlink ref="B163" r:id="rId314" display="https://www.binance.com/en/trade/BLZ_USDT"/>
+    <hyperlink ref="A164" r:id="rId315" display="https://www.coingecko.com/en/coins/vechain"/>
+    <hyperlink ref="B164" r:id="rId316" display="https://www.binance.com/en/trade/VET_BTC"/>
+    <hyperlink ref="A165" r:id="rId317" display="https://www.coingecko.com/en/coins/chiliz"/>
+    <hyperlink ref="B165" r:id="rId318" display="https://www.binance.com/en/trade/CHZ_BTC"/>
+    <hyperlink ref="A166" r:id="rId319" display="https://www.coingecko.com/en/coins/orion-protocol"/>
+    <hyperlink ref="B166" r:id="rId320" display="https://www.binance.com/en/trade/ORN_USDT"/>
+    <hyperlink ref="A167" r:id="rId321" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B167" r:id="rId322" display="https://www.binance.com/en/trade/USDT_DAI"/>
+    <hyperlink ref="A168" r:id="rId323" display="https://www.coingecko.com/en/coins/dfi-money"/>
+    <hyperlink ref="B168" r:id="rId324" display="https://www.binance.com/en/trade/YFII_USDT"/>
+    <hyperlink ref="A169" r:id="rId325" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B169" r:id="rId326" display="https://www.binance.com/en/trade/BNB_GBP"/>
+    <hyperlink ref="A170" r:id="rId327" display="https://www.coingecko.com/en/coins/pancakeswap"/>
+    <hyperlink ref="B170" r:id="rId328" display="https://www.binance.com/en/trade/CAKE_BNB"/>
+    <hyperlink ref="A171" r:id="rId329" display="https://www.coingecko.com/en/coins/the-graph"/>
+    <hyperlink ref="B171" r:id="rId330" display="https://www.binance.com/en/trade/GRT_BTC"/>
+    <hyperlink ref="A172" r:id="rId331" display="https://www.coingecko.com/en/coins/aave"/>
+    <hyperlink ref="B172" r:id="rId332" display="https://www.binance.com/en/trade/AAVE_BTC"/>
+    <hyperlink ref="A173" r:id="rId333" display="https://www.coingecko.com/en/coins/true-usd"/>
+    <hyperlink ref="B173" r:id="rId334" display="https://www.binance.com/en/trade/TUSD_USDT"/>
+    <hyperlink ref="A174" r:id="rId335" display="https://www.coingecko.com/en/coins/ankr-network"/>
+    <hyperlink ref="B174" r:id="rId336" display="https://www.binance.com/en/trade/ANKR_BTC"/>
+    <hyperlink ref="A175" r:id="rId337" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B175" r:id="rId338" display="https://www.binance.com/en/trade/LINK_BUSD"/>
+    <hyperlink ref="A176" r:id="rId339" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B176" r:id="rId340" display="https://www.binance.com/en/trade/DOGE_BUSD"/>
+    <hyperlink ref="A177" r:id="rId341" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B177" r:id="rId342" display="https://www.binance.com/en/trade/SXP_BUSD"/>
+    <hyperlink ref="A178" r:id="rId343" display="https://www.coingecko.com/en/coins/elrond"/>
+    <hyperlink ref="B178" r:id="rId344" display="https://www.binance.com/en/trade/EGLD_BTC"/>
+    <hyperlink ref="A179" r:id="rId345" display="https://www.coingecko.com/en/coins/dent"/>
+    <hyperlink ref="B179" r:id="rId346" display="https://www.binance.com/en/trade/DENT_USDT"/>
+    <hyperlink ref="A180" r:id="rId347" display="https://www.coingecko.com/en/coins/serum"/>
+    <hyperlink ref="B180" r:id="rId348" display="https://www.binance.com/en/trade/SRM_BTC"/>
+    <hyperlink ref="A181" r:id="rId349" display="https://www.coingecko.com/en/coins/solana"/>
+    <hyperlink ref="B181" r:id="rId350" display="https://www.binance.com/en/trade/SOL_BUSD"/>
+    <hyperlink ref="A182" r:id="rId351" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B182" r:id="rId352" display="https://www.binance.com/en/trade/EOS_BUSD"/>
+    <hyperlink ref="A183" r:id="rId353" display="https://www.coingecko.com/en/coins/horizen"/>
+    <hyperlink ref="B183" r:id="rId354" display="https://www.binance.com/en/trade/ZEN_USDT"/>
+    <hyperlink ref="A184" r:id="rId355" display="https://www.coingecko.com/en/coins/ocean-protocol"/>
+    <hyperlink ref="B184" r:id="rId356" display="https://www.binance.com/en/trade/OCEAN_USDT"/>
+    <hyperlink ref="A185" r:id="rId357" display="https://www.coingecko.com/en/coins/cartesi"/>
+    <hyperlink ref="B185" r:id="rId358" display="https://www.binance.com/en/trade/CTSI_USDT"/>
+    <hyperlink ref="A186" r:id="rId359" display="https://www.coingecko.com/en/coins/stack"/>
+    <hyperlink ref="B186" r:id="rId360" display="https://www.binance.com/en/trade/STX_BTC"/>
+    <hyperlink ref="A187" r:id="rId361" display="https://www.coingecko.com/en/coins/ac-milan-fan-token"/>
+    <hyperlink ref="B187" r:id="rId362" display="https://www.binance.com/en/trade/ACM_BUSD"/>
+    <hyperlink ref="A188" r:id="rId363" display="https://www.coingecko.com/en/coins/bounce"/>
+    <hyperlink ref="B188" r:id="rId364" display="https://www.binance.com/en/trade/AUCTION_BUSD"/>
+    <hyperlink ref="A189" r:id="rId365" display="https://www.coingecko.com/en/coins/nervos-network"/>
+    <hyperlink ref="B189" r:id="rId366" display="https://www.binance.com/en/trade/CKB_BTC"/>
+    <hyperlink ref="A190" r:id="rId367" display="https://www.coingecko.com/en/coins/avalanche"/>
+    <hyperlink ref="B190" r:id="rId368" display="https://www.binance.com/en/trade/AVAX_BTC"/>
+    <hyperlink ref="A191" r:id="rId369" display="https://www.coingecko.com/en/coins/ren"/>
+    <hyperlink ref="B191" r:id="rId370" display="https://www.binance.com/en/trade/REN_BTC"/>
+    <hyperlink ref="A192" r:id="rId371" display="https://www.coingecko.com/en/coins/aion"/>
+    <hyperlink ref="B192" r:id="rId372" display="https://www.binance.com/en/trade/AION_USDT"/>
+    <hyperlink ref="A194" r:id="rId373" display="https://www.coingecko.com/en/coins/wrapped-bitcoin"/>
+    <hyperlink ref="B194" r:id="rId374" display="https://www.binance.com/en/trade/WBTC_BTC"/>
+    <hyperlink ref="A195" r:id="rId375" display="https://www.coingecko.com/en/coins/ontology-gas"/>
+    <hyperlink ref="B195" r:id="rId376" display="https://www.binance.com/en/trade/ONG_USDT"/>
+    <hyperlink ref="A196" r:id="rId377" display="https://www.coingecko.com/en/coins/unifi-protocol-dao"/>
+    <hyperlink ref="B196" r:id="rId378" display="https://www.binance.com/en/trade/UNFI_BUSD"/>
+    <hyperlink ref="A197" r:id="rId379" display="https://www.coingecko.com/en/coins/pancakeswap"/>
+    <hyperlink ref="B197" r:id="rId380" display="https://www.binance.com/en/trade/CAKE_BTC"/>
+    <hyperlink ref="A198" r:id="rId381" display="https://www.coingecko.com/en/coins/bancor-network"/>
+    <hyperlink ref="B198" r:id="rId382" display="https://www.binance.com/en/trade/BNT_USDT"/>
+    <hyperlink ref="A199" r:id="rId383" display="https://www.coingecko.com/en/coins/tomochain"/>
+    <hyperlink ref="B199" r:id="rId384" display="https://www.binance.com/en/trade/TOMO_BTC"/>
+    <hyperlink ref="A200" r:id="rId385" display="https://www.coingecko.com/en/coins/bakerytoken"/>
+    <hyperlink ref="B200" r:id="rId386" display="https://www.binance.com/en/trade/BAKE_BNB"/>
+    <hyperlink ref="A201" r:id="rId387" display="https://www.coingecko.com/en/coins/neo"/>
+    <hyperlink ref="B201" r:id="rId388" display="https://www.binance.com/en/trade/NEO_BTC"/>
+    <hyperlink ref="A202" r:id="rId389" display="https://www.coingecko.com/en/coins/iota"/>
+    <hyperlink ref="B202" r:id="rId390" display="https://www.binance.com/en/trade/IOTA_BTC"/>
+    <hyperlink ref="A203" r:id="rId391" display="https://www.coingecko.com/en/coins/icon"/>
+    <hyperlink ref="B203" r:id="rId392" display="https://www.binance.com/en/trade/ICX_BTC"/>
+    <hyperlink ref="A204" r:id="rId393" display="https://www.coingecko.com/en/coins/paxos-standard"/>
+    <hyperlink ref="B204" r:id="rId394" display="https://www.binance.com/en/trade/PAX_USDT"/>
+    <hyperlink ref="A205" r:id="rId395" display="https://www.coingecko.com/en/coins/zilliqa"/>
+    <hyperlink ref="B205" r:id="rId396" display="https://www.binance.com/en/trade/ZIL_BTC"/>
+    <hyperlink ref="A206" r:id="rId397" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B206" r:id="rId398" display="https://www.binance.com/en/trade/BUSD_DAI"/>
+    <hyperlink ref="A207" r:id="rId399" display="https://www.coingecko.com/en/coins/sand"/>
+    <hyperlink ref="B207" r:id="rId400" display="https://www.binance.com/en/trade/SAND_USDT"/>
+    <hyperlink ref="A208" r:id="rId401" display="https://www.coingecko.com/en/coins/nano"/>
+    <hyperlink ref="B208" r:id="rId402" display="https://www.binance.com/en/trade/NANO_USDT"/>
+    <hyperlink ref="A209" r:id="rId403" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B209" r:id="rId404" display="https://www.binance.com/en/trade/TRX_BTC"/>
+    <hyperlink ref="A210" r:id="rId405" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B210" r:id="rId406" display="https://www.binance.com/en/trade/BNB_USDC"/>
+    <hyperlink ref="A211" r:id="rId407" display="https://www.coingecko.com/en/coins/thorchain"/>
+    <hyperlink ref="B211" r:id="rId408" display="https://www.binance.com/en/trade/RUNE_BTC"/>
+    <hyperlink ref="A212" r:id="rId409" display="https://www.coingecko.com/en/coins/uniswap"/>
+    <hyperlink ref="B212" r:id="rId410" display="https://www.binance.com/en/trade/UNI_BUSD"/>
+    <hyperlink ref="A215" r:id="rId411" display="https://www.coingecko.com/en/coins/pivx"/>
+    <hyperlink ref="B215" r:id="rId412" display="https://www.binance.com/en/trade/PIVX_BTC"/>
+    <hyperlink ref="A216" r:id="rId413" display="https://www.coingecko.com/en/coins/travala"/>
+    <hyperlink ref="B216" r:id="rId414" display="https://www.binance.com/en/trade/AVA_USDT"/>
+    <hyperlink ref="A217" r:id="rId415" display="https://www.coingecko.com/en/coins/fetch-ai"/>
+    <hyperlink ref="B217" r:id="rId416" display="https://www.binance.com/en/trade/FET_USDT"/>
+    <hyperlink ref="A218" r:id="rId417" display="https://www.coingecko.com/en/coins/hedera-hashgraph"/>
+    <hyperlink ref="B218" r:id="rId418" display="https://www.binance.com/en/trade/HBAR_BTC"/>
+    <hyperlink ref="A219" r:id="rId419" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B219" r:id="rId420" display="https://www.binance.com/en/trade/DOT_BNB"/>
+    <hyperlink ref="A220" r:id="rId421" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B220" r:id="rId422" display="https://www.binance.com/en/trade/BTC_BRL"/>
+    <hyperlink ref="A221" r:id="rId423" display="https://www.coingecko.com/en/coins/dusk-network"/>
+    <hyperlink ref="B221" r:id="rId424" display="https://www.binance.com/en/trade/DUSK_USDT"/>
+    <hyperlink ref="A222" r:id="rId425" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B222" r:id="rId426" display="https://www.binance.com/en/trade/XRP_EUR"/>
+    <hyperlink ref="A223" r:id="rId427" display="https://www.coingecko.com/en/coins/synthetix-network-token"/>
+    <hyperlink ref="B223" r:id="rId428" display="https://www.binance.com/en/trade/SNX_BTC"/>
+    <hyperlink ref="A224" r:id="rId429" display="https://www.coingecko.com/en/coins/flamingo-finance"/>
+    <hyperlink ref="B224" r:id="rId430" display="https://www.binance.com/en/trade/FLM_USDT"/>
+    <hyperlink ref="A227" r:id="rId431" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B227" r:id="rId432" display="https://www.binance.com/en/trade/ETH_AUD"/>
+    <hyperlink ref="A228" r:id="rId433" display="https://www.coingecko.com/en/coins/harmony"/>
+    <hyperlink ref="B228" r:id="rId434" display="https://www.binance.com/en/trade/ONE_USDT"/>
+    <hyperlink ref="A229" r:id="rId435" display="https://www.coingecko.com/en/coins/aavegotchi"/>
+    <hyperlink ref="B229" r:id="rId436" display="https://www.binance.com/en/trade/GHST_BUSD"/>
+    <hyperlink ref="A230" r:id="rId437" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B230" r:id="rId438" display="https://www.binance.com/en/trade/LTC_EUR"/>
+    <hyperlink ref="A232" r:id="rId439" display="https://www.coingecko.com/en/coins/funfair"/>
+    <hyperlink ref="B232" r:id="rId440" display="https://www.binance.com/en/trade/FUN_USDT"/>
+    <hyperlink ref="A234" r:id="rId441" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B234" r:id="rId442" display="https://www.binance.com/en/trade/BCH_BUSD"/>
+    <hyperlink ref="A235" r:id="rId443" display="https://www.coingecko.com/en/coins/sushi"/>
+    <hyperlink ref="B235" r:id="rId444" display="https://www.binance.com/en/trade/SUSHI_BUSD"/>
+    <hyperlink ref="A236" r:id="rId445" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B236" r:id="rId446" display="https://www.binance.com/en/trade/DOT_EUR"/>
+    <hyperlink ref="A237" r:id="rId447" display="https://www.coingecko.com/en/coins/oasis-network"/>
+    <hyperlink ref="B237" r:id="rId448" display="https://www.binance.com/en/trade/ROSE_USDT"/>
+    <hyperlink ref="A238" r:id="rId449" display="https://www.coingecko.com/en/coins/venus"/>
+    <hyperlink ref="B238" r:id="rId450" display="https://www.binance.com/en/trade/XVS_BTC"/>
+    <hyperlink ref="A239" r:id="rId451" display="https://www.coingecko.com/en/coins/bounce"/>
+    <hyperlink ref="B239" r:id="rId452" display="https://www.binance.com/en/trade/AUCTION_BTC"/>
+    <hyperlink ref="A240" r:id="rId453" display="https://www.coingecko.com/en/coins/dash"/>
+    <hyperlink ref="B240" r:id="rId454" display="https://www.binance.com/en/trade/DASH_BTC"/>
+    <hyperlink ref="A241" r:id="rId455" display="https://www.coingecko.com/en/coins/terra-luna"/>
+    <hyperlink ref="B241" r:id="rId456" display="https://www.binance.com/en/trade/LUNA_BNB"/>
+    <hyperlink ref="A242" r:id="rId457" display="https://www.coingecko.com/en/coins/zcash"/>
+    <hyperlink ref="B242" r:id="rId458" display="https://www.binance.com/en/trade/ZEC_BTC"/>
+    <hyperlink ref="A243" r:id="rId459" display="https://www.coingecko.com/en/coins/btc-standard-hashrate-token"/>
+    <hyperlink ref="B243" r:id="rId460" display="https://www.binance.com/en/trade/BTCST_BTC"/>
+    <hyperlink ref="A244" r:id="rId461" display="https://www.coingecko.com/en/coins/theta-network"/>
+    <hyperlink ref="B244" r:id="rId462" display="https://www.binance.com/en/trade/THETA_BTC"/>
+    <hyperlink ref="A245" r:id="rId463" display="https://www.coingecko.com/en/coins/litentry"/>
+    <hyperlink ref="B245" r:id="rId464" display="https://www.binance.com/en/trade/LIT_BTC"/>
+    <hyperlink ref="A246" r:id="rId465" display="https://www.coingecko.com/en/coins/injective-protocol"/>
+    <hyperlink ref="B246" r:id="rId466" display="https://www.binance.com/en/trade/INJ_USDT"/>
+    <hyperlink ref="A247" r:id="rId467" display="https://www.coingecko.com/en/coins/theta-fuel"/>
+    <hyperlink ref="B247" r:id="rId468" display="https://www.binance.com/en/trade/TFUEL_USDT"/>
+    <hyperlink ref="A248" r:id="rId469" display="https://www.coingecko.com/en/coins/basic-attention-token"/>
+    <hyperlink ref="B248" r:id="rId470" display="https://www.binance.com/en/trade/BAT_BTC"/>
+    <hyperlink ref="A249" r:id="rId471" display="https://www.coingecko.com/en/coins/decentraland"/>
+    <hyperlink ref="B249" r:id="rId472" display="https://www.binance.com/en/trade/MANA_USDT"/>
+    <hyperlink ref="A250" r:id="rId473" display="https://www.coingecko.com/en/coins/skycoin"/>
+    <hyperlink ref="B250" r:id="rId474" display="https://www.binance.com/en/trade/SKY_BTC"/>
+    <hyperlink ref="A251" r:id="rId475" display="https://www.coingecko.com/en/coins/bancor-network"/>
+    <hyperlink ref="B251" r:id="rId476" display="https://www.binance.com/en/trade/BNT_BTC"/>
+    <hyperlink ref="A252" r:id="rId477" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B252" r:id="rId478" display="https://www.binance.com/en/trade/LTC_ETH"/>
+    <hyperlink ref="A253" r:id="rId479" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B253" r:id="rId480" display="https://www.binance.com/en/trade/BTC_DAI"/>
+    <hyperlink ref="A254" r:id="rId481" display="https://www.coingecko.com/en/coins/pnetwork"/>
+    <hyperlink ref="B254" r:id="rId482" display="https://www.binance.com/en/trade/PNT_USDT"/>
+    <hyperlink ref="A256" r:id="rId483" display="https://www.coingecko.com/en/coins/elrond"/>
+    <hyperlink ref="B256" r:id="rId484" display="https://www.binance.com/en/trade/EGLD_BUSD"/>
+    <hyperlink ref="A257" r:id="rId485" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B257" r:id="rId486" display="https://www.binance.com/en/trade/XRP_BNB"/>
+    <hyperlink ref="A258" r:id="rId487" display="https://www.coingecko.com/en/coins/bzx-protocol"/>
+    <hyperlink ref="B258" r:id="rId488" display="https://www.binance.com/en/trade/BZRX_USDT"/>
+    <hyperlink ref="A259" r:id="rId489" display="https://www.coingecko.com/en/coins/kusama"/>
+    <hyperlink ref="B259" r:id="rId490" display="https://www.binance.com/en/trade/KSM_BTC"/>
+    <hyperlink ref="A260" r:id="rId491" display="https://www.coingecko.com/en/coins/certik"/>
+    <hyperlink ref="B260" r:id="rId492" display="https://www.binance.com/en/trade/CTK_USDT"/>
+    <hyperlink ref="A261" r:id="rId493" display="https://www.coingecko.com/en/coins/curve-dao-token"/>
+    <hyperlink ref="B261" r:id="rId494" display="https://www.binance.com/en/trade/CRV_BTC"/>
+    <hyperlink ref="A262" r:id="rId495" display="https://www.coingecko.com/en/coins/nano"/>
+    <hyperlink ref="B262" r:id="rId496" display="https://www.binance.com/en/trade/NANO_BTC"/>
+    <hyperlink ref="A263" r:id="rId497" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B263" r:id="rId498" display="https://www.binance.com/en/trade/BTC_TUSD"/>
+    <hyperlink ref="A264" r:id="rId499" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B264" r:id="rId500" display="https://www.binance.com/en/trade/LTC_BNB"/>
+    <hyperlink ref="A265" r:id="rId501" display="https://www.coingecko.com/en/coins/near"/>
+    <hyperlink ref="B265" r:id="rId502" display="https://www.binance.com/en/trade/NEAR_BTC"/>
+    <hyperlink ref="A266" r:id="rId503" display="https://www.coingecko.com/en/coins/trust-wallet-token"/>
+    <hyperlink ref="B266" r:id="rId504" display="https://www.binance.com/en/trade/TWT_USDT"/>
+    <hyperlink ref="A267" r:id="rId505" display="https://www.coingecko.com/en/coins/bella-protocol"/>
+    <hyperlink ref="B267" r:id="rId506" display="https://www.binance.com/en/trade/BEL_USDT"/>
+    <hyperlink ref="A268" r:id="rId507" display="https://www.coingecko.com/en/coins/kyber-network"/>
+    <hyperlink ref="B268" r:id="rId508" display="https://www.binance.com/en/trade/KNC_USDT"/>
+    <hyperlink ref="A269" r:id="rId509" display="https://www.coingecko.com/en/coins/travala"/>
+    <hyperlink ref="B269" r:id="rId510" display="https://www.binance.com/en/trade/AVA_BTC"/>
+    <hyperlink ref="A270" r:id="rId511" display="https://www.coingecko.com/en/coins/polymath-network"/>
+    <hyperlink ref="B270" r:id="rId512" display="https://www.binance.com/en/trade/POLY_BTC"/>
+    <hyperlink ref="A271" r:id="rId513" display="https://www.coingecko.com/en/coins/venus"/>
+    <hyperlink ref="B271" r:id="rId514" display="https://www.binance.com/en/trade/XVS_BNB"/>
+    <hyperlink ref="A272" r:id="rId515" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B272" r:id="rId516" display="https://www.binance.com/en/trade/ADA_USDC"/>
+    <hyperlink ref="A273" r:id="rId517" display="https://www.coingecko.com/en/coins/enjin-coin"/>
+    <hyperlink ref="B273" r:id="rId518" display="https://www.binance.com/en/trade/ENJ_BUSD"/>
+    <hyperlink ref="A274" r:id="rId519" display="https://www.coingecko.com/en/coins/civic"/>
+    <hyperlink ref="B274" r:id="rId520" display="https://www.binance.com/en/trade/CVC_USDT"/>
+    <hyperlink ref="A275" r:id="rId521" display="https://www.coingecko.com/en/coins/balancer"/>
+    <hyperlink ref="B275" r:id="rId522" display="https://www.binance.com/en/trade/BAL_USDT"/>
+    <hyperlink ref="A276" r:id="rId523" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B276" r:id="rId524" display="https://www.binance.com/en/trade/ETH_TRY"/>
+    <hyperlink ref="A277" r:id="rId525" display="https://www.coingecko.com/en/coins/maker"/>
+    <hyperlink ref="B277" r:id="rId526" display="https://www.binance.com/en/trade/MKR_USDT"/>
+    <hyperlink ref="A278" r:id="rId527" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B278" r:id="rId528" display="https://www.binance.com/en/trade/BNB_AUD"/>
+    <hyperlink ref="A279" r:id="rId529" display="https://www.coingecko.com/en/coins/band-protocol"/>
+    <hyperlink ref="B279" r:id="rId530" display="https://www.binance.com/en/trade/BAND_BTC"/>
+    <hyperlink ref="A280" r:id="rId531" display="https://www.coingecko.com/en/coins/unifi-protocol-dao"/>
+    <hyperlink ref="B280" r:id="rId532" display="https://www.binance.com/en/trade/UNFI_BNB"/>
+    <hyperlink ref="A281" r:id="rId533" display="https://www.coingecko.com/en/coins/just"/>
+    <hyperlink ref="B281" r:id="rId534" display="https://www.binance.com/en/trade/JST_USDT"/>
+    <hyperlink ref="A282" r:id="rId535" display="https://www.coingecko.com/en/coins/ontology"/>
+    <hyperlink ref="B282" r:id="rId536" display="https://www.binance.com/en/trade/ONT_BTC"/>
+    <hyperlink ref="A283" r:id="rId537" display="https://www.coingecko.com/en/coins/lto-network"/>
+    <hyperlink ref="B283" r:id="rId538" display="https://www.binance.com/en/trade/LTO_BTC"/>
+    <hyperlink ref="A284" r:id="rId539" display="https://www.coingecko.com/en/coins/akropolis"/>
+    <hyperlink ref="B284" r:id="rId540" display="https://www.binance.com/en/trade/AKRO_USDT"/>
+    <hyperlink ref="A285" r:id="rId541" display="https://www.coingecko.com/en/coins/compound"/>
+    <hyperlink ref="B285" r:id="rId542" display="https://www.binance.com/en/trade/COMP_BTC"/>
+    <hyperlink ref="A286" r:id="rId543" display="https://www.coingecko.com/en/coins/serum"/>
+    <hyperlink ref="B286" r:id="rId544" display="https://www.binance.com/en/trade/SRM_BUSD"/>
+    <hyperlink ref="A287" r:id="rId545" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B287" r:id="rId546" display="https://www.binance.com/en/trade/BNB_BRL"/>
+    <hyperlink ref="A288" r:id="rId547" display="https://www.coingecko.com/en/coins/loopring"/>
+    <hyperlink ref="B288" r:id="rId548" display="https://www.binance.com/en/trade/LRC_USDT"/>
+    <hyperlink ref="A289" r:id="rId549" display="https://www.coingecko.com/en/coins/iost"/>
+    <hyperlink ref="B289" r:id="rId550" display="https://www.binance.com/en/trade/IOST_BNB"/>
+    <hyperlink ref="A291" r:id="rId551" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B291" r:id="rId552" display="https://www.binance.com/en/trade/XLM_BUSD"/>
+    <hyperlink ref="A292" r:id="rId553" display="https://www.coingecko.com/en/coins/dia"/>
+    <hyperlink ref="B292" r:id="rId554" display="https://www.binance.com/en/trade/DIA_USDT"/>
+    <hyperlink ref="A293" r:id="rId555" display="https://www.coingecko.com/en/coins/0x"/>
+    <hyperlink ref="B293" r:id="rId556" display="https://www.binance.com/en/trade/ZRX_BTC"/>
+    <hyperlink ref="A294" r:id="rId557" display="https://www.coingecko.com/en/coins/verge"/>
+    <hyperlink ref="B294" r:id="rId558" display="https://www.binance.com/en/trade/XVG_BTC"/>
+    <hyperlink ref="A296" r:id="rId559" display="https://www.coingecko.com/en/coins/polygon"/>
+    <hyperlink ref="B296" r:id="rId560" display="https://www.binance.com/en/trade/MATIC_BNB"/>
+    <hyperlink ref="A297" r:id="rId561" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B297" r:id="rId562" display="https://www.binance.com/en/trade/DOGE_EUR"/>
+    <hyperlink ref="A298" r:id="rId563" display="https://www.coingecko.com/en/coins/solana"/>
+    <hyperlink ref="B298" r:id="rId564" display="https://www.binance.com/en/trade/SOL_BNB"/>
+    <hyperlink ref="A299" r:id="rId565" display="https://www.coingecko.com/en/coins/avalanche"/>
+    <hyperlink ref="B299" r:id="rId566" display="https://www.binance.com/en/trade/AVAX_TRY"/>
+    <hyperlink ref="A300" r:id="rId567" display="https://www.coingecko.com/en/coins/btc-standard-hashrate-token"/>
+    <hyperlink ref="B300" r:id="rId568" display="https://www.binance.com/en/trade/BTCST_BUSD"/>
+    <hyperlink ref="A301" r:id="rId569" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B301" r:id="rId570" display="https://www.binance.com/en/trade/LINK_ETH"/>
+    <hyperlink ref="A302" r:id="rId571" display="https://www.coingecko.com/en/coins/ftx-token"/>
+    <hyperlink ref="B302" r:id="rId572" display="https://www.binance.com/en/trade/FTT_BTC"/>
+    <hyperlink ref="A303" r:id="rId573" display="https://www.coingecko.com/en/coins/stormx"/>
+    <hyperlink ref="B303" r:id="rId574" display="https://www.binance.com/en/trade/STMX_USDT"/>
+    <hyperlink ref="A304" r:id="rId575" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B304" r:id="rId576" display="https://www.binance.com/en/trade/BUSD_TRY"/>
+    <hyperlink ref="A305" r:id="rId577" display="https://www.coingecko.com/en/coins/aion"/>
+    <hyperlink ref="B305" r:id="rId578" display="https://www.binance.com/en/trade/AION_BTC"/>
+    <hyperlink ref="A306" r:id="rId579" display="https://www.coingecko.com/en/coins/ark"/>
+    <hyperlink ref="B306" r:id="rId580" display="https://www.binance.com/en/trade/ARK_BTC"/>
+    <hyperlink ref="A307" r:id="rId581" display="https://www.coingecko.com/en/coins/venus"/>
+    <hyperlink ref="B307" r:id="rId582" display="https://www.binance.com/en/trade/XVS_BUSD"/>
+    <hyperlink ref="A308" r:id="rId583" display="https://www.coingecko.com/en/coins/reserve-rights-token"/>
+    <hyperlink ref="B308" r:id="rId584" display="https://www.binance.com/en/trade/RSR_BTC"/>
+    <hyperlink ref="A309" r:id="rId585" display="https://www.coingecko.com/en/coins/celer-network"/>
+    <hyperlink ref="B309" r:id="rId586" display="https://www.binance.com/en/trade/CELR_USDT"/>
+    <hyperlink ref="A310" r:id="rId587" display="https://www.coingecko.com/en/coins/nervos-network"/>
+    <hyperlink ref="B310" r:id="rId588" display="https://www.binance.com/en/trade/CKB_BUSD"/>
+    <hyperlink ref="A311" r:id="rId589" display="https://www.coingecko.com/en/coins/omg-network"/>
+    <hyperlink ref="B311" r:id="rId590" display="https://www.binance.com/en/trade/OMG_BTC"/>
+    <hyperlink ref="A312" r:id="rId591" display="https://www.coingecko.com/en/coins/qtum"/>
+    <hyperlink ref="B312" r:id="rId592" display="https://www.binance.com/en/trade/QTUM_BTC"/>
+    <hyperlink ref="A313" r:id="rId593" display="https://www.coingecko.com/en/coins/waves"/>
+    <hyperlink ref="B313" r:id="rId594" display="https://www.binance.com/en/trade/WAVES_BTC"/>
+    <hyperlink ref="A314" r:id="rId595" display="https://www.coingecko.com/en/coins/poa-network"/>
+    <hyperlink ref="B314" r:id="rId596" display="https://www.binance.com/en/trade/POA_BTC"/>
+    <hyperlink ref="A315" r:id="rId597" display="https://www.coingecko.com/en/coins/digibyte"/>
+    <hyperlink ref="B315" r:id="rId598" display="https://www.binance.com/en/trade/DGB_USDT"/>
+    <hyperlink ref="A316" r:id="rId599" display="https://www.coingecko.com/en/coins/selfkey"/>
+    <hyperlink ref="B316" r:id="rId600" display="https://www.binance.com/en/trade/KEY_USDT"/>
+    <hyperlink ref="A317" r:id="rId601" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B317" r:id="rId602" display="https://www.binance.com/en/trade/BNB_DAI"/>
+    <hyperlink ref="A318" r:id="rId603" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B318" r:id="rId604" display="https://www.binance.com/en/trade/EOS_ETH"/>
+    <hyperlink ref="A319" r:id="rId605" display="https://www.coingecko.com/en/coins/the-graph"/>
+    <hyperlink ref="B319" r:id="rId606" display="https://www.binance.com/en/trade/GRT_EUR"/>
+    <hyperlink ref="A320" r:id="rId607" display="https://www.coingecko.com/en/coins/ontology-gas"/>
+    <hyperlink ref="B320" r:id="rId608" display="https://www.binance.com/en/trade/ONG_BTC"/>
+    <hyperlink ref="A321" r:id="rId609" display="https://www.coingecko.com/en/coins/ethereum-classic"/>
+    <hyperlink ref="B321" r:id="rId610" display="https://www.binance.com/en/trade/ETC_BTC"/>
+    <hyperlink ref="A322" r:id="rId611" display="https://www.coingecko.com/en/coins/prometeus"/>
+    <hyperlink ref="B322" r:id="rId612" display="https://www.binance.com/en/trade/PROM_BUSD"/>
+    <hyperlink ref="A323" r:id="rId613" display="https://www.coingecko.com/en/coins/vechain"/>
+    <hyperlink ref="B323" r:id="rId614" display="https://www.binance.com/en/trade/VET_BUSD"/>
+    <hyperlink ref="A324" r:id="rId615" display="https://www.coingecko.com/en/coins/terra-luna"/>
+    <hyperlink ref="B324" r:id="rId616" display="https://www.binance.com/en/trade/LUNA_BUSD"/>
+    <hyperlink ref="A325" r:id="rId617" display="https://www.coingecko.com/en/coins/alpha-finance"/>
+    <hyperlink ref="B325" r:id="rId618" display="https://www.binance.com/en/trade/ALPHA_BUSD"/>
+    <hyperlink ref="A326" r:id="rId619" display="https://www.coingecko.com/en/coins/keep3rv1"/>
+    <hyperlink ref="B326" r:id="rId620" display="https://www.binance.com/en/trade/KP3R_BUSD"/>
+    <hyperlink ref="A327" r:id="rId621" display="https://www.coingecko.com/en/coins/pax-gold"/>
+    <hyperlink ref="B327" r:id="rId622" display="https://www.binance.com/en/trade/PAXG_USDT"/>
+    <hyperlink ref="A328" r:id="rId623" display="https://www.coingecko.com/en/coins/fetch-ai"/>
+    <hyperlink ref="B328" r:id="rId624" display="https://www.binance.com/en/trade/FET_BTC"/>
+    <hyperlink ref="A329" r:id="rId625" display="https://www.coingecko.com/en/coins/cartesi"/>
+    <hyperlink ref="B329" r:id="rId626" display="https://www.binance.com/en/trade/CTSI_BTC"/>
+    <hyperlink ref="A330" r:id="rId627" display="https://www.coingecko.com/en/coins/orion-protocol"/>
+    <hyperlink ref="B330" r:id="rId628" display="https://www.binance.com/en/trade/ORN_BTC"/>
+    <hyperlink ref="A331" r:id="rId629" display="https://www.coingecko.com/en/coins/kava"/>
+    <hyperlink ref="B331" r:id="rId630" display="https://www.binance.com/en/trade/KAVA_BTC"/>
+    <hyperlink ref="A332" r:id="rId631" display="https://www.coingecko.com/en/coins/axie-infinity"/>
+    <hyperlink ref="B332" r:id="rId632" display="https://www.binance.com/en/trade/AXS_USDT"/>
+    <hyperlink ref="A334" r:id="rId633" display="https://www.coingecko.com/en/coins/yearn-finance"/>
+    <hyperlink ref="B334" r:id="rId634" display="https://www.binance.com/en/trade/YFI_BTC"/>
+    <hyperlink ref="A335" r:id="rId635" display="https://www.coingecko.com/en/coins/holo"/>
+    <hyperlink ref="B335" r:id="rId636" display="https://www.binance.com/en/trade/HOT_BNB"/>
+    <hyperlink ref="A336" r:id="rId637" display="https://www.coingecko.com/en/coins/decred"/>
+    <hyperlink ref="B336" r:id="rId638" display="https://www.binance.com/en/trade/DCR_BTC"/>
+    <hyperlink ref="A337" r:id="rId639" display="https://www.coingecko.com/en/coins/binance-eth-staking"/>
+    <hyperlink ref="B337" r:id="rId640" display="https://www.binance.com/en/trade/BETH_ETH"/>
+    <hyperlink ref="A338" r:id="rId641" display="https://www.coingecko.com/en/coins/orchid-protocol"/>
+    <hyperlink ref="B338" r:id="rId642" display="https://www.binance.com/en/trade/OXT_USDT"/>
+    <hyperlink ref="A339" r:id="rId643" display="https://www.coingecko.com/en/coins/icon"/>
+    <hyperlink ref="B339" r:id="rId644" display="https://www.binance.com/en/trade/ICX_BUSD"/>
+    <hyperlink ref="A341" r:id="rId645" display="https://www.coingecko.com/en/coins/dent"/>
+    <hyperlink ref="B341" r:id="rId646" display="https://www.binance.com/en/trade/DENT_ETH"/>
+    <hyperlink ref="A342" r:id="rId647" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B342" r:id="rId648" display="https://www.binance.com/en/trade/XRP_ETH"/>
+    <hyperlink ref="A343" r:id="rId649" display="https://www.coingecko.com/en/coins/harmony"/>
+    <hyperlink ref="B343" r:id="rId650" display="https://www.binance.com/en/trade/ONE_BTC"/>
+    <hyperlink ref="A344" r:id="rId651" display="https://www.coingecko.com/en/coins/bluzelle"/>
+    <hyperlink ref="B344" r:id="rId652" display="https://www.binance.com/en/trade/BLZ_BTC"/>
+    <hyperlink ref="A345" r:id="rId653" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B345" r:id="rId654" display="https://www.binance.com/en/trade/TRX_ETH"/>
+    <hyperlink ref="A346" r:id="rId655" display="https://www.coingecko.com/en/coins/pundi-x"/>
+    <hyperlink ref="B346" r:id="rId656" display="https://www.binance.com/en/trade/NPXS_ETH"/>
+    <hyperlink ref="A347" r:id="rId657" display="https://www.coingecko.com/en/coins/skale"/>
+    <hyperlink ref="B347" r:id="rId658" display="https://www.binance.com/en/trade/SKL_USDT"/>
+    <hyperlink ref="A349" r:id="rId659" display="https://www.coingecko.com/en/coins/safepal"/>
+    <hyperlink ref="B349" r:id="rId660" display="https://www.binance.com/en/trade/SFP_BTC"/>
+    <hyperlink ref="A350" r:id="rId661" display="https://www.coingecko.com/en/coins/celer-network"/>
+    <hyperlink ref="B350" r:id="rId662" display="https://www.binance.com/en/trade/CELR_BTC"/>
+    <hyperlink ref="A351" r:id="rId663" display="https://www.coingecko.com/en/coins/dusk-network"/>
+    <hyperlink ref="B351" r:id="rId664" display="https://www.binance.com/en/trade/DUSK_BTC"/>
+    <hyperlink ref="A352" r:id="rId665" display="https://www.coingecko.com/en/coins/frontier"/>
+    <hyperlink ref="B352" r:id="rId666" display="https://www.binance.com/en/trade/FRONT_BUSD"/>
+    <hyperlink ref="A353" r:id="rId667" display="https://www.coingecko.com/en/coins/iexec-rlc"/>
+    <hyperlink ref="B353" r:id="rId668" display="https://www.binance.com/en/trade/RLC_USDT"/>
+    <hyperlink ref="A354" r:id="rId669" display="https://www.coingecko.com/en/coins/chiliz"/>
+    <hyperlink ref="B354" r:id="rId670" display="https://www.binance.com/en/trade/CHZ_TRY"/>
+    <hyperlink ref="A356" r:id="rId671" display="https://www.coingecko.com/en/coins/unilend-finance"/>
+    <hyperlink ref="B356" r:id="rId672" display="https://www.binance.com/en/trade/UFT_BUSD"/>
+    <hyperlink ref="A357" r:id="rId673" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B357" r:id="rId674" display="https://www.binance.com/en/trade/ETH_PAX"/>
+    <hyperlink ref="A358" r:id="rId675" display="https://www.coingecko.com/en/coins/funfair"/>
+    <hyperlink ref="B358" r:id="rId676" display="https://www.binance.com/en/trade/FUN_BTC"/>
+    <hyperlink ref="A359" r:id="rId677" display="https://www.coingecko.com/en/coins/filecoin"/>
+    <hyperlink ref="B359" r:id="rId678" display="https://www.binance.com/en/trade/FIL_BTC"/>
+    <hyperlink ref="A361" r:id="rId679" display="https://www.coingecko.com/en/coins/iost"/>
+    <hyperlink ref="B361" r:id="rId680" display="https://www.binance.com/en/trade/IOST_BUSD"/>
+    <hyperlink ref="A362" r:id="rId681" display="https://www.coingecko.com/en/coins/hard-protocol"/>
+    <hyperlink ref="B362" r:id="rId682" display="https://www.binance.com/en/trade/HARD_USDT"/>
+    <hyperlink ref="A363" r:id="rId683" display="https://www.coingecko.com/en/coins/1inch"/>
+    <hyperlink ref="B363" r:id="rId684" display="https://www.binance.com/en/trade/1INCH_BUSD"/>
+    <hyperlink ref="A364" r:id="rId685" display="https://www.coingecko.com/en/coins/tezos"/>
+    <hyperlink ref="B364" r:id="rId686" display="https://www.binance.com/en/trade/XTZ_BUSD"/>
+    <hyperlink ref="A365" r:id="rId687" display="https://www.coingecko.com/en/coins/storj"/>
+    <hyperlink ref="B365" r:id="rId688" display="https://www.binance.com/en/trade/STORJ_USDT"/>
+    <hyperlink ref="A366" r:id="rId689" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B366" r:id="rId690" display="https://www.binance.com/en/trade/BNB_BIDR"/>
+    <hyperlink ref="A367" r:id="rId691" display="https://www.coingecko.com/en/coins/burger-swap"/>
+    <hyperlink ref="B367" r:id="rId692" display="https://www.binance.com/en/trade/BURGER_BNB"/>
+    <hyperlink ref="A368" r:id="rId693" display="https://www.coingecko.com/en/coins/hive"/>
+    <hyperlink ref="B368" r:id="rId694" display="https://www.binance.com/en/trade/HIVE_USDT"/>
+    <hyperlink ref="A369" r:id="rId695" display="https://www.coingecko.com/en/coins/aave"/>
+    <hyperlink ref="B369" r:id="rId696" display="https://www.binance.com/en/trade/AAVE_BUSD"/>
+    <hyperlink ref="A370" r:id="rId697" display="https://www.coingecko.com/en/coins/komodo"/>
+    <hyperlink ref="B370" r:id="rId698" display="https://www.binance.com/en/trade/KMD_USDT"/>
+    <hyperlink ref="A371" r:id="rId699" display="https://www.coingecko.com/en/coins/helium"/>
+    <hyperlink ref="B371" r:id="rId700" display="https://www.binance.com/en/trade/HNT_USDT"/>
+    <hyperlink ref="A372" r:id="rId701" display="https://www.coingecko.com/en/coins/wanchain"/>
+    <hyperlink ref="B372" r:id="rId702" display="https://www.binance.com/en/trade/WAN_USDT"/>
+    <hyperlink ref="A373" r:id="rId703" display="https://www.coingecko.com/en/coins/algorand"/>
+    <hyperlink ref="B373" r:id="rId704" display="https://www.binance.com/en/trade/ALGO_BUSD"/>
+    <hyperlink ref="A374" r:id="rId705" display="https://www.coingecko.com/en/coins/alpha-finance"/>
+    <hyperlink ref="B374" r:id="rId706" display="https://www.binance.com/en/trade/ALPHA_BNB"/>
+    <hyperlink ref="A375" r:id="rId707" display="https://www.coingecko.com/en/coins/avalanche"/>
+    <hyperlink ref="B375" r:id="rId708" display="https://www.binance.com/en/trade/AVAX_BUSD"/>
+    <hyperlink ref="A376" r:id="rId709" display="https://www.coingecko.com/en/coins/wink"/>
+    <hyperlink ref="B376" r:id="rId710" display="https://www.binance.com/en/trade/WIN_USDT"/>
+    <hyperlink ref="A377" r:id="rId711" display="https://www.coingecko.com/en/coins/golem"/>
+    <hyperlink ref="B377" r:id="rId712" display="https://www.binance.com/en/trade/GLM_BTC"/>
+    <hyperlink ref="A378" r:id="rId713" display="https://www.coingecko.com/en/coins/secret"/>
+    <hyperlink ref="B378" r:id="rId714" display="https://www.binance.com/en/trade/SCRT_BTC"/>
+    <hyperlink ref="A379" r:id="rId715" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B379" r:id="rId716" display="https://www.binance.com/en/trade/USDT_BRL"/>
+    <hyperlink ref="A381" r:id="rId717" display="https://www.coingecko.com/en/coins/origin-protocol"/>
+    <hyperlink ref="B381" r:id="rId718" display="https://www.binance.com/en/trade/OGN_USDT"/>
+    <hyperlink ref="A382" r:id="rId719" display="https://www.coingecko.com/en/coins/holo"/>
+    <hyperlink ref="B382" r:id="rId720" display="https://www.binance.com/en/trade/HOT_ETH"/>
+    <hyperlink ref="A383" r:id="rId721" display="https://www.coingecko.com/en/coins/aragon"/>
+    <hyperlink ref="B383" r:id="rId722" display="https://www.binance.com/en/trade/ANT_USDT"/>
+    <hyperlink ref="A384" r:id="rId723" display="https://www.coingecko.com/en/coins/enjin-coin"/>
+    <hyperlink ref="B384" r:id="rId724" display="https://www.binance.com/en/trade/ENJ_ETH"/>
+    <hyperlink ref="A386" r:id="rId725" display="https://www.coingecko.com/en/coins/kyber-network"/>
+    <hyperlink ref="B386" r:id="rId726" display="https://www.binance.com/en/trade/KNC_BTC"/>
+    <hyperlink ref="A387" r:id="rId727" display="https://www.coingecko.com/en/coins/litentry"/>
+    <hyperlink ref="B387" r:id="rId728" display="https://www.binance.com/en/trade/LIT_BUSD"/>
+    <hyperlink ref="A388" r:id="rId729" display="https://www.coingecko.com/en/coins/easyfi"/>
+    <hyperlink ref="B388" r:id="rId730" display="https://www.binance.com/en/trade/EASY_ETH"/>
+    <hyperlink ref="A389" r:id="rId731" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B389" r:id="rId732" display="https://www.binance.com/en/trade/BTC_RUB"/>
+    <hyperlink ref="A390" r:id="rId733" display="https://www.coingecko.com/en/coins/safepal"/>
+    <hyperlink ref="B390" r:id="rId734" display="https://www.binance.com/en/trade/SFP_BUSD"/>
+    <hyperlink ref="A391" r:id="rId735" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B391" r:id="rId736" display="https://www.binance.com/en/trade/SXP_BNB"/>
+    <hyperlink ref="A393" r:id="rId737" display="https://www.coingecko.com/en/coins/siacoin"/>
+    <hyperlink ref="B393" r:id="rId738" display="https://www.binance.com/en/trade/SC_USDT"/>
+    <hyperlink ref="A394" r:id="rId739" display="https://www.coingecko.com/en/coins/bitcoin-gold"/>
+    <hyperlink ref="B394" r:id="rId740" display="https://www.binance.com/en/trade/BTG_BTC"/>
+    <hyperlink ref="A395" r:id="rId741" display="https://www.coingecko.com/en/coins/sand"/>
+    <hyperlink ref="B395" r:id="rId742" display="https://www.binance.com/en/trade/SAND_BTC"/>
+    <hyperlink ref="A396" r:id="rId743" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B396" r:id="rId744" display="https://www.binance.com/en/trade/LINK_EUR"/>
+    <hyperlink ref="A397" r:id="rId745" display="https://www.coingecko.com/en/coins/iotex"/>
+    <hyperlink ref="B397" r:id="rId746" display="https://www.binance.com/en/trade/IOTX_USDT"/>
+    <hyperlink ref="A398" r:id="rId747" display="https://www.coingecko.com/en/coins/dodo"/>
+    <hyperlink ref="B398" r:id="rId748" display="https://www.binance.com/en/trade/DODO_BTC"/>
+    <hyperlink ref="A399" r:id="rId749" display="https://www.coingecko.com/en/coins/frax-share"/>
+    <hyperlink ref="B399" r:id="rId750" display="https://www.binance.com/en/trade/FXS_BUSD"/>
+    <hyperlink ref="A400" r:id="rId751" display="https://www.coingecko.com/en/coins/kusama"/>
+    <hyperlink ref="B400" r:id="rId752" display="https://www.binance.com/en/trade/KSM_BUSD"/>
+    <hyperlink ref="A401" r:id="rId753" display="https://www.coingecko.com/en/coins/dodo"/>
+    <hyperlink ref="B401" r:id="rId754" display="https://www.binance.com/en/trade/DODO_BUSD"/>
+    <hyperlink ref="A402" r:id="rId755" display="https://www.coingecko.com/en/coins/true-usd"/>
+    <hyperlink ref="B402" r:id="rId756" display="https://www.binance.com/en/trade/TUSD_BUSD"/>
+    <hyperlink ref="A403" r:id="rId757" display="https://www.coingecko.com/en/coins/cosmos"/>
+    <hyperlink ref="B403" r:id="rId758" display="https://www.binance.com/en/trade/ATOM_BUSD"/>
+    <hyperlink ref="A404" r:id="rId759" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B404" r:id="rId760" display="https://www.binance.com/en/trade/DOGE_TRY"/>
+    <hyperlink ref="A405" r:id="rId761" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B405" r:id="rId762" display="https://www.binance.com/en/trade/USDT_BIDR"/>
+    <hyperlink ref="A407" r:id="rId763" display="https://www.coingecko.com/en/coins/iost"/>
+    <hyperlink ref="B407" r:id="rId764" display="https://www.binance.com/en/trade/IOST_ETH"/>
+    <hyperlink ref="A408" r:id="rId765" display="https://www.coingecko.com/en/coins/vethor-token"/>
+    <hyperlink ref="B408" r:id="rId766" display="https://www.binance.com/en/trade/VTHO_USDT"/>
+    <hyperlink ref="A409" r:id="rId767" display="https://www.coingecko.com/en/coins/augur"/>
+    <hyperlink ref="B409" r:id="rId768" display="https://www.binance.com/en/trade/REP_USDT"/>
+    <hyperlink ref="A411" r:id="rId769" display="https://www.coingecko.com/en/coins/theta-fuel"/>
+    <hyperlink ref="B411" r:id="rId770" display="https://www.binance.com/en/trade/TFUEL_BTC"/>
+    <hyperlink ref="A412" r:id="rId771" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B412" r:id="rId772" display="https://www.binance.com/en/trade/SXP_EUR"/>
+    <hyperlink ref="A413" r:id="rId773" display="https://www.coingecko.com/en/coins/digibyte"/>
+    <hyperlink ref="B413" r:id="rId774" display="https://www.binance.com/en/trade/DGB_BTC"/>
+    <hyperlink ref="A414" r:id="rId775" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B414" r:id="rId776" display="https://www.binance.com/en/trade/LTC_USDC"/>
+    <hyperlink ref="A415" r:id="rId777" display="https://www.coingecko.com/en/coins/hifi-finance"/>
+    <hyperlink ref="B415" r:id="rId778" display="https://www.binance.com/en/trade/MFT_ETH"/>
+    <hyperlink ref="A416" r:id="rId779" display="https://www.coingecko.com/en/coins/pnetwork"/>
+    <hyperlink ref="B416" r:id="rId780" display="https://www.binance.com/en/trade/PNT_BTC"/>
+    <hyperlink ref="A417" r:id="rId781" display="https://www.coingecko.com/en/coins/rsk-infrastructure-framework"/>
+    <hyperlink ref="B417" r:id="rId782" display="https://www.binance.com/en/trade/RIF_BTC"/>
+    <hyperlink ref="A418" r:id="rId783" display="https://www.coingecko.com/en/coins/district0x"/>
+    <hyperlink ref="B418" r:id="rId784" display="https://www.binance.com/en/trade/DNT_USDT"/>
+    <hyperlink ref="A419" r:id="rId785" display="https://www.coingecko.com/en/coins/elrond"/>
+    <hyperlink ref="B419" r:id="rId786" display="https://www.binance.com/en/trade/EGLD_BNB"/>
+    <hyperlink ref="A420" r:id="rId787" display="https://www.coingecko.com/en/coins/audius"/>
+    <hyperlink ref="B420" r:id="rId788" display="https://www.binance.com/en/trade/AUDIO_USDT"/>
+    <hyperlink ref="A421" r:id="rId789" display="https://www.coingecko.com/en/coins/wazirx"/>
+    <hyperlink ref="B421" r:id="rId790" display="https://www.binance.com/en/trade/WRX_USDT"/>
+    <hyperlink ref="A422" r:id="rId791" display="https://www.coingecko.com/en/coins/steem"/>
+    <hyperlink ref="B422" r:id="rId792" display="https://www.binance.com/en/trade/STEEM_BTC"/>
+    <hyperlink ref="A423" r:id="rId793" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B423" r:id="rId794" display="https://www.binance.com/en/trade/BTC_ZAR"/>
+    <hyperlink ref="A424" r:id="rId795" display="https://www.coingecko.com/en/coins/zilliqa"/>
+    <hyperlink ref="B424" r:id="rId796" display="https://www.binance.com/en/trade/ZIL_BUSD"/>
+    <hyperlink ref="A425" r:id="rId797" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B425" r:id="rId798" display="https://www.binance.com/en/trade/BTC_BIDR"/>
+    <hyperlink ref="A426" r:id="rId799" display="https://www.coingecko.com/en/coins/bitshares"/>
+    <hyperlink ref="B426" r:id="rId800" display="https://www.binance.com/en/trade/BTS_USDT"/>
+    <hyperlink ref="A427" r:id="rId801" display="https://www.coingecko.com/en/coins/pax-gold"/>
+    <hyperlink ref="B427" r:id="rId802" display="https://www.binance.com/en/trade/PAXG_BTC"/>
+    <hyperlink ref="A428" r:id="rId803" display="https://www.coingecko.com/en/coins/dia"/>
+    <hyperlink ref="B428" r:id="rId804" display="https://www.binance.com/en/trade/DIA_BTC"/>
+    <hyperlink ref="A429" r:id="rId805" display="https://www.coingecko.com/en/coins/augur"/>
+    <hyperlink ref="B429" r:id="rId806" display="https://www.binance.com/en/trade/REP_BTC"/>
+    <hyperlink ref="A430" r:id="rId807" display="https://www.coingecko.com/en/coins/filecoin"/>
+    <hyperlink ref="B430" r:id="rId808" display="https://www.binance.com/en/trade/FIL_BUSD"/>
+    <hyperlink ref="A431" r:id="rId809" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B431" r:id="rId810" display="https://www.binance.com/en/trade/XRP_USDC"/>
+    <hyperlink ref="A432" r:id="rId811" display="https://www.coingecko.com/en/coins/stormx"/>
+    <hyperlink ref="B432" r:id="rId812" display="https://www.binance.com/en/trade/STMX_BTC"/>
+    <hyperlink ref="A433" r:id="rId813" display="https://www.coingecko.com/en/coins/prometeus"/>
+    <hyperlink ref="B433" r:id="rId814" display="https://www.binance.com/en/trade/PROM_BNB"/>
+    <hyperlink ref="A436" r:id="rId815" display="https://www.coingecko.com/en/coins/komodo"/>
+    <hyperlink ref="B436" r:id="rId816" display="https://www.binance.com/en/trade/KMD_BTC"/>
+    <hyperlink ref="A437" r:id="rId817" display="https://www.coingecko.com/en/coins/elf"/>
+    <hyperlink ref="B437" r:id="rId818" display="https://www.binance.com/en/trade/ELF_BTC"/>
+    <hyperlink ref="A438" r:id="rId819" display="https://www.coingecko.com/en/coins/horizen"/>
+    <hyperlink ref="B438" r:id="rId820" display="https://www.binance.com/en/trade/ZEN_BTC"/>
+    <hyperlink ref="A439" r:id="rId821" display="https://www.coingecko.com/en/coins/wrapped-bitcoin"/>
+    <hyperlink ref="B439" r:id="rId822" display="https://www.binance.com/en/trade/WBTC_ETH"/>
+    <hyperlink ref="A440" r:id="rId823" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B440" r:id="rId824" display="https://www.binance.com/en/trade/XLM_EUR"/>
+    <hyperlink ref="A441" r:id="rId825" display="https://www.coingecko.com/en/coins/coti"/>
+    <hyperlink ref="B441" r:id="rId826" display="https://www.binance.com/en/trade/COTI_BNB"/>
+    <hyperlink ref="A442" r:id="rId827" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B442" r:id="rId828" display="https://www.binance.com/en/trade/ETH_TUSD"/>
+    <hyperlink ref="A443" r:id="rId829" display="https://www.coingecko.com/en/coins/flamingo-finance"/>
+    <hyperlink ref="B443" r:id="rId830" display="https://www.binance.com/en/trade/FLM_BTC"/>
+    <hyperlink ref="A444" r:id="rId831" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B444" r:id="rId832" display="https://www.binance.com/en/trade/BUSD_VAI"/>
+    <hyperlink ref="A445" r:id="rId833" display="https://www.coingecko.com/en/coins/sushi"/>
+    <hyperlink ref="B445" r:id="rId834" display="https://www.binance.com/en/trade/SUSHI_BNB"/>
+    <hyperlink ref="A446" r:id="rId835" display="https://www.coingecko.com/en/coins/decred"/>
+    <hyperlink ref="B446" r:id="rId836" display="https://www.binance.com/en/trade/DCR_USDT"/>
+    <hyperlink ref="A447" r:id="rId837" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B447" r:id="rId838" display="https://www.binance.com/en/trade/LINK_USDC"/>
+    <hyperlink ref="A448" r:id="rId839" display="https://www.coingecko.com/en/coins/lisk"/>
+    <hyperlink ref="B448" r:id="rId840" display="https://www.binance.com/en/trade/LSK_ETH"/>
+    <hyperlink ref="A449" r:id="rId841" display="https://www.coingecko.com/en/coins/ravencoin"/>
+    <hyperlink ref="B449" r:id="rId842" display="https://www.binance.com/en/trade/RVN_BUSD"/>
+    <hyperlink ref="A450" r:id="rId843" display="https://www.coingecko.com/en/coins/reef-finance"/>
+    <hyperlink ref="B450" r:id="rId844" display="https://www.binance.com/en/trade/REEF_BUSD"/>
+    <hyperlink ref="A451" r:id="rId845" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B451" r:id="rId846" display="https://www.binance.com/en/trade/BNB_ZAR"/>
+    <hyperlink ref="A452" r:id="rId847" display="https://www.coingecko.com/en/coins/ocean-protocol"/>
+    <hyperlink ref="B452" r:id="rId848" display="https://www.binance.com/en/trade/OCEAN_BTC"/>
+    <hyperlink ref="A453" r:id="rId849" display="https://www.coingecko.com/en/coins/irisnet"/>
+    <hyperlink ref="B453" r:id="rId850" display="https://www.binance.com/en/trade/IRIS_USDT"/>
+    <hyperlink ref="A454" r:id="rId851" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B454" r:id="rId852" display="https://www.binance.com/en/trade/TRX_BUSD"/>
+    <hyperlink ref="A455" r:id="rId853" display="https://www.coingecko.com/en/coins/ontology"/>
+    <hyperlink ref="B455" r:id="rId854" display="https://www.binance.com/en/trade/ONT_BUSD"/>
+    <hyperlink ref="A456" r:id="rId855" display="https://www.coingecko.com/en/coins/hive"/>
+    <hyperlink ref="B456" r:id="rId856" display="https://www.binance.com/en/trade/HIVE_BTC"/>
+    <hyperlink ref="A457" r:id="rId857" display="https://www.coingecko.com/en/coins/hedera-hashgraph"/>
+    <hyperlink ref="B457" r:id="rId858" display="https://www.binance.com/en/trade/HBAR_BUSD"/>
+    <hyperlink ref="A458" r:id="rId859" display="https://www.coingecko.com/en/coins/waltonchain"/>
+    <hyperlink ref="B458" r:id="rId860" display="https://www.binance.com/en/trade/WTC_USDT"/>
+    <hyperlink ref="A459" r:id="rId861" display="https://www.coingecko.com/en/coins/vechain"/>
+    <hyperlink ref="B459" r:id="rId862" display="https://www.binance.com/en/trade/VET_ETH"/>
+    <hyperlink ref="A461" r:id="rId863" display="https://www.coingecko.com/en/coins/singularitynet"/>
+    <hyperlink ref="B461" r:id="rId864" display="https://www.binance.com/en/trade/AGI_BTC"/>
+    <hyperlink ref="A462" r:id="rId865" display="https://www.coingecko.com/en/coins/ethereum-classic"/>
+    <hyperlink ref="B462" r:id="rId866" display="https://www.binance.com/en/trade/ETC_BUSD"/>
+    <hyperlink ref="A463" r:id="rId867" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B463" r:id="rId868" display="https://www.binance.com/en/trade/SXP_TRY"/>
+    <hyperlink ref="A464" r:id="rId869" display="https://www.coingecko.com/en/coins/loopring"/>
+    <hyperlink ref="B464" r:id="rId870" display="https://www.binance.com/en/trade/LRC_BTC"/>
+    <hyperlink ref="A465" r:id="rId871" display="https://www.coingecko.com/en/coins/stp-network"/>
+    <hyperlink ref="B465" r:id="rId872" display="https://www.binance.com/en/trade/STPT_USDT"/>
+    <hyperlink ref="A466" r:id="rId873" display="https://www.coingecko.com/en/coins/pivx"/>
+    <hyperlink ref="B466" r:id="rId874" display="https://www.binance.com/en/trade/PIVX_ETH"/>
+    <hyperlink ref="A467" r:id="rId875" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B467" r:id="rId876" display="https://www.binance.com/en/trade/XRP_TRY"/>
+    <hyperlink ref="A468" r:id="rId877" display="https://www.coingecko.com/en/coins/uma"/>
+    <hyperlink ref="B468" r:id="rId878" display="https://www.binance.com/en/trade/UMA_USDT"/>
+    <hyperlink ref="A469" r:id="rId879" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B469" r:id="rId880" display="https://www.binance.com/en/trade/BTC_NGN"/>
+    <hyperlink ref="A470" r:id="rId881" display="https://www.coingecko.com/en/coins/tellor"/>
+    <hyperlink ref="B470" r:id="rId882" display="https://www.binance.com/en/trade/TRB_BTC"/>
+    <hyperlink ref="A471" r:id="rId883" display="https://www.coingecko.com/en/coins/certik"/>
+    <hyperlink ref="B471" r:id="rId884" display="https://www.binance.com/en/trade/CTK_BTC"/>
+    <hyperlink ref="A472" r:id="rId885" display="https://www.coingecko.com/en/coins/decentraland"/>
+    <hyperlink ref="B472" r:id="rId886" display="https://www.binance.com/en/trade/MANA_BTC"/>
+    <hyperlink ref="A473" r:id="rId887" display="https://www.coingecko.com/en/coins/audius"/>
+    <hyperlink ref="B473" r:id="rId888" display="https://www.binance.com/en/trade/AUDIO_BTC"/>
+    <hyperlink ref="A475" r:id="rId889" display="https://www.coingecko.com/en/coins/thorchain"/>
+    <hyperlink ref="B475" r:id="rId890" display="https://www.binance.com/en/trade/RUNE_BUSD"/>
+    <hyperlink ref="A476" r:id="rId891" display="https://www.coingecko.com/en/coins/bread"/>
+    <hyperlink ref="B476" r:id="rId892" display="https://www.binance.com/en/trade/BRD_BTC"/>
+    <hyperlink ref="A477" r:id="rId893" display="https://www.coingecko.com/en/coins/synthetix-network-token"/>
+    <hyperlink ref="B477" r:id="rId894" display="https://www.binance.com/en/trade/SNX_BUSD"/>
+    <hyperlink ref="A478" r:id="rId895" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B478" r:id="rId896" display="https://www.binance.com/en/trade/TRX_BNB"/>
+    <hyperlink ref="A479" r:id="rId897" display="https://www.coingecko.com/en/coins/arpa-chain"/>
+    <hyperlink ref="B479" r:id="rId898" display="https://www.binance.com/en/trade/ARPA_USDT"/>
+    <hyperlink ref="A480" r:id="rId899" display="https://www.coingecko.com/en/coins/ankr-network"/>
+    <hyperlink ref="B480" r:id="rId900" display="https://www.binance.com/en/trade/ANKR_BNB"/>
+    <hyperlink ref="A481" r:id="rId901" display="https://www.coingecko.com/en/coins/iexec-rlc"/>
+    <hyperlink ref="B481" r:id="rId902" display="https://www.binance.com/en/trade/RLC_BTC"/>
+    <hyperlink ref="A482" r:id="rId903" display="https://www.coingecko.com/en/coins/perlin"/>
+    <hyperlink ref="B482" r:id="rId904" display="https://www.binance.com/en/trade/PERL_USDT"/>
+    <hyperlink ref="A483" r:id="rId905" display="https://www.coingecko.com/en/coins/iotex"/>
+    <hyperlink ref="B483" r:id="rId906" display="https://www.binance.com/en/trade/IOTX_BTC"/>
+    <hyperlink ref="A484" r:id="rId907" display="https://www.coingecko.com/en/coins/near"/>
+    <hyperlink ref="B484" r:id="rId908" display="https://www.binance.com/en/trade/NEAR_BUSD"/>
+    <hyperlink ref="A485" r:id="rId909" display="https://www.coingecko.com/en/coins/utrust"/>
+    <hyperlink ref="B485" r:id="rId910" display="https://www.binance.com/en/trade/UTK_USDT"/>
+    <hyperlink ref="A486" r:id="rId911" display="https://www.coingecko.com/en/coins/chromia"/>
+    <hyperlink ref="B486" r:id="rId912" display="https://www.binance.com/en/trade/CHR_USDT"/>
+    <hyperlink ref="A487" r:id="rId913" display="https://www.coingecko.com/en/coins/chiliz"/>
+    <hyperlink ref="B487" r:id="rId914" display="https://www.binance.com/en/trade/CHZ_BNB"/>
+    <hyperlink ref="A488" r:id="rId915" display="https://www.coingecko.com/en/coins/sun-token"/>
+    <hyperlink ref="B488" r:id="rId916" display="https://www.binance.com/en/trade/SUN_BTC"/>
+    <hyperlink ref="A489" r:id="rId917" display="https://www.coingecko.com/en/coins/voyager-token"/>
+    <hyperlink ref="B489" r:id="rId918" display="https://www.binance.com/en/trade/BQX_ETH"/>
+    <hyperlink ref="A490" r:id="rId919" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B490" r:id="rId920" display="https://www.binance.com/en/trade/XRP_GBP"/>
+    <hyperlink ref="A491" r:id="rId921" display="https://www.coingecko.com/en/coins/thorchain"/>
+    <hyperlink ref="B491" r:id="rId922" display="https://www.binance.com/en/trade/RUNE_BNB"/>
+    <hyperlink ref="A492" r:id="rId923" display="https://www.coingecko.com/en/coins/adex"/>
+    <hyperlink ref="B492" r:id="rId924" display="https://www.binance.com/en/trade/ADX_BTC"/>
+    <hyperlink ref="A493" r:id="rId925" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B493" r:id="rId926" display="https://www.binance.com/en/trade/ETH_BIDR"/>
+    <hyperlink ref="A494" r:id="rId927" display="https://www.coingecko.com/en/coins/oasis-network"/>
+    <hyperlink ref="B494" r:id="rId928" display="https://www.binance.com/en/trade/ROSE_BTC"/>
+    <hyperlink ref="A495" r:id="rId929" display="https://www.coingecko.com/en/coins/truefi"/>
+    <hyperlink ref="B495" r:id="rId930" display="https://www.binance.com/en/trade/TRU_USDT"/>
+    <hyperlink ref="A496" r:id="rId931" display="https://www.coingecko.com/en/coins/iota"/>
+    <hyperlink ref="B496" r:id="rId932" display="https://www.binance.com/en/trade/IOTA_BUSD"/>
+    <hyperlink ref="A497" r:id="rId933" display="https://www.coingecko.com/en/coins/celo"/>
+    <hyperlink ref="B497" r:id="rId934" display="https://www.binance.com/en/trade/CELO_USDT"/>
+    <hyperlink ref="A498" r:id="rId935" display="https://www.coingecko.com/en/coins/dash"/>
+    <hyperlink ref="B498" r:id="rId936" display="https://www.binance.com/en/trade/DASH_BUSD"/>
+    <hyperlink ref="A499" r:id="rId937" display="https://www.coingecko.com/en/coins/maker"/>
+    <hyperlink ref="B499" r:id="rId938" display="https://www.binance.com/en/trade/MKR_BTC"/>
+    <hyperlink ref="A500" r:id="rId939" display="https://www.coingecko.com/en/coins/district0x"/>
+    <hyperlink ref="B500" r:id="rId940" display="https://www.binance.com/en/trade/DNT_BTC"/>
+    <hyperlink ref="A501" r:id="rId941" display="https://www.coingecko.com/en/coins/fortube"/>
+    <hyperlink ref="B501" r:id="rId942" display="https://www.binance.com/en/trade/FOR_BUSD"/>
+    <hyperlink ref="A502" r:id="rId943" display="https://www.coingecko.com/en/coins/hifi-finance"/>
+    <hyperlink ref="B502" r:id="rId944" display="https://www.binance.com/en/trade/MFT_BNB"/>
+    <hyperlink ref="A503" r:id="rId945" display="https://www.coingecko.com/en/coins/civic"/>
+    <hyperlink ref="B503" r:id="rId946" display="https://www.binance.com/en/trade/CVC_BTC"/>
+    <hyperlink ref="A504" r:id="rId947" display="https://www.coingecko.com/en/coins/storj"/>
+    <hyperlink ref="B504" r:id="rId948" display="https://www.binance.com/en/trade/STORJ_BTC"/>
+    <hyperlink ref="A505" r:id="rId949" display="https://www.coingecko.com/en/coins/cocos-bcx"/>
+    <hyperlink ref="B505" r:id="rId950" display="https://www.binance.com/en/trade/COCOS_USDT"/>
+    <hyperlink ref="A506" r:id="rId951" display="https://www.coingecko.com/en/coins/metal"/>
+    <hyperlink ref="B506" r:id="rId952" display="https://www.binance.com/en/trade/MTL_USDT"/>
+    <hyperlink ref="A507" r:id="rId953" display="https://www.coingecko.com/en/coins/troy"/>
+    <hyperlink ref="B507" r:id="rId954" display="https://www.binance.com/en/trade/TROY_BTC"/>
+    <hyperlink ref="A508" r:id="rId955" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B508" r:id="rId956" display="https://www.binance.com/en/trade/USDT_RUB"/>
+    <hyperlink ref="A509" r:id="rId957" display="https://www.coingecko.com/en/coins/lto-network"/>
+    <hyperlink ref="B509" r:id="rId958" display="https://www.binance.com/en/trade/LTO_USDT"/>
+    <hyperlink ref="A510" r:id="rId959" display="https://www.coingecko.com/en/coins/stratis"/>
+    <hyperlink ref="B510" r:id="rId960" display="https://www.binance.com/en/trade/STRAX_USDT"/>
+    <hyperlink ref="A511" r:id="rId961" display="https://www.coingecko.com/en/coins/syscoin"/>
+    <hyperlink ref="B511" r:id="rId962" display="https://www.binance.com/en/trade/SYS_BTC"/>
+    <hyperlink ref="A512" r:id="rId963" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B512" r:id="rId964" display="https://www.binance.com/en/trade/BUSD_BRL"/>
+    <hyperlink ref="A513" r:id="rId965" display="https://www.coingecko.com/en/coins/cream"/>
+    <hyperlink ref="B513" r:id="rId966" display="https://www.binance.com/en/trade/CREAM_BUSD"/>
+    <hyperlink ref="A514" r:id="rId967" display="https://www.coingecko.com/en/coins/bella-protocol"/>
+    <hyperlink ref="B514" r:id="rId968" display="https://www.binance.com/en/trade/BEL_BTC"/>
+    <hyperlink ref="A515" r:id="rId969" display="https://www.coingecko.com/en/coins/tomochain"/>
+    <hyperlink ref="B515" r:id="rId970" display="https://www.binance.com/en/trade/TOMO_BUSD"/>
+    <hyperlink ref="A517" r:id="rId971" display="https://www.coingecko.com/en/coins/frontier"/>
+    <hyperlink ref="B517" r:id="rId972" display="https://www.binance.com/en/trade/FRONT_ETH"/>
+    <hyperlink ref="A518" r:id="rId973" display="https://www.coingecko.com/en/coins/metal"/>
+    <hyperlink ref="B518" r:id="rId974" display="https://www.binance.com/en/trade/MTL_BTC"/>
+    <hyperlink ref="A519" r:id="rId975" display="https://www.coingecko.com/en/coins/wing-finance"/>
+    <hyperlink ref="B519" r:id="rId976" display="https://www.binance.com/en/trade/WING_USDT"/>
+    <hyperlink ref="A520" r:id="rId977" display="https://www.coingecko.com/en/coins/origin-protocol"/>
+    <hyperlink ref="B520" r:id="rId978" display="https://www.binance.com/en/trade/OGN_BTC"/>
+    <hyperlink ref="A521" r:id="rId979" display="https://www.coingecko.com/en/coins/power-ledger"/>
+    <hyperlink ref="B521" r:id="rId980" display="https://www.binance.com/en/trade/POWR_BTC"/>
+    <hyperlink ref="A522" r:id="rId981" display="https://www.coingecko.com/en/coins/injective-protocol"/>
+    <hyperlink ref="B522" r:id="rId982" display="https://www.binance.com/en/trade/INJ_BTC"/>
+    <hyperlink ref="A524" r:id="rId983" display="https://www.coingecko.com/en/coins/groestlcoin"/>
+    <hyperlink ref="B524" r:id="rId984" display="https://www.binance.com/en/trade/GRS_BTC"/>
+    <hyperlink ref="A525" r:id="rId985" display="https://www.coingecko.com/en/coins/bzx-protocol"/>
+    <hyperlink ref="B525" r:id="rId986" display="https://www.binance.com/en/trade/BZRX_BTC"/>
+    <hyperlink ref="A526" r:id="rId987" display="https://www.coingecko.com/en/coins/cosmos"/>
+    <hyperlink ref="B526" r:id="rId988" display="https://www.binance.com/en/trade/ATOM_BNB"/>
+    <hyperlink ref="A527" r:id="rId989" display="https://www.coingecko.com/en/coins/neo"/>
+    <hyperlink ref="B527" r:id="rId990" display="https://www.binance.com/en/trade/NEO_BUSD"/>
+    <hyperlink ref="A528" r:id="rId991" display="https://www.coingecko.com/en/coins/fortube"/>
+    <hyperlink ref="B528" r:id="rId992" display="https://www.binance.com/en/trade/FOR_BTC"/>
+    <hyperlink ref="A529" r:id="rId993" display="https://www.coingecko.com/en/coins/nano"/>
+    <hyperlink ref="B529" r:id="rId994" display="https://www.binance.com/en/trade/NANO_BUSD"/>
+    <hyperlink ref="A530" r:id="rId995" display="https://www.coingecko.com/en/coins/small-love-potion"/>
+    <hyperlink ref="B530" r:id="rId996" display="https://www.binance.com/en/trade/SLP_ETH"/>
+    <hyperlink ref="A531" r:id="rId997" display="https://www.coingecko.com/en/coins/aavegotchi"/>
+    <hyperlink ref="B531" r:id="rId998" display="https://www.binance.com/en/trade/GHST_ETH"/>
+    <hyperlink ref="A532" r:id="rId999" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B532" r:id="rId1000" display="https://www.binance.com/en/trade/ETH_BRL"/>
+    <hyperlink ref="A533" r:id="rId1001" display="https://www.coingecko.com/en/coins/stack"/>
+    <hyperlink ref="B533" r:id="rId1002" display="https://www.binance.com/en/trade/STX_BNB"/>
+    <hyperlink ref="A534" r:id="rId1003" display="https://www.coingecko.com/en/coins/spartan-protocol-token"/>
+    <hyperlink ref="B534" r:id="rId1004" display="https://www.binance.com/en/trade/SPARTA_BNB"/>
+    <hyperlink ref="A535" r:id="rId1005" display="https://www.coingecko.com/en/coins/dfi-money"/>
+    <hyperlink ref="B535" r:id="rId1006" display="https://www.binance.com/en/trade/YFII_BTC"/>
+    <hyperlink ref="A536" r:id="rId1007" display="https://www.coingecko.com/en/coins/enjin-coin"/>
+    <hyperlink ref="B536" r:id="rId1008" display="https://www.binance.com/en/trade/ENJ_BNB"/>
+    <hyperlink ref="A537" r:id="rId1009" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B537" r:id="rId1010" display="https://www.binance.com/en/trade/BNB_RUB"/>
+    <hyperlink ref="A538" r:id="rId1011" display="https://www.coingecko.com/en/coins/helium"/>
+    <hyperlink ref="B538" r:id="rId1012" display="https://www.binance.com/en/trade/HNT_BTC"/>
+    <hyperlink ref="A539" r:id="rId1013" display="https://www.coingecko.com/en/coins/moviebloc"/>
+    <hyperlink ref="B539" r:id="rId1014" display="https://www.binance.com/en/trade/MBL_USDT"/>
+    <hyperlink ref="A540" r:id="rId1015" display="https://www.coingecko.com/en/coins/arpa-chain"/>
+    <hyperlink ref="B540" r:id="rId1016" display="https://www.binance.com/en/trade/ARPA_BTC"/>
+    <hyperlink ref="A541" r:id="rId1017" display="https://www.coingecko.com/en/coins/beam"/>
+    <hyperlink ref="B541" r:id="rId1018" display="https://www.binance.com/en/trade/BEAM_USDT"/>
+    <hyperlink ref="A542" r:id="rId1019" display="https://www.coingecko.com/en/coins/wink"/>
+    <hyperlink ref="B542" r:id="rId1020" display="https://www.binance.com/en/trade/WIN_USDC"/>
+    <hyperlink ref="A543" r:id="rId1021" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B543" r:id="rId1022" display="https://www.binance.com/en/trade/DOT_TRY"/>
+    <hyperlink ref="A545" r:id="rId1023" display="https://www.coingecko.com/en/coins/uniswap"/>
+    <hyperlink ref="B545" r:id="rId1024" display="https://www.binance.com/en/trade/UNI_BNB"/>
+    <hyperlink ref="A546" r:id="rId1025" display="https://www.coingecko.com/en/coins/hard-protocol"/>
+    <hyperlink ref="B546" r:id="rId1026" display="https://www.binance.com/en/trade/HARD_BTC"/>
+    <hyperlink ref="A547" r:id="rId1027" display="https://www.coingecko.com/en/coins/serum"/>
+    <hyperlink ref="B547" r:id="rId1028" display="https://www.binance.com/en/trade/SRM_BNB"/>
+    <hyperlink ref="A548" r:id="rId1029" display="https://www.coingecko.com/en/coins/travala"/>
+    <hyperlink ref="B548" r:id="rId1030" display="https://www.binance.com/en/trade/AVA_BNB"/>
+    <hyperlink ref="A549" r:id="rId1031" display="https://www.coingecko.com/en/coins/troy"/>
+    <hyperlink ref="B549" r:id="rId1032" display="https://www.binance.com/en/trade/TROY_USDT"/>
+    <hyperlink ref="A550" r:id="rId1033" display="https://www.coingecko.com/en/coins/avalanche"/>
+    <hyperlink ref="B550" r:id="rId1034" display="https://www.binance.com/en/trade/AVAX_BNB"/>
+    <hyperlink ref="A551" r:id="rId1035" display="https://www.coingecko.com/en/coins/request-network"/>
+    <hyperlink ref="B551" r:id="rId1036" display="https://www.binance.com/en/trade/REQ_BTC"/>
+    <hyperlink ref="A552" r:id="rId1037" display="https://www.coingecko.com/en/coins/irisnet"/>
+    <hyperlink ref="B552" r:id="rId1038" display="https://www.binance.com/en/trade/IRIS_BTC"/>
+    <hyperlink ref="A553" r:id="rId1039" display="https://www.coingecko.com/en/coins/compound"/>
+    <hyperlink ref="B553" r:id="rId1040" display="https://www.binance.com/en/trade/COMP_BUSD"/>
+    <hyperlink ref="A554" r:id="rId1041" display="https://www.coingecko.com/en/coins/quarkchain"/>
+    <hyperlink ref="B554" r:id="rId1042" display="https://www.binance.com/en/trade/QKC_BTC"/>
+    <hyperlink ref="A555" r:id="rId1043" display="https://www.coingecko.com/en/coins/easyfi"/>
+    <hyperlink ref="B555" r:id="rId1044" display="https://www.binance.com/en/trade/EASY_BTC"/>
+    <hyperlink ref="A556" r:id="rId1045" display="https://www.coingecko.com/en/coins/travala"/>
+    <hyperlink ref="B556" r:id="rId1046" display="https://www.binance.com/en/trade/AVA_BUSD"/>
+    <hyperlink ref="A557" r:id="rId1047" display="https://www.coingecko.com/en/coins/loom-network"/>
+    <hyperlink ref="B557" r:id="rId1048" display="https://www.binance.com/en/trade/LOOM_BTC"/>
+    <hyperlink ref="A558" r:id="rId1049" display="https://www.coingecko.com/en/coins/siacoin"/>
+    <hyperlink ref="B558" r:id="rId1050" display="https://www.binance.com/en/trade/SC_BTC"/>
+    <hyperlink ref="A559" r:id="rId1051" display="https://www.coingecko.com/en/coins/ravencoin"/>
+    <hyperlink ref="B559" r:id="rId1052" display="https://www.binance.com/en/trade/RVN_BNB"/>
+    <hyperlink ref="A560" r:id="rId1053" display="https://www.coingecko.com/en/coins/numeraire"/>
+    <hyperlink ref="B560" r:id="rId1054" display="https://www.binance.com/en/trade/NMR_USDT"/>
+    <hyperlink ref="A561" r:id="rId1055" display="https://www.coingecko.com/en/coins/the-graph"/>
+    <hyperlink ref="B561" r:id="rId1056" display="https://www.binance.com/en/trade/GRT_BUSD"/>
+    <hyperlink ref="A562" r:id="rId1057" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B562" r:id="rId1058" display="https://www.binance.com/en/trade/DOGE_GBP"/>
+    <hyperlink ref="A563" r:id="rId1059" display="https://www.coingecko.com/en/coins/akropolis"/>
+    <hyperlink ref="B563" r:id="rId1060" display="https://www.binance.com/en/trade/AKRO_BTC"/>
+    <hyperlink ref="A564" r:id="rId1061" display="https://www.coingecko.com/en/coins/vechain"/>
+    <hyperlink ref="B564" r:id="rId1062" display="https://www.binance.com/en/trade/VET_BNB"/>
+    <hyperlink ref="A565" r:id="rId1063" display="https://www.coingecko.com/en/coins/ardor"/>
+    <hyperlink ref="B565" r:id="rId1064" display="https://www.binance.com/en/trade/ARDR_USDT"/>
+    <hyperlink ref="A566" r:id="rId1065" display="https://www.coingecko.com/en/coins/cover-protocol"/>
+    <hyperlink ref="B566" r:id="rId1066" display="https://www.binance.com/en/trade/COVER_BUSD"/>
+    <hyperlink ref="A567" r:id="rId1067" display="https://www.coingecko.com/en/coins/basic-attention-token"/>
+    <hyperlink ref="B567" r:id="rId1068" display="https://www.binance.com/en/trade/BAT_BUSD"/>
+    <hyperlink ref="A568" r:id="rId1069" display="https://www.coingecko.com/en/coins/harmony"/>
+    <hyperlink ref="B568" r:id="rId1070" display="https://www.binance.com/en/trade/ONE_BUSD"/>
+    <hyperlink ref="A569" r:id="rId1071" display="https://www.coingecko.com/en/coins/yearn-finance"/>
+    <hyperlink ref="B569" r:id="rId1072" display="https://www.binance.com/en/trade/YFI_BUSD"/>
+    <hyperlink ref="A570" r:id="rId1073" display="https://www.coingecko.com/en/coins/zilliqa"/>
+    <hyperlink ref="B570" r:id="rId1074" display="https://www.binance.com/en/trade/ZIL_ETH"/>
+    <hyperlink ref="A571" r:id="rId1075" display="https://www.coingecko.com/en/coins/vidt-datalink"/>
+    <hyperlink ref="B571" r:id="rId1076" display="https://www.binance.com/en/trade/VIDT_BTC"/>
+    <hyperlink ref="A572" r:id="rId1077" display="https://www.coingecko.com/en/coins/prosper"/>
+    <hyperlink ref="B572" r:id="rId1078" display="https://www.binance.com/en/trade/PROS_ETH"/>
+    <hyperlink ref="A573" r:id="rId1079" display="https://www.coingecko.com/en/coins/aragon"/>
+    <hyperlink ref="B573" r:id="rId1080" display="https://www.binance.com/en/trade/ANT_BNB"/>
+    <hyperlink ref="A574" r:id="rId1081" display="https://www.coingecko.com/en/coins/wanchain"/>
+    <hyperlink ref="B574" r:id="rId1082" display="https://www.binance.com/en/trade/WAN_BTC"/>
+    <hyperlink ref="A575" r:id="rId1083" display="https://www.coingecko.com/en/coins/status"/>
+    <hyperlink ref="B575" r:id="rId1084" display="https://www.binance.com/en/trade/SNT_BTC"/>
+    <hyperlink ref="A576" r:id="rId1085" display="https://www.coingecko.com/en/coins/dexe"/>
+    <hyperlink ref="B576" r:id="rId1086" display="https://www.binance.com/en/trade/DEXE_BUSD"/>
+    <hyperlink ref="A577" r:id="rId1087" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B577" r:id="rId1088" display="https://www.binance.com/en/trade/BCH_EUR"/>
+    <hyperlink ref="A578" r:id="rId1089" display="https://www.coingecko.com/en/coins/bitshares"/>
+    <hyperlink ref="B578" r:id="rId1090" display="https://www.binance.com/en/trade/BTS_BTC"/>
+    <hyperlink ref="A579" r:id="rId1091" display="https://www.coingecko.com/en/coins/frontier"/>
+    <hyperlink ref="B579" r:id="rId1092" display="https://www.binance.com/en/trade/FRONT_BTC"/>
+    <hyperlink ref="A580" r:id="rId1093" display="https://www.coingecko.com/en/coins/waltonchain"/>
+    <hyperlink ref="B580" r:id="rId1094" display="https://www.binance.com/en/trade/WTC_BTC"/>
+    <hyperlink ref="A581" r:id="rId1095" display="https://www.coingecko.com/en/coins/skale"/>
+    <hyperlink ref="B581" r:id="rId1096" display="https://www.binance.com/en/trade/SKL_BTC"/>
+    <hyperlink ref="A582" r:id="rId1097" display="https://www.coingecko.com/en/coins/nuls"/>
+    <hyperlink ref="B582" r:id="rId1098" display="https://www.binance.com/en/trade/NULS_USDT"/>
+    <hyperlink ref="A583" r:id="rId1099" display="https://www.coingecko.com/en/coins/uma"/>
+    <hyperlink ref="B583" r:id="rId1100" display="https://www.binance.com/en/trade/UMA_BTC"/>
+    <hyperlink ref="A584" r:id="rId1101" display="https://www.coingecko.com/en/coins/nem"/>
+    <hyperlink ref="B584" r:id="rId1102" display="https://www.binance.com/en/trade/XEM_ETH"/>
+    <hyperlink ref="A585" r:id="rId1103" display="https://www.coingecko.com/en/coins/firo"/>
+    <hyperlink ref="B585" r:id="rId1104" display="https://www.binance.com/en/trade/FIRO_USDT"/>
+    <hyperlink ref="A586" r:id="rId1105" display="https://www.coingecko.com/en/coins/ardor"/>
+    <hyperlink ref="B586" r:id="rId1106" display="https://www.binance.com/en/trade/ARDR_BTC"/>
+    <hyperlink ref="A587" r:id="rId1107" display="https://www.coingecko.com/en/coins/the-graph"/>
+    <hyperlink ref="B587" r:id="rId1108" display="https://www.binance.com/en/trade/GRT_ETH"/>
+    <hyperlink ref="A588" r:id="rId1109" display="https://www.coingecko.com/en/coins/wazirx"/>
+    <hyperlink ref="B588" r:id="rId1110" display="https://www.binance.com/en/trade/WRX_BTC"/>
+    <hyperlink ref="A589" r:id="rId1111" display="https://www.coingecko.com/en/coins/nkn"/>
+    <hyperlink ref="B589" r:id="rId1112" display="https://www.binance.com/en/trade/NKN_USDT"/>
+    <hyperlink ref="A590" r:id="rId1113" display="https://www.coingecko.com/en/coins/cartesi"/>
+    <hyperlink ref="B590" r:id="rId1114" display="https://www.binance.com/en/trade/CTSI_BUSD"/>
+    <hyperlink ref="A591" r:id="rId1115" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B591" r:id="rId1116" display="https://www.binance.com/en/trade/BCH_USDC"/>
+    <hyperlink ref="A593" r:id="rId1117" display="https://www.coingecko.com/en/coins/curve-dao-token"/>
+    <hyperlink ref="B593" r:id="rId1118" display="https://www.binance.com/en/trade/CRV_BUSD"/>
+    <hyperlink ref="A594" r:id="rId1119" display="https://www.coingecko.com/en/coins/verge"/>
+    <hyperlink ref="B594" r:id="rId1120" display="https://www.binance.com/en/trade/XVG_ETH"/>
+    <hyperlink ref="A595" r:id="rId1121" display="https://www.coingecko.com/en/coins/paxos-standard"/>
+    <hyperlink ref="B595" r:id="rId1122" display="https://www.binance.com/en/trade/PAX_BUSD"/>
+    <hyperlink ref="A596" r:id="rId1123" display="https://www.coingecko.com/en/coins/secret"/>
+    <hyperlink ref="B596" r:id="rId1124" display="https://www.binance.com/en/trade/SCRT_ETH"/>
+    <hyperlink ref="A597" r:id="rId1125" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B597" r:id="rId1126" display="https://www.binance.com/en/trade/TRX_USDC"/>
+    <hyperlink ref="A598" r:id="rId1127" display="https://www.coingecko.com/en/coins/wrapped-nxm"/>
+    <hyperlink ref="B598" r:id="rId1128" display="https://www.binance.com/en/trade/WNXM_USDT"/>
+    <hyperlink ref="A599" r:id="rId1129" display="https://www.coingecko.com/en/coins/neo"/>
+    <hyperlink ref="B599" r:id="rId1130" display="https://www.binance.com/en/trade/NEO_ETH"/>
+    <hyperlink ref="A600" r:id="rId1131" display="https://www.coingecko.com/en/coins/aave"/>
+    <hyperlink ref="B600" r:id="rId1132" display="https://www.binance.com/en/trade/AAVE_ETH"/>
+    <hyperlink ref="A601" r:id="rId1133" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B601" r:id="rId1134" display="https://www.binance.com/en/trade/XLM_ETH"/>
+    <hyperlink ref="A602" r:id="rId1135" display="https://www.coingecko.com/en/coins/moeda-loyalty-points"/>
+    <hyperlink ref="B602" r:id="rId1136" display="https://www.binance.com/en/trade/MDA_BTC"/>
+    <hyperlink ref="A603" r:id="rId1137" display="https://www.coingecko.com/en/coins/rsk-infrastructure-framework"/>
+    <hyperlink ref="B603" r:id="rId1138" display="https://www.binance.com/en/trade/RIF_USDT"/>
+    <hyperlink ref="A604" r:id="rId1139" display="https://www.coingecko.com/en/coins/chromia"/>
+    <hyperlink ref="B604" r:id="rId1140" display="https://www.binance.com/en/trade/CHR_BTC"/>
+    <hyperlink ref="A605" r:id="rId1141" display="https://www.coingecko.com/en/coins/zcash"/>
+    <hyperlink ref="B605" r:id="rId1142" display="https://www.binance.com/en/trade/ZEC_BUSD"/>
+    <hyperlink ref="A606" r:id="rId1143" display="https://www.coingecko.com/en/coins/stratis"/>
+    <hyperlink ref="B606" r:id="rId1144" display="https://www.binance.com/en/trade/STRAX_BTC"/>
+    <hyperlink ref="A607" r:id="rId1145" display="https://www.coingecko.com/en/coins/contentos"/>
+    <hyperlink ref="B607" r:id="rId1146" display="https://www.binance.com/en/trade/COS_USDT"/>
+    <hyperlink ref="A608" r:id="rId1147" display="https://www.coingecko.com/en/coins/bitcoin-diamond"/>
+    <hyperlink ref="B608" r:id="rId1148" display="https://www.binance.com/en/trade/BCD_BTC"/>
+    <hyperlink ref="A609" r:id="rId1149" display="https://www.coingecko.com/en/coins/utrust"/>
+    <hyperlink ref="B609" r:id="rId1150" display="https://www.binance.com/en/trade/UTK_BTC"/>
+    <hyperlink ref="A610" r:id="rId1151" display="https://www.coingecko.com/en/coins/nexus"/>
+    <hyperlink ref="B610" r:id="rId1152" display="https://www.binance.com/en/trade/NXS_BTC"/>
+    <hyperlink ref="A611" r:id="rId1153" display="https://www.coingecko.com/en/coins/vite"/>
+    <hyperlink ref="B611" r:id="rId1154" display="https://www.binance.com/en/trade/VITE_USDT"/>
+    <hyperlink ref="A612" r:id="rId1155" display="https://www.coingecko.com/en/coins/injective-protocol"/>
+    <hyperlink ref="B612" r:id="rId1156" display="https://www.binance.com/en/trade/INJ_BUSD"/>
+    <hyperlink ref="A613" r:id="rId1157" display="https://www.coingecko.com/en/coins/dexe"/>
+    <hyperlink ref="B613" r:id="rId1158" display="https://www.binance.com/en/trade/DEXE_ETH"/>
+    <hyperlink ref="A614" r:id="rId1159" display="https://www.coingecko.com/en/coins/reserve-rights-token"/>
+    <hyperlink ref="B614" r:id="rId1160" display="https://www.binance.com/en/trade/RSR_BUSD"/>
+    <hyperlink ref="A615" r:id="rId1161" display="https://www.coingecko.com/en/coins/sand"/>
+    <hyperlink ref="B615" r:id="rId1162" display="https://www.binance.com/en/trade/SAND_BUSD"/>
+    <hyperlink ref="A617" r:id="rId1163" display="https://www.coingecko.com/en/coins/streamr-datacoin"/>
+    <hyperlink ref="B617" r:id="rId1164" display="https://www.binance.com/en/trade/DATA_USDT"/>
+    <hyperlink ref="A618" r:id="rId1165" display="https://www.coingecko.com/en/coins/idex"/>
+    <hyperlink ref="B618" r:id="rId1166" display="https://www.binance.com/en/trade/IDEX_BTC"/>
+    <hyperlink ref="A619" r:id="rId1167" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B619" r:id="rId1168" display="https://www.binance.com/en/trade/USDT_NGN"/>
+    <hyperlink ref="A620" r:id="rId1169" display="https://www.coingecko.com/en/coins/vidt-datalink"/>
+    <hyperlink ref="B620" r:id="rId1170" display="https://www.binance.com/en/trade/VIDT_BUSD"/>
+    <hyperlink ref="A621" r:id="rId1171" display="https://www.coingecko.com/en/coins/aion"/>
+    <hyperlink ref="B621" r:id="rId1172" display="https://www.binance.com/en/trade/AION_ETH"/>
+    <hyperlink ref="A622" r:id="rId1173" display="https://www.coingecko.com/en/coins/new-bitshares"/>
+    <hyperlink ref="B622" r:id="rId1174" display="https://www.binance.com/en/trade/NBS_USDT"/>
+    <hyperlink ref="A623" r:id="rId1175" display="https://www.coingecko.com/en/coins/stormx"/>
+    <hyperlink ref="B623" r:id="rId1176" display="https://www.binance.com/en/trade/STMX_ETH"/>
+    <hyperlink ref="A624" r:id="rId1177" display="https://www.coingecko.com/en/coins/perlin"/>
+    <hyperlink ref="B624" r:id="rId1178" display="https://www.binance.com/en/trade/PERL_BTC"/>
+    <hyperlink ref="A625" r:id="rId1179" display="https://www.coingecko.com/en/coins/cartesi"/>
+    <hyperlink ref="B625" r:id="rId1180" display="https://www.binance.com/en/trade/CTSI_BNB"/>
+    <hyperlink ref="A626" r:id="rId1181" display="https://www.coingecko.com/en/coins/waves"/>
+    <hyperlink ref="B626" r:id="rId1182" display="https://www.binance.com/en/trade/WAVES_BUSD"/>
+    <hyperlink ref="A627" r:id="rId1183" display="https://www.coingecko.com/en/coins/ocean-protocol"/>
+    <hyperlink ref="B627" r:id="rId1184" display="https://www.binance.com/en/trade/OCEAN_BUSD"/>
+    <hyperlink ref="A628" r:id="rId1185" display="https://www.coingecko.com/en/coins/og-fan-token"/>
+    <hyperlink ref="B628" r:id="rId1186" display="https://www.binance.com/en/trade/OG_USDT"/>
+    <hyperlink ref="A629" r:id="rId1187" display="https://www.coingecko.com/en/coins/axie-infinity"/>
+    <hyperlink ref="B629" r:id="rId1188" display="https://www.binance.com/en/trade/AXS_BTC"/>
+    <hyperlink ref="A630" r:id="rId1189" display="https://www.coingecko.com/en/coins/monero"/>
+    <hyperlink ref="B630" r:id="rId1190" display="https://www.binance.com/en/trade/XMR_BUSD"/>
+    <hyperlink ref="A631" r:id="rId1191" display="https://www.coingecko.com/en/coins/wabi"/>
+    <hyperlink ref="B631" r:id="rId1192" display="https://www.binance.com/en/trade/WABI_BTC"/>
+    <hyperlink ref="A632" r:id="rId1193" display="https://www.coingecko.com/en/coins/trust-wallet-token"/>
+    <hyperlink ref="B632" r:id="rId1194" display="https://www.binance.com/en/trade/TWT_BTC"/>
+    <hyperlink ref="A633" r:id="rId1195" display="https://www.coingecko.com/en/coins/waves"/>
+    <hyperlink ref="B633" r:id="rId1196" display="https://www.binance.com/en/trade/WAVES_BNB"/>
+    <hyperlink ref="A634" r:id="rId1197" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B634" r:id="rId1198" display="https://www.binance.com/en/trade/XLM_BNB"/>
+    <hyperlink ref="A635" r:id="rId1199" display="https://www.coingecko.com/en/coins/zcash"/>
+    <hyperlink ref="B635" r:id="rId1200" display="https://www.binance.com/en/trade/ZEC_USDC"/>
+    <hyperlink ref="A636" r:id="rId1201" display="https://www.coingecko.com/en/coins/agrello"/>
+    <hyperlink ref="B636" r:id="rId1202" display="https://www.binance.com/en/trade/DLT_BTC"/>
+    <hyperlink ref="A637" r:id="rId1203" display="https://www.coingecko.com/en/coins/trust-wallet-token"/>
+    <hyperlink ref="B637" r:id="rId1204" display="https://www.binance.com/en/trade/TWT_BUSD"/>
+    <hyperlink ref="A638" r:id="rId1205" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B638" r:id="rId1206" display="https://www.binance.com/en/trade/BCH_BNB"/>
+    <hyperlink ref="A639" r:id="rId1207" display="https://www.coingecko.com/en/coins/gifto"/>
+    <hyperlink ref="B639" r:id="rId1208" display="https://www.binance.com/en/trade/GTO_USDT"/>
+    <hyperlink ref="A640" r:id="rId1209" display="https://www.coingecko.com/en/coins/icon"/>
+    <hyperlink ref="B640" r:id="rId1210" display="https://www.binance.com/en/trade/ICX_ETH"/>
+    <hyperlink ref="A641" r:id="rId1211" display="https://www.coingecko.com/en/coins/aave"/>
+    <hyperlink ref="B641" r:id="rId1212" display="https://www.binance.com/en/trade/AAVE_BNB"/>
+    <hyperlink ref="A642" r:id="rId1213" display="https://www.coingecko.com/en/coins/bittorrent"/>
+    <hyperlink ref="B642" r:id="rId1214" display="https://www.binance.com/en/trade/BTT_BUSD"/>
+    <hyperlink ref="A643" r:id="rId1215" display="https://www.coingecko.com/en/coins/maker"/>
+    <hyperlink ref="B643" r:id="rId1216" display="https://www.binance.com/en/trade/MKR_BUSD"/>
+    <hyperlink ref="A644" r:id="rId1217" display="https://www.coingecko.com/en/coins/nkn"/>
+    <hyperlink ref="B644" r:id="rId1218" display="https://www.binance.com/en/trade/NKN_BTC"/>
+    <hyperlink ref="A645" r:id="rId1219" display="https://www.coingecko.com/en/coins/dia"/>
+    <hyperlink ref="B645" r:id="rId1220" display="https://www.binance.com/en/trade/DIA_BUSD"/>
+    <hyperlink ref="A646" r:id="rId1221" display="https://www.coingecko.com/en/coins/ontology"/>
+    <hyperlink ref="B646" r:id="rId1222" display="https://www.binance.com/en/trade/ONT_ETH"/>
+    <hyperlink ref="A647" r:id="rId1223" display="https://www.coingecko.com/en/coins/monero"/>
+    <hyperlink ref="B647" r:id="rId1224" display="https://www.binance.com/en/trade/XMR_BNB"/>
+    <hyperlink ref="A648" r:id="rId1225" display="https://www.coingecko.com/en/coins/monero"/>
+    <hyperlink ref="B648" r:id="rId1226" display="https://www.binance.com/en/trade/XMR_ETH"/>
+    <hyperlink ref="A649" r:id="rId1227" display="https://www.coingecko.com/en/coins/fio-protocol"/>
+    <hyperlink ref="B649" r:id="rId1228" display="https://www.binance.com/en/trade/FIO_USDT"/>
+    <hyperlink ref="A650" r:id="rId1229" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B650" r:id="rId1230" display="https://www.binance.com/en/trade/BTC_UAH"/>
+    <hyperlink ref="A651" r:id="rId1231" display="https://www.coingecko.com/en/coins/frax-share"/>
+    <hyperlink ref="B651" r:id="rId1232" display="https://www.binance.com/en/trade/FXS_BTC"/>
+    <hyperlink ref="A652" r:id="rId1233" display="https://www.coingecko.com/en/coins/oasis-network"/>
+    <hyperlink ref="B652" r:id="rId1234" display="https://www.binance.com/en/trade/ROSE_BUSD"/>
+    <hyperlink ref="A653" r:id="rId1235" display="https://www.coingecko.com/en/coins/iotex"/>
+    <hyperlink ref="B653" r:id="rId1236" display="https://www.binance.com/en/trade/IOTX_ETH"/>
+    <hyperlink ref="A654" r:id="rId1237" display="https://www.coingecko.com/en/coins/stp-network"/>
+    <hyperlink ref="B654" r:id="rId1238" display="https://www.binance.com/en/trade/STPT_BTC"/>
+    <hyperlink ref="A655" r:id="rId1239" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B655" r:id="rId1240" display="https://www.binance.com/en/trade/ETH_RUB"/>
+    <hyperlink ref="A656" r:id="rId1241" display="https://www.coingecko.com/en/coins/viberate"/>
+    <hyperlink ref="B656" r:id="rId1242" display="https://www.binance.com/en/trade/VIB_BTC"/>
+    <hyperlink ref="A657" r:id="rId1243" display="https://www.coingecko.com/en/coins/drep"/>
+    <hyperlink ref="B657" r:id="rId1244" display="https://www.binance.com/en/trade/DREP_BTC"/>
+    <hyperlink ref="A658" r:id="rId1245" display="https://www.coingecko.com/en/coins/celer-network"/>
+    <hyperlink ref="B658" r:id="rId1246" display="https://www.binance.com/en/trade/CELR_BNB"/>
+    <hyperlink ref="A659" r:id="rId1247" display="https://www.coingecko.com/en/coins/0x"/>
+    <hyperlink ref="B659" r:id="rId1248" display="https://www.binance.com/en/trade/ZRX_BUSD"/>
+    <hyperlink ref="A660" r:id="rId1249" display="https://www.coingecko.com/en/coins/streamr-datacoin"/>
+    <hyperlink ref="B660" r:id="rId1250" display="https://www.binance.com/en/trade/DATA_BTC"/>
+    <hyperlink ref="A661" r:id="rId1251" display="https://www.coingecko.com/en/coins/aragon"/>
+    <hyperlink ref="B661" r:id="rId1252" display="https://www.binance.com/en/trade/ANT_BTC"/>
+    <hyperlink ref="A662" r:id="rId1253" display="https://www.coingecko.com/en/coins/golem"/>
+    <hyperlink ref="B662" r:id="rId1254" display="https://www.binance.com/en/trade/GLM_ETH"/>
+    <hyperlink ref="A663" r:id="rId1255" display="https://www.coingecko.com/en/coins/just"/>
+    <hyperlink ref="B663" r:id="rId1256" display="https://www.binance.com/en/trade/JST_BTC"/>
+    <hyperlink ref="A664" r:id="rId1257" display="https://www.coingecko.com/en/coins/numeraire"/>
+    <hyperlink ref="B664" r:id="rId1258" display="https://www.binance.com/en/trade/NMR_BTC"/>
+    <hyperlink ref="A665" r:id="rId1259" display="https://www.coingecko.com/en/coins/balancer"/>
+    <hyperlink ref="B665" r:id="rId1260" display="https://www.binance.com/en/trade/BAL_BTC"/>
+    <hyperlink ref="A666" r:id="rId1261" display="https://www.coingecko.com/en/coins/komodo"/>
+    <hyperlink ref="B666" r:id="rId1262" display="https://www.binance.com/en/trade/KMD_ETH"/>
+    <hyperlink ref="A667" r:id="rId1263" display="https://www.coingecko.com/en/coins/beam"/>
+    <hyperlink ref="B667" r:id="rId1264" display="https://www.binance.com/en/trade/BEAM_BTC"/>
+    <hyperlink ref="A668" r:id="rId1265" display="https://www.coingecko.com/en/coins/qtum"/>
+    <hyperlink ref="B668" r:id="rId1266" display="https://www.binance.com/en/trade/QTUM_BUSD"/>
+    <hyperlink ref="A669" r:id="rId1267" display="https://www.coingecko.com/en/coins/unilend-finance"/>
+    <hyperlink ref="B669" r:id="rId1268" display="https://www.binance.com/en/trade/UFT_ETH"/>
+    <hyperlink ref="A670" r:id="rId1269" display="https://www.coingecko.com/en/coins/icon"/>
+    <hyperlink ref="B670" r:id="rId1270" display="https://www.binance.com/en/trade/ICX_BNB"/>
+    <hyperlink ref="A671" r:id="rId1271" display="https://www.coingecko.com/en/coins/wing-finance"/>
+    <hyperlink ref="B671" r:id="rId1272" display="https://www.binance.com/en/trade/WING_BTC"/>
+    <hyperlink ref="A672" r:id="rId1273" display="https://www.coingecko.com/en/coins/dock"/>
+    <hyperlink ref="B672" r:id="rId1274" display="https://www.binance.com/en/trade/DOCK_USDT"/>
+    <hyperlink ref="A673" r:id="rId1275" display="https://www.coingecko.com/en/coins/firo"/>
+    <hyperlink ref="B673" r:id="rId1276" display="https://www.binance.com/en/trade/FIRO_BTC"/>
+    <hyperlink ref="A674" r:id="rId1277" display="https://www.coingecko.com/en/coins/ambrosus"/>
+    <hyperlink ref="B674" r:id="rId1278" display="https://www.binance.com/en/trade/AMB_BTC"/>
+    <hyperlink ref="A675" r:id="rId1279" display="https://www.coingecko.com/en/coins/as-roma-fan-token"/>
+    <hyperlink ref="B675" r:id="rId1280" display="https://www.binance.com/en/trade/ASR_USDT"/>
+    <hyperlink ref="A676" r:id="rId1281" display="https://www.coingecko.com/en/coins/hedera-hashgraph"/>
+    <hyperlink ref="B676" r:id="rId1282" display="https://www.binance.com/en/trade/HBAR_BNB"/>
+    <hyperlink ref="A677" r:id="rId1283" display="https://www.coingecko.com/en/coins/pax-gold"/>
+    <hyperlink ref="B677" r:id="rId1284" display="https://www.binance.com/en/trade/PAXG_BNB"/>
+    <hyperlink ref="A678" r:id="rId1285" display="https://www.coingecko.com/en/coins/everipedia"/>
+    <hyperlink ref="B678" r:id="rId1286" display="https://www.binance.com/en/trade/IQ_BUSD"/>
+    <hyperlink ref="A679" r:id="rId1287" display="https://www.coingecko.com/en/coins/near"/>
+    <hyperlink ref="B679" r:id="rId1288" display="https://www.binance.com/en/trade/NEAR_BNB"/>
+    <hyperlink ref="A680" r:id="rId1289" display="https://www.coingecko.com/en/coins/funfair"/>
+    <hyperlink ref="B680" r:id="rId1290" display="https://www.binance.com/en/trade/FUN_ETH"/>
+    <hyperlink ref="A681" r:id="rId1291" display="https://www.coingecko.com/en/coins/keep3rv1"/>
+    <hyperlink ref="B681" r:id="rId1292" display="https://www.binance.com/en/trade/KP3R_BNB"/>
+    <hyperlink ref="A682" r:id="rId1293" display="https://www.coingecko.com/en/coins/iota"/>
+    <hyperlink ref="B682" r:id="rId1294" display="https://www.binance.com/en/trade/IOTA_BNB"/>
+    <hyperlink ref="A683" r:id="rId1295" display="https://www.coingecko.com/en/coins/just"/>
+    <hyperlink ref="B683" r:id="rId1296" display="https://www.binance.com/en/trade/JST_BUSD"/>
+    <hyperlink ref="A684" r:id="rId1297" display="https://www.coingecko.com/en/coins/dock"/>
+    <hyperlink ref="B684" r:id="rId1298" display="https://www.binance.com/en/trade/DOCK_BTC"/>
+    <hyperlink ref="A685" r:id="rId1299" display="https://www.coingecko.com/en/coins/mithril"/>
+    <hyperlink ref="B685" r:id="rId1300" display="https://www.binance.com/en/trade/MITH_USDT"/>
+    <hyperlink ref="A686" r:id="rId1301" display="https://www.coingecko.com/en/coins/bittorrent"/>
+    <hyperlink ref="B686" r:id="rId1302" display="https://www.binance.com/en/trade/BTT_BNB"/>
+    <hyperlink ref="A687" r:id="rId1303" display="https://www.coingecko.com/en/coins/truefi"/>
+    <hyperlink ref="B687" r:id="rId1304" display="https://www.binance.com/en/trade/TRU_BTC"/>
+    <hyperlink ref="A688" r:id="rId1305" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B688" r:id="rId1306" display="https://www.binance.com/en/trade/LINK_GBP"/>
+    <hyperlink ref="A689" r:id="rId1307" display="https://www.coingecko.com/en/coins/iota"/>
+    <hyperlink ref="B689" r:id="rId1308" display="https://www.binance.com/en/trade/IOTA_ETH"/>
+    <hyperlink ref="A690" r:id="rId1309" display="https://www.coingecko.com/en/coins/airswap"/>
+    <hyperlink ref="B690" r:id="rId1310" display="https://www.binance.com/en/trade/AST_BTC"/>
+    <hyperlink ref="A691" r:id="rId1311" display="https://www.coingecko.com/en/coins/orchid-protocol"/>
+    <hyperlink ref="B691" r:id="rId1312" display="https://www.binance.com/en/trade/OXT_BTC"/>
+    <hyperlink ref="A692" r:id="rId1313" display="https://www.coingecko.com/en/coins/cardano"/>
+    <hyperlink ref="B692" r:id="rId1314" display="https://www.binance.com/en/trade/ADA_TUSD"/>
+    <hyperlink ref="A693" r:id="rId1315" display="https://www.coingecko.com/en/coins/celo"/>
+    <hyperlink ref="B693" r:id="rId1316" display="https://www.binance.com/en/trade/CELO_BTC"/>
+    <hyperlink ref="A694" r:id="rId1317" display="https://www.coingecko.com/en/coins/nebulas"/>
+    <hyperlink ref="B694" r:id="rId1318" display="https://www.binance.com/en/trade/NAS_BTC"/>
+    <hyperlink ref="A695" r:id="rId1319" display="https://www.coingecko.com/en/coins/gxchain"/>
+    <hyperlink ref="B695" r:id="rId1320" display="https://www.binance.com/en/trade/GXS_USDT"/>
+    <hyperlink ref="A696" r:id="rId1321" display="https://www.coingecko.com/en/coins/harmony"/>
+    <hyperlink ref="B696" r:id="rId1322" display="https://www.binance.com/en/trade/ONE_BNB"/>
+    <hyperlink ref="A697" r:id="rId1323" display="https://www.coingecko.com/en/coins/fio-protocol"/>
+    <hyperlink ref="B697" r:id="rId1324" display="https://www.binance.com/en/trade/FIO_BTC"/>
+    <hyperlink ref="A698" r:id="rId1325" display="https://www.coingecko.com/en/coins/tellor"/>
+    <hyperlink ref="B698" r:id="rId1326" display="https://www.binance.com/en/trade/TRB_BUSD"/>
+    <hyperlink ref="A699" r:id="rId1327" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B699" r:id="rId1328" display="https://www.binance.com/en/trade/EOS_USDC"/>
+    <hyperlink ref="A700" r:id="rId1329" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B700" r:id="rId1330" display="https://www.binance.com/en/trade/LINK_TRY"/>
+    <hyperlink ref="A701" r:id="rId1331" display="https://www.coingecko.com/en/coins/measurable-data-token"/>
+    <hyperlink ref="B701" r:id="rId1332" display="https://www.binance.com/en/trade/MDT_BTC"/>
+    <hyperlink ref="A702" r:id="rId1333" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B702" r:id="rId1334" display="https://www.binance.com/en/trade/BNB_TUSD"/>
+    <hyperlink ref="A703" r:id="rId1335" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B703" r:id="rId1336" display="https://www.binance.com/en/trade/SXP_GBP"/>
+    <hyperlink ref="A704" r:id="rId1337" display="https://www.coingecko.com/en/coins/oax"/>
+    <hyperlink ref="B704" r:id="rId1338" display="https://www.binance.com/en/trade/OAX_BTC"/>
+    <hyperlink ref="A705" r:id="rId1339" display="https://www.coingecko.com/en/coins/qlc-chain"/>
+    <hyperlink ref="B705" r:id="rId1340" display="https://www.binance.com/en/trade/QLC_BTC"/>
+    <hyperlink ref="A706" r:id="rId1341" display="https://www.coingecko.com/en/coins/selfkey"/>
+    <hyperlink ref="B706" r:id="rId1342" display="https://www.binance.com/en/trade/KEY_ETH"/>
+    <hyperlink ref="A707" r:id="rId1343" display="https://www.coingecko.com/en/coins/bzx-protocol"/>
+    <hyperlink ref="B707" r:id="rId1344" display="https://www.binance.com/en/trade/BZRX_BUSD"/>
+    <hyperlink ref="A708" r:id="rId1345" display="https://www.coingecko.com/en/coins/contentos"/>
+    <hyperlink ref="B708" r:id="rId1346" display="https://www.binance.com/en/trade/COS_BTC"/>
+    <hyperlink ref="A709" r:id="rId1347" display="https://www.coingecko.com/en/coins/filecoin"/>
+    <hyperlink ref="B709" r:id="rId1348" display="https://www.binance.com/en/trade/FIL_BNB"/>
+    <hyperlink ref="A710" r:id="rId1349" display="https://www.coingecko.com/en/coins/certik"/>
+    <hyperlink ref="B710" r:id="rId1350" display="https://www.binance.com/en/trade/CTK_BUSD"/>
+    <hyperlink ref="A711" r:id="rId1351" display="https://www.coingecko.com/en/coins/vite"/>
+    <hyperlink ref="B711" r:id="rId1352" display="https://www.binance.com/en/trade/VITE_BTC"/>
+    <hyperlink ref="A712" r:id="rId1353" display="https://www.coingecko.com/en/coins/cream"/>
+    <hyperlink ref="B712" r:id="rId1354" display="https://www.binance.com/en/trade/CREAM_BNB"/>
+    <hyperlink ref="A713" r:id="rId1355" display="https://www.coingecko.com/en/coins/kusama"/>
+    <hyperlink ref="B713" r:id="rId1356" display="https://www.binance.com/en/trade/KSM_BNB"/>
+    <hyperlink ref="A714" r:id="rId1357" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B714" r:id="rId1358" display="https://www.binance.com/en/trade/EOS_EUR"/>
+    <hyperlink ref="A715" r:id="rId1359" display="https://www.coingecko.com/en/coins/quantstamp"/>
+    <hyperlink ref="B715" r:id="rId1360" display="https://www.binance.com/en/trade/QSP_BTC"/>
+    <hyperlink ref="A716" r:id="rId1361" display="https://www.coingecko.com/en/coins/ripio-credit-network"/>
+    <hyperlink ref="B716" r:id="rId1362" display="https://www.binance.com/en/trade/RCN_BTC"/>
+    <hyperlink ref="A717" r:id="rId1363" display="https://www.coingecko.com/en/coins/everipedia"/>
+    <hyperlink ref="B717" r:id="rId1364" display="https://www.binance.com/en/trade/IQ_BNB"/>
+    <hyperlink ref="A718" r:id="rId1365" display="https://www.coingecko.com/en/coins/cortex"/>
+    <hyperlink ref="B718" r:id="rId1366" display="https://www.binance.com/en/trade/CTXC_USDT"/>
+    <hyperlink ref="A719" r:id="rId1367" display="https://www.coingecko.com/en/coins/dash"/>
+    <hyperlink ref="B719" r:id="rId1368" display="https://www.binance.com/en/trade/DASH_ETH"/>
+    <hyperlink ref="A720" r:id="rId1369" display="https://www.coingecko.com/en/coins/drep"/>
+    <hyperlink ref="B720" r:id="rId1370" display="https://www.binance.com/en/trade/DREP_USDT"/>
+    <hyperlink ref="A721" r:id="rId1371" display="https://www.coingecko.com/en/coins/nebulas"/>
+    <hyperlink ref="B721" r:id="rId1372" display="https://www.binance.com/en/trade/NAS_ETH"/>
+    <hyperlink ref="A722" r:id="rId1373" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B722" r:id="rId1374" display="https://www.binance.com/en/trade/EOS_BNB"/>
+    <hyperlink ref="A723" r:id="rId1375" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B723" r:id="rId1376" display="https://www.binance.com/en/trade/USDT_IDRT"/>
+    <hyperlink ref="A724" r:id="rId1377" display="https://www.coingecko.com/en/coins/phoenix-global"/>
+    <hyperlink ref="B724" r:id="rId1378" display="https://www.binance.com/en/trade/PHB_BTC"/>
+    <hyperlink ref="A725" r:id="rId1379" display="https://www.coingecko.com/en/coins/stellar"/>
+    <hyperlink ref="B725" r:id="rId1380" display="https://www.binance.com/en/trade/XLM_TRY"/>
+    <hyperlink ref="A726" r:id="rId1381" display="https://www.coingecko.com/en/coins/as-roma-fan-token"/>
+    <hyperlink ref="B726" r:id="rId1382" display="https://www.binance.com/en/trade/ASR_BTC"/>
+    <hyperlink ref="A727" r:id="rId1383" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B727" r:id="rId1384" display="https://www.binance.com/en/trade/TRX_TRY"/>
+    <hyperlink ref="A728" r:id="rId1385" display="https://www.coingecko.com/en/coins/swerve"/>
+    <hyperlink ref="B728" r:id="rId1386" display="https://www.binance.com/en/trade/SWRV_BUSD"/>
+    <hyperlink ref="A729" r:id="rId1387" display="https://www.coingecko.com/en/coins/paris-saint-germain-fan-token"/>
+    <hyperlink ref="B729" r:id="rId1388" display="https://www.binance.com/en/trade/PSG_USDT"/>
+    <hyperlink ref="A730" r:id="rId1389" display="https://www.coingecko.com/en/coins/ost"/>
+    <hyperlink ref="B730" r:id="rId1390" display="https://www.binance.com/en/trade/OST_BTC"/>
+    <hyperlink ref="A731" r:id="rId1391" display="https://www.coingecko.com/en/coins/loopring"/>
+    <hyperlink ref="B731" r:id="rId1392" display="https://www.binance.com/en/trade/LRC_ETH"/>
+    <hyperlink ref="A732" r:id="rId1393" display="https://www.coingecko.com/en/coins/tokenclub"/>
+    <hyperlink ref="B732" r:id="rId1394" display="https://www.binance.com/en/trade/TCT_USDT"/>
+    <hyperlink ref="A733" r:id="rId1395" display="https://www.coingecko.com/en/coins/atletico-madrid-fan-token"/>
+    <hyperlink ref="B733" r:id="rId1396" display="https://www.binance.com/en/trade/ATM_USDT"/>
+    <hyperlink ref="A734" r:id="rId1397" display="https://www.coingecko.com/en/coins/raiden-network"/>
+    <hyperlink ref="B734" r:id="rId1398" display="https://www.binance.com/en/trade/RDN_BTC"/>
+    <hyperlink ref="A735" r:id="rId1399" display="https://www.coingecko.com/en/coins/og-fan-token"/>
+    <hyperlink ref="B735" r:id="rId1400" display="https://www.binance.com/en/trade/OG_BTC"/>
+    <hyperlink ref="A736" r:id="rId1401" display="https://www.coingecko.com/en/coins/band-protocol"/>
+    <hyperlink ref="B736" r:id="rId1402" display="https://www.binance.com/en/trade/BAND_BNB"/>
+    <hyperlink ref="A737" r:id="rId1403" display="https://www.coingecko.com/en/coins/algorand"/>
+    <hyperlink ref="B737" r:id="rId1404" display="https://www.binance.com/en/trade/ALGO_BNB"/>
+    <hyperlink ref="A738" r:id="rId1405" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B738" r:id="rId1406" display="https://www.binance.com/en/trade/USDT_ZAR"/>
+    <hyperlink ref="A739" r:id="rId1407" display="https://www.coingecko.com/en/coins/0x"/>
+    <hyperlink ref="B739" r:id="rId1408" display="https://www.binance.com/en/trade/ZRX_ETH"/>
+    <hyperlink ref="A740" r:id="rId1409" display="https://www.coingecko.com/en/coins/polkadot"/>
+    <hyperlink ref="B740" r:id="rId1410" display="https://www.binance.com/en/trade/DOT_BIDR"/>
+    <hyperlink ref="A741" r:id="rId1411" display="https://www.coingecko.com/en/coins/synthetix-network-token"/>
+    <hyperlink ref="B741" r:id="rId1412" display="https://www.binance.com/en/trade/SNX_BNB"/>
+    <hyperlink ref="A742" r:id="rId1413" display="https://www.coingecko.com/en/coins/hegic"/>
+    <hyperlink ref="B742" r:id="rId1414" display="https://www.binance.com/en/trade/HEGIC_BUSD"/>
+    <hyperlink ref="A743" r:id="rId1415" display="https://www.coingecko.com/en/coins/yearn-finance"/>
+    <hyperlink ref="B743" r:id="rId1416" display="https://www.binance.com/en/trade/YFI_BNB"/>
+    <hyperlink ref="A744" r:id="rId1417" display="https://www.coingecko.com/en/coins/bittorrent"/>
+    <hyperlink ref="B744" r:id="rId1418" display="https://www.binance.com/en/trade/BTT_TRX"/>
+    <hyperlink ref="A745" r:id="rId1419" display="https://www.coingecko.com/en/coins/dfi-money"/>
+    <hyperlink ref="B745" r:id="rId1420" display="https://www.binance.com/en/trade/YFII_BUSD"/>
+    <hyperlink ref="A746" r:id="rId1421" display="https://www.coingecko.com/en/coins/nano"/>
+    <hyperlink ref="B746" r:id="rId1422" display="https://www.binance.com/en/trade/NANO_ETH"/>
+    <hyperlink ref="A747" r:id="rId1423" display="https://www.coingecko.com/en/coins/neo"/>
+    <hyperlink ref="B747" r:id="rId1424" display="https://www.binance.com/en/trade/NEO_BNB"/>
+    <hyperlink ref="A748" r:id="rId1425" display="https://www.coingecko.com/en/coins/aergo"/>
+    <hyperlink ref="B748" r:id="rId1426" display="https://www.binance.com/en/trade/AERGO_BTC"/>
+    <hyperlink ref="A749" r:id="rId1427" display="https://www.coingecko.com/en/coins/siacoin"/>
+    <hyperlink ref="B749" r:id="rId1428" display="https://www.binance.com/en/trade/SC_ETH"/>
+    <hyperlink ref="A750" r:id="rId1429" display="https://www.coingecko.com/en/coins/zilliqa"/>
+    <hyperlink ref="B750" r:id="rId1430" display="https://www.binance.com/en/trade/ZIL_BNB"/>
+    <hyperlink ref="A751" r:id="rId1431" display="https://www.coingecko.com/en/coins/just"/>
+    <hyperlink ref="B751" r:id="rId1432" display="https://www.binance.com/en/trade/JST_BNB"/>
+    <hyperlink ref="A752" r:id="rId1433" display="https://www.coingecko.com/en/coins/bluzelle"/>
+    <hyperlink ref="B752" r:id="rId1434" display="https://www.binance.com/en/trade/BLZ_BNB"/>
+    <hyperlink ref="A753" r:id="rId1435" display="https://www.coingecko.com/en/coins/measurable-data-token"/>
+    <hyperlink ref="B753" r:id="rId1436" display="https://www.binance.com/en/trade/MDT_USDT"/>
+    <hyperlink ref="A754" r:id="rId1437" display="https://www.coingecko.com/en/coins/theta-network"/>
+    <hyperlink ref="B754" r:id="rId1438" display="https://www.binance.com/en/trade/THETA_ETH"/>
+    <hyperlink ref="A755" r:id="rId1439" display="https://www.coingecko.com/en/coins/nuls"/>
+    <hyperlink ref="B755" r:id="rId1440" display="https://www.binance.com/en/trade/NULS_BTC"/>
+    <hyperlink ref="A756" r:id="rId1441" display="https://www.coingecko.com/en/coins/balancer"/>
+    <hyperlink ref="B756" r:id="rId1442" display="https://www.binance.com/en/trade/BAL_BUSD"/>
+    <hyperlink ref="A757" r:id="rId1443" display="https://www.coingecko.com/en/coins/band-protocol"/>
+    <hyperlink ref="B757" r:id="rId1444" display="https://www.binance.com/en/trade/BAND_BUSD"/>
+    <hyperlink ref="A758" r:id="rId1445" display="https://www.coingecko.com/en/coins/wepower"/>
+    <hyperlink ref="B758" r:id="rId1446" display="https://www.binance.com/en/trade/WPR_BTC"/>
+    <hyperlink ref="A759" r:id="rId1447" display="https://www.coingecko.com/en/coins/kyber-network"/>
+    <hyperlink ref="B759" r:id="rId1448" display="https://www.binance.com/en/trade/KNC_ETH"/>
+    <hyperlink ref="A760" r:id="rId1449" display="https://www.coingecko.com/en/coins/populous"/>
+    <hyperlink ref="B760" r:id="rId1450" display="https://www.binance.com/en/trade/PPT_BTC"/>
+    <hyperlink ref="A761" r:id="rId1451" display="https://www.coingecko.com/en/coins/dash"/>
+    <hyperlink ref="B761" r:id="rId1452" display="https://www.binance.com/en/trade/DASH_BNB"/>
+    <hyperlink ref="A762" r:id="rId1453" display="https://www.coingecko.com/en/coins/bancor-network"/>
+    <hyperlink ref="B762" r:id="rId1454" display="https://www.binance.com/en/trade/BNT_BUSD"/>
+    <hyperlink ref="A763" r:id="rId1455" display="https://www.coingecko.com/en/coins/gifto"/>
+    <hyperlink ref="B763" r:id="rId1456" display="https://www.binance.com/en/trade/GTO_BTC"/>
+    <hyperlink ref="A764" r:id="rId1457" display="https://www.coingecko.com/en/coins/stormx"/>
+    <hyperlink ref="B764" r:id="rId1458" display="https://www.binance.com/en/trade/STMX_BNB"/>
+    <hyperlink ref="A765" r:id="rId1459" display="https://www.coingecko.com/en/coins/zcash"/>
+    <hyperlink ref="B765" r:id="rId1460" display="https://www.binance.com/en/trade/ZEC_ETH"/>
+    <hyperlink ref="A766" r:id="rId1461" display="https://www.coingecko.com/en/coins/new-bitshares"/>
+    <hyperlink ref="B766" r:id="rId1462" display="https://www.binance.com/en/trade/NBS_BTC"/>
+    <hyperlink ref="A767" r:id="rId1463" display="https://www.coingecko.com/en/coins/omg-network"/>
+    <hyperlink ref="B767" r:id="rId1464" display="https://www.binance.com/en/trade/OMG_ETH"/>
+    <hyperlink ref="A768" r:id="rId1465" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B768" r:id="rId1466" display="https://www.binance.com/en/trade/TRX_XRP"/>
+    <hyperlink ref="A769" r:id="rId1467" display="https://www.coingecko.com/en/coins/tezos"/>
+    <hyperlink ref="B769" r:id="rId1468" display="https://www.binance.com/en/trade/XTZ_BNB"/>
+    <hyperlink ref="A770" r:id="rId1469" display="https://www.coingecko.com/en/coins/neblio"/>
+    <hyperlink ref="B770" r:id="rId1470" display="https://www.binance.com/en/trade/NEBL_BTC"/>
+    <hyperlink ref="A771" r:id="rId1471" display="https://www.coingecko.com/en/coins/juventus-fan-token"/>
+    <hyperlink ref="B771" r:id="rId1472" display="https://www.binance.com/en/trade/JUV_USDT"/>
+    <hyperlink ref="A772" r:id="rId1473" display="https://www.coingecko.com/en/coins/wrapped-nxm"/>
+    <hyperlink ref="B772" r:id="rId1474" display="https://www.binance.com/en/trade/WNXM_BTC"/>
+    <hyperlink ref="A773" r:id="rId1475" display="https://www.coingecko.com/en/coins/ftx-token"/>
+    <hyperlink ref="B773" r:id="rId1476" display="https://www.binance.com/en/trade/FTT_BNB"/>
+    <hyperlink ref="A774" r:id="rId1477" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B774" r:id="rId1478" display="https://www.binance.com/en/trade/DOGE_BRL"/>
+    <hyperlink ref="A775" r:id="rId1479" display="https://www.coingecko.com/en/coins/genesis-vision"/>
+    <hyperlink ref="B775" r:id="rId1480" display="https://www.binance.com/en/trade/GVT_BTC"/>
+    <hyperlink ref="A776" r:id="rId1481" display="https://www.coingecko.com/en/coins/reserve-rights-token"/>
+    <hyperlink ref="B776" r:id="rId1482" display="https://www.binance.com/en/trade/RSR_BNB"/>
+    <hyperlink ref="A777" r:id="rId1483" display="https://www.coingecko.com/en/coins/blox"/>
+    <hyperlink ref="B777" r:id="rId1484" display="https://www.binance.com/en/trade/CDT_BTC"/>
+    <hyperlink ref="A778" r:id="rId1485" display="https://www.coingecko.com/en/coins/kyber-network"/>
+    <hyperlink ref="B778" r:id="rId1486" display="https://www.binance.com/en/trade/KNC_BUSD"/>
+    <hyperlink ref="A779" r:id="rId1487" display="https://www.coingecko.com/en/coins/yearn-finance"/>
+    <hyperlink ref="B779" r:id="rId1488" display="https://www.binance.com/en/trade/YFI_EUR"/>
+    <hyperlink ref="A780" r:id="rId1489" display="https://www.coingecko.com/en/coins/augur"/>
+    <hyperlink ref="B780" r:id="rId1490" display="https://www.binance.com/en/trade/REP_ETH"/>
+    <hyperlink ref="A781" r:id="rId1491" display="https://www.coingecko.com/en/coins/gxchain"/>
+    <hyperlink ref="B781" r:id="rId1492" display="https://www.binance.com/en/trade/GXS_BTC"/>
+    <hyperlink ref="A782" r:id="rId1493" display="https://www.coingecko.com/en/coins/elf"/>
+    <hyperlink ref="B782" r:id="rId1494" display="https://www.binance.com/en/trade/ELF_ETH"/>
+    <hyperlink ref="A783" r:id="rId1495" display="https://www.coingecko.com/en/coins/aragon"/>
+    <hyperlink ref="B783" r:id="rId1496" display="https://www.binance.com/en/trade/ANT_BUSD"/>
+    <hyperlink ref="A784" r:id="rId1497" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B784" r:id="rId1498" display="https://www.binance.com/en/trade/USDT_UAH"/>
+    <hyperlink ref="A785" r:id="rId1499" display="https://www.coingecko.com/en/coins/curve-dao-token"/>
+    <hyperlink ref="B785" r:id="rId1500" display="https://www.binance.com/en/trade/CRV_BNB"/>
+    <hyperlink ref="A786" r:id="rId1501" display="https://www.coingecko.com/en/coins/idex"/>
+    <hyperlink ref="B786" r:id="rId1502" display="https://www.binance.com/en/trade/IDEX_BUSD"/>
+    <hyperlink ref="A787" r:id="rId1503" display="https://www.coingecko.com/en/coins/sonm"/>
+    <hyperlink ref="B787" r:id="rId1504" display="https://www.binance.com/en/trade/SNM_BTC"/>
+    <hyperlink ref="A788" r:id="rId1505" display="https://www.coingecko.com/en/coins/decentraland"/>
+    <hyperlink ref="B788" r:id="rId1506" display="https://www.binance.com/en/trade/MANA_BUSD"/>
+    <hyperlink ref="A789" r:id="rId1507" display="https://www.coingecko.com/en/coins/adex"/>
+    <hyperlink ref="B789" r:id="rId1508" display="https://www.binance.com/en/trade/ADX_ETH"/>
+    <hyperlink ref="A790" r:id="rId1509" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B790" r:id="rId1510" display="https://www.binance.com/en/trade/LTC_BRL"/>
+    <hyperlink ref="A791" r:id="rId1511" display="https://www.coingecko.com/en/coins/certik"/>
+    <hyperlink ref="B791" r:id="rId1512" display="https://www.binance.com/en/trade/CTK_BNB"/>
+    <hyperlink ref="A792" r:id="rId1513" display="https://www.coingecko.com/en/coins/theta-network"/>
+    <hyperlink ref="B792" r:id="rId1514" display="https://www.binance.com/en/trade/THETA_BNB"/>
+    <hyperlink ref="A793" r:id="rId1515" display="https://www.coingecko.com/en/coins/everex"/>
+    <hyperlink ref="B793" r:id="rId1516" display="https://www.binance.com/en/trade/EVX_BTC"/>
+    <hyperlink ref="A794" r:id="rId1517" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B794" r:id="rId1518" display="https://www.binance.com/en/trade/BUSD_BIDR"/>
+    <hyperlink ref="A795" r:id="rId1519" display="https://www.coingecko.com/en/coins/ethereum-classic"/>
+    <hyperlink ref="B795" r:id="rId1520" display="https://www.binance.com/en/trade/ETC_ETH"/>
+    <hyperlink ref="A796" r:id="rId1521" display="https://www.coingecko.com/en/coins/wink"/>
+    <hyperlink ref="B796" r:id="rId1522" display="https://www.binance.com/en/trade/WIN_BNB"/>
+    <hyperlink ref="A797" r:id="rId1523" display="https://www.coingecko.com/en/coins/bread"/>
+    <hyperlink ref="B797" r:id="rId1524" display="https://www.binance.com/en/trade/BRD_ETH"/>
+    <hyperlink ref="A798" r:id="rId1525" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B798" r:id="rId1526" display="https://www.binance.com/en/trade/SXP_AUD"/>
+    <hyperlink ref="A799" r:id="rId1527" display="https://www.coingecko.com/en/coins/steem"/>
+    <hyperlink ref="B799" r:id="rId1528" display="https://www.binance.com/en/trade/STEEM_ETH"/>
+    <hyperlink ref="A800" r:id="rId1529" display="https://www.coingecko.com/en/coins/gochain"/>
+    <hyperlink ref="B800" r:id="rId1530" display="https://www.binance.com/en/trade/GO_BTC"/>
+    <hyperlink ref="A801" r:id="rId1531" display="https://www.coingecko.com/en/coins/tokenclub"/>
+    <hyperlink ref="B801" r:id="rId1532" display="https://www.binance.com/en/trade/TCT_BTC"/>
+    <hyperlink ref="A802" r:id="rId1533" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B802" r:id="rId1534" display="https://www.binance.com/en/trade/XRP_AUD"/>
+    <hyperlink ref="A803" r:id="rId1535" display="https://www.coingecko.com/en/coins/power-ledger"/>
+    <hyperlink ref="B803" r:id="rId1536" display="https://www.binance.com/en/trade/POWR_ETH"/>
+    <hyperlink ref="A804" r:id="rId1537" display="https://www.coingecko.com/en/coins/digibyte"/>
+    <hyperlink ref="B804" r:id="rId1538" display="https://www.binance.com/en/trade/DGB_BUSD"/>
+    <hyperlink ref="A805" r:id="rId1539" display="https://www.coingecko.com/en/coins/wink"/>
+    <hyperlink ref="B805" r:id="rId1540" display="https://www.binance.com/en/trade/WIN_TRX"/>
+    <hyperlink ref="A806" r:id="rId1541" display="https://www.coingecko.com/en/coins/yoyow"/>
+    <hyperlink ref="B806" r:id="rId1542" display="https://www.binance.com/en/trade/YOYO_BTC"/>
+    <hyperlink ref="A807" r:id="rId1543" display="https://www.coingecko.com/en/coins/bitcoin-cash-abc"/>
+    <hyperlink ref="B807" r:id="rId1544" display="https://www.binance.com/en/trade/BCHA_BUSD"/>
+    <hyperlink ref="A808" r:id="rId1545" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B808" r:id="rId1546" display="https://www.binance.com/en/trade/LINK_BRL"/>
+    <hyperlink ref="A809" r:id="rId1547" display="https://www.coingecko.com/en/coins/cortex"/>
+    <hyperlink ref="B809" r:id="rId1548" display="https://www.binance.com/en/trade/CTXC_BTC"/>
+    <hyperlink ref="A810" r:id="rId1549" display="https://www.coingecko.com/en/coins/bluzelle"/>
+    <hyperlink ref="B810" r:id="rId1550" display="https://www.binance.com/en/trade/BLZ_ETH"/>
+    <hyperlink ref="A811" r:id="rId1551" display="https://www.coingecko.com/en/coins/ethereum-classic"/>
+    <hyperlink ref="B811" r:id="rId1552" display="https://www.binance.com/en/trade/ETC_BNB"/>
+    <hyperlink ref="A812" r:id="rId1553" display="https://www.coingecko.com/en/coins/digibyte"/>
+    <hyperlink ref="B812" r:id="rId1554" display="https://www.binance.com/en/trade/DGB_BNB"/>
+    <hyperlink ref="A813" r:id="rId1555" display="https://www.coingecko.com/en/coins/vethor-token"/>
+    <hyperlink ref="B813" r:id="rId1556" display="https://www.binance.com/en/trade/VTHO_BNB"/>
+    <hyperlink ref="A814" r:id="rId1557" display="https://www.coingecko.com/en/coins/viacoin"/>
+    <hyperlink ref="B814" r:id="rId1558" display="https://www.binance.com/en/trade/VIA_BTC"/>
+    <hyperlink ref="A815" r:id="rId1559" display="https://www.coingecko.com/en/coins/powerpool-concentrated-voting-power"/>
+    <hyperlink ref="B815" r:id="rId1560" display="https://www.binance.com/en/trade/CVP_BUSD"/>
+    <hyperlink ref="A816" r:id="rId1561" display="https://www.coingecko.com/en/coins/troy"/>
+    <hyperlink ref="B816" r:id="rId1562" display="https://www.binance.com/en/trade/TROY_BNB"/>
+    <hyperlink ref="A817" r:id="rId1563" display="https://www.coingecko.com/en/coins/zcash"/>
+    <hyperlink ref="B817" r:id="rId1564" display="https://www.binance.com/en/trade/ZEC_BNB"/>
+    <hyperlink ref="A818" r:id="rId1565" display="https://www.coingecko.com/en/coins/susd"/>
+    <hyperlink ref="B818" r:id="rId1566" display="https://www.binance.com/en/trade/SUSD_USDT"/>
+    <hyperlink ref="A819" r:id="rId1567" display="https://www.coingecko.com/en/coins/aergo"/>
+    <hyperlink ref="B819" r:id="rId1568" display="https://www.binance.com/en/trade/AERGO_BUSD"/>
+    <hyperlink ref="A820" r:id="rId1569" display="https://www.coingecko.com/en/coins/appcoins"/>
+    <hyperlink ref="B820" r:id="rId1570" display="https://www.binance.com/en/trade/APPC_BTC"/>
+    <hyperlink ref="A821" r:id="rId1571" display="https://www.coingecko.com/en/coins/dforce-token"/>
+    <hyperlink ref="B821" r:id="rId1572" display="https://www.binance.com/en/trade/DF_BUSD"/>
+    <hyperlink ref="A822" r:id="rId1573" display="https://www.coingecko.com/en/coins/wazirx"/>
+    <hyperlink ref="B822" r:id="rId1574" display="https://www.binance.com/en/trade/WRX_BNB"/>
+    <hyperlink ref="A823" r:id="rId1575" display="https://www.coingecko.com/en/coins/decentraland"/>
+    <hyperlink ref="B823" r:id="rId1576" display="https://www.binance.com/en/trade/MANA_ETH"/>
+    <hyperlink ref="A824" r:id="rId1577" display="https://www.coingecko.com/en/coins/bancor-network"/>
+    <hyperlink ref="B824" r:id="rId1578" display="https://www.binance.com/en/trade/BNT_ETH"/>
+    <hyperlink ref="A825" r:id="rId1579" display="https://www.coingecko.com/en/coins/fetch-ai"/>
+    <hyperlink ref="B825" r:id="rId1580" display="https://www.binance.com/en/trade/FET_BNB"/>
+    <hyperlink ref="A826" r:id="rId1581" display="https://www.coingecko.com/en/coins/bella-protocol"/>
+    <hyperlink ref="B826" r:id="rId1582" display="https://www.binance.com/en/trade/BEL_BUSD"/>
+    <hyperlink ref="A827" r:id="rId1583" display="https://www.coingecko.com/en/coins/audius"/>
+    <hyperlink ref="B827" r:id="rId1584" display="https://www.binance.com/en/trade/AUDIO_BUSD"/>
+    <hyperlink ref="A828" r:id="rId1585" display="https://www.coingecko.com/en/coins/mithril"/>
+    <hyperlink ref="B828" r:id="rId1586" display="https://www.binance.com/en/trade/MITH_BTC"/>
+    <hyperlink ref="A829" r:id="rId1587" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B829" r:id="rId1588" display="https://www.binance.com/en/trade/BTC_VAI"/>
+    <hyperlink ref="A830" r:id="rId1589" display="https://www.coingecko.com/en/coins/ontology"/>
+    <hyperlink ref="B830" r:id="rId1590" display="https://www.binance.com/en/trade/ONT_BNB"/>
+    <hyperlink ref="A831" r:id="rId1591" display="https://www.coingecko.com/en/coins/algorand"/>
+    <hyperlink ref="B831" r:id="rId1592" display="https://www.binance.com/en/trade/ALGO_TUSD"/>
+    <hyperlink ref="A832" r:id="rId1593" display="https://www.coingecko.com/en/coins/monetha"/>
+    <hyperlink ref="B832" r:id="rId1594" display="https://www.binance.com/en/trade/MTH_BTC"/>
+    <hyperlink ref="A833" r:id="rId1595" display="https://www.coingecko.com/en/coins/dogecoin"/>
+    <hyperlink ref="B833" r:id="rId1596" display="https://www.binance.com/en/trade/DOGE_AUD"/>
+    <hyperlink ref="A834" r:id="rId1597" display="https://www.coingecko.com/en/coins/metal"/>
+    <hyperlink ref="B834" r:id="rId1598" display="https://www.binance.com/en/trade/MTL_ETH"/>
+    <hyperlink ref="A835" r:id="rId1599" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B835" r:id="rId1600" display="https://www.binance.com/en/trade/LINK_AUD"/>
+    <hyperlink ref="A836" r:id="rId1601" display="https://www.coingecko.com/en/coins/singulardtv"/>
+    <hyperlink ref="B836" r:id="rId1602" display="https://www.binance.com/en/trade/SNGLS_BTC"/>
+    <hyperlink ref="A837" r:id="rId1603" display="https://www.coingecko.com/en/coins/renbtc"/>
+    <hyperlink ref="B837" r:id="rId1604" display="https://www.binance.com/en/trade/RENBTC_BTC"/>
+    <hyperlink ref="A838" r:id="rId1605" display="https://www.coingecko.com/en/coins/arpa-chain"/>
+    <hyperlink ref="B838" r:id="rId1606" display="https://www.binance.com/en/trade/ARPA_BNB"/>
+    <hyperlink ref="A839" r:id="rId1607" display="https://www.coingecko.com/en/coins/wanchain"/>
+    <hyperlink ref="B839" r:id="rId1608" display="https://www.binance.com/en/trade/WAN_BNB"/>
+    <hyperlink ref="A840" r:id="rId1609" display="https://www.coingecko.com/en/coins/horizen"/>
+    <hyperlink ref="B840" r:id="rId1610" display="https://www.binance.com/en/trade/ZEN_ETH"/>
+    <hyperlink ref="A841" r:id="rId1611" display="https://www.coingecko.com/en/coins/cover-protocol"/>
+    <hyperlink ref="B841" r:id="rId1612" display="https://www.binance.com/en/trade/COVER_ETH"/>
+    <hyperlink ref="A842" r:id="rId1613" display="https://www.coingecko.com/en/coins/truefi"/>
+    <hyperlink ref="B842" r:id="rId1614" display="https://www.binance.com/en/trade/TRU_BUSD"/>
+    <hyperlink ref="A843" r:id="rId1615" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B843" r:id="rId1616" display="https://www.binance.com/en/trade/XRP_TUSD"/>
+    <hyperlink ref="A844" r:id="rId1617" display="https://www.coingecko.com/en/coins/ocean-protocol"/>
+    <hyperlink ref="B844" r:id="rId1618" display="https://www.binance.com/en/trade/OCEAN_BNB"/>
+    <hyperlink ref="A845" r:id="rId1619" display="https://www.coingecko.com/en/coins/waves"/>
+    <hyperlink ref="B845" r:id="rId1620" display="https://www.binance.com/en/trade/WAVES_ETH"/>
+    <hyperlink ref="A846" r:id="rId1621" display="https://www.coingecko.com/en/coins/wanchain"/>
+    <hyperlink ref="B846" r:id="rId1622" display="https://www.binance.com/en/trade/WAN_ETH"/>
+    <hyperlink ref="A847" r:id="rId1623" display="https://www.coingecko.com/en/coins/loom-network"/>
+    <hyperlink ref="B847" r:id="rId1624" display="https://www.binance.com/en/trade/LOOM_ETH"/>
+    <hyperlink ref="A848" r:id="rId1625" display="https://www.coingecko.com/en/coins/skale"/>
+    <hyperlink ref="B848" r:id="rId1626" display="https://www.binance.com/en/trade/SKL_BUSD"/>
+    <hyperlink ref="A849" r:id="rId1627" display="https://www.coingecko.com/en/coins/navcoin"/>
+    <hyperlink ref="B849" r:id="rId1628" display="https://www.binance.com/en/trade/NAV_BTC"/>
+    <hyperlink ref="A850" r:id="rId1629" display="https://www.coingecko.com/en/coins/cocos-bcx"/>
+    <hyperlink ref="B850" r:id="rId1630" display="https://www.binance.com/en/trade/COCOS_BNB"/>
+    <hyperlink ref="A851" r:id="rId1631" display="https://www.coingecko.com/en/coins/bitcoin"/>
+    <hyperlink ref="B851" r:id="rId1632" display="https://www.binance.com/en/trade/BTC_IDRT"/>
+    <hyperlink ref="A852" r:id="rId1633" display="https://www.coingecko.com/en/coins/flamingo-finance"/>
+    <hyperlink ref="B852" r:id="rId1634" display="https://www.binance.com/en/trade/FLM_BUSD"/>
+    <hyperlink ref="A853" r:id="rId1635" display="https://www.coingecko.com/en/coins/ost"/>
+    <hyperlink ref="B853" r:id="rId1636" display="https://www.binance.com/en/trade/OST_ETH"/>
+    <hyperlink ref="A854" r:id="rId1637" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B854" r:id="rId1638" display="https://www.binance.com/en/trade/BNB_IDRT"/>
+    <hyperlink ref="A855" r:id="rId1639" display="https://www.coingecko.com/en/coins/basic-attention-token"/>
+    <hyperlink ref="B855" r:id="rId1640" display="https://www.binance.com/en/trade/BAT_ETH"/>
+    <hyperlink ref="A856" r:id="rId1641" display="https://www.coingecko.com/en/coins/swipe"/>
+    <hyperlink ref="B856" r:id="rId1642" display="https://www.binance.com/en/trade/SXP_BIDR"/>
+    <hyperlink ref="A857" r:id="rId1643" display="https://www.coingecko.com/en/coins/omg-network"/>
+    <hyperlink ref="B857" r:id="rId1644" display="https://www.binance.com/en/trade/OMG_BUSD"/>
+    <hyperlink ref="A858" r:id="rId1645" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B858" r:id="rId1646" display="https://www.binance.com/en/trade/BUSD_RUB"/>
+    <hyperlink ref="A859" r:id="rId1647" display="https://www.coingecko.com/en/coins/hegic"/>
+    <hyperlink ref="B859" r:id="rId1648" display="https://www.binance.com/en/trade/HEGIC_ETH"/>
+    <hyperlink ref="A860" r:id="rId1649" display="https://www.coingecko.com/en/coins/civic"/>
+    <hyperlink ref="B860" r:id="rId1650" display="https://www.binance.com/en/trade/CVC_ETH"/>
+    <hyperlink ref="A861" r:id="rId1651" display="https://www.coingecko.com/en/coins/status"/>
+    <hyperlink ref="B861" r:id="rId1652" display="https://www.binance.com/en/trade/SNT_ETH"/>
+    <hyperlink ref="A862" r:id="rId1653" display="https://www.coingecko.com/en/coins/gxchain"/>
+    <hyperlink ref="B862" r:id="rId1654" display="https://www.binance.com/en/trade/GXS_ETH"/>
+    <hyperlink ref="A863" r:id="rId1655" display="https://www.coingecko.com/en/coins/moviebloc"/>
+    <hyperlink ref="B863" r:id="rId1656" display="https://www.binance.com/en/trade/MBL_BNB"/>
+    <hyperlink ref="A864" r:id="rId1657" display="https://www.coingecko.com/en/coins/bella-protocol"/>
+    <hyperlink ref="B864" r:id="rId1658" display="https://www.binance.com/en/trade/BEL_BNB"/>
+    <hyperlink ref="A865" r:id="rId1659" display="https://www.coingecko.com/en/coins/sand"/>
+    <hyperlink ref="B865" r:id="rId1660" display="https://www.binance.com/en/trade/SAND_BNB"/>
+    <hyperlink ref="A866" r:id="rId1661" display="https://www.coingecko.com/en/coins/fio-protocol"/>
+    <hyperlink ref="B866" r:id="rId1662" display="https://www.binance.com/en/trade/FIO_BNB"/>
+    <hyperlink ref="A867" r:id="rId1663" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B867" r:id="rId1664" display="https://www.binance.com/en/trade/XRP_BRL"/>
+    <hyperlink ref="A868" r:id="rId1665" display="https://www.coingecko.com/en/coins/injective-protocol"/>
+    <hyperlink ref="B868" r:id="rId1666" display="https://www.binance.com/en/trade/INJ_BNB"/>
+    <hyperlink ref="A869" r:id="rId1667" display="https://www.coingecko.com/en/coins/qtum"/>
+    <hyperlink ref="B869" r:id="rId1668" display="https://www.binance.com/en/trade/QTUM_ETH"/>
+    <hyperlink ref="A870" r:id="rId1669" display="https://www.coingecko.com/en/coins/axie-infinity"/>
+    <hyperlink ref="B870" r:id="rId1670" display="https://www.binance.com/en/trade/AXS_BUSD"/>
+    <hyperlink ref="A871" r:id="rId1671" display="https://www.coingecko.com/en/coins/hard-protocol"/>
+    <hyperlink ref="B871" r:id="rId1672" display="https://www.binance.com/en/trade/HARD_BNB"/>
+    <hyperlink ref="A872" r:id="rId1673" display="https://www.coingecko.com/en/coins/horizen"/>
+    <hyperlink ref="B872" r:id="rId1674" display="https://www.binance.com/en/trade/ZEN_BNB"/>
+    <hyperlink ref="A873" r:id="rId1675" display="https://www.coingecko.com/en/coins/powerpool-concentrated-voting-power"/>
+    <hyperlink ref="B873" r:id="rId1676" display="https://www.binance.com/en/trade/CVP_ETH"/>
+    <hyperlink ref="A874" r:id="rId1677" display="https://www.coingecko.com/en/coins/loopring"/>
+    <hyperlink ref="B874" r:id="rId1678" display="https://www.binance.com/en/trade/LRC_BUSD"/>
+    <hyperlink ref="A875" r:id="rId1679" display="https://www.coingecko.com/en/coins/numeraire"/>
+    <hyperlink ref="B875" r:id="rId1680" display="https://www.binance.com/en/trade/NMR_BUSD"/>
+    <hyperlink ref="A876" r:id="rId1681" display="https://www.coingecko.com/en/coins/kava"/>
+    <hyperlink ref="B876" r:id="rId1682" display="https://www.binance.com/en/trade/KAVA_BNB"/>
+    <hyperlink ref="A877" r:id="rId1683" display="https://www.coingecko.com/en/coins/quantstamp"/>
+    <hyperlink ref="B877" r:id="rId1684" display="https://www.binance.com/en/trade/QSP_ETH"/>
+    <hyperlink ref="A878" r:id="rId1685" display="https://www.coingecko.com/en/coins/cindicator"/>
+    <hyperlink ref="B878" r:id="rId1686" display="https://www.binance.com/en/trade/CND_BTC"/>
+    <hyperlink ref="A879" r:id="rId1687" display="https://www.coingecko.com/en/coins/nucleus-vision"/>
+    <hyperlink ref="B879" r:id="rId1688" display="https://www.binance.com/en/trade/NCASH_ETH"/>
+    <hyperlink ref="A880" r:id="rId1689" display="https://www.coingecko.com/en/coins/stratis"/>
+    <hyperlink ref="B880" r:id="rId1690" display="https://www.binance.com/en/trade/STRAX_ETH"/>
+    <hyperlink ref="A881" r:id="rId1691" display="https://www.coingecko.com/en/coins/wazirx"/>
+    <hyperlink ref="B881" r:id="rId1692" display="https://www.binance.com/en/trade/WRX_BUSD"/>
+    <hyperlink ref="A882" r:id="rId1693" display="https://www.coingecko.com/en/coins/renbtc"/>
+    <hyperlink ref="B882" r:id="rId1694" display="https://www.binance.com/en/trade/RENBTC_ETH"/>
+    <hyperlink ref="A883" r:id="rId1695" display="https://www.coingecko.com/en/coins/viberate"/>
+    <hyperlink ref="B883" r:id="rId1696" display="https://www.binance.com/en/trade/VIB_ETH"/>
+    <hyperlink ref="A884" r:id="rId1697" display="https://www.coingecko.com/en/coins/dia"/>
+    <hyperlink ref="B884" r:id="rId1698" display="https://www.binance.com/en/trade/DIA_BNB"/>
+    <hyperlink ref="A885" r:id="rId1699" display="https://www.coingecko.com/en/coins/hard-protocol"/>
+    <hyperlink ref="B885" r:id="rId1700" display="https://www.binance.com/en/trade/HARD_BUSD"/>
+    <hyperlink ref="A886" r:id="rId1701" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B886" r:id="rId1702" display="https://www.binance.com/en/trade/LTC_TUSD"/>
+    <hyperlink ref="A887" r:id="rId1703" display="https://www.coingecko.com/en/coins/contentos"/>
+    <hyperlink ref="B887" r:id="rId1704" display="https://www.binance.com/en/trade/COS_BNB"/>
+    <hyperlink ref="A888" r:id="rId1705" display="https://www.coingecko.com/en/coins/paris-saint-germain-fan-token"/>
+    <hyperlink ref="B888" r:id="rId1706" display="https://www.binance.com/en/trade/PSG_BTC"/>
+    <hyperlink ref="A889" r:id="rId1707" display="https://www.coingecko.com/en/coins/quarkchain"/>
+    <hyperlink ref="B889" r:id="rId1708" display="https://www.binance.com/en/trade/QKC_ETH"/>
+    <hyperlink ref="A890" r:id="rId1709" display="https://www.coingecko.com/en/coins/qlc-chain"/>
+    <hyperlink ref="B890" r:id="rId1710" display="https://www.binance.com/en/trade/QLC_ETH"/>
+    <hyperlink ref="A891" r:id="rId1711" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B891" r:id="rId1712" display="https://www.binance.com/en/trade/LTC_RUB"/>
+    <hyperlink ref="A892" r:id="rId1713" display="https://www.coingecko.com/en/coins/wabi"/>
+    <hyperlink ref="B892" r:id="rId1714" display="https://www.binance.com/en/trade/WABI_BNB"/>
+    <hyperlink ref="A893" r:id="rId1715" display="https://www.coingecko.com/en/coins/neo"/>
+    <hyperlink ref="B893" r:id="rId1716" display="https://www.binance.com/en/trade/NEO_USDC"/>
+    <hyperlink ref="A894" r:id="rId1717" display="https://www.coingecko.com/en/coins/cosmos"/>
+    <hyperlink ref="B894" r:id="rId1718" display="https://www.binance.com/en/trade/ATOM_USDC"/>
+    <hyperlink ref="A895" r:id="rId1719" display="https://www.coingecko.com/en/coins/iexec-rlc"/>
+    <hyperlink ref="B895" r:id="rId1720" display="https://www.binance.com/en/trade/RLC_ETH"/>
+    <hyperlink ref="A896" r:id="rId1721" display="https://www.coingecko.com/en/coins/susd"/>
+    <hyperlink ref="B896" r:id="rId1722" display="https://www.binance.com/en/trade/SUSD_BTC"/>
+    <hyperlink ref="A897" r:id="rId1723" display="https://www.coingecko.com/en/coins/mithril"/>
+    <hyperlink ref="B897" r:id="rId1724" display="https://www.binance.com/en/trade/MITH_BNB"/>
+    <hyperlink ref="A898" r:id="rId1725" display="https://www.coingecko.com/en/coins/perlin"/>
+    <hyperlink ref="B898" r:id="rId1726" display="https://www.binance.com/en/trade/PERL_BNB"/>
+    <hyperlink ref="A899" r:id="rId1727" display="https://www.coingecko.com/en/coins/basic-attention-token"/>
+    <hyperlink ref="B899" r:id="rId1728" display="https://www.binance.com/en/trade/BAT_BNB"/>
+    <hyperlink ref="A900" r:id="rId1729" display="https://www.coingecko.com/en/coins/zilliqa"/>
+    <hyperlink ref="B900" r:id="rId1730" display="https://www.binance.com/en/trade/ZIL_BIDR"/>
+    <hyperlink ref="A901" r:id="rId1731" display="https://www.coingecko.com/en/coins/swerve"/>
+    <hyperlink ref="B901" r:id="rId1732" display="https://www.binance.com/en/trade/SWRV_BNB"/>
+    <hyperlink ref="A902" r:id="rId1733" display="https://www.coingecko.com/en/coins/district0x"/>
+    <hyperlink ref="B902" r:id="rId1734" display="https://www.binance.com/en/trade/DNT_BUSD"/>
+    <hyperlink ref="A903" r:id="rId1735" display="https://www.coingecko.com/en/coins/syscoin"/>
+    <hyperlink ref="B903" r:id="rId1736" display="https://www.binance.com/en/trade/SYS_BUSD"/>
+    <hyperlink ref="A904" r:id="rId1737" display="https://www.coingecko.com/en/coins/fio-protocol"/>
+    <hyperlink ref="B904" r:id="rId1738" display="https://www.binance.com/en/trade/FIO_BUSD"/>
+    <hyperlink ref="A905" r:id="rId1739" display="https://www.coingecko.com/en/coins/stratis"/>
+    <hyperlink ref="B905" r:id="rId1740" display="https://www.binance.com/en/trade/STRAX_BUSD"/>
+    <hyperlink ref="A906" r:id="rId1741" display="https://www.coingecko.com/en/coins/atletico-madrid-fan-token"/>
+    <hyperlink ref="B906" r:id="rId1742" display="https://www.binance.com/en/trade/ATM_BTC"/>
+    <hyperlink ref="A907" r:id="rId1743" display="https://www.coingecko.com/en/coins/wing-finance"/>
+    <hyperlink ref="B907" r:id="rId1744" display="https://www.binance.com/en/trade/WING_BUSD"/>
+    <hyperlink ref="A908" r:id="rId1745" display="https://www.coingecko.com/en/coins/binance-coin"/>
+    <hyperlink ref="B908" r:id="rId1746" display="https://www.binance.com/en/trade/BNB_PAX"/>
+    <hyperlink ref="A909" r:id="rId1747" display="https://www.coingecko.com/en/coins/chromia"/>
+    <hyperlink ref="B909" r:id="rId1748" display="https://www.binance.com/en/trade/CHR_BNB"/>
+    <hyperlink ref="A910" r:id="rId1749" display="https://www.coingecko.com/en/coins/siacoin"/>
+    <hyperlink ref="B910" r:id="rId1750" display="https://www.binance.com/en/trade/SC_BNB"/>
+    <hyperlink ref="A911" r:id="rId1751" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B911" r:id="rId1752" display="https://www.binance.com/en/trade/XRP_RUB"/>
+    <hyperlink ref="A912" r:id="rId1753" display="https://www.coingecko.com/en/coins/origin-protocol"/>
+    <hyperlink ref="B912" r:id="rId1754" display="https://www.binance.com/en/trade/OGN_BNB"/>
+    <hyperlink ref="A913" r:id="rId1755" display="https://www.coingecko.com/en/coins/wing-finance"/>
+    <hyperlink ref="B913" r:id="rId1756" display="https://www.binance.com/en/trade/WING_BNB"/>
+    <hyperlink ref="A914" r:id="rId1757" display="https://www.coingecko.com/en/coins/juventus-fan-token"/>
+    <hyperlink ref="B914" r:id="rId1758" display="https://www.binance.com/en/trade/JUV_BTC"/>
+    <hyperlink ref="A915" r:id="rId1759" display="https://www.coingecko.com/en/coins/axie-infinity"/>
+    <hyperlink ref="B915" r:id="rId1760" display="https://www.binance.com/en/trade/AXS_BNB"/>
+    <hyperlink ref="A916" r:id="rId1761" display="https://www.coingecko.com/en/coins/firo"/>
+    <hyperlink ref="B916" r:id="rId1762" display="https://www.binance.com/en/trade/FIRO_ETH"/>
+    <hyperlink ref="A917" r:id="rId1763" display="https://www.coingecko.com/en/coins/neblio"/>
+    <hyperlink ref="B917" r:id="rId1764" display="https://www.binance.com/en/trade/NEBL_ETH"/>
+    <hyperlink ref="A918" r:id="rId1765" display="https://www.coingecko.com/en/coins/maker"/>
+    <hyperlink ref="B918" r:id="rId1766" display="https://www.binance.com/en/trade/MKR_BNB"/>
+    <hyperlink ref="A919" r:id="rId1767" display="https://www.coingecko.com/en/coins/phoenix-global"/>
+    <hyperlink ref="B919" r:id="rId1768" display="https://www.binance.com/en/trade/PHB_TUSD"/>
+    <hyperlink ref="A920" r:id="rId1769" display="https://www.coingecko.com/en/coins/blox"/>
+    <hyperlink ref="B920" r:id="rId1770" display="https://www.binance.com/en/trade/CDT_ETH"/>
+    <hyperlink ref="A921" r:id="rId1771" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B921" r:id="rId1772" display="https://www.binance.com/en/trade/BCH_PAX"/>
+    <hyperlink ref="A922" r:id="rId1773" display="https://www.coingecko.com/en/coins/chainlink"/>
+    <hyperlink ref="B922" r:id="rId1774" display="https://www.binance.com/en/trade/LINK_TUSD"/>
+    <hyperlink ref="A923" r:id="rId1775" display="https://www.coingecko.com/en/coins/dfi-money"/>
+    <hyperlink ref="B923" r:id="rId1776" display="https://www.binance.com/en/trade/YFII_BNB"/>
+    <hyperlink ref="A924" r:id="rId1777" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B924" r:id="rId1778" display="https://www.binance.com/en/trade/TRX_TUSD"/>
+    <hyperlink ref="A925" r:id="rId1779" display="https://www.coingecko.com/en/coins/bittorrent"/>
+    <hyperlink ref="B925" r:id="rId1780" display="https://www.binance.com/en/trade/BTT_USDC"/>
+    <hyperlink ref="A926" r:id="rId1781" display="https://www.coingecko.com/en/coins/dforce-token"/>
+    <hyperlink ref="B926" r:id="rId1782" display="https://www.binance.com/en/trade/DF_ETH"/>
+    <hyperlink ref="A927" r:id="rId1783" display="https://www.coingecko.com/en/coins/waltonchain"/>
+    <hyperlink ref="B927" r:id="rId1784" display="https://www.binance.com/en/trade/WTC_BNB"/>
+    <hyperlink ref="A928" r:id="rId1785" display="https://www.coingecko.com/en/coins/eos"/>
+    <hyperlink ref="B928" r:id="rId1786" display="https://www.binance.com/en/trade/EOS_TUSD"/>
+    <hyperlink ref="A929" r:id="rId1787" display="https://www.coingecko.com/en/coins/basic-attention-token"/>
+    <hyperlink ref="B929" r:id="rId1788" display="https://www.binance.com/en/trade/BAT_USDC"/>
+    <hyperlink ref="A930" r:id="rId1789" display="https://www.coingecko.com/en/coins/paris-saint-germain-fan-token"/>
+    <hyperlink ref="B930" r:id="rId1790" display="https://www.binance.com/en/trade/PSG_BUSD"/>
+    <hyperlink ref="A931" r:id="rId1791" display="https://www.coingecko.com/en/coins/streamr-datacoin"/>
+    <hyperlink ref="B931" r:id="rId1792" display="https://www.binance.com/en/trade/DATA_ETH"/>
+    <hyperlink ref="A932" r:id="rId1793" display="https://www.coingecko.com/en/coins/bitcoin-cash"/>
+    <hyperlink ref="B932" r:id="rId1794" display="https://www.binance.com/en/trade/BCH_TUSD"/>
+    <hyperlink ref="A933" r:id="rId1795" display="https://www.coingecko.com/en/coins/wrapped-nxm"/>
+    <hyperlink ref="B933" r:id="rId1796" display="https://www.binance.com/en/trade/WNXM_BNB"/>
+    <hyperlink ref="A934" r:id="rId1797" display="https://www.coingecko.com/en/coins/juventus-fan-token"/>
+    <hyperlink ref="B934" r:id="rId1798" display="https://www.binance.com/en/trade/JUV_BUSD"/>
+    <hyperlink ref="A935" r:id="rId1799" display="https://www.coingecko.com/en/coins/streamr-datacoin"/>
+    <hyperlink ref="B935" r:id="rId1800" display="https://www.binance.com/en/trade/DATA_BUSD"/>
+    <hyperlink ref="A936" r:id="rId1801" display="https://www.coingecko.com/en/coins/numeraire"/>
+    <hyperlink ref="B936" r:id="rId1802" display="https://www.binance.com/en/trade/NMR_BNB"/>
+    <hyperlink ref="A937" r:id="rId1803" display="https://www.coingecko.com/en/coins/tron"/>
+    <hyperlink ref="B937" r:id="rId1804" display="https://www.binance.com/en/trade/TRX_PAX"/>
+    <hyperlink ref="A938" r:id="rId1805" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B938" r:id="rId1806" display="https://www.binance.com/en/trade/BUSD_ZAR"/>
+    <hyperlink ref="A939" r:id="rId1807" display="https://www.coingecko.com/en/coins/bittorrent"/>
+    <hyperlink ref="B939" r:id="rId1808" display="https://www.binance.com/en/trade/BTT_TUSD"/>
+    <hyperlink ref="A940" r:id="rId1809" display="https://www.coingecko.com/en/coins/ethereum"/>
+    <hyperlink ref="B940" r:id="rId1810" display="https://www.binance.com/en/trade/ETH_ZAR"/>
+    <hyperlink ref="A941" r:id="rId1811" display="https://www.coingecko.com/en/coins/litecoin"/>
+    <hyperlink ref="B941" r:id="rId1812" display="https://www.binance.com/en/trade/LTC_PAX"/>
+    <hyperlink ref="A942" r:id="rId1813" display="https://www.coingecko.com/en/coins/xrp"/>
+    <hyperlink ref="B942" r:id="rId1814" display="https://www.binance.com/en/trade/XRP_PAX"/>
+    <hyperlink ref="A943" r:id="rId1815" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B943" r:id="rId1816" display="https://www.binance.com/en/trade/USDT_BVND"/>
+    <hyperlink ref="A944" r:id="rId1817" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B944" r:id="rId1818" display="https://www.binance.com/en/trade/BUSD_BVND"/>
+    <hyperlink ref="A945" r:id="rId1819" display="https://www.coingecko.com/en/coins/bounce-old"/>
+    <hyperlink ref="B945" r:id="rId1820" display="https://www.binance.com/en/trade/BOT_BUSD"/>
+    <hyperlink ref="A946" r:id="rId1821" display="https://www.coingecko.com/en/coins/bounce-old"/>
+    <hyperlink ref="B946" r:id="rId1822" display="https://www.binance.com/en/trade/BOT_BTC"/>
+    <hyperlink ref="A947" r:id="rId1823" display="https://www.coingecko.com/en/coins/tether"/>
+    <hyperlink ref="B947" r:id="rId1824" display="https://www.binance.com/en/trade/USDT_BKRW"/>
+    <hyperlink ref="A948" r:id="rId1825" display="https://www.coingecko.com/en/coins/binance-usd"/>
+    <hyperlink ref="B948" r:id="rId1826" display="https://www.binance.com/en/trade/BUSD_IDRT"/>
+    <hyperlink ref="A949" r:id="rId1827" display="https://www.coingecko.com/en/coins/susd"/>
+    <hyperlink ref="B949" r:id="rId1828" display="https://www.binance.com/en/trade/SUSD_ETH"/>
+    <hyperlink ref="E128" r:id="rId1829"/>
+    <hyperlink ref="E293" r:id="rId1830"/>
+    <hyperlink ref="E659" r:id="rId1831"/>
+    <hyperlink ref="E739" r:id="rId1832"/>
+    <hyperlink ref="E32" r:id="rId1833"/>
+    <hyperlink ref="E138" r:id="rId1834"/>
+    <hyperlink ref="E363" r:id="rId1835"/>
+    <hyperlink ref="E51" r:id="rId1836"/>
+    <hyperlink ref="E172" r:id="rId1837"/>
+    <hyperlink ref="E369" r:id="rId1838"/>
+    <hyperlink ref="E600" r:id="rId1839"/>
+    <hyperlink ref="E641" r:id="rId1840"/>
+    <hyperlink ref="E229" r:id="rId1841"/>
+    <hyperlink ref="E531" r:id="rId1842"/>
+    <hyperlink ref="E41" r:id="rId1843"/>
+    <hyperlink ref="E134" r:id="rId1844"/>
+    <hyperlink ref="E187" r:id="rId1845"/>
+    <hyperlink ref="E492" r:id="rId1846"/>
+    <hyperlink ref="E789" r:id="rId1847"/>
+    <hyperlink ref="E748" r:id="rId1848"/>
+    <hyperlink ref="E819" r:id="rId1849"/>
+    <hyperlink ref="E636" r:id="rId1850"/>
+    <hyperlink ref="E192" r:id="rId1851"/>
+    <hyperlink ref="E305" r:id="rId1852"/>
+    <hyperlink ref="E621" r:id="rId1853"/>
+    <hyperlink ref="E690" r:id="rId1854"/>
+    <hyperlink ref="E284" r:id="rId1855"/>
+    <hyperlink ref="E563" r:id="rId1856"/>
+    <hyperlink ref="E55" r:id="rId1857"/>
+    <hyperlink ref="E162" r:id="rId1858"/>
+    <hyperlink ref="E373" r:id="rId1859"/>
+    <hyperlink ref="E737" r:id="rId1860"/>
+    <hyperlink ref="E831" r:id="rId1861"/>
+    <hyperlink ref="E37" r:id="rId1862"/>
+    <hyperlink ref="E147" r:id="rId1863"/>
+    <hyperlink ref="E325" r:id="rId1864"/>
+    <hyperlink ref="E374" r:id="rId1865"/>
+    <hyperlink ref="E674" r:id="rId1866"/>
+    <hyperlink ref="E64" r:id="rId1867"/>
+    <hyperlink ref="E174" r:id="rId1868"/>
+    <hyperlink ref="E480" r:id="rId1869"/>
+    <hyperlink ref="E820" r:id="rId1870"/>
+    <hyperlink ref="E383" r:id="rId1871"/>
+    <hyperlink ref="E573" r:id="rId1872"/>
+    <hyperlink ref="E661" r:id="rId1873"/>
+    <hyperlink ref="E783" r:id="rId1874"/>
+    <hyperlink ref="E565" r:id="rId1875"/>
+    <hyperlink ref="E586" r:id="rId1876"/>
+    <hyperlink ref="E306" r:id="rId1877"/>
+    <hyperlink ref="E479" r:id="rId1878"/>
+    <hyperlink ref="E540" r:id="rId1879"/>
+    <hyperlink ref="E838" r:id="rId1880"/>
+    <hyperlink ref="E675" r:id="rId1881"/>
+    <hyperlink ref="E726" r:id="rId1882"/>
+    <hyperlink ref="E733" r:id="rId1883"/>
+    <hyperlink ref="E906" r:id="rId1884"/>
+    <hyperlink ref="E420" r:id="rId1885"/>
+    <hyperlink ref="E473" r:id="rId1886"/>
+    <hyperlink ref="E827" r:id="rId1887"/>
+    <hyperlink ref="E409" r:id="rId1888"/>
+    <hyperlink ref="E429" r:id="rId1889"/>
+    <hyperlink ref="E780" r:id="rId1890"/>
+    <hyperlink ref="E52" r:id="rId1891"/>
+    <hyperlink ref="E190" r:id="rId1892"/>
+    <hyperlink ref="E299" r:id="rId1893"/>
+    <hyperlink ref="E375" r:id="rId1894"/>
+    <hyperlink ref="E550" r:id="rId1895"/>
+    <hyperlink ref="E332" r:id="rId1896"/>
+    <hyperlink ref="E629" r:id="rId1897"/>
+    <hyperlink ref="E870" r:id="rId1898"/>
+    <hyperlink ref="E915" r:id="rId1899"/>
+    <hyperlink ref="E266" r:id="rId1900"/>
+    <hyperlink ref="E632" r:id="rId1901"/>
+    <hyperlink ref="E637" r:id="rId1902"/>
+    <hyperlink ref="E95" r:id="rId1903"/>
+    <hyperlink ref="E205" r:id="rId1904"/>
+    <hyperlink ref="E424" r:id="rId1905"/>
+    <hyperlink ref="E570" r:id="rId1906"/>
+    <hyperlink ref="E750" r:id="rId1907"/>
+    <hyperlink ref="E900" r:id="rId1908"/>
+    <hyperlink ref="E61" r:id="rId1909"/>
+    <hyperlink ref="E245" r:id="rId1910"/>
+    <hyperlink ref="E387" r:id="rId1911"/>
+    <hyperlink ref="E131" r:id="rId1912"/>
+    <hyperlink ref="E200" r:id="rId1913"/>
+    <hyperlink ref="E275" r:id="rId1914"/>
+    <hyperlink ref="E665" r:id="rId1915"/>
+    <hyperlink ref="E756" r:id="rId1916"/>
+    <hyperlink ref="E198" r:id="rId1917"/>
+    <hyperlink ref="E251" r:id="rId1918"/>
+    <hyperlink ref="E762" r:id="rId1919"/>
+    <hyperlink ref="E824" r:id="rId1920"/>
+    <hyperlink ref="E118" r:id="rId1921"/>
+    <hyperlink ref="E279" r:id="rId1922"/>
+    <hyperlink ref="E736" r:id="rId1923"/>
+    <hyperlink ref="E757" r:id="rId1924"/>
+    <hyperlink ref="E153" r:id="rId1925"/>
+    <hyperlink ref="E248" r:id="rId1926"/>
+    <hyperlink ref="E567" r:id="rId1927"/>
+    <hyperlink ref="E855" r:id="rId1928"/>
+    <hyperlink ref="E899" r:id="rId1929"/>
+    <hyperlink ref="E929" r:id="rId1930"/>
+    <hyperlink ref="E541" r:id="rId1931"/>
+    <hyperlink ref="E667" r:id="rId1932"/>
+    <hyperlink ref="E267" r:id="rId1933"/>
+    <hyperlink ref="E514" r:id="rId1934"/>
+    <hyperlink ref="E826" r:id="rId1935"/>
+    <hyperlink ref="E864" r:id="rId1936"/>
+    <hyperlink ref="E3" r:id="rId1937"/>
+    <hyperlink ref="E10" r:id="rId1938"/>
+    <hyperlink ref="E15" r:id="rId1939"/>
+    <hyperlink ref="E38" r:id="rId1940"/>
+    <hyperlink ref="E81" r:id="rId1941"/>
+    <hyperlink ref="E136" r:id="rId1942"/>
+    <hyperlink ref="E169" r:id="rId1943"/>
+    <hyperlink ref="E210" r:id="rId1944"/>
+    <hyperlink ref="E278" r:id="rId1945"/>
+    <hyperlink ref="E287" r:id="rId1946"/>
+    <hyperlink ref="E317" r:id="rId1947"/>
+    <hyperlink ref="E366" r:id="rId1948"/>
+    <hyperlink ref="E451" r:id="rId1949"/>
+    <hyperlink ref="E537" r:id="rId1950"/>
+    <hyperlink ref="E702" r:id="rId1951"/>
+    <hyperlink ref="E854" r:id="rId1952"/>
+    <hyperlink ref="E908" r:id="rId1953"/>
+    <hyperlink ref="E337" r:id="rId1954"/>
+    <hyperlink ref="E7" r:id="rId1955"/>
+    <hyperlink ref="E206" r:id="rId1956"/>
+    <hyperlink ref="E304" r:id="rId1957"/>
+    <hyperlink ref="E444" r:id="rId1958"/>
+    <hyperlink ref="E512" r:id="rId1959"/>
+    <hyperlink ref="E794" r:id="rId1960"/>
+    <hyperlink ref="E858" r:id="rId1961"/>
+    <hyperlink ref="E938" r:id="rId1962"/>
+    <hyperlink ref="E944" r:id="rId1963"/>
+    <hyperlink ref="E948" r:id="rId1964"/>
+    <hyperlink ref="E27" r:id="rId1965"/>
+    <hyperlink ref="E84" r:id="rId1966"/>
+    <hyperlink ref="E234" r:id="rId1967"/>
+    <hyperlink ref="E577" r:id="rId1968"/>
+    <hyperlink ref="E591" r:id="rId1969"/>
+    <hyperlink ref="E638" r:id="rId1970"/>
+    <hyperlink ref="E921" r:id="rId1971"/>
+    <hyperlink ref="E932" r:id="rId1972"/>
+    <hyperlink ref="E807" r:id="rId1973"/>
+    <hyperlink ref="E608" r:id="rId1974"/>
+    <hyperlink ref="E394" r:id="rId1975"/>
+    <hyperlink ref="E426" r:id="rId1976"/>
+    <hyperlink ref="E578" r:id="rId1977"/>
+    <hyperlink ref="E125" r:id="rId1978"/>
+    <hyperlink ref="E642" r:id="rId1979"/>
+    <hyperlink ref="E686" r:id="rId1980"/>
+    <hyperlink ref="E744" r:id="rId1981"/>
+    <hyperlink ref="E925" r:id="rId1982"/>
+    <hyperlink ref="E939" r:id="rId1983"/>
+    <hyperlink ref="E777" r:id="rId1984"/>
+    <hyperlink ref="E920" r:id="rId1985"/>
+    <hyperlink ref="E163" r:id="rId1986"/>
+    <hyperlink ref="E344" r:id="rId1987"/>
+    <hyperlink ref="E752" r:id="rId1988"/>
+    <hyperlink ref="E810" r:id="rId1989"/>
+    <hyperlink ref="E188" r:id="rId1990"/>
+    <hyperlink ref="E239" r:id="rId1991"/>
+    <hyperlink ref="E945" r:id="rId1992"/>
+    <hyperlink ref="E946" r:id="rId1993"/>
+    <hyperlink ref="E476" r:id="rId1994"/>
+    <hyperlink ref="E797" r:id="rId1995"/>
+    <hyperlink ref="E78" r:id="rId1996"/>
+    <hyperlink ref="E243" r:id="rId1997"/>
+    <hyperlink ref="E300" r:id="rId1998"/>
+    <hyperlink ref="E367" r:id="rId1999"/>
+    <hyperlink ref="E258" r:id="rId2000"/>
+    <hyperlink ref="E525" r:id="rId2001"/>
+    <hyperlink ref="E707" r:id="rId2002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/coinlist.xlsx
+++ b/resources/coinlist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="1646">
   <si>
     <t> Bitcoin</t>
   </si>
@@ -4898,18 +4898,109 @@
   </si>
   <si>
     <t>https://s2.coinmarketcap.com/static/img/coins/64x64/5810.png</t>
+  </si>
+  <si>
+    <t>MANTRA DAO</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>omusdt</t>
+  </si>
+  <si>
+    <t>Stafi</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>fisbtc</t>
+  </si>
+  <si>
+    <t>fisbusd</t>
+  </si>
+  <si>
+    <t>fisusdt</t>
+  </si>
+  <si>
+    <t>Badger DAO</t>
+  </si>
+  <si>
+    <t>BADGER</t>
+  </si>
+  <si>
+    <t>badgerbtc</t>
+  </si>
+  <si>
+    <t>badgerbusd</t>
+  </si>
+  <si>
+    <t>badgerusdt</t>
+  </si>
+  <si>
+    <t>ombtc</t>
+  </si>
+  <si>
+    <t>ombusd</t>
+  </si>
+  <si>
+    <t>POND</t>
+  </si>
+  <si>
+    <t>Marlin</t>
+  </si>
+  <si>
+    <t>pondusdt</t>
+  </si>
+  <si>
+    <t>pondbtc</t>
+  </si>
+  <si>
+    <t>pondbusd</t>
+  </si>
+  <si>
+    <t>Dego Finance</t>
+  </si>
+  <si>
+    <t>DEGO</t>
+  </si>
+  <si>
+    <t>degousdt</t>
+  </si>
+  <si>
+    <t>degobtc</t>
+  </si>
+  <si>
+    <t>degobusd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4961,6 +5052,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5015,30 +5112,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5320,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E949"/>
+  <dimension ref="A1:E964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="D961" sqref="D961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5366,7 +5466,7 @@
       <c r="D2" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -5428,7 +5528,7 @@
       <c r="D6" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -5650,7 +5750,7 @@
       <c r="D21" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -5709,7 +5809,7 @@
       <c r="D25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -6428,7 +6528,7 @@
       <c r="D74" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -7191,7 +7291,7 @@
       <c r="D127" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -7475,7 +7575,7 @@
       <c r="D146" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -7509,7 +7609,7 @@
       <c r="D148" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -8565,7 +8665,7 @@
       <c r="D220" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E220" s="10" t="s">
+      <c r="E220" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -9051,7 +9151,7 @@
       <c r="D253" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="E253" s="10" t="s">
+      <c r="E253" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -9197,7 +9297,7 @@
       <c r="D263" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E263" s="10" t="s">
+      <c r="E263" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -11045,7 +11145,7 @@
       <c r="D389" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="E389" s="10" t="s">
+      <c r="E389" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -11533,7 +11633,7 @@
       <c r="D423" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="E423" s="10" t="s">
+      <c r="E423" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -11567,7 +11667,7 @@
       <c r="D425" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="E425" s="10" t="s">
+      <c r="E425" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -12198,7 +12298,7 @@
       <c r="D469" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="E469" s="10" t="s">
+      <c r="E469" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -14831,7 +14931,7 @@
       <c r="D650" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E650" s="10" t="s">
+      <c r="E650" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -17445,7 +17545,7 @@
       <c r="D829" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="E829" s="10" t="s">
+      <c r="E829" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -17762,7 +17862,7 @@
       <c r="D851" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="E851" s="10" t="s">
+      <c r="E851" s="11" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -19199,6 +19299,216 @@
       </c>
       <c r="D949" s="1" t="s">
         <v>1404</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A950" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B950" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A951" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B951" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A952" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B952" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A953" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B953" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A954" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B954" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A955" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B955" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A956" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B956" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A957" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B957" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A958" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B958" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A959" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B959" s="10" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A960" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B960" s="10" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B961" s="10" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A962" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B962" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A963" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B963" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A964" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B964" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>1645</v>
       </c>
     </row>
   </sheetData>
@@ -21208,5 +21518,6 @@
     <hyperlink ref="E707" r:id="rId2002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2003"/>
 </worksheet>
 </file>
--- a/resources/coinlist.xlsx
+++ b/resources/coinlist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="1646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4057" uniqueCount="1650">
   <si>
     <t> Bitcoin</t>
   </si>
@@ -4973,18 +4973,46 @@
   </si>
   <si>
     <t>degobusd</t>
+  </si>
+  <si>
+    <t>MyNeighborAlice</t>
+  </si>
+  <si>
+    <t>alicebusd</t>
+  </si>
+  <si>
+    <t>aliceusdt</t>
+  </si>
+  <si>
+    <t>ALICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5112,32 +5140,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -5420,10 +5450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E964"/>
+  <dimension ref="A1:E966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
-      <selection activeCell="D961" sqref="D961"/>
+    <sheetView tabSelected="1" topLeftCell="A945" workbookViewId="0">
+      <selection activeCell="B967" sqref="B967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19509,6 +19539,34 @@
       </c>
       <c r="D964" s="1" t="s">
         <v>1645</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B965" s="15" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B966" s="15" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>1648</v>
       </c>
     </row>
   </sheetData>

--- a/resources/coinlist.xlsx
+++ b/resources/coinlist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4057" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="1663">
   <si>
     <t> Bitcoin</t>
   </si>
@@ -4985,18 +4985,73 @@
   </si>
   <si>
     <t>ALICE</t>
+  </si>
+  <si>
+    <t>Beefy.Finance</t>
+  </si>
+  <si>
+    <t>BIFI</t>
+  </si>
+  <si>
+    <t>bifibnb</t>
+  </si>
+  <si>
+    <t>bifibusd</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>LINA</t>
+  </si>
+  <si>
+    <t>linabtc</t>
+  </si>
+  <si>
+    <t>linabusd</t>
+  </si>
+  <si>
+    <t>linausdt</t>
+  </si>
+  <si>
+    <t>TVK</t>
+  </si>
+  <si>
+    <t>Terra Virtua</t>
+  </si>
+  <si>
+    <t>tvkbtc</t>
+  </si>
+  <si>
+    <t>tvkbusd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5140,32 +5195,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5450,10 +5507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E966"/>
+  <dimension ref="A1:E973"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A945" workbookViewId="0">
-      <selection activeCell="B967" sqref="B967"/>
+      <selection activeCell="B973" sqref="B973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19567,6 +19624,104 @@
       </c>
       <c r="D966" s="1" t="s">
         <v>1648</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B967" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B968" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B969" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B970" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B971" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" s="17" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B972" s="17" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" s="17" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B973" s="17" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>1662</v>
       </c>
     </row>
   </sheetData>

--- a/resources/coinlist.xlsx
+++ b/resources/coinlist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="1692">
   <si>
     <t> Bitcoin</t>
   </si>
@@ -5024,18 +5024,113 @@
   </si>
   <si>
     <t>tvkbusd</t>
+  </si>
+  <si>
+    <t>PERP</t>
+  </si>
+  <si>
+    <t>Perpetual Protocol</t>
+  </si>
+  <si>
+    <t>perpbtc</t>
+  </si>
+  <si>
+    <t>perpbusd</t>
+  </si>
+  <si>
+    <t>perpusdt</t>
+  </si>
+  <si>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>rampbtc</t>
+  </si>
+  <si>
+    <t>rampbusd</t>
+  </si>
+  <si>
+    <t>rampusdt</t>
+  </si>
+  <si>
+    <t>SuperFarm</t>
+  </si>
+  <si>
+    <t>SUPER</t>
+  </si>
+  <si>
+    <t>superbtc</t>
+  </si>
+  <si>
+    <t>superbusd</t>
+  </si>
+  <si>
+    <t>superusdt</t>
+  </si>
+  <si>
+    <t>Conflux Network</t>
+  </si>
+  <si>
+    <t>CFX</t>
+  </si>
+  <si>
+    <t>cfxbtc</t>
+  </si>
+  <si>
+    <t>cfxbusd</t>
+  </si>
+  <si>
+    <t>cfxusdt</t>
+  </si>
+  <si>
+    <t>Ellipsis</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>epsbusd</t>
+  </si>
+  <si>
+    <t>epsusdt</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>autobtc</t>
+  </si>
+  <si>
+    <t>epsbtc</t>
+  </si>
+  <si>
+    <t>autobusd</t>
+  </si>
+  <si>
+    <t>autousdt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5195,37 +5290,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5507,10 +5604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E973"/>
+  <dimension ref="A1:E991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A945" workbookViewId="0">
-      <selection activeCell="B973" sqref="B973"/>
+    <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
+      <selection activeCell="B989" sqref="B989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19722,6 +19819,258 @@
       </c>
       <c r="D973" s="1" t="s">
         <v>1662</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" s="18" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B974" s="18" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" s="18" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B975" s="18" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" s="18" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B976" s="18" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" s="18" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B977" s="18" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" s="18" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B978" s="18" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" s="18" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B979" s="18" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A980" s="19" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B980" s="18" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A981" s="19" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B981" s="18" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A982" s="19" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B982" s="18" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B983" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B984" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B985" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" s="18" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B986" s="18" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" s="18" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B987" s="18" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" s="18" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B988" s="18" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B989" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B990" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B991" s="18" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
